--- a/VT_IE_SRV.xlsx
+++ b/VT_IE_SRV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D8E213-C386-430D-9816-6429C142C87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70678832-6CC4-415F-A8B0-BA241D09064D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2265" yWindow="-13515" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="83" r:id="rId1"/>
@@ -157,7 +157,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -4894,9 +4893,6 @@
     <t>Residential</t>
   </si>
   <si>
-    <t>HETD</t>
-  </si>
-  <si>
     <t>FX</t>
   </si>
   <si>
@@ -6424,6 +6420,9 @@
   </si>
   <si>
     <t>Specify base year data and define sector structure</t>
+  </si>
+  <si>
+    <t>CITY_DH,URBAN_1_DH,URBAN_2_DH,URBAN_3_DH</t>
   </si>
 </sst>
 </file>
@@ -9563,7 +9562,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="749">
+  <cellXfs count="750">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11726,6 +11725,7 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="128">
     <cellStyle name="20 % - Akzent1" xfId="49" hidden="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -11911,7 +11911,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{680CE8C4-1310-41B4-898E-A7B072846705}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11955,7 +11955,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54A74E83-D730-4BD9-B030-58B14C2AADBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12004,7 +12004,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D426A2F6-FF41-4A4F-BDC1-3FA9D32A3795}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12054,7 +12054,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B30D4FE5-BFFE-4AAD-86E5-33DBCDD82E50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12104,7 +12104,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AB8CA9B-F447-472D-9C24-4882858BBF0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12153,7 +12153,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5FE102-A01A-4EDE-871F-75EEE3ADB5A4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
@@ -12215,7 +12215,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{315DA818-A916-4684-B69C-3E63B0ACB012}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12333,7 +12333,7 @@
         <xdr:cNvPr id="4" name="Arrow: Bent-Up 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12398,7 +12398,7 @@
         <xdr:cNvPr id="2" name="Arrow: Down 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12767,7 +12767,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -13207,7 +13207,7 @@
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
       <c r="A16" s="729" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B16" s="729"/>
       <c r="C16" s="729"/>
@@ -13296,7 +13296,7 @@
         <v>74</v>
       </c>
       <c r="B19" s="728" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C19" s="728"/>
       <c r="D19" s="728"/>
@@ -13325,10 +13325,10 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1">
       <c r="A20" s="720" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B20" s="728" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C20" s="728"/>
       <c r="D20" s="728"/>
@@ -13357,10 +13357,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1">
       <c r="A21" s="720" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B21" s="723" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C21" s="723"/>
       <c r="D21" s="723"/>
@@ -13417,7 +13417,7 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1">
       <c r="A23" s="720" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B23" s="728"/>
       <c r="C23" s="728"/>
@@ -13503,10 +13503,10 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1">
       <c r="A26" s="720" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B26" s="728" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C26" s="728"/>
       <c r="D26" s="728"/>
@@ -13591,7 +13591,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1">
       <c r="A29" s="720" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B29" s="724">
         <v>1</v>
@@ -13623,10 +13623,10 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1">
       <c r="A30" s="720" t="s">
+        <v>607</v>
+      </c>
+      <c r="B30" s="730" t="s">
         <v>608</v>
-      </c>
-      <c r="B30" s="730" t="s">
-        <v>609</v>
       </c>
       <c r="C30" s="728"/>
       <c r="D30" s="728"/>
@@ -13655,10 +13655,10 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1">
       <c r="A31" s="720" t="s">
+        <v>609</v>
+      </c>
+      <c r="B31" s="728" t="s">
         <v>610</v>
-      </c>
-      <c r="B31" s="728" t="s">
-        <v>611</v>
       </c>
       <c r="C31" s="728"/>
       <c r="D31" s="728"/>
@@ -13688,7 +13688,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1">
       <c r="A32" s="726"/>
       <c r="B32" s="727" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C32" s="726"/>
       <c r="D32" s="726"/>
@@ -15654,7 +15654,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="23.25">
       <c r="B1" s="33" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C1" s="33"/>
     </row>
@@ -15709,7 +15709,7 @@
         <v>14</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N3" s="34" t="s">
         <v>4</v>
@@ -15733,25 +15733,25 @@
         <v>20</v>
       </c>
       <c r="V3" s="733" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W3" s="733" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X3" s="733" t="s">
         <v>81</v>
       </c>
       <c r="Y3" s="733" t="s">
+        <v>508</v>
+      </c>
+      <c r="Z3" s="733" t="s">
         <v>509</v>
       </c>
-      <c r="Z3" s="733" t="s">
+      <c r="AA3" s="733" t="s">
         <v>510</v>
       </c>
-      <c r="AA3" s="733" t="s">
+      <c r="AB3" s="733" t="s">
         <v>511</v>
-      </c>
-      <c r="AB3" s="733" t="s">
-        <v>512</v>
       </c>
       <c r="AC3" s="69" t="s">
         <v>77</v>
@@ -15791,7 +15791,7 @@
         <v>115</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N4" s="51" t="s">
         <v>116</v>
@@ -15825,7 +15825,7 @@
         <v>146</v>
       </c>
       <c r="AD4" s="76" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -15850,10 +15850,10 @@
         <v>138</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L5" s="661" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M5" s="57"/>
       <c r="N5" s="662"/>
@@ -16935,7 +16935,7 @@
       <c r="C17" s="53"/>
       <c r="D17" s="59"/>
       <c r="E17" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F17" s="651">
         <f>SUM(F7:F15)</f>
@@ -17079,7 +17079,7 @@
         <v>14</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N3" s="34" t="s">
         <v>4</v>
@@ -17103,25 +17103,25 @@
         <v>20</v>
       </c>
       <c r="V3" s="733" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W3" s="733" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X3" s="733" t="s">
         <v>81</v>
       </c>
       <c r="Y3" s="733" t="s">
+        <v>508</v>
+      </c>
+      <c r="Z3" s="733" t="s">
         <v>509</v>
       </c>
-      <c r="Z3" s="733" t="s">
+      <c r="AA3" s="733" t="s">
         <v>510</v>
       </c>
-      <c r="AA3" s="733" t="s">
+      <c r="AB3" s="733" t="s">
         <v>511</v>
-      </c>
-      <c r="AB3" s="733" t="s">
-        <v>512</v>
       </c>
       <c r="AC3" s="69" t="s">
         <v>77</v>
@@ -17161,7 +17161,7 @@
         <v>115</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N4" s="51" t="s">
         <v>116</v>
@@ -17195,7 +17195,7 @@
         <v>146</v>
       </c>
       <c r="AD4" s="76" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="25.5">
@@ -17207,10 +17207,10 @@
       <c r="D5" s="57"/>
       <c r="E5" s="57"/>
       <c r="F5" s="57" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G5" s="661" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H5" s="57" t="s">
         <v>132</v>
@@ -17219,10 +17219,10 @@
         <v>138</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="L5" s="661" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M5" s="57"/>
       <c r="N5" s="662"/>
@@ -17243,7 +17243,7 @@
         <v>46</v>
       </c>
       <c r="AD5" s="78" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -17885,7 +17885,7 @@
       <c r="C13" s="53"/>
       <c r="D13" s="59"/>
       <c r="E13" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F13" s="651">
         <f>SUM(F6:F11)</f>
@@ -17971,7 +17971,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="23.25">
       <c r="B1" s="33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C1" s="33"/>
     </row>
@@ -18026,7 +18026,7 @@
         <v>14</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N3" s="34" t="s">
         <v>4</v>
@@ -18050,25 +18050,25 @@
         <v>20</v>
       </c>
       <c r="V3" s="733" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W3" s="733" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X3" s="733" t="s">
         <v>81</v>
       </c>
       <c r="Y3" s="733" t="s">
+        <v>508</v>
+      </c>
+      <c r="Z3" s="733" t="s">
         <v>509</v>
       </c>
-      <c r="Z3" s="733" t="s">
+      <c r="AA3" s="733" t="s">
         <v>510</v>
       </c>
-      <c r="AA3" s="733" t="s">
+      <c r="AB3" s="733" t="s">
         <v>511</v>
-      </c>
-      <c r="AB3" s="733" t="s">
-        <v>512</v>
       </c>
       <c r="AC3" s="69" t="s">
         <v>77</v>
@@ -18108,7 +18108,7 @@
         <v>115</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N4" s="51" t="s">
         <v>116</v>
@@ -18142,7 +18142,7 @@
         <v>146</v>
       </c>
       <c r="AD4" s="76" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -18167,10 +18167,10 @@
         <v>138</v>
       </c>
       <c r="J5" s="661" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L5" s="661" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M5" s="57"/>
       <c r="N5" s="662"/>
@@ -18371,7 +18371,7 @@
         <v>Sodium vapor lamp</v>
       </c>
       <c r="Y7" s="53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Z7" s="53" t="str">
         <f>IF('Key Inputs'!E103="","",'Key Inputs'!E103)</f>
@@ -18472,7 +18472,7 @@
         <v>Mercury lamps</v>
       </c>
       <c r="Y8" s="53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Z8" s="53" t="str">
         <f>IF('Key Inputs'!E104="","",'Key Inputs'!E104)</f>
@@ -18573,7 +18573,7 @@
         <v>Others</v>
       </c>
       <c r="Y9" s="53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Z9" s="53" t="str">
         <f>IF('Key Inputs'!E105="","",'Key Inputs'!E105)</f>
@@ -18676,7 +18676,7 @@
         <v>LED</v>
       </c>
       <c r="Y10" s="53" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Z10" s="53" t="str">
         <f>IF('Key Inputs'!E106="","",'Key Inputs'!E106)</f>
@@ -18733,7 +18733,7 @@
       <c r="C12" s="53"/>
       <c r="D12" s="59"/>
       <c r="E12" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F12" s="651">
         <f>SUM(F6:F10)</f>
@@ -18770,7 +18770,7 @@
     </row>
     <row r="14" spans="1:30" ht="23.25">
       <c r="B14" s="67" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -18789,7 +18789,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="54" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C17" s="54" t="s">
         <v>147</v>
@@ -18872,7 +18872,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="23.25">
       <c r="B1" s="33" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C1" s="33"/>
     </row>
@@ -18909,7 +18909,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>87</v>
@@ -18927,7 +18927,7 @@
         <v>14</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N3" s="34" t="s">
         <v>4</v>
@@ -18951,25 +18951,25 @@
         <v>20</v>
       </c>
       <c r="V3" s="733" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="W3" s="733" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X3" s="733" t="s">
         <v>81</v>
       </c>
       <c r="Y3" s="733" t="s">
+        <v>508</v>
+      </c>
+      <c r="Z3" s="733" t="s">
         <v>509</v>
       </c>
-      <c r="Z3" s="733" t="s">
+      <c r="AA3" s="733" t="s">
         <v>510</v>
       </c>
-      <c r="AA3" s="733" t="s">
+      <c r="AB3" s="733" t="s">
         <v>511</v>
-      </c>
-      <c r="AB3" s="733" t="s">
-        <v>512</v>
       </c>
       <c r="AC3" s="69" t="s">
         <v>77</v>
@@ -18991,7 +18991,7 @@
         <v>127</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G4" s="54" t="s">
         <v>129</v>
@@ -19009,7 +19009,7 @@
         <v>115</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N4" s="51" t="s">
         <v>116</v>
@@ -19043,7 +19043,7 @@
         <v>146</v>
       </c>
       <c r="AD4" s="76" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -19059,7 +19059,7 @@
         <v>GW</v>
       </c>
       <c r="G5" s="661" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H5" s="57" t="s">
         <v>132</v>
@@ -19068,10 +19068,10 @@
         <v>138</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L5" s="661" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M5" s="57"/>
       <c r="N5" s="662"/>
@@ -19320,7 +19320,7 @@
       <c r="C9" s="53"/>
       <c r="D9" s="59"/>
       <c r="E9" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F9" s="651">
         <f>SUM(F6:F7)</f>
@@ -19350,7 +19350,7 @@
     </row>
     <row r="11" spans="1:30" ht="23.25">
       <c r="B11" s="67" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -19369,7 +19369,7 @@
     </row>
     <row r="14" spans="1:30">
       <c r="B14" s="54" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>147</v>
@@ -19607,7 +19607,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="705" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C17" s="708">
         <v>71.900000000000006</v>
@@ -19615,7 +19615,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="705" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C18" s="708">
         <v>74.099999999999994</v>
@@ -19623,7 +19623,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="710" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C19" s="704">
         <v>77.400000000000006</v>
@@ -19696,139 +19696,139 @@
   <sheetData>
     <row r="1" spans="1:45" ht="105.75" customHeight="1" thickBot="1">
       <c r="A1" s="127" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1" s="128" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="C1" s="129" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="D1" s="130" t="s">
         <v>191</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="E1" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="E1" s="131" t="s">
+      <c r="F1" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="132" t="s">
+      <c r="G1" s="132" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="132" t="s">
+      <c r="H1" s="133" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="133" t="s">
+      <c r="I1" s="130" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="130" t="s">
+      <c r="J1" s="131" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="131" t="s">
+      <c r="K1" s="131" t="s">
         <v>198</v>
       </c>
-      <c r="K1" s="131" t="s">
+      <c r="L1" s="133" t="s">
         <v>199</v>
       </c>
-      <c r="L1" s="133" t="s">
+      <c r="M1" s="130" t="s">
         <v>200</v>
       </c>
-      <c r="M1" s="130" t="s">
+      <c r="N1" s="130" t="s">
         <v>201</v>
       </c>
-      <c r="N1" s="130" t="s">
+      <c r="O1" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="O1" s="131" t="s">
+      <c r="P1" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="P1" s="131" t="s">
+      <c r="Q1" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="Q1" s="131" t="s">
+      <c r="R1" s="131" t="s">
         <v>205</v>
       </c>
-      <c r="R1" s="131" t="s">
+      <c r="S1" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="S1" s="131" t="s">
+      <c r="T1" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="T1" s="131" t="s">
+      <c r="U1" s="131" t="s">
         <v>208</v>
       </c>
-      <c r="U1" s="131" t="s">
+      <c r="V1" s="131" t="s">
         <v>209</v>
       </c>
-      <c r="V1" s="131" t="s">
+      <c r="W1" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="W1" s="132" t="s">
+      <c r="X1" s="132" t="s">
         <v>211</v>
       </c>
-      <c r="X1" s="132" t="s">
+      <c r="Y1" s="132" t="s">
         <v>212</v>
       </c>
-      <c r="Y1" s="132" t="s">
+      <c r="Z1" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="Z1" s="131" t="s">
+      <c r="AA1" s="133" t="s">
         <v>214</v>
       </c>
-      <c r="AA1" s="133" t="s">
+      <c r="AB1" s="134" t="s">
         <v>215</v>
       </c>
-      <c r="AB1" s="134" t="s">
+      <c r="AC1" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="AC1" s="135" t="s">
+      <c r="AD1" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="AD1" s="131" t="s">
+      <c r="AE1" s="131" t="s">
         <v>218</v>
       </c>
-      <c r="AE1" s="131" t="s">
+      <c r="AF1" s="131" t="s">
         <v>219</v>
       </c>
-      <c r="AF1" s="131" t="s">
+      <c r="AG1" s="131" t="s">
         <v>220</v>
       </c>
-      <c r="AG1" s="131" t="s">
+      <c r="AH1" s="131" t="s">
         <v>221</v>
       </c>
-      <c r="AH1" s="131" t="s">
+      <c r="AI1" s="131" t="s">
         <v>222</v>
       </c>
-      <c r="AI1" s="131" t="s">
+      <c r="AJ1" s="131" t="s">
         <v>223</v>
       </c>
-      <c r="AJ1" s="131" t="s">
+      <c r="AK1" s="131" t="s">
         <v>224</v>
       </c>
-      <c r="AK1" s="131" t="s">
+      <c r="AL1" s="131" t="s">
         <v>225</v>
       </c>
-      <c r="AL1" s="131" t="s">
+      <c r="AM1" s="132" t="s">
         <v>226</v>
       </c>
-      <c r="AM1" s="132" t="s">
+      <c r="AN1" s="133" t="s">
         <v>227</v>
       </c>
-      <c r="AN1" s="133" t="s">
+      <c r="AO1" s="133" t="s">
         <v>228</v>
       </c>
-      <c r="AO1" s="133" t="s">
+      <c r="AP1" s="134" t="s">
         <v>229</v>
       </c>
-      <c r="AP1" s="134" t="s">
+      <c r="AQ1" s="136" t="s">
         <v>230</v>
-      </c>
-      <c r="AQ1" s="136" t="s">
-        <v>231</v>
       </c>
       <c r="AS1" s="138"/>
     </row>
     <row r="2" spans="1:45" ht="12.75" customHeight="1">
       <c r="A2" s="139" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B2" s="140"/>
       <c r="C2" s="141">
@@ -19922,7 +19922,7 @@
     </row>
     <row r="3" spans="1:45" ht="12.75" customHeight="1">
       <c r="A3" s="155" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B3" s="156"/>
       <c r="C3" s="157">
@@ -20028,7 +20028,7 @@
     </row>
     <row r="4" spans="1:45" ht="12.75" customHeight="1">
       <c r="A4" s="155" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B4" s="156"/>
       <c r="C4" s="157">
@@ -20134,7 +20134,7 @@
     </row>
     <row r="5" spans="1:45" ht="12.75" customHeight="1">
       <c r="A5" s="155" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B5" s="156"/>
       <c r="C5" s="157">
@@ -20200,7 +20200,7 @@
     </row>
     <row r="6" spans="1:45" ht="12.75" customHeight="1" thickBot="1">
       <c r="A6" s="169" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="157">
@@ -20308,7 +20308,7 @@
     </row>
     <row r="7" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="180" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" s="181"/>
       <c r="C7" s="182">
@@ -20480,7 +20480,7 @@
     </row>
     <row r="8" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="191" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" s="192"/>
       <c r="C8" s="193">
@@ -20652,7 +20652,7 @@
     </row>
     <row r="9" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="180" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B9" s="181"/>
       <c r="C9" s="182">
@@ -20824,7 +20824,7 @@
     </row>
     <row r="10" spans="1:45" ht="12.75" customHeight="1">
       <c r="A10" s="204" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B10" s="205"/>
       <c r="C10" s="206">
@@ -20906,7 +20906,7 @@
     </row>
     <row r="11" spans="1:45" ht="12.75" customHeight="1">
       <c r="A11" s="155" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B11" s="156"/>
       <c r="C11" s="157">
@@ -20986,7 +20986,7 @@
     </row>
     <row r="12" spans="1:45" ht="12.75" customHeight="1">
       <c r="A12" s="155" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B12" s="156"/>
       <c r="C12" s="157"/>
@@ -21038,7 +21038,7 @@
     </row>
     <row r="13" spans="1:45" ht="12.75" customHeight="1">
       <c r="A13" s="155" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B13" s="156"/>
       <c r="C13" s="157">
@@ -21102,7 +21102,7 @@
     </row>
     <row r="14" spans="1:45" ht="12.75" customHeight="1">
       <c r="A14" s="216" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B14" s="217"/>
       <c r="C14" s="218">
@@ -21172,7 +21172,7 @@
     </row>
     <row r="15" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="227" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" s="228"/>
       <c r="C15" s="229">
@@ -21344,7 +21344,7 @@
     </row>
     <row r="16" spans="1:45" ht="12.75" customHeight="1">
       <c r="A16" s="204" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B16" s="205"/>
       <c r="C16" s="206">
@@ -21408,7 +21408,7 @@
     </row>
     <row r="17" spans="1:45" ht="12.75" customHeight="1">
       <c r="A17" s="155" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B17" s="156"/>
       <c r="C17" s="157">
@@ -21472,7 +21472,7 @@
     </row>
     <row r="18" spans="1:45" ht="12.75" customHeight="1">
       <c r="A18" s="155" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B18" s="156"/>
       <c r="C18" s="157"/>
@@ -21524,7 +21524,7 @@
     </row>
     <row r="19" spans="1:45" ht="12.75" customHeight="1">
       <c r="A19" s="155" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B19" s="156"/>
       <c r="C19" s="157"/>
@@ -21585,7 +21585,7 @@
     </row>
     <row r="20" spans="1:45" ht="12.75" customHeight="1">
       <c r="A20" s="216" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B20" s="217"/>
       <c r="C20" s="218"/>
@@ -21660,7 +21660,7 @@
     </row>
     <row r="21" spans="1:45" ht="12.75" customHeight="1">
       <c r="A21" s="240" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B21" s="241"/>
       <c r="C21" s="242">
@@ -21894,7 +21894,7 @@
     </row>
     <row r="23" spans="1:45" ht="12.75" customHeight="1">
       <c r="A23" s="256" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B23" s="228"/>
       <c r="C23" s="257"/>
@@ -21943,7 +21943,7 @@
     </row>
     <row r="24" spans="1:45" ht="12.75" customHeight="1" thickBot="1">
       <c r="A24" s="169" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="170"/>
       <c r="C24" s="266">
@@ -22023,7 +22023,7 @@
     </row>
     <row r="25" spans="1:45" ht="12.75" customHeight="1" thickBot="1">
       <c r="A25" s="227" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B25" s="228"/>
       <c r="C25" s="229">
@@ -22099,7 +22099,7 @@
     </row>
     <row r="26" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A26" s="269" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B26" s="270"/>
       <c r="C26" s="271">
@@ -22271,7 +22271,7 @@
     </row>
     <row r="27" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A27" s="180" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B27" s="181"/>
       <c r="C27" s="182">
@@ -22440,7 +22440,7 @@
     </row>
     <row r="28" spans="1:45" ht="12.75" customHeight="1" thickBot="1">
       <c r="A28" s="278" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B28" s="279"/>
       <c r="C28" s="280">
@@ -22513,7 +22513,7 @@
     </row>
     <row r="29" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A29" s="180" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B29" s="181"/>
       <c r="C29" s="182">
@@ -22685,7 +22685,7 @@
     </row>
     <row r="30" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A30" s="282" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B30" s="283"/>
       <c r="C30" s="284">
@@ -22842,10 +22842,10 @@
     </row>
     <row r="31" spans="1:45" ht="12.75" customHeight="1">
       <c r="A31" s="292" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="293" t="s">
         <v>257</v>
-      </c>
-      <c r="B31" s="293" t="s">
-        <v>258</v>
       </c>
       <c r="C31" s="294">
         <f t="shared" ref="C31:C43" si="18">SUM(D31:G31)</f>
@@ -22922,10 +22922,10 @@
     </row>
     <row r="32" spans="1:45" ht="12.75" customHeight="1">
       <c r="A32" s="302" t="s">
+        <v>258</v>
+      </c>
+      <c r="B32" s="303" t="s">
         <v>259</v>
-      </c>
-      <c r="B32" s="303" t="s">
-        <v>260</v>
       </c>
       <c r="C32" s="157">
         <f t="shared" si="18"/>
@@ -23008,10 +23008,10 @@
     </row>
     <row r="33" spans="1:45" ht="12.75" customHeight="1">
       <c r="A33" s="302" t="s">
+        <v>260</v>
+      </c>
+      <c r="B33" s="306" t="s">
         <v>261</v>
-      </c>
-      <c r="B33" s="306" t="s">
-        <v>262</v>
       </c>
       <c r="C33" s="157">
         <f t="shared" si="18"/>
@@ -23088,10 +23088,10 @@
     </row>
     <row r="34" spans="1:45" ht="12.75" customHeight="1">
       <c r="A34" s="302" t="s">
+        <v>262</v>
+      </c>
+      <c r="B34" s="306" t="s">
         <v>263</v>
-      </c>
-      <c r="B34" s="306" t="s">
-        <v>264</v>
       </c>
       <c r="C34" s="157">
         <f t="shared" si="18"/>
@@ -23170,10 +23170,10 @@
     </row>
     <row r="35" spans="1:45" ht="12.75" customHeight="1">
       <c r="A35" s="302" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" s="306" t="s">
         <v>265</v>
-      </c>
-      <c r="B35" s="306" t="s">
-        <v>266</v>
       </c>
       <c r="C35" s="157">
         <f t="shared" si="18"/>
@@ -23250,10 +23250,10 @@
     </row>
     <row r="36" spans="1:45" ht="12.75" customHeight="1">
       <c r="A36" s="302" t="s">
+        <v>266</v>
+      </c>
+      <c r="B36" s="306" t="s">
         <v>267</v>
-      </c>
-      <c r="B36" s="306" t="s">
-        <v>268</v>
       </c>
       <c r="C36" s="157">
         <f t="shared" si="18"/>
@@ -23332,10 +23332,10 @@
     </row>
     <row r="37" spans="1:45" ht="12.75" customHeight="1">
       <c r="A37" s="302" t="s">
+        <v>268</v>
+      </c>
+      <c r="B37" s="306" t="s">
         <v>269</v>
-      </c>
-      <c r="B37" s="306" t="s">
-        <v>270</v>
       </c>
       <c r="C37" s="157">
         <f t="shared" si="18"/>
@@ -23412,10 +23412,10 @@
     </row>
     <row r="38" spans="1:45" ht="12.75" customHeight="1">
       <c r="A38" s="302" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" s="306" t="s">
         <v>271</v>
-      </c>
-      <c r="B38" s="306" t="s">
-        <v>272</v>
       </c>
       <c r="C38" s="157">
         <f t="shared" si="18"/>
@@ -23498,10 +23498,10 @@
     </row>
     <row r="39" spans="1:45" ht="12.75" customHeight="1">
       <c r="A39" s="302" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39" s="306" t="s">
         <v>273</v>
-      </c>
-      <c r="B39" s="306" t="s">
-        <v>274</v>
       </c>
       <c r="C39" s="157">
         <f t="shared" si="18"/>
@@ -23578,10 +23578,10 @@
     </row>
     <row r="40" spans="1:45" ht="12.75" customHeight="1">
       <c r="A40" s="302" t="s">
+        <v>274</v>
+      </c>
+      <c r="B40" s="306" t="s">
         <v>275</v>
-      </c>
-      <c r="B40" s="306" t="s">
-        <v>276</v>
       </c>
       <c r="C40" s="157">
         <f t="shared" si="18"/>
@@ -23658,10 +23658,10 @@
     </row>
     <row r="41" spans="1:45" ht="12.75" customHeight="1">
       <c r="A41" s="302" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="306" t="s">
         <v>277</v>
-      </c>
-      <c r="B41" s="306" t="s">
-        <v>278</v>
       </c>
       <c r="C41" s="157">
         <f t="shared" si="18"/>
@@ -23738,10 +23738,10 @@
     </row>
     <row r="42" spans="1:45" ht="12.75" customHeight="1">
       <c r="A42" s="302" t="s">
+        <v>278</v>
+      </c>
+      <c r="B42" s="306" t="s">
         <v>279</v>
-      </c>
-      <c r="B42" s="306" t="s">
-        <v>280</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" si="18"/>
@@ -23818,10 +23818,10 @@
     </row>
     <row r="43" spans="1:45" ht="12.75" customHeight="1">
       <c r="A43" s="302" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" s="306" t="s">
         <v>281</v>
-      </c>
-      <c r="B43" s="306" t="s">
-        <v>282</v>
       </c>
       <c r="C43" s="157">
         <f t="shared" si="18"/>
@@ -23900,10 +23900,10 @@
     </row>
     <row r="44" spans="1:45" ht="12.75" customHeight="1">
       <c r="A44" s="308" t="s">
+        <v>282</v>
+      </c>
+      <c r="B44" s="309" t="s">
         <v>283</v>
-      </c>
-      <c r="B44" s="309" t="s">
-        <v>284</v>
       </c>
       <c r="C44" s="218">
         <f>SUM(D44:G44)</f>
@@ -23980,7 +23980,7 @@
     </row>
     <row r="45" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A45" s="227" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="228"/>
       <c r="C45" s="312">
@@ -24152,7 +24152,7 @@
     </row>
     <row r="46" spans="1:45" ht="12.75" customHeight="1">
       <c r="A46" s="320" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B46" s="205"/>
       <c r="C46" s="206">
@@ -24222,7 +24222,7 @@
     </row>
     <row r="47" spans="1:45" ht="12.75" customHeight="1">
       <c r="A47" s="292" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B47" s="322"/>
       <c r="C47" s="157">
@@ -24290,7 +24290,7 @@
     </row>
     <row r="48" spans="1:45" ht="12.75" customHeight="1">
       <c r="A48" s="302" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B48" s="156"/>
       <c r="C48" s="157">
@@ -24364,7 +24364,7 @@
     </row>
     <row r="49" spans="1:45" ht="12.75" customHeight="1">
       <c r="A49" s="302" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B49" s="156"/>
       <c r="C49" s="157">
@@ -24434,7 +24434,7 @@
     </row>
     <row r="50" spans="1:45" ht="12.75" customHeight="1">
       <c r="A50" s="302" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B50" s="156"/>
       <c r="C50" s="157">
@@ -24502,7 +24502,7 @@
     </row>
     <row r="51" spans="1:45" ht="12.75" customHeight="1">
       <c r="A51" s="302" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B51" s="156"/>
       <c r="C51" s="157">
@@ -24568,7 +24568,7 @@
     </row>
     <row r="52" spans="1:45" ht="12.75" customHeight="1">
       <c r="A52" s="302" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B52" s="306"/>
       <c r="C52" s="326">
@@ -24632,7 +24632,7 @@
     </row>
     <row r="53" spans="1:45" ht="12.75" customHeight="1">
       <c r="A53" s="302" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B53" s="306"/>
       <c r="C53" s="326">
@@ -24702,7 +24702,7 @@
     </row>
     <row r="54" spans="1:45" ht="12.75" customHeight="1">
       <c r="A54" s="155" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B54" s="156"/>
       <c r="C54" s="326">
@@ -24766,7 +24766,7 @@
     </row>
     <row r="55" spans="1:45" ht="12.75" customHeight="1">
       <c r="A55" s="216" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B55" s="217"/>
       <c r="C55" s="218">
@@ -24936,7 +24936,7 @@
     </row>
     <row r="57" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A57" s="335" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B57" s="336"/>
       <c r="C57" s="337">
@@ -25108,7 +25108,7 @@
     </row>
     <row r="58" spans="1:45" ht="12.75" customHeight="1">
       <c r="A58" s="335" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B58" s="336"/>
       <c r="C58" s="337">
@@ -25261,10 +25261,10 @@
     </row>
     <row r="59" spans="1:45" ht="12.75" customHeight="1">
       <c r="A59" s="345" t="s">
+        <v>297</v>
+      </c>
+      <c r="B59" s="346" t="s">
         <v>298</v>
-      </c>
-      <c r="B59" s="346" t="s">
-        <v>299</v>
       </c>
       <c r="C59" s="206">
         <f t="shared" si="27"/>
@@ -25349,10 +25349,10 @@
     </row>
     <row r="60" spans="1:45" ht="12.75" customHeight="1">
       <c r="A60" s="345" t="s">
+        <v>299</v>
+      </c>
+      <c r="B60" s="346" t="s">
         <v>300</v>
-      </c>
-      <c r="B60" s="346" t="s">
-        <v>301</v>
       </c>
       <c r="C60" s="157">
         <f t="shared" si="27"/>
@@ -25437,10 +25437,10 @@
     </row>
     <row r="61" spans="1:45" s="530" customFormat="1" ht="12.75" customHeight="1">
       <c r="A61" s="514" t="s">
+        <v>301</v>
+      </c>
+      <c r="B61" s="515" t="s">
         <v>302</v>
-      </c>
-      <c r="B61" s="515" t="s">
-        <v>303</v>
       </c>
       <c r="C61" s="516">
         <f t="shared" si="27"/>
@@ -25526,10 +25526,10 @@
     </row>
     <row r="62" spans="1:45" s="530" customFormat="1" ht="12.75" customHeight="1">
       <c r="A62" s="514" t="s">
+        <v>303</v>
+      </c>
+      <c r="B62" s="515" t="s">
         <v>304</v>
-      </c>
-      <c r="B62" s="515" t="s">
-        <v>305</v>
       </c>
       <c r="C62" s="516">
         <f t="shared" si="27"/>
@@ -25615,10 +25615,10 @@
     </row>
     <row r="63" spans="1:45" s="530" customFormat="1" ht="12.75" customHeight="1">
       <c r="A63" s="514" t="s">
+        <v>305</v>
+      </c>
+      <c r="B63" s="515" t="s">
         <v>306</v>
-      </c>
-      <c r="B63" s="515" t="s">
-        <v>307</v>
       </c>
       <c r="C63" s="516">
         <f t="shared" si="27"/>
@@ -25704,7 +25704,7 @@
     </row>
     <row r="64" spans="1:45" ht="12.75" customHeight="1">
       <c r="A64" s="363" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B64" s="364"/>
       <c r="C64" s="218">
@@ -25790,7 +25790,7 @@
     </row>
     <row r="65" spans="1:45" ht="12.75" customHeight="1">
       <c r="A65" s="335" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B65" s="336"/>
       <c r="C65" s="218">
@@ -25879,10 +25879,10 @@
     </row>
     <row r="66" spans="1:45" ht="12.75" customHeight="1">
       <c r="A66" s="372" t="s">
+        <v>309</v>
+      </c>
+      <c r="B66" s="373" t="s">
         <v>310</v>
-      </c>
-      <c r="B66" s="373" t="s">
-        <v>311</v>
       </c>
       <c r="C66" s="206">
         <f t="shared" ref="C66:C69" si="34">SUM(D66:G66)</f>
@@ -25963,7 +25963,7 @@
     </row>
     <row r="67" spans="1:45" ht="12.75" customHeight="1">
       <c r="A67" s="380" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B67" s="381">
         <v>84</v>
@@ -26131,10 +26131,10 @@
     </row>
     <row r="69" spans="1:45" ht="12.75" customHeight="1">
       <c r="A69" s="363" t="s">
+        <v>312</v>
+      </c>
+      <c r="B69" s="364" t="s">
         <v>313</v>
-      </c>
-      <c r="B69" s="364" t="s">
-        <v>314</v>
       </c>
       <c r="C69" s="326">
         <f t="shared" si="34"/>
@@ -26215,7 +26215,7 @@
     </row>
     <row r="70" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A70" s="240" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B70" s="241"/>
       <c r="C70" s="242">
@@ -26293,7 +26293,7 @@
     </row>
     <row r="71" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A71" s="397" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B71" s="217"/>
       <c r="C71" s="218">
@@ -26359,7 +26359,7 @@
     </row>
     <row r="72" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A72" s="269" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B72" s="270"/>
       <c r="C72" s="271">
@@ -26576,7 +26576,7 @@
     </row>
     <row r="74" spans="1:45" s="190" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="256" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B74" s="234"/>
       <c r="C74" s="234"/>
@@ -26621,7 +26621,7 @@
     </row>
     <row r="75" spans="1:45" ht="12.75" customHeight="1">
       <c r="A75" s="402" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B75" s="400"/>
       <c r="C75" s="400"/>
@@ -26668,7 +26668,7 @@
     </row>
     <row r="76" spans="1:45" ht="12.75" customHeight="1">
       <c r="A76" s="403" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B76" s="404"/>
       <c r="C76" s="400"/>
@@ -26715,7 +26715,7 @@
     </row>
     <row r="77" spans="1:45" ht="12.75" customHeight="1">
       <c r="A77" s="405" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B77" s="402"/>
       <c r="C77" s="400"/>
@@ -26762,7 +26762,7 @@
     </row>
     <row r="78" spans="1:45" ht="12.75" customHeight="1">
       <c r="A78" s="406" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B78" s="402"/>
       <c r="C78" s="400"/>
@@ -26809,7 +26809,7 @@
     </row>
     <row r="79" spans="1:45" ht="12.75" customHeight="1">
       <c r="A79" s="407" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B79" s="408"/>
       <c r="C79" s="408"/>
@@ -26831,7 +26831,7 @@
     </row>
     <row r="80" spans="1:45" ht="12.75" customHeight="1">
       <c r="A80" s="407" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B80" s="408"/>
       <c r="C80" s="408"/>
@@ -27073,7 +27073,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1">
       <c r="A1" s="740" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B1" s="740"/>
       <c r="C1" s="740"/>
@@ -27092,10 +27092,10 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="558" t="s">
+        <v>456</v>
+      </c>
+      <c r="B2" s="559" t="s">
         <v>457</v>
-      </c>
-      <c r="B2" s="559" t="s">
-        <v>458</v>
       </c>
       <c r="C2" s="558"/>
       <c r="D2" s="558"/>
@@ -27110,59 +27110,59 @@
       <c r="M2" s="558"/>
       <c r="N2" s="560"/>
       <c r="O2" s="561" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="33.75" customHeight="1">
       <c r="A3" s="562" t="s">
+        <v>459</v>
+      </c>
+      <c r="B3" s="563" t="s">
+        <v>453</v>
+      </c>
+      <c r="C3" s="563" t="s">
+        <v>452</v>
+      </c>
+      <c r="D3" s="563" t="s">
         <v>460</v>
       </c>
-      <c r="B3" s="563" t="s">
+      <c r="E3" s="563" t="s">
         <v>454</v>
       </c>
-      <c r="C3" s="563" t="s">
-        <v>453</v>
-      </c>
-      <c r="D3" s="563" t="s">
+      <c r="F3" s="563" t="s">
         <v>461</v>
       </c>
-      <c r="E3" s="563" t="s">
-        <v>455</v>
-      </c>
-      <c r="F3" s="563" t="s">
+      <c r="G3" s="563" t="s">
         <v>462</v>
       </c>
-      <c r="G3" s="563" t="s">
+      <c r="H3" s="563" t="s">
         <v>463</v>
       </c>
-      <c r="H3" s="563" t="s">
+      <c r="I3" s="563" t="s">
         <v>464</v>
       </c>
-      <c r="I3" s="563" t="s">
+      <c r="J3" s="563" t="s">
         <v>465</v>
       </c>
-      <c r="J3" s="563" t="s">
+      <c r="K3" s="563" t="s">
         <v>466</v>
       </c>
-      <c r="K3" s="563" t="s">
+      <c r="L3" s="563" t="s">
         <v>467</v>
       </c>
-      <c r="L3" s="563" t="s">
+      <c r="M3" s="563" t="s">
         <v>468</v>
-      </c>
-      <c r="M3" s="563" t="s">
-        <v>469</v>
       </c>
       <c r="N3" s="563" t="s">
         <v>65</v>
       </c>
       <c r="O3" s="563" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="564" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4" s="565">
         <v>435</v>
@@ -27209,7 +27209,7 @@
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="564" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B5" s="565">
         <v>362</v>
@@ -27256,7 +27256,7 @@
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="564" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B6" s="565">
         <v>265</v>
@@ -27303,7 +27303,7 @@
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="564" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B7" s="565">
         <v>224</v>
@@ -27350,7 +27350,7 @@
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="564" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B8" s="565">
         <v>284</v>
@@ -27397,7 +27397,7 @@
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="564" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B9" s="565">
         <v>324</v>
@@ -27444,7 +27444,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="564" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B10" s="565">
         <v>353</v>
@@ -27491,7 +27491,7 @@
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="564" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B11" s="565">
         <v>305</v>
@@ -27538,7 +27538,7 @@
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1">
       <c r="A12" s="564" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B12" s="565">
         <v>235</v>
@@ -27585,7 +27585,7 @@
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="564" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B13" s="565">
         <v>301</v>
@@ -27632,7 +27632,7 @@
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="564" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B14" s="565">
         <v>298</v>
@@ -27679,7 +27679,7 @@
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="564" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B15" s="565">
         <v>294</v>
@@ -27726,7 +27726,7 @@
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="564" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B16" s="565">
         <v>218</v>
@@ -27773,7 +27773,7 @@
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="564" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B17" s="565">
         <v>221</v>
@@ -27820,7 +27820,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="A18" s="564" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B18" s="565">
         <v>375</v>
@@ -27850,7 +27850,7 @@
         <v>132</v>
       </c>
       <c r="K18" s="567" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L18" s="565">
         <v>736</v>
@@ -27867,7 +27867,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="564" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B19" s="565">
         <v>289</v>
@@ -27914,7 +27914,7 @@
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="564" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B20" s="565">
         <v>265</v>
@@ -27961,7 +27961,7 @@
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="564" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B21" s="565">
         <v>253</v>
@@ -28008,7 +28008,7 @@
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="564" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B22" s="565">
         <v>287</v>
@@ -28055,7 +28055,7 @@
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="564" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B23" s="565">
         <v>293</v>
@@ -28102,7 +28102,7 @@
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="564" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B24" s="565">
         <v>268</v>
@@ -28149,7 +28149,7 @@
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="564" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B25" s="565">
         <v>618</v>
@@ -28196,7 +28196,7 @@
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="564" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B26" s="565">
         <v>285</v>
@@ -28243,7 +28243,7 @@
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1">
       <c r="A27" s="564" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B27" s="565">
         <v>287</v>
@@ -28290,7 +28290,7 @@
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1">
       <c r="A28" s="564" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B28" s="565">
         <v>233</v>
@@ -28314,7 +28314,7 @@
         <v>878</v>
       </c>
       <c r="I28" s="567" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J28" s="565">
         <v>396</v>
@@ -28326,7 +28326,7 @@
         <v>1298</v>
       </c>
       <c r="M28" s="567" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N28" s="565">
         <v>55</v>
@@ -28337,7 +28337,7 @@
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1">
       <c r="A29" s="564" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B29" s="565">
         <v>261</v>
@@ -28384,7 +28384,7 @@
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1">
       <c r="A30" s="564" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B30" s="565">
         <v>278</v>
@@ -28431,7 +28431,7 @@
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1">
       <c r="A31" s="564" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B31" s="565">
         <v>317</v>
@@ -28478,7 +28478,7 @@
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1">
       <c r="A32" s="564" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B32" s="565">
         <v>227</v>
@@ -28525,7 +28525,7 @@
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1">
       <c r="A33" s="564" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B33" s="565">
         <v>249</v>
@@ -28572,7 +28572,7 @@
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="A34" s="564" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B34" s="565">
         <v>308</v>
@@ -28683,7 +28683,7 @@
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1">
       <c r="A37" s="742" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B37" s="742"/>
       <c r="C37" s="742"/>
@@ -28702,7 +28702,7 @@
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
       <c r="A40" s="740" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B40" s="740"/>
       <c r="C40" s="740"/>
@@ -28721,7 +28721,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1">
       <c r="A41" s="743" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B41" s="743"/>
       <c r="C41" s="743"/>
@@ -28729,31 +28729,31 @@
       <c r="E41" s="743"/>
       <c r="F41" s="743"/>
       <c r="G41" s="611" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="A42" s="744" t="s">
+        <v>495</v>
+      </c>
+      <c r="B42" s="746" t="s">
         <v>496</v>
-      </c>
-      <c r="B42" s="746" t="s">
-        <v>497</v>
       </c>
       <c r="C42" s="746"/>
       <c r="D42" s="746"/>
       <c r="E42" s="746"/>
       <c r="F42" s="746"/>
       <c r="G42" s="747" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1">
       <c r="A43" s="745"/>
       <c r="B43" s="612" t="s">
+        <v>497</v>
+      </c>
+      <c r="C43" s="612" t="s">
         <v>498</v>
-      </c>
-      <c r="C43" s="612" t="s">
-        <v>499</v>
       </c>
       <c r="D43" s="612" t="s">
         <v>1</v>
@@ -28768,7 +28768,7 @@
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="613" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B44" s="614">
         <v>17</v>
@@ -28791,7 +28791,7 @@
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1">
       <c r="A45" s="613" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B45" s="614">
         <v>31</v>
@@ -28814,7 +28814,7 @@
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1">
       <c r="A46" s="613" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B46" s="614">
         <v>28</v>
@@ -28837,7 +28837,7 @@
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1">
       <c r="A47" s="613" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B47" s="614">
         <v>46</v>
@@ -28860,7 +28860,7 @@
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1">
       <c r="A48" s="613" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B48" s="614">
         <v>32</v>
@@ -28883,7 +28883,7 @@
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1">
       <c r="A49" s="613" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B49" s="614">
         <v>27</v>
@@ -28906,7 +28906,7 @@
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1">
       <c r="A50" s="613" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B50" s="614">
         <v>30</v>
@@ -28929,7 +28929,7 @@
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1">
       <c r="A51" s="613" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B51" s="614">
         <v>31</v>
@@ -28952,7 +28952,7 @@
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1">
       <c r="A52" s="613" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B52" s="614">
         <v>37</v>
@@ -28975,7 +28975,7 @@
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1">
       <c r="A53" s="613" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B53" s="614">
         <v>40</v>
@@ -28998,7 +28998,7 @@
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1">
       <c r="A54" s="613" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B54" s="614">
         <v>42</v>
@@ -29021,7 +29021,7 @@
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1">
       <c r="A55" s="613" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B55" s="614">
         <v>41</v>
@@ -29100,20 +29100,20 @@
     <row r="64" spans="1:7" ht="15" customHeight="1">
       <c r="A64" s="737"/>
       <c r="B64" s="735" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C64" s="735" t="s">
         <v>80</v>
       </c>
       <c r="D64" s="739" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E64" s="739"/>
       <c r="F64" s="735" t="s">
         <v>33</v>
       </c>
       <c r="G64" s="735" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1">
@@ -29124,14 +29124,14 @@
         <v>33</v>
       </c>
       <c r="E65" s="508" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F65" s="736"/>
       <c r="G65" s="736"/>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1">
       <c r="A66" s="116" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B66" s="623">
         <f t="shared" ref="B66:B78" si="0">G44*SUMIFS($B$36:$O$36,$B$3:$O$3,$A44)/10^6</f>
@@ -29158,7 +29158,7 @@
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1">
       <c r="A67" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B67" s="623">
         <f t="shared" si="0"/>
@@ -29185,7 +29185,7 @@
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1">
       <c r="A68" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B68" s="623">
         <f t="shared" si="0"/>
@@ -29212,7 +29212,7 @@
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1">
       <c r="A69" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B69" s="623">
         <f t="shared" si="0"/>
@@ -29239,7 +29239,7 @@
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1">
       <c r="A70" s="25" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B70" s="623">
         <f t="shared" si="0"/>
@@ -29266,7 +29266,7 @@
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1">
       <c r="A71" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B71" s="623">
         <f t="shared" si="0"/>
@@ -29293,7 +29293,7 @@
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1">
       <c r="A72" s="25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B72" s="623">
         <f t="shared" si="0"/>
@@ -29320,7 +29320,7 @@
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1">
       <c r="A73" s="25" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B73" s="623">
         <f t="shared" si="0"/>
@@ -29347,7 +29347,7 @@
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1">
       <c r="A74" s="25" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B74" s="623">
         <f t="shared" si="0"/>
@@ -29374,7 +29374,7 @@
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1">
       <c r="A75" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B75" s="623">
         <f t="shared" si="0"/>
@@ -29401,7 +29401,7 @@
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1">
       <c r="A76" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B76" s="623">
         <f t="shared" si="0"/>
@@ -29428,7 +29428,7 @@
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1">
       <c r="A77" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B77" s="623">
         <f t="shared" si="0"/>
@@ -29567,49 +29567,49 @@
         <v>152</v>
       </c>
       <c r="B1" s="535" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="535" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B2" s="536" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="B5" s="537" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G5" s="537" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="B6" s="538"/>
       <c r="C6" s="538" t="s">
+        <v>421</v>
+      </c>
+      <c r="D6" s="538" t="s">
         <v>422</v>
       </c>
-      <c r="D6" s="538" t="s">
+      <c r="E6" s="539" t="s">
         <v>423</v>
       </c>
-      <c r="E6" s="539" t="s">
+      <c r="G6" s="538" t="s">
         <v>424</v>
       </c>
-      <c r="G6" s="538" t="s">
+      <c r="H6" s="538" t="s">
         <v>425</v>
       </c>
-      <c r="H6" s="538" t="s">
+      <c r="I6" s="538" t="s">
         <v>426</v>
-      </c>
-      <c r="I6" s="538" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="538" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C7" s="538">
         <v>225</v>
@@ -29635,7 +29635,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="538" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C8" s="538">
         <v>870</v>
@@ -29661,7 +29661,7 @@
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="B9" s="541" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C9" s="538">
         <v>496</v>
@@ -29713,7 +29713,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="538" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C11" s="538">
         <v>199</v>
@@ -29739,7 +29739,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="538" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C12" s="540">
         <v>1768</v>
@@ -29765,7 +29765,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="538" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C13" s="538">
         <v>238</v>
@@ -29791,7 +29791,7 @@
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="B14" s="541" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C14" s="538">
         <v>347</v>
@@ -29894,19 +29894,19 @@
     </row>
     <row r="23" spans="2:9" ht="15">
       <c r="B23" s="544" t="s">
+        <v>434</v>
+      </c>
+      <c r="C23" s="538" t="s">
         <v>435</v>
-      </c>
-      <c r="C23" s="538" t="s">
-        <v>436</v>
       </c>
       <c r="D23" s="538" t="s">
         <v>132</v>
       </c>
       <c r="G23" s="544" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H23" s="538" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I23" s="538" t="s">
         <v>132</v>
@@ -29914,7 +29914,7 @@
     </row>
     <row r="24" spans="2:9" ht="15">
       <c r="B24" s="538" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C24" s="538">
         <v>609</v>
@@ -29924,7 +29924,7 @@
         <v>0.12370505789152955</v>
       </c>
       <c r="G24" s="538" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H24" s="538">
         <v>539</v>
@@ -29936,7 +29936,7 @@
     </row>
     <row r="25" spans="2:9" ht="15">
       <c r="B25" s="538" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C25" s="538">
         <v>775</v>
@@ -29946,7 +29946,7 @@
         <v>0.15742433475523054</v>
       </c>
       <c r="G25" s="538" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H25" s="538">
         <v>461</v>
@@ -29958,7 +29958,7 @@
     </row>
     <row r="26" spans="2:9" ht="15">
       <c r="B26" s="538" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C26" s="538">
         <v>773</v>
@@ -29968,7 +29968,7 @@
         <v>0.15701807840747511</v>
       </c>
       <c r="G26" s="538" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H26" s="538">
         <v>309</v>
@@ -29980,7 +29980,7 @@
     </row>
     <row r="27" spans="2:9" ht="15">
       <c r="B27" s="538" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C27" s="538">
         <v>454</v>
@@ -29990,7 +29990,7 @@
         <v>9.2220190940483449E-2</v>
       </c>
       <c r="G27" s="538" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H27" s="538">
         <v>216</v>
@@ -30002,7 +30002,7 @@
     </row>
     <row r="28" spans="2:9" ht="15">
       <c r="B28" s="538" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C28" s="538">
         <v>883</v>
@@ -30012,7 +30012,7 @@
         <v>0.17936217753402398</v>
       </c>
       <c r="G28" s="538" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H28" s="538">
         <v>128</v>
@@ -30034,7 +30034,7 @@
         <v>8.1657525898842176E-2</v>
       </c>
       <c r="G29" s="541" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H29" s="538">
         <v>50</v>
@@ -30046,7 +30046,7 @@
     </row>
     <row r="30" spans="2:9" ht="15">
       <c r="B30" s="538" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C30" s="548">
         <v>356</v>
@@ -30068,7 +30068,7 @@
     </row>
     <row r="31" spans="2:9" ht="15">
       <c r="B31" s="538" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C31" s="538">
         <v>178</v>
@@ -30078,7 +30078,7 @@
         <v>3.6156814950233596E-2</v>
       </c>
       <c r="G31" s="538" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H31" s="538">
         <v>10</v>
@@ -30100,7 +30100,7 @@
         <v>2.9859841560024376E-2</v>
       </c>
       <c r="G32" s="541" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H32" s="538">
         <v>3</v>
@@ -30112,7 +30112,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="538" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C33" s="538">
         <v>346</v>
@@ -30143,7 +30143,7 @@
     </row>
     <row r="36" spans="2:9" ht="15">
       <c r="B36" s="535" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C36" s="535">
         <f>SUM(C24:C27)</f>
@@ -30223,10 +30223,10 @@
         <v>97</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -30237,7 +30237,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -30266,26 +30266,26 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="699" t="s">
+        <v>576</v>
+      </c>
+      <c r="B9" s="701" t="s">
         <v>577</v>
-      </c>
-      <c r="B9" s="701" t="s">
-        <v>578</v>
       </c>
       <c r="C9" s="702"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="700" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B10" s="701" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C10" s="702"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="693"/>
       <c r="B11" s="701" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C11" s="702"/>
     </row>
@@ -30306,14 +30306,14 @@
     <row r="15" spans="1:3">
       <c r="A15" s="698"/>
       <c r="B15" s="38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C15" s="39"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="697"/>
       <c r="B16" s="38" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C16" s="39"/>
     </row>
@@ -30324,34 +30324,34 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="695" t="s">
+        <v>547</v>
+      </c>
+      <c r="B19" s="695" t="s">
         <v>548</v>
       </c>
-      <c r="B19" s="695" t="s">
+      <c r="C19" s="695" t="s">
         <v>549</v>
-      </c>
-      <c r="C19" s="695" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="694" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B20" s="554"/>
       <c r="C20" s="554"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
@@ -30360,7 +30360,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -30385,7 +30385,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
@@ -30394,41 +30394,41 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="12" t="s">
@@ -30437,16 +30437,16 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12" t="s">
@@ -30455,7 +30455,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="40" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B34" s="40"/>
       <c r="C34" s="40" t="s">
@@ -30464,7 +30464,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -30475,7 +30475,7 @@
         <v>52</v>
       </c>
       <c r="C36" s="12" t="str">
-        <f>$C$4&amp;B36</f>
+        <f t="shared" ref="C36:C51" si="0">$C$4&amp;B36</f>
         <v>SRVCOA</v>
       </c>
     </row>
@@ -30487,7 +30487,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="12" t="str">
-        <f>$C$4&amp;B37</f>
+        <f t="shared" si="0"/>
         <v>SRVLPG</v>
       </c>
     </row>
@@ -30499,7 +30499,7 @@
         <v>50</v>
       </c>
       <c r="C38" s="12" t="str">
-        <f>$C$4&amp;B38</f>
+        <f t="shared" si="0"/>
         <v>SRVOIL</v>
       </c>
     </row>
@@ -30511,19 +30511,19 @@
         <v>48</v>
       </c>
       <c r="C39" s="12" t="str">
-        <f>$C$4&amp;B39</f>
+        <f t="shared" si="0"/>
         <v>SRVGAS</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C40" s="12" t="str">
-        <f>$C$4&amp;B40</f>
+        <f t="shared" si="0"/>
         <v>SRVBIO</v>
       </c>
     </row>
@@ -30535,7 +30535,7 @@
         <v>102</v>
       </c>
       <c r="C41" s="12" t="str">
-        <f>$C$4&amp;B41</f>
+        <f t="shared" si="0"/>
         <v>SRVBGS</v>
       </c>
     </row>
@@ -30547,7 +30547,7 @@
         <v>53</v>
       </c>
       <c r="C42" s="12" t="str">
-        <f>$C$4&amp;B42</f>
+        <f t="shared" si="0"/>
         <v>SRVSOL</v>
       </c>
     </row>
@@ -30559,43 +30559,43 @@
         <v>47</v>
       </c>
       <c r="C43" s="12" t="str">
-        <f>$C$4&amp;B43</f>
+        <f t="shared" si="0"/>
         <v>SRVELC</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C44" s="12" t="str">
-        <f>$C$4&amp;B44</f>
+        <f t="shared" si="0"/>
         <v>SRVAHT</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>601</v>
-      </c>
       <c r="C45" s="12" t="str">
-        <f>$C$4&amp;B45</f>
+        <f t="shared" si="0"/>
         <v>SRVAHT2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C46" s="12" t="str">
-        <f>$C$4&amp;B46</f>
+        <f t="shared" si="0"/>
         <v>SRVHET</v>
       </c>
     </row>
@@ -30607,31 +30607,31 @@
         <v>105</v>
       </c>
       <c r="C47" s="12" t="str">
-        <f>$C$4&amp;B47</f>
+        <f t="shared" si="0"/>
         <v>SRVWIN</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="12" customFormat="1">
       <c r="A48" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C48" s="12" t="str">
-        <f>$C$4&amp;B48</f>
+        <f t="shared" si="0"/>
         <v>SRVH2G</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="12" customFormat="1">
       <c r="A49" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>570</v>
-      </c>
       <c r="C49" s="12" t="str">
-        <f>$C$4&amp;B49</f>
+        <f t="shared" si="0"/>
         <v>SRVH2L</v>
       </c>
     </row>
@@ -30643,25 +30643,25 @@
         <v>103</v>
       </c>
       <c r="C50" s="12" t="str">
-        <f>$C$4&amp;B50</f>
+        <f t="shared" si="0"/>
         <v>SRVBDL</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="14" t="s">
+        <v>571</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>572</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>573</v>
-      </c>
       <c r="C51" s="14" t="str">
-        <f>$C$4&amp;B51</f>
+        <f t="shared" si="0"/>
         <v>SRVETH</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="21">
       <c r="A53" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B53" s="6"/>
     </row>
@@ -30681,19 +30681,19 @@
         <v>108</v>
       </c>
       <c r="B55" s="90" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="18"/>
       <c r="B56" s="578" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -30701,10 +30701,10 @@
         <v>109</v>
       </c>
       <c r="B57" s="90" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="43" t="s">
         <v>180</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -30721,19 +30721,19 @@
         <v>110</v>
       </c>
       <c r="B59" s="90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30">
       <c r="A60" s="46"/>
       <c r="B60" s="122" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60" s="122" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -30741,7 +30741,7 @@
         <v>112</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>113</v>
@@ -30749,12 +30749,12 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="554" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B65" s="555">
         <v>4.1868000000000002E-2</v>
@@ -30762,7 +30762,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="14" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B66" s="553">
         <f>3.6*10^-3</f>
@@ -30940,13 +30940,13 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="411" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" s="414" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="414" t="s">
         <v>325</v>
-      </c>
-      <c r="C5" s="414" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="414" t="s">
-        <v>326</v>
       </c>
       <c r="E5" s="413" t="str">
         <f>A11</f>
@@ -31055,7 +31055,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="411" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C6" s="413" t="str">
         <f>C5</f>
@@ -31172,7 +31172,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="411" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C7" s="413" t="str">
         <f>"*"&amp;C5</f>
@@ -31289,223 +31289,223 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" thickBot="1">
       <c r="A10" s="415" t="s">
+        <v>328</v>
+      </c>
+      <c r="B10" s="415" t="s">
         <v>329</v>
-      </c>
-      <c r="B10" s="415" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="416" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="416" t="s">
         <v>331</v>
-      </c>
-      <c r="B11" s="416" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="417" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="417" t="s">
         <v>333</v>
-      </c>
-      <c r="B12" s="417" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="417" t="s">
+        <v>334</v>
+      </c>
+      <c r="B13" s="417" t="s">
         <v>335</v>
-      </c>
-      <c r="B13" s="417" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="417" t="s">
+        <v>336</v>
+      </c>
+      <c r="B14" s="417" t="s">
         <v>337</v>
-      </c>
-      <c r="B14" s="417" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="417" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="417" t="s">
         <v>339</v>
-      </c>
-      <c r="B15" s="417" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="417" t="s">
+        <v>340</v>
+      </c>
+      <c r="B16" s="417" t="s">
         <v>341</v>
-      </c>
-      <c r="B16" s="417" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="417" t="s">
+        <v>342</v>
+      </c>
+      <c r="B17" s="417" t="s">
         <v>343</v>
-      </c>
-      <c r="B17" s="417" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="417" t="s">
+        <v>344</v>
+      </c>
+      <c r="B18" s="417" t="s">
         <v>345</v>
-      </c>
-      <c r="B18" s="417" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="417" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" s="417" t="s">
         <v>347</v>
-      </c>
-      <c r="B19" s="417" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="417" t="s">
+        <v>348</v>
+      </c>
+      <c r="B20" s="417" t="s">
         <v>349</v>
-      </c>
-      <c r="B20" s="417" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="417" t="s">
+        <v>350</v>
+      </c>
+      <c r="B21" s="417" t="s">
         <v>351</v>
-      </c>
-      <c r="B21" s="417" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="417" t="s">
+        <v>352</v>
+      </c>
+      <c r="B22" s="417" t="s">
         <v>353</v>
-      </c>
-      <c r="B22" s="417" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="417" t="s">
+        <v>354</v>
+      </c>
+      <c r="B23" s="417" t="s">
         <v>355</v>
-      </c>
-      <c r="B23" s="417" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="417" t="s">
+        <v>356</v>
+      </c>
+      <c r="B24" s="417" t="s">
         <v>357</v>
-      </c>
-      <c r="B24" s="417" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="417" t="s">
+        <v>358</v>
+      </c>
+      <c r="B25" s="417" t="s">
         <v>359</v>
-      </c>
-      <c r="B25" s="417" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="417" t="s">
+        <v>360</v>
+      </c>
+      <c r="B26" s="417" t="s">
         <v>361</v>
-      </c>
-      <c r="B26" s="417" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="417" t="s">
+        <v>362</v>
+      </c>
+      <c r="B27" s="417" t="s">
         <v>363</v>
-      </c>
-      <c r="B27" s="417" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="417" t="s">
+        <v>364</v>
+      </c>
+      <c r="B28" s="417" t="s">
         <v>365</v>
-      </c>
-      <c r="B28" s="417" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="417" t="s">
+        <v>366</v>
+      </c>
+      <c r="B29" s="417" t="s">
         <v>367</v>
-      </c>
-      <c r="B29" s="417" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="417" t="s">
+        <v>368</v>
+      </c>
+      <c r="B30" s="417" t="s">
         <v>369</v>
-      </c>
-      <c r="B30" s="417" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="417" t="s">
+        <v>370</v>
+      </c>
+      <c r="B31" s="417" t="s">
         <v>371</v>
-      </c>
-      <c r="B31" s="417" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="417" t="s">
+        <v>372</v>
+      </c>
+      <c r="B32" s="417" t="s">
         <v>373</v>
-      </c>
-      <c r="B32" s="417" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="417" t="s">
+        <v>374</v>
+      </c>
+      <c r="B33" s="417" t="s">
         <v>375</v>
-      </c>
-      <c r="B33" s="417" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="417" t="s">
+        <v>376</v>
+      </c>
+      <c r="B34" s="417" t="s">
         <v>377</v>
-      </c>
-      <c r="B34" s="417" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="417" t="s">
+        <v>378</v>
+      </c>
+      <c r="B35" s="417" t="s">
         <v>379</v>
-      </c>
-      <c r="B35" s="417" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="417" t="s">
+        <v>380</v>
+      </c>
+      <c r="B36" s="417" t="s">
         <v>381</v>
-      </c>
-      <c r="B36" s="417" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="418" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -31566,17 +31566,17 @@
   <sheetData>
     <row r="1" spans="1:44" ht="23.25">
       <c r="B1" s="16" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:44" customFormat="1"/>
     <row r="3" spans="1:44" s="423" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="451"/>
       <c r="B3" s="8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D3" s="419"/>
       <c r="E3" s="419"/>
@@ -31624,127 +31624,127 @@
       <c r="B4" s="424"/>
       <c r="C4" s="424"/>
       <c r="D4" s="425" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="425" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="425" t="s">
+      <c r="F4" s="425" t="s">
         <v>192</v>
       </c>
-      <c r="F4" s="425" t="s">
+      <c r="G4" s="425" t="s">
         <v>193</v>
       </c>
-      <c r="G4" s="425" t="s">
+      <c r="H4" s="425" t="s">
         <v>194</v>
       </c>
-      <c r="H4" s="425" t="s">
+      <c r="I4" s="425" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="425" t="s">
+      <c r="J4" s="425" t="s">
         <v>196</v>
       </c>
-      <c r="J4" s="425" t="s">
+      <c r="K4" s="425" t="s">
         <v>197</v>
       </c>
-      <c r="K4" s="425" t="s">
+      <c r="L4" s="425" t="s">
         <v>198</v>
       </c>
-      <c r="L4" s="425" t="s">
+      <c r="M4" s="425" t="s">
         <v>199</v>
       </c>
-      <c r="M4" s="425" t="s">
+      <c r="N4" s="425" t="s">
         <v>200</v>
       </c>
-      <c r="N4" s="425" t="s">
+      <c r="O4" s="425" t="s">
         <v>201</v>
       </c>
-      <c r="O4" s="425" t="s">
+      <c r="P4" s="425" t="s">
         <v>202</v>
       </c>
-      <c r="P4" s="425" t="s">
+      <c r="Q4" s="425" t="s">
         <v>203</v>
       </c>
-      <c r="Q4" s="425" t="s">
+      <c r="R4" s="425" t="s">
         <v>204</v>
       </c>
-      <c r="R4" s="425" t="s">
+      <c r="S4" s="425" t="s">
         <v>205</v>
       </c>
-      <c r="S4" s="425" t="s">
+      <c r="T4" s="425" t="s">
         <v>206</v>
       </c>
-      <c r="T4" s="425" t="s">
+      <c r="U4" s="425" t="s">
         <v>207</v>
       </c>
-      <c r="U4" s="425" t="s">
+      <c r="V4" s="425" t="s">
         <v>208</v>
       </c>
-      <c r="V4" s="425" t="s">
+      <c r="W4" s="425" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="425" t="s">
+      <c r="X4" s="425" t="s">
         <v>210</v>
       </c>
-      <c r="X4" s="425" t="s">
+      <c r="Y4" s="425" t="s">
         <v>211</v>
       </c>
-      <c r="Y4" s="425" t="s">
+      <c r="Z4" s="425" t="s">
         <v>212</v>
       </c>
-      <c r="Z4" s="425" t="s">
+      <c r="AA4" s="425" t="s">
         <v>213</v>
       </c>
-      <c r="AA4" s="425" t="s">
+      <c r="AB4" s="425" t="s">
         <v>214</v>
       </c>
-      <c r="AB4" s="425" t="s">
+      <c r="AC4" s="425" t="s">
         <v>215</v>
       </c>
-      <c r="AC4" s="425" t="s">
+      <c r="AD4" s="425" t="s">
         <v>216</v>
       </c>
-      <c r="AD4" s="425" t="s">
+      <c r="AE4" s="425" t="s">
         <v>217</v>
       </c>
-      <c r="AE4" s="425" t="s">
+      <c r="AF4" s="425" t="s">
         <v>218</v>
       </c>
-      <c r="AF4" s="425" t="s">
+      <c r="AG4" s="425" t="s">
         <v>219</v>
       </c>
-      <c r="AG4" s="425" t="s">
+      <c r="AH4" s="425" t="s">
         <v>220</v>
       </c>
-      <c r="AH4" s="425" t="s">
+      <c r="AI4" s="425" t="s">
         <v>221</v>
       </c>
-      <c r="AI4" s="425" t="s">
+      <c r="AJ4" s="425" t="s">
         <v>222</v>
       </c>
-      <c r="AJ4" s="425" t="s">
+      <c r="AK4" s="425" t="s">
         <v>223</v>
       </c>
-      <c r="AK4" s="425" t="s">
+      <c r="AL4" s="425" t="s">
         <v>224</v>
       </c>
-      <c r="AL4" s="425" t="s">
+      <c r="AM4" s="425" t="s">
         <v>225</v>
       </c>
-      <c r="AM4" s="425" t="s">
+      <c r="AN4" s="425" t="s">
         <v>226</v>
       </c>
-      <c r="AN4" s="425" t="s">
+      <c r="AO4" s="425" t="s">
         <v>227</v>
       </c>
-      <c r="AO4" s="425" t="s">
+      <c r="AP4" s="425" t="s">
         <v>228</v>
       </c>
-      <c r="AP4" s="425" t="s">
+      <c r="AQ4" s="425" t="s">
         <v>229</v>
       </c>
-      <c r="AQ4" s="425" t="s">
+      <c r="AR4" s="425" t="s">
         <v>230</v>
-      </c>
-      <c r="AR4" s="425" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:44" s="423" customFormat="1" ht="30" customHeight="1">
@@ -31919,7 +31919,7 @@
     </row>
     <row r="6" spans="1:44" s="423" customFormat="1" ht="30" customHeight="1">
       <c r="B6" s="472" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D6" s="441">
         <f>'EB2018'!C58</f>
@@ -32088,7 +32088,7 @@
     </row>
     <row r="7" spans="1:44" s="423" customFormat="1" ht="30" customHeight="1">
       <c r="B7" s="473" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C7" s="439"/>
       <c r="D7" s="442">
@@ -32304,7 +32304,7 @@
     </row>
     <row r="9" spans="1:44" s="423" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="426" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B9" s="426"/>
       <c r="C9" s="426"/>
@@ -32352,10 +32352,10 @@
     </row>
     <row r="10" spans="1:44">
       <c r="B10" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
@@ -32893,7 +32893,7 @@
     </row>
     <row r="21" spans="2:44">
       <c r="B21" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C21" s="8" t="str">
         <f>"Energy Balance breakdown for "&amp;B25</f>
@@ -32905,19 +32905,19 @@
     </row>
     <row r="22" spans="2:44" ht="30.75" thickBot="1">
       <c r="B22" s="424" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C22" s="424" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>81</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F22" s="425" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G22" s="432" t="s">
         <v>83</v>
@@ -32928,13 +32928,13 @@
     </row>
     <row r="23" spans="2:44" ht="15.75" thickBot="1">
       <c r="B23" s="599" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="579"/>
       <c r="E23" s="579"/>
       <c r="F23" s="467" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G23" s="448"/>
       <c r="AP23" s="7"/>
@@ -33180,7 +33180,7 @@
         <v>Electricity</v>
       </c>
       <c r="E32" s="125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F32" s="455">
         <v>2.0979079880167242E-2</v>
@@ -33212,7 +33212,7 @@
         <v>Electricity</v>
       </c>
       <c r="E33" s="125" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F33" s="455">
         <v>9.0683292361053588E-2</v>
@@ -33270,7 +33270,7 @@
         <v>Space heating</v>
       </c>
       <c r="D35" s="435" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E35" s="461"/>
       <c r="F35" s="463"/>
@@ -33537,7 +33537,7 @@
         <v>Water heating</v>
       </c>
       <c r="D44" s="435" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E44" s="461"/>
       <c r="F44" s="463"/>
@@ -33624,7 +33624,7 @@
         <v>Space cooling</v>
       </c>
       <c r="D47" s="435" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E47" s="461"/>
       <c r="F47" s="463"/>
@@ -33776,7 +33776,7 @@
         <v>Cooking</v>
       </c>
       <c r="D52" s="435" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E52" s="461"/>
       <c r="F52" s="463"/>
@@ -33894,7 +33894,7 @@
         <v>Commercial Services (excl. Data centers)</v>
       </c>
       <c r="C56" s="435" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D56" s="435" t="str">
         <f>Legend!$A$43</f>
@@ -33921,10 +33921,10 @@
         <v>Commercial Services (excl. Data centers)</v>
       </c>
       <c r="C57" s="465" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D57" s="469" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E57" s="464"/>
       <c r="F57" s="466"/>
@@ -33944,7 +33944,7 @@
       <c r="D58" s="7"/>
       <c r="E58" s="450"/>
       <c r="F58" s="467" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G58" s="468">
         <f>G57-M17</f>
@@ -33966,7 +33966,7 @@
     </row>
     <row r="60" spans="2:44">
       <c r="B60" s="8" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C60" s="8" t="str">
         <f>"Energy Balance breakdown for "&amp;B64</f>
@@ -33978,19 +33978,19 @@
     </row>
     <row r="61" spans="2:44" ht="30.75" thickBot="1">
       <c r="B61" s="424" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C61" s="424" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>81</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F61" s="425" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G61" s="432" t="s">
         <v>83</v>
@@ -34001,13 +34001,13 @@
     </row>
     <row r="62" spans="2:44" ht="15.75" thickBot="1">
       <c r="B62" s="599" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="579"/>
       <c r="E62" s="579"/>
       <c r="F62" s="467" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G62" s="448"/>
       <c r="AP62" s="7"/>
@@ -34204,7 +34204,7 @@
         <v>Electricity</v>
       </c>
       <c r="E71" s="125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F71" s="455">
         <f t="shared" si="9"/>
@@ -34229,7 +34229,7 @@
         <v>Electricity</v>
       </c>
       <c r="E72" s="125" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F72" s="455">
         <f t="shared" si="9"/>
@@ -34273,7 +34273,7 @@
         <v>Space heating</v>
       </c>
       <c r="D74" s="435" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E74" s="461"/>
       <c r="F74" s="463"/>
@@ -34476,7 +34476,7 @@
         <v>Water heating</v>
       </c>
       <c r="D83" s="435" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E83" s="461"/>
       <c r="F83" s="463"/>
@@ -34541,7 +34541,7 @@
         <v>Space cooling</v>
       </c>
       <c r="D86" s="435" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E86" s="461"/>
       <c r="F86" s="463"/>
@@ -34652,7 +34652,7 @@
         <v>Cooking</v>
       </c>
       <c r="D91" s="435" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E91" s="461"/>
       <c r="F91" s="463"/>
@@ -34736,7 +34736,7 @@
         <v>Public Services (excl. Public lighting)</v>
       </c>
       <c r="C95" s="435" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D95" s="435" t="str">
         <f>Legend!$A$43</f>
@@ -34755,10 +34755,10 @@
         <v>Public Services (excl. Public lighting)</v>
       </c>
       <c r="C96" s="465" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D96" s="469" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E96" s="464"/>
       <c r="F96" s="466"/>
@@ -34771,7 +34771,7 @@
       <c r="D97" s="7"/>
       <c r="E97" s="450"/>
       <c r="F97" s="467" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G97" s="468">
         <f>G96-M18</f>
@@ -34809,7 +34809,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="23.25">
       <c r="A1" s="92" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -34835,13 +34835,13 @@
     </row>
     <row r="5" spans="1:12" ht="17.25">
       <c r="A5" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D5" s="477">
         <v>87.053206529921553</v>
@@ -34849,13 +34849,13 @@
     </row>
     <row r="6" spans="1:12" ht="17.25">
       <c r="A6" s="23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" s="610">
         <f>'CSO data'!O36</f>
@@ -34877,7 +34877,7 @@
     </row>
     <row r="9" spans="1:12" customFormat="1">
       <c r="A9" s="25" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H9" s="88"/>
       <c r="I9" s="620"/>
@@ -34922,7 +34922,7 @@
         <v>132</v>
       </c>
       <c r="D12" s="110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F12" s="24"/>
       <c r="H12" s="88"/>
@@ -35070,7 +35070,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C21" s="632">
         <f>D21/SUM($D$21:$D$22)</f>
@@ -35088,7 +35088,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="23" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="633">
@@ -35112,50 +35112,50 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="96" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45.75" thickBot="1">
       <c r="A26" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>173</v>
-      </c>
       <c r="F26" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>129</v>
       </c>
       <c r="H26" s="487" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I26" s="487" t="s">
         <v>144</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K26" s="19" t="s">
         <v>111</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30.75" thickBot="1">
       <c r="A27" s="599" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B27" s="600"/>
       <c r="C27" s="600"/>
@@ -35163,13 +35163,13 @@
       <c r="E27" s="600"/>
       <c r="F27" s="601"/>
       <c r="G27" s="599" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H27" s="605" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I27" s="602" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J27" s="603"/>
       <c r="K27" s="600"/>
@@ -35478,7 +35478,7 @@
         <v>Space heating</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D35" s="12" t="str">
         <f>Legend!B43&amp;"-HP"</f>
@@ -35524,7 +35524,7 @@
         <v>Space heating</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D36" s="14" t="str">
         <f>Legend!B43</f>
@@ -35567,7 +35567,7 @@
         <v>Space heating</v>
       </c>
       <c r="C37" s="435" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D37" s="635"/>
       <c r="E37" s="635"/>
@@ -35906,7 +35906,7 @@
         <v>Water heating</v>
       </c>
       <c r="C45" s="435" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D45" s="635"/>
       <c r="E45" s="635"/>
@@ -36025,7 +36025,7 @@
         <v>Space cooling</v>
       </c>
       <c r="C48" s="435" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D48" s="635"/>
       <c r="E48" s="635"/>
@@ -36435,7 +36435,7 @@
         <v>Space heating</v>
       </c>
       <c r="C57" s="435" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D57" s="635"/>
       <c r="E57" s="635"/>
@@ -36795,7 +36795,7 @@
         <v>Water heating</v>
       </c>
       <c r="C65" s="435" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D65" s="635"/>
       <c r="E65" s="635"/>
@@ -36920,7 +36920,7 @@
         <v>Space cooling</v>
       </c>
       <c r="C68" s="435" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D68" s="635"/>
       <c r="E68" s="635"/>
@@ -36968,7 +36968,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="96" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
@@ -36984,37 +36984,37 @@
     </row>
     <row r="72" spans="1:14" ht="45.75" thickBot="1">
       <c r="A72" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D72" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E72" s="19" t="s">
-        <v>173</v>
-      </c>
       <c r="F72" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G72" s="19" t="s">
         <v>129</v>
       </c>
       <c r="H72" s="487" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I72" s="487" t="s">
         <v>144</v>
       </c>
       <c r="J72" s="487" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K72" s="487" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L72" s="19" t="s">
         <v>111</v>
@@ -37024,7 +37024,7 @@
     </row>
     <row r="73" spans="1:14" ht="30.75" thickBot="1">
       <c r="A73" s="599" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B73" s="600"/>
       <c r="C73" s="600"/>
@@ -37032,16 +37032,16 @@
       <c r="E73" s="600"/>
       <c r="F73" s="603"/>
       <c r="G73" s="601" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H73" s="602" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I73" s="602" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J73" s="602" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K73" s="604"/>
       <c r="L73" s="600"/>
@@ -37067,13 +37067,13 @@
         <v>70</v>
       </c>
       <c r="J74" s="483" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K74" s="496" t="s">
         <v>46</v>
       </c>
       <c r="L74" s="496" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M74" s="125"/>
       <c r="N74" s="125"/>
@@ -37280,7 +37280,7 @@
         <v>Cooking</v>
       </c>
       <c r="C79" s="435" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D79" s="667"/>
       <c r="E79" s="667"/>
@@ -37521,7 +37521,7 @@
         <v>Cooking</v>
       </c>
       <c r="C84" s="669" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D84" s="672"/>
       <c r="E84" s="672"/>
@@ -37582,36 +37582,36 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="96" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="30.75" thickBot="1">
       <c r="A88" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E88" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E88" s="19" t="s">
-        <v>173</v>
-      </c>
       <c r="F88" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G88" s="509" t="s">
         <v>129</v>
       </c>
       <c r="H88" s="487" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J88" s="19" t="s">
         <v>111</v>
@@ -37619,7 +37619,7 @@
     </row>
     <row r="89" spans="1:14" ht="30.75" thickBot="1">
       <c r="A89" s="599" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B89" s="600"/>
       <c r="C89" s="600"/>
@@ -37627,11 +37627,11 @@
       <c r="E89" s="600"/>
       <c r="F89" s="603"/>
       <c r="H89" s="605" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I89" s="599"/>
       <c r="J89" s="599" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -37644,16 +37644,16 @@
         <v>46</v>
       </c>
       <c r="G90" s="496" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H90" s="483" t="s">
         <v>96</v>
       </c>
       <c r="I90" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J90" s="27" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="21.75" customHeight="1">
@@ -37940,7 +37940,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="96" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B99" s="104"/>
       <c r="C99" s="104"/>
@@ -37951,73 +37951,73 @@
     </row>
     <row r="100" spans="1:14" ht="45.75" thickBot="1">
       <c r="A100" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D100" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E100" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="E100" s="19" t="s">
-        <v>173</v>
-      </c>
       <c r="F100" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G100" s="509" t="s">
         <v>111</v>
       </c>
       <c r="H100" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J100" s="20" t="s">
         <v>144</v>
       </c>
       <c r="K100" s="487" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L100" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M100" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="N100" s="20" t="s">
         <v>490</v>
-      </c>
-      <c r="N100" s="20" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="30.75" thickBot="1">
       <c r="A101" s="599" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B101" s="600"/>
       <c r="C101" s="600"/>
       <c r="D101" s="600"/>
       <c r="E101" s="600"/>
       <c r="F101" s="601" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G101" s="601" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H101" s="602" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I101" s="602" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="J101" s="602" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K101" s="602" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L101" s="510"/>
       <c r="N101" s="511"/>
@@ -38032,7 +38032,7 @@
         <v>46</v>
       </c>
       <c r="G102" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H102" s="27" t="s">
         <v>132</v>
@@ -38050,7 +38050,7 @@
         <v>149</v>
       </c>
       <c r="M102" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N102" s="483" t="s">
         <v>46</v>
@@ -38058,7 +38058,7 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="595" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B103" s="25" t="str">
         <f>Legend!$A$33</f>
@@ -38111,7 +38111,7 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="454" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B104" s="25" t="str">
         <f>Legend!$A$33</f>
@@ -38158,7 +38158,7 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="454" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B105" s="25" t="str">
         <f>Legend!$A$33</f>
@@ -38205,7 +38205,7 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="108" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B106" s="126" t="str">
         <f>Legend!$A$33</f>
@@ -38252,14 +38252,14 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="108" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B107" s="126" t="str">
         <f>Legend!$A$33</f>
         <v>Public lighting</v>
       </c>
       <c r="C107" s="597" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D107" s="126"/>
       <c r="E107" s="126"/>
@@ -38294,7 +38294,7 @@
       <c r="J108" s="125"/>
       <c r="K108" s="125"/>
       <c r="L108" s="582" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M108" s="596">
         <f>M107-G103</f>
@@ -38323,7 +38323,7 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="96" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B110" s="583"/>
       <c r="C110" s="584"/>
@@ -38341,31 +38341,31 @@
     </row>
     <row r="111" spans="1:14" ht="45.75" thickBot="1">
       <c r="A111" s="509" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B111" s="509" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C111" s="509" t="s">
         <v>81</v>
       </c>
       <c r="D111" s="509" t="s">
+        <v>171</v>
+      </c>
+      <c r="E111" s="509" t="s">
         <v>172</v>
-      </c>
-      <c r="E111" s="509" t="s">
-        <v>173</v>
       </c>
       <c r="F111" s="509" t="s">
         <v>111</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H111" s="487" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I111" s="20" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -38375,20 +38375,20 @@
     </row>
     <row r="112" spans="1:14" ht="30.75" thickBot="1">
       <c r="A112" s="599" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B112" s="600"/>
       <c r="C112" s="606"/>
       <c r="D112" s="606"/>
       <c r="E112" s="606"/>
       <c r="F112" s="607" t="s">
+        <v>485</v>
+      </c>
+      <c r="G112" s="608" t="s">
         <v>486</v>
       </c>
-      <c r="G112" s="608" t="s">
-        <v>487</v>
-      </c>
       <c r="H112" s="602" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I112" s="609"/>
       <c r="J112" s="1"/>
@@ -38553,7 +38553,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>7</v>
@@ -38590,10 +38590,10 @@
         <v>114</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E4" s="52" t="s">
         <v>89</v>
@@ -38760,7 +38760,7 @@
         <v>SRV-Commercial Services: Building lighting</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>30</v>
@@ -38783,7 +38783,7 @@
         <v>SRV-Commercial Services: Refrigeration</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>30</v>
@@ -38939,7 +38939,7 @@
         <v>SRV-Public Services: Building lighting</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30" t="s">
@@ -38966,7 +38966,7 @@
         <v>SRV-Public Services: Refrigeration</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="30" t="s">
@@ -39317,7 +39317,7 @@
         <v>46</v>
       </c>
       <c r="G33" s="30" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H33" s="30" t="s">
         <v>88</v>
@@ -39435,13 +39435,13 @@
         <v>IE,National</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F38" s="663" t="s">
         <v>543</v>
-      </c>
-      <c r="F38" s="663" t="s">
-        <v>544</v>
       </c>
       <c r="G38" s="663"/>
       <c r="H38" s="663"/>
@@ -39458,13 +39458,13 @@
         <v>IE,National</v>
       </c>
       <c r="D39" s="454" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E39" s="102" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F39" s="102" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G39" s="102"/>
       <c r="H39" s="102"/>
@@ -39481,13 +39481,13 @@
         <v>IE,National</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E40" s="102" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F40" s="102" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
@@ -39504,13 +39504,13 @@
         <v>IE,National</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E41" s="102" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F41" s="102" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G41" s="21"/>
       <c r="H41" s="21"/>
@@ -39527,13 +39527,13 @@
         <v>IE,National</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E42" s="102" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F42" s="102" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
@@ -39550,13 +39550,13 @@
         <v>IE,National</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E43" s="103" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F43" s="103" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G43" s="31"/>
       <c r="H43" s="31"/>
@@ -39907,8 +39907,8 @@
   </sheetPr>
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -39962,16 +39962,16 @@
         <v>87</v>
       </c>
       <c r="F3" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>586</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>587</v>
       </c>
       <c r="I3" s="34" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K3" s="34" t="s">
         <v>4</v>
@@ -40009,16 +40009,16 @@
         <v>129</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I4" s="51" t="s">
         <v>115</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K4" s="51" t="s">
         <v>116</v>
@@ -40048,7 +40048,7 @@
         <v>FT-SRVCOA</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D5" s="30" t="str">
         <f>Legend!C36</f>
@@ -40076,7 +40076,7 @@
         <v>46</v>
       </c>
       <c r="N5" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O5" s="63"/>
       <c r="P5" s="63"/>
@@ -40115,7 +40115,7 @@
         <v>46</v>
       </c>
       <c r="N6" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
@@ -40126,7 +40126,7 @@
         <v>FT-SRVOIL</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D7" s="30" t="str">
         <f>Legend!C38</f>
@@ -40161,14 +40161,14 @@
         <v>46</v>
       </c>
       <c r="N7" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O7" s="63"/>
       <c r="P7" s="63"/>
     </row>
     <row r="8" spans="2:17">
       <c r="C8" s="30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F8" s="88">
         <f>EB_SRV!V5*Legend!$B$65/EB_SRV!$F$12</f>
@@ -40196,14 +40196,14 @@
         <v>46</v>
       </c>
       <c r="N8" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O8" s="63"/>
       <c r="P8" s="63"/>
     </row>
     <row r="9" spans="2:17">
       <c r="C9" s="30" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F9" s="88">
         <f>EB_SRV!T5*Legend!$B$65/EB_SRV!$F$12</f>
@@ -40231,7 +40231,7 @@
         <v>46</v>
       </c>
       <c r="N9" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O9" s="63"/>
       <c r="P9" s="63"/>
@@ -40270,7 +40270,7 @@
         <v>46</v>
       </c>
       <c r="N10" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O10" s="63"/>
       <c r="P10" s="63"/>
@@ -40281,7 +40281,7 @@
         <v>FT-SRVBIO</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D11" s="30" t="str">
         <f>Legend!C40</f>
@@ -40309,7 +40309,7 @@
         <v>46</v>
       </c>
       <c r="N11" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O11" s="63"/>
       <c r="P11" s="63"/>
@@ -40320,7 +40320,7 @@
         <v>FT-SRVBGS</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D12" s="30" t="str">
         <f>Legend!C41</f>
@@ -40348,7 +40348,7 @@
         <v>46</v>
       </c>
       <c r="N12" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O12" s="63" t="s">
         <v>88</v>
@@ -40361,7 +40361,7 @@
         <v>FT-SRVSOL</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D13" s="30" t="str">
         <f>Legend!C42</f>
@@ -40389,7 +40389,7 @@
         <v>46</v>
       </c>
       <c r="N13" s="65" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O13" s="65"/>
       <c r="P13" s="65"/>
@@ -40401,7 +40401,7 @@
         <v>FT-SRVELC</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D14" s="30" t="str">
         <f>Legend!C43</f>
@@ -40429,7 +40429,7 @@
         <v>46</v>
       </c>
       <c r="N14" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O14" s="63" t="s">
         <v>88</v>
@@ -40442,7 +40442,7 @@
         <v>FT-SRVAHT</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D15" s="21" t="str">
         <f>Legend!C44</f>
@@ -40472,7 +40472,7 @@
         <v>46</v>
       </c>
       <c r="N15" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O15" s="63"/>
       <c r="P15" s="63"/>
@@ -40506,7 +40506,7 @@
         <v>46</v>
       </c>
       <c r="N16" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O16" s="63"/>
       <c r="P16" s="63"/>
@@ -40516,8 +40516,8 @@
         <f t="shared" ref="B17:B22" si="5">K14</f>
         <v>FT-SRVHET</v>
       </c>
-      <c r="C17" s="663" t="s">
-        <v>154</v>
+      <c r="C17" s="749" t="s">
+        <v>616</v>
       </c>
       <c r="D17" s="663" t="str">
         <f>Legend!C46</f>
@@ -40547,7 +40547,7 @@
         <v>46</v>
       </c>
       <c r="N17" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O17" s="63"/>
       <c r="P17" s="63"/>
@@ -40558,7 +40558,7 @@
         <v>FT-SRVWIN</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D18" s="30" t="str">
         <f>Legend!C47</f>
@@ -40586,7 +40586,7 @@
         <v>46</v>
       </c>
       <c r="N18" s="63" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O18" s="63"/>
       <c r="P18" s="63"/>
@@ -40597,7 +40597,7 @@
         <v>FT-SRVH2G</v>
       </c>
       <c r="C19" s="30" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D19" s="30" t="str">
         <f>Legend!C48</f>
@@ -40625,7 +40625,7 @@
         <v>46</v>
       </c>
       <c r="N19" s="65" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="O19" s="65"/>
       <c r="P19" s="65"/>
@@ -40637,7 +40637,7 @@
         <v>FT-SRVH2L</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D20" s="30" t="str">
         <f>Legend!C49</f>
@@ -40653,7 +40653,7 @@
         <v>FT-SRVBDL</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D21" s="30" t="str">
         <f>Legend!C50</f>
@@ -40669,7 +40669,7 @@
         <v>FT-SRVETH</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D22" s="31" t="str">
         <f>Legend!C51</f>
@@ -40718,7 +40718,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="23.25">
       <c r="B1" s="67" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C1" s="67"/>
       <c r="D1" s="67"/>
@@ -40754,16 +40754,16 @@
         <v>23</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>141</v>
       </c>
       <c r="H3" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="I3" s="34" t="s">
         <v>596</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>597</v>
       </c>
       <c r="J3" s="34" t="s">
         <v>29</v>
@@ -40773,7 +40773,7 @@
         <v>14</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N3" s="34" t="s">
         <v>4</v>
@@ -40815,7 +40815,7 @@
         <v>133</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H4" s="54" t="s">
         <v>134</v>
@@ -40831,7 +40831,7 @@
         <v>115</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N4" s="51" t="s">
         <v>116</v>
@@ -40867,7 +40867,7 @@
         <v>137</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H5" s="57"/>
       <c r="I5" s="57"/>
@@ -40876,7 +40876,7 @@
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
@@ -41234,7 +41234,7 @@
     <row r="23" spans="1:15" ht="23.25">
       <c r="A23" s="687"/>
       <c r="B23" s="67" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -41449,7 +41449,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="23.25">
       <c r="B1" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C1" s="33"/>
       <c r="X1" s="32"/>
@@ -41482,7 +41482,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>23</v>
@@ -41523,7 +41523,7 @@
         <v>14</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S3" s="34" t="s">
         <v>4</v>
@@ -41548,25 +41548,25 @@
       </c>
       <c r="Z3"/>
       <c r="AA3" s="733" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AB3" s="733" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AC3" s="733" t="s">
         <v>81</v>
       </c>
       <c r="AD3" s="733" t="s">
+        <v>508</v>
+      </c>
+      <c r="AE3" s="733" t="s">
         <v>509</v>
       </c>
-      <c r="AE3" s="733" t="s">
+      <c r="AF3" s="733" t="s">
         <v>510</v>
       </c>
-      <c r="AF3" s="733" t="s">
+      <c r="AG3" s="733" t="s">
         <v>511</v>
-      </c>
-      <c r="AG3" s="733" t="s">
-        <v>512</v>
       </c>
       <c r="AH3" s="74" t="s">
         <v>77</v>
@@ -41585,7 +41585,7 @@
         <v>126</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>127</v>
@@ -41607,20 +41607,20 @@
       </c>
       <c r="L4" s="54"/>
       <c r="M4" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="N4" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="O4" s="54" t="s">
         <v>184</v>
-      </c>
-      <c r="N4" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="O4" s="54" t="s">
-        <v>185</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="51" t="s">
         <v>115</v>
       </c>
       <c r="R4" s="51" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S4" s="51" t="s">
         <v>116</v>
@@ -41655,7 +41655,7 @@
         <v>146</v>
       </c>
       <c r="AI4" s="76" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="32" customFormat="1">
@@ -41683,7 +41683,7 @@
         <v>95</v>
       </c>
       <c r="L5" s="661" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M5" s="57" t="s">
         <v>132</v>
@@ -41694,7 +41694,7 @@
       <c r="O5" s="57"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="57" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="R5" s="57"/>
       <c r="S5" s="57"/>
@@ -45945,7 +45945,7 @@
     </row>
     <row r="47" spans="1:35">
       <c r="F47" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G47" s="109">
         <f>SUM(G7:G45)</f>

--- a/VT_IE_SRV.xlsx
+++ b/VT_IE_SRV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70678832-6CC4-415F-A8B0-BA241D09064D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B7ADF2-ED85-4084-840A-8DA30A9F6D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2265" yWindow="-13515" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="83" r:id="rId1"/>
@@ -6422,7 +6422,7 @@
     <t>Specify base year data and define sector structure</t>
   </si>
   <si>
-    <t>CITY_DH,URBAN_1_DH,URBAN_2_DH,URBAN_3_DH</t>
+    <t>HETD</t>
   </si>
 </sst>
 </file>
@@ -11666,6 +11666,7 @@
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="127" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -11725,7 +11726,6 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="128">
     <cellStyle name="20 % - Akzent1" xfId="49" hidden="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -13206,12 +13206,12 @@
       <c r="Z15" s="714"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="729" t="s">
+      <c r="A16" s="730" t="s">
         <v>601</v>
       </c>
-      <c r="B16" s="729"/>
-      <c r="C16" s="729"/>
-      <c r="D16" s="729"/>
+      <c r="B16" s="730"/>
+      <c r="C16" s="730"/>
+      <c r="D16" s="730"/>
       <c r="E16" s="715"/>
       <c r="F16" s="715"/>
       <c r="G16" s="716"/>
@@ -13295,11 +13295,11 @@
       <c r="A19" s="720" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="728" t="s">
+      <c r="B19" s="729" t="s">
         <v>613</v>
       </c>
-      <c r="C19" s="728"/>
-      <c r="D19" s="728"/>
+      <c r="C19" s="729"/>
+      <c r="D19" s="729"/>
       <c r="E19" s="721"/>
       <c r="F19" s="721"/>
       <c r="G19" s="722"/>
@@ -13327,11 +13327,11 @@
       <c r="A20" s="720" t="s">
         <v>602</v>
       </c>
-      <c r="B20" s="728" t="s">
+      <c r="B20" s="729" t="s">
         <v>614</v>
       </c>
-      <c r="C20" s="728"/>
-      <c r="D20" s="728"/>
+      <c r="C20" s="729"/>
+      <c r="D20" s="729"/>
       <c r="E20" s="721"/>
       <c r="F20" s="721"/>
       <c r="G20" s="722"/>
@@ -13419,9 +13419,9 @@
       <c r="A23" s="720" t="s">
         <v>604</v>
       </c>
-      <c r="B23" s="728"/>
-      <c r="C23" s="728"/>
-      <c r="D23" s="728"/>
+      <c r="B23" s="729"/>
+      <c r="C23" s="729"/>
+      <c r="D23" s="729"/>
       <c r="E23" s="714"/>
       <c r="F23" s="714"/>
       <c r="G23" s="714"/>
@@ -13505,11 +13505,11 @@
       <c r="A26" s="720" t="s">
         <v>605</v>
       </c>
-      <c r="B26" s="728" t="s">
+      <c r="B26" s="729" t="s">
         <v>612</v>
       </c>
-      <c r="C26" s="728"/>
-      <c r="D26" s="728"/>
+      <c r="C26" s="729"/>
+      <c r="D26" s="729"/>
       <c r="E26" s="714"/>
       <c r="F26" s="714"/>
       <c r="G26" s="714"/>
@@ -13625,11 +13625,11 @@
       <c r="A30" s="720" t="s">
         <v>607</v>
       </c>
-      <c r="B30" s="730" t="s">
+      <c r="B30" s="731" t="s">
         <v>608</v>
       </c>
-      <c r="C30" s="728"/>
-      <c r="D30" s="728"/>
+      <c r="C30" s="729"/>
+      <c r="D30" s="729"/>
       <c r="E30" s="725"/>
       <c r="F30" s="725"/>
       <c r="G30" s="714"/>
@@ -13657,11 +13657,11 @@
       <c r="A31" s="720" t="s">
         <v>609</v>
       </c>
-      <c r="B31" s="728" t="s">
+      <c r="B31" s="729" t="s">
         <v>610</v>
       </c>
-      <c r="C31" s="728"/>
-      <c r="D31" s="728"/>
+      <c r="C31" s="729"/>
+      <c r="D31" s="729"/>
       <c r="E31" s="725"/>
       <c r="F31" s="725"/>
       <c r="G31" s="714"/>
@@ -15732,25 +15732,25 @@
       <c r="T3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="733" t="s">
+      <c r="V3" s="734" t="s">
         <v>388</v>
       </c>
-      <c r="W3" s="733" t="s">
+      <c r="W3" s="734" t="s">
         <v>159</v>
       </c>
-      <c r="X3" s="733" t="s">
+      <c r="X3" s="734" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="733" t="s">
+      <c r="Y3" s="734" t="s">
         <v>508</v>
       </c>
-      <c r="Z3" s="733" t="s">
+      <c r="Z3" s="734" t="s">
         <v>509</v>
       </c>
-      <c r="AA3" s="733" t="s">
+      <c r="AA3" s="734" t="s">
         <v>510</v>
       </c>
-      <c r="AB3" s="733" t="s">
+      <c r="AB3" s="734" t="s">
         <v>511</v>
       </c>
       <c r="AC3" s="69" t="s">
@@ -15814,13 +15814,13 @@
       <c r="T4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="734"/>
-      <c r="W4" s="734"/>
-      <c r="X4" s="734"/>
-      <c r="Y4" s="734"/>
-      <c r="Z4" s="734"/>
-      <c r="AA4" s="734"/>
-      <c r="AB4" s="734"/>
+      <c r="V4" s="735"/>
+      <c r="W4" s="735"/>
+      <c r="X4" s="735"/>
+      <c r="Y4" s="735"/>
+      <c r="Z4" s="735"/>
+      <c r="AA4" s="735"/>
+      <c r="AB4" s="735"/>
       <c r="AC4" s="77" t="s">
         <v>146</v>
       </c>
@@ -17102,25 +17102,25 @@
       <c r="T3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="733" t="s">
+      <c r="V3" s="734" t="s">
         <v>388</v>
       </c>
-      <c r="W3" s="733" t="s">
+      <c r="W3" s="734" t="s">
         <v>159</v>
       </c>
-      <c r="X3" s="733" t="s">
+      <c r="X3" s="734" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="733" t="s">
+      <c r="Y3" s="734" t="s">
         <v>508</v>
       </c>
-      <c r="Z3" s="733" t="s">
+      <c r="Z3" s="734" t="s">
         <v>509</v>
       </c>
-      <c r="AA3" s="733" t="s">
+      <c r="AA3" s="734" t="s">
         <v>510</v>
       </c>
-      <c r="AB3" s="733" t="s">
+      <c r="AB3" s="734" t="s">
         <v>511</v>
       </c>
       <c r="AC3" s="69" t="s">
@@ -17184,13 +17184,13 @@
       <c r="T4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="734"/>
-      <c r="W4" s="734"/>
-      <c r="X4" s="734"/>
-      <c r="Y4" s="734"/>
-      <c r="Z4" s="734"/>
-      <c r="AA4" s="734"/>
-      <c r="AB4" s="734"/>
+      <c r="V4" s="735"/>
+      <c r="W4" s="735"/>
+      <c r="X4" s="735"/>
+      <c r="Y4" s="735"/>
+      <c r="Z4" s="735"/>
+      <c r="AA4" s="735"/>
+      <c r="AB4" s="735"/>
       <c r="AC4" s="77" t="s">
         <v>146</v>
       </c>
@@ -18049,25 +18049,25 @@
       <c r="T3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="733" t="s">
+      <c r="V3" s="734" t="s">
         <v>388</v>
       </c>
-      <c r="W3" s="733" t="s">
+      <c r="W3" s="734" t="s">
         <v>159</v>
       </c>
-      <c r="X3" s="733" t="s">
+      <c r="X3" s="734" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="733" t="s">
+      <c r="Y3" s="734" t="s">
         <v>508</v>
       </c>
-      <c r="Z3" s="733" t="s">
+      <c r="Z3" s="734" t="s">
         <v>509</v>
       </c>
-      <c r="AA3" s="733" t="s">
+      <c r="AA3" s="734" t="s">
         <v>510</v>
       </c>
-      <c r="AB3" s="733" t="s">
+      <c r="AB3" s="734" t="s">
         <v>511</v>
       </c>
       <c r="AC3" s="69" t="s">
@@ -18131,13 +18131,13 @@
       <c r="T4" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="734"/>
-      <c r="W4" s="734"/>
-      <c r="X4" s="734"/>
-      <c r="Y4" s="734"/>
-      <c r="Z4" s="734"/>
-      <c r="AA4" s="734"/>
-      <c r="AB4" s="734"/>
+      <c r="V4" s="735"/>
+      <c r="W4" s="735"/>
+      <c r="X4" s="735"/>
+      <c r="Y4" s="735"/>
+      <c r="Z4" s="735"/>
+      <c r="AA4" s="735"/>
+      <c r="AB4" s="735"/>
       <c r="AC4" s="77" t="s">
         <v>146</v>
       </c>
@@ -18950,25 +18950,25 @@
       <c r="T3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="733" t="s">
+      <c r="V3" s="734" t="s">
         <v>388</v>
       </c>
-      <c r="W3" s="733" t="s">
+      <c r="W3" s="734" t="s">
         <v>159</v>
       </c>
-      <c r="X3" s="733" t="s">
+      <c r="X3" s="734" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="733" t="s">
+      <c r="Y3" s="734" t="s">
         <v>508</v>
       </c>
-      <c r="Z3" s="733" t="s">
+      <c r="Z3" s="734" t="s">
         <v>509</v>
       </c>
-      <c r="AA3" s="733" t="s">
+      <c r="AA3" s="734" t="s">
         <v>510</v>
       </c>
-      <c r="AB3" s="733" t="s">
+      <c r="AB3" s="734" t="s">
         <v>511</v>
       </c>
       <c r="AC3" s="69" t="s">
@@ -19032,13 +19032,13 @@
       <c r="T4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="734"/>
-      <c r="W4" s="734"/>
-      <c r="X4" s="734"/>
-      <c r="Y4" s="734"/>
-      <c r="Z4" s="734"/>
-      <c r="AA4" s="734"/>
-      <c r="AB4" s="734"/>
+      <c r="V4" s="735"/>
+      <c r="W4" s="735"/>
+      <c r="X4" s="735"/>
+      <c r="Y4" s="735"/>
+      <c r="Z4" s="735"/>
+      <c r="AA4" s="735"/>
+      <c r="AB4" s="735"/>
       <c r="AC4" s="77" t="s">
         <v>146</v>
       </c>
@@ -27072,23 +27072,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1">
-      <c r="A1" s="740" t="s">
+      <c r="A1" s="741" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="740"/>
-      <c r="C1" s="740"/>
-      <c r="D1" s="740"/>
-      <c r="E1" s="740"/>
-      <c r="F1" s="740"/>
-      <c r="G1" s="740"/>
-      <c r="H1" s="740"/>
-      <c r="I1" s="740"/>
-      <c r="J1" s="740"/>
-      <c r="K1" s="740"/>
-      <c r="L1" s="741"/>
-      <c r="M1" s="741"/>
-      <c r="N1" s="741"/>
-      <c r="O1" s="741"/>
+      <c r="B1" s="741"/>
+      <c r="C1" s="741"/>
+      <c r="D1" s="741"/>
+      <c r="E1" s="741"/>
+      <c r="F1" s="741"/>
+      <c r="G1" s="741"/>
+      <c r="H1" s="741"/>
+      <c r="I1" s="741"/>
+      <c r="J1" s="741"/>
+      <c r="K1" s="741"/>
+      <c r="L1" s="742"/>
+      <c r="M1" s="742"/>
+      <c r="N1" s="742"/>
+      <c r="O1" s="742"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="558" t="s">
@@ -28682,34 +28682,34 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1">
-      <c r="A37" s="742" t="s">
+      <c r="A37" s="743" t="s">
         <v>481</v>
       </c>
-      <c r="B37" s="742"/>
-      <c r="C37" s="742"/>
-      <c r="D37" s="742"/>
-      <c r="E37" s="742"/>
-      <c r="F37" s="742"/>
-      <c r="G37" s="742"/>
-      <c r="H37" s="742"/>
-      <c r="I37" s="742"/>
-      <c r="J37" s="742"/>
-      <c r="K37" s="742"/>
-      <c r="L37" s="742"/>
-      <c r="M37" s="742"/>
-      <c r="N37" s="742"/>
-      <c r="O37" s="742"/>
+      <c r="B37" s="743"/>
+      <c r="C37" s="743"/>
+      <c r="D37" s="743"/>
+      <c r="E37" s="743"/>
+      <c r="F37" s="743"/>
+      <c r="G37" s="743"/>
+      <c r="H37" s="743"/>
+      <c r="I37" s="743"/>
+      <c r="J37" s="743"/>
+      <c r="K37" s="743"/>
+      <c r="L37" s="743"/>
+      <c r="M37" s="743"/>
+      <c r="N37" s="743"/>
+      <c r="O37" s="743"/>
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
-      <c r="A40" s="740" t="s">
+      <c r="A40" s="741" t="s">
         <v>493</v>
       </c>
-      <c r="B40" s="740"/>
-      <c r="C40" s="740"/>
-      <c r="D40" s="740"/>
-      <c r="E40" s="740"/>
-      <c r="F40" s="740"/>
-      <c r="G40" s="741"/>
+      <c r="B40" s="741"/>
+      <c r="C40" s="741"/>
+      <c r="D40" s="741"/>
+      <c r="E40" s="741"/>
+      <c r="F40" s="741"/>
+      <c r="G40" s="742"/>
       <c r="H40" s="571"/>
       <c r="I40" s="571"/>
       <c r="J40" s="571"/>
@@ -28720,35 +28720,35 @@
       <c r="O40" s="571"/>
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1">
-      <c r="A41" s="743" t="s">
+      <c r="A41" s="744" t="s">
         <v>494</v>
       </c>
-      <c r="B41" s="743"/>
-      <c r="C41" s="743"/>
-      <c r="D41" s="743"/>
-      <c r="E41" s="743"/>
-      <c r="F41" s="743"/>
+      <c r="B41" s="744"/>
+      <c r="C41" s="744"/>
+      <c r="D41" s="744"/>
+      <c r="E41" s="744"/>
+      <c r="F41" s="744"/>
       <c r="G41" s="611" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1">
-      <c r="A42" s="744" t="s">
+      <c r="A42" s="745" t="s">
         <v>495</v>
       </c>
-      <c r="B42" s="746" t="s">
+      <c r="B42" s="747" t="s">
         <v>496</v>
       </c>
-      <c r="C42" s="746"/>
-      <c r="D42" s="746"/>
-      <c r="E42" s="746"/>
-      <c r="F42" s="746"/>
-      <c r="G42" s="747" t="s">
+      <c r="C42" s="747"/>
+      <c r="D42" s="747"/>
+      <c r="E42" s="747"/>
+      <c r="F42" s="747"/>
+      <c r="G42" s="748" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1">
-      <c r="A43" s="745"/>
+      <c r="A43" s="746"/>
       <c r="B43" s="612" t="s">
         <v>497</v>
       </c>
@@ -28764,7 +28764,7 @@
       <c r="F43" s="612" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="748"/>
+      <c r="G43" s="749"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="613" t="s">
@@ -29098,36 +29098,36 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1">
-      <c r="A64" s="737"/>
-      <c r="B64" s="735" t="s">
+      <c r="A64" s="738"/>
+      <c r="B64" s="736" t="s">
         <v>505</v>
       </c>
-      <c r="C64" s="735" t="s">
+      <c r="C64" s="736" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="739" t="s">
+      <c r="D64" s="740" t="s">
         <v>504</v>
       </c>
-      <c r="E64" s="739"/>
-      <c r="F64" s="735" t="s">
+      <c r="E64" s="740"/>
+      <c r="F64" s="736" t="s">
         <v>33</v>
       </c>
-      <c r="G64" s="735" t="s">
+      <c r="G64" s="736" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1">
-      <c r="A65" s="738"/>
-      <c r="B65" s="736"/>
-      <c r="C65" s="736"/>
+      <c r="A65" s="739"/>
+      <c r="B65" s="737"/>
+      <c r="C65" s="737"/>
       <c r="D65" s="622" t="s">
         <v>33</v>
       </c>
       <c r="E65" s="508" t="s">
         <v>502</v>
       </c>
-      <c r="F65" s="736"/>
-      <c r="G65" s="736"/>
+      <c r="F65" s="737"/>
+      <c r="G65" s="737"/>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1">
       <c r="A66" s="116" t="s">
@@ -38075,11 +38075,11 @@
         <f>Legend!$C$43</f>
         <v>SRVELC</v>
       </c>
-      <c r="F103" s="731">
+      <c r="F103" s="732">
         <f>'Public SEAI'!C29*Legend!$B$66</f>
         <v>1.4472</v>
       </c>
-      <c r="G103" s="732">
+      <c r="G103" s="733">
         <f>480000/10^6</f>
         <v>0.48</v>
       </c>
@@ -38128,8 +38128,8 @@
         <f>Legend!$C$43</f>
         <v>SRVELC</v>
       </c>
-      <c r="F104" s="731"/>
-      <c r="G104" s="732"/>
+      <c r="F104" s="732"/>
+      <c r="G104" s="733"/>
       <c r="H104" s="505">
         <v>0.15</v>
       </c>
@@ -38175,8 +38175,8 @@
         <f>Legend!$C$43</f>
         <v>SRVELC</v>
       </c>
-      <c r="F105" s="731"/>
-      <c r="G105" s="732"/>
+      <c r="F105" s="732"/>
+      <c r="G105" s="733"/>
       <c r="H105" s="505">
         <v>0.8</v>
       </c>
@@ -38222,8 +38222,8 @@
         <f>Legend!$C$43</f>
         <v>SRVELC</v>
       </c>
-      <c r="F106" s="731"/>
-      <c r="G106" s="732"/>
+      <c r="F106" s="732"/>
+      <c r="G106" s="733"/>
       <c r="H106" s="506">
         <v>0.01</v>
       </c>
@@ -39908,7 +39908,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -40516,7 +40516,7 @@
         <f t="shared" ref="B17:B22" si="5">K14</f>
         <v>FT-SRVHET</v>
       </c>
-      <c r="C17" s="749" t="s">
+      <c r="C17" s="728" t="s">
         <v>616</v>
       </c>
       <c r="D17" s="663" t="str">
@@ -41547,25 +41547,25 @@
         <v>20</v>
       </c>
       <c r="Z3"/>
-      <c r="AA3" s="733" t="s">
+      <c r="AA3" s="734" t="s">
         <v>388</v>
       </c>
-      <c r="AB3" s="733" t="s">
+      <c r="AB3" s="734" t="s">
         <v>159</v>
       </c>
-      <c r="AC3" s="733" t="s">
+      <c r="AC3" s="734" t="s">
         <v>81</v>
       </c>
-      <c r="AD3" s="733" t="s">
+      <c r="AD3" s="734" t="s">
         <v>508</v>
       </c>
-      <c r="AE3" s="733" t="s">
+      <c r="AE3" s="734" t="s">
         <v>509</v>
       </c>
-      <c r="AF3" s="733" t="s">
+      <c r="AF3" s="734" t="s">
         <v>510</v>
       </c>
-      <c r="AG3" s="733" t="s">
+      <c r="AG3" s="734" t="s">
         <v>511</v>
       </c>
       <c r="AH3" s="74" t="s">
@@ -41644,13 +41644,13 @@
         <v>121</v>
       </c>
       <c r="Z4"/>
-      <c r="AA4" s="734"/>
-      <c r="AB4" s="734"/>
-      <c r="AC4" s="734"/>
-      <c r="AD4" s="734"/>
-      <c r="AE4" s="734"/>
-      <c r="AF4" s="734"/>
-      <c r="AG4" s="734"/>
+      <c r="AA4" s="735"/>
+      <c r="AB4" s="735"/>
+      <c r="AC4" s="735"/>
+      <c r="AD4" s="735"/>
+      <c r="AE4" s="735"/>
+      <c r="AF4" s="735"/>
+      <c r="AG4" s="735"/>
       <c r="AH4" s="77" t="s">
         <v>146</v>
       </c>

--- a/VT_IE_SRV.xlsx
+++ b/VT_IE_SRV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B7ADF2-ED85-4084-840A-8DA30A9F6D52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6322A3-AC95-4A60-8717-AC189D2F259F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4416,7 +4416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="622">
   <si>
     <t>Unit</t>
   </si>
@@ -6423,6 +6423,21 @@
   </si>
   <si>
     <t>HETD</t>
+  </si>
+  <si>
+    <t>CITY_DH</t>
+  </si>
+  <si>
+    <t>URBAN_1_DH</t>
+  </si>
+  <si>
+    <t>URBAN_2_DH</t>
+  </si>
+  <si>
+    <t>URBAN_3_DH</t>
+  </si>
+  <si>
+    <t>FT-SRVHET</t>
   </si>
 </sst>
 </file>
@@ -9562,7 +9577,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="750">
+  <cellXfs count="751">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11725,6 +11740,9 @@
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="128">
@@ -39905,10 +39923,10 @@
   <sheetPr codeName="Sheet6">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -40417,9 +40435,8 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K14" s="63" t="str">
-        <f t="shared" ref="K14:K19" si="4">"FT-"&amp;D17</f>
-        <v>FT-SRVHET</v>
+      <c r="K14" s="63" t="s">
+        <v>621</v>
       </c>
       <c r="L14" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A46</f>
@@ -40461,7 +40478,7 @@
         <v>IE,National</v>
       </c>
       <c r="K15" s="63" t="str">
-        <f t="shared" si="4"/>
+        <f>"FT-"&amp;D21</f>
         <v>FT-SRVWIN</v>
       </c>
       <c r="L15" s="63" t="str">
@@ -40495,7 +40512,7 @@
         <v>IE,National</v>
       </c>
       <c r="K16" s="63" t="str">
-        <f t="shared" si="4"/>
+        <f>"FT-"&amp;D22</f>
         <v>FT-SRVH2G</v>
       </c>
       <c r="L16" s="63" t="str">
@@ -40512,16 +40529,15 @@
       <c r="P16" s="63"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="663" t="str">
-        <f t="shared" ref="B17:B22" si="5">K14</f>
+      <c r="B17" s="750" t="str">
+        <f>K14</f>
         <v>FT-SRVHET</v>
       </c>
       <c r="C17" s="728" t="s">
         <v>616</v>
       </c>
-      <c r="D17" s="663" t="str">
-        <f>Legend!C46</f>
-        <v>SRVHET</v>
+      <c r="D17" s="663" t="s">
+        <v>617</v>
       </c>
       <c r="E17" s="663">
         <v>1</v>
@@ -40536,7 +40552,7 @@
         <v>IE,National</v>
       </c>
       <c r="K17" s="63" t="str">
-        <f t="shared" si="4"/>
+        <f>"FT-"&amp;D23</f>
         <v>FT-SRVH2L</v>
       </c>
       <c r="L17" s="63" t="str">
@@ -40553,20 +40569,14 @@
       <c r="P17" s="63"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>FT-SRVWIN</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>564</v>
-      </c>
-      <c r="D18" s="30" t="str">
-        <f>Legend!C47</f>
-        <v>SRVWIN</v>
-      </c>
-      <c r="E18" s="30">
-        <v>1</v>
-      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="728"/>
+      <c r="D18" s="21" t="s">
+        <v>618</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
       <c r="I18" s="63" t="s">
         <v>24</v>
       </c>
@@ -40575,7 +40585,7 @@
         <v>IE,National</v>
       </c>
       <c r="K18" s="63" t="str">
-        <f t="shared" si="4"/>
+        <f>"FT-"&amp;D24</f>
         <v>FT-SRVBDL</v>
       </c>
       <c r="L18" s="63" t="str">
@@ -40592,20 +40602,14 @@
       <c r="P18" s="63"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="30" t="str">
-        <f t="shared" si="5"/>
-        <v>FT-SRVH2G</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>565</v>
-      </c>
-      <c r="D19" s="30" t="str">
-        <f>Legend!C48</f>
-        <v>SRVH2G</v>
-      </c>
-      <c r="E19" s="30">
-        <v>1</v>
-      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="728"/>
+      <c r="D19" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
       <c r="I19" s="65" t="s">
         <v>24</v>
       </c>
@@ -40614,7 +40618,7 @@
         <v>IE,National</v>
       </c>
       <c r="K19" s="65" t="str">
-        <f t="shared" si="4"/>
+        <f>"FT-"&amp;D25</f>
         <v>FT-SRVETH</v>
       </c>
       <c r="L19" s="65" t="str">
@@ -40632,54 +40636,96 @@
       <c r="Q19" s="31"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="30" t="str">
-        <f t="shared" si="5"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="728"/>
+      <c r="D20" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="30" t="str">
+        <f>K15</f>
+        <v>FT-SRVWIN</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="D21" s="30" t="str">
+        <f>Legend!C47</f>
+        <v>SRVWIN</v>
+      </c>
+      <c r="E21" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="30" t="str">
+        <f>K16</f>
+        <v>FT-SRVH2G</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="D22" s="30" t="str">
+        <f>Legend!C48</f>
+        <v>SRVH2G</v>
+      </c>
+      <c r="E22" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="30" t="str">
+        <f>K17</f>
         <v>FT-SRVH2L</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C23" s="30" t="s">
         <v>570</v>
       </c>
-      <c r="D20" s="30" t="str">
+      <c r="D23" s="30" t="str">
         <f>Legend!C49</f>
         <v>SRVH2L</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E23" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
-      <c r="B21" s="30" t="str">
-        <f t="shared" si="5"/>
+    <row r="24" spans="2:17">
+      <c r="B24" s="30" t="str">
+        <f>K18</f>
         <v>FT-SRVBDL</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C24" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="D21" s="30" t="str">
+      <c r="D24" s="30" t="str">
         <f>Legend!C50</f>
         <v>SRVBDL</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E24" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
-      <c r="B22" s="31" t="str">
-        <f t="shared" si="5"/>
+    <row r="25" spans="2:17">
+      <c r="B25" s="31" t="str">
+        <f>K19</f>
         <v>FT-SRVETH</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C25" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="D22" s="31" t="str">
+      <c r="D25" s="31" t="str">
         <f>Legend!C51</f>
         <v>SRVETH</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E25" s="31">
         <v>1</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VT_IE_SRV.xlsx
+++ b/VT_IE_SRV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6322A3-AC95-4A60-8717-AC189D2F259F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDCD46B-734F-4A2F-BD87-0E068920508E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11682,6 +11682,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="127" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -11740,9 +11743,6 @@
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="128">
@@ -13224,12 +13224,12 @@
       <c r="Z15" s="714"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="730" t="s">
+      <c r="A16" s="731" t="s">
         <v>601</v>
       </c>
-      <c r="B16" s="730"/>
-      <c r="C16" s="730"/>
-      <c r="D16" s="730"/>
+      <c r="B16" s="731"/>
+      <c r="C16" s="731"/>
+      <c r="D16" s="731"/>
       <c r="E16" s="715"/>
       <c r="F16" s="715"/>
       <c r="G16" s="716"/>
@@ -13313,11 +13313,11 @@
       <c r="A19" s="720" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="729" t="s">
+      <c r="B19" s="730" t="s">
         <v>613</v>
       </c>
-      <c r="C19" s="729"/>
-      <c r="D19" s="729"/>
+      <c r="C19" s="730"/>
+      <c r="D19" s="730"/>
       <c r="E19" s="721"/>
       <c r="F19" s="721"/>
       <c r="G19" s="722"/>
@@ -13345,11 +13345,11 @@
       <c r="A20" s="720" t="s">
         <v>602</v>
       </c>
-      <c r="B20" s="729" t="s">
+      <c r="B20" s="730" t="s">
         <v>614</v>
       </c>
-      <c r="C20" s="729"/>
-      <c r="D20" s="729"/>
+      <c r="C20" s="730"/>
+      <c r="D20" s="730"/>
       <c r="E20" s="721"/>
       <c r="F20" s="721"/>
       <c r="G20" s="722"/>
@@ -13437,9 +13437,9 @@
       <c r="A23" s="720" t="s">
         <v>604</v>
       </c>
-      <c r="B23" s="729"/>
-      <c r="C23" s="729"/>
-      <c r="D23" s="729"/>
+      <c r="B23" s="730"/>
+      <c r="C23" s="730"/>
+      <c r="D23" s="730"/>
       <c r="E23" s="714"/>
       <c r="F23" s="714"/>
       <c r="G23" s="714"/>
@@ -13523,11 +13523,11 @@
       <c r="A26" s="720" t="s">
         <v>605</v>
       </c>
-      <c r="B26" s="729" t="s">
+      <c r="B26" s="730" t="s">
         <v>612</v>
       </c>
-      <c r="C26" s="729"/>
-      <c r="D26" s="729"/>
+      <c r="C26" s="730"/>
+      <c r="D26" s="730"/>
       <c r="E26" s="714"/>
       <c r="F26" s="714"/>
       <c r="G26" s="714"/>
@@ -13643,11 +13643,11 @@
       <c r="A30" s="720" t="s">
         <v>607</v>
       </c>
-      <c r="B30" s="731" t="s">
+      <c r="B30" s="732" t="s">
         <v>608</v>
       </c>
-      <c r="C30" s="729"/>
-      <c r="D30" s="729"/>
+      <c r="C30" s="730"/>
+      <c r="D30" s="730"/>
       <c r="E30" s="725"/>
       <c r="F30" s="725"/>
       <c r="G30" s="714"/>
@@ -13675,11 +13675,11 @@
       <c r="A31" s="720" t="s">
         <v>609</v>
       </c>
-      <c r="B31" s="729" t="s">
+      <c r="B31" s="730" t="s">
         <v>610</v>
       </c>
-      <c r="C31" s="729"/>
-      <c r="D31" s="729"/>
+      <c r="C31" s="730"/>
+      <c r="D31" s="730"/>
       <c r="E31" s="725"/>
       <c r="F31" s="725"/>
       <c r="G31" s="714"/>
@@ -15750,25 +15750,25 @@
       <c r="T3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="734" t="s">
+      <c r="V3" s="735" t="s">
         <v>388</v>
       </c>
-      <c r="W3" s="734" t="s">
+      <c r="W3" s="735" t="s">
         <v>159</v>
       </c>
-      <c r="X3" s="734" t="s">
+      <c r="X3" s="735" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="734" t="s">
+      <c r="Y3" s="735" t="s">
         <v>508</v>
       </c>
-      <c r="Z3" s="734" t="s">
+      <c r="Z3" s="735" t="s">
         <v>509</v>
       </c>
-      <c r="AA3" s="734" t="s">
+      <c r="AA3" s="735" t="s">
         <v>510</v>
       </c>
-      <c r="AB3" s="734" t="s">
+      <c r="AB3" s="735" t="s">
         <v>511</v>
       </c>
       <c r="AC3" s="69" t="s">
@@ -15832,13 +15832,13 @@
       <c r="T4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="735"/>
-      <c r="W4" s="735"/>
-      <c r="X4" s="735"/>
-      <c r="Y4" s="735"/>
-      <c r="Z4" s="735"/>
-      <c r="AA4" s="735"/>
-      <c r="AB4" s="735"/>
+      <c r="V4" s="736"/>
+      <c r="W4" s="736"/>
+      <c r="X4" s="736"/>
+      <c r="Y4" s="736"/>
+      <c r="Z4" s="736"/>
+      <c r="AA4" s="736"/>
+      <c r="AB4" s="736"/>
       <c r="AC4" s="77" t="s">
         <v>146</v>
       </c>
@@ -17120,25 +17120,25 @@
       <c r="T3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="734" t="s">
+      <c r="V3" s="735" t="s">
         <v>388</v>
       </c>
-      <c r="W3" s="734" t="s">
+      <c r="W3" s="735" t="s">
         <v>159</v>
       </c>
-      <c r="X3" s="734" t="s">
+      <c r="X3" s="735" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="734" t="s">
+      <c r="Y3" s="735" t="s">
         <v>508</v>
       </c>
-      <c r="Z3" s="734" t="s">
+      <c r="Z3" s="735" t="s">
         <v>509</v>
       </c>
-      <c r="AA3" s="734" t="s">
+      <c r="AA3" s="735" t="s">
         <v>510</v>
       </c>
-      <c r="AB3" s="734" t="s">
+      <c r="AB3" s="735" t="s">
         <v>511</v>
       </c>
       <c r="AC3" s="69" t="s">
@@ -17202,13 +17202,13 @@
       <c r="T4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="735"/>
-      <c r="W4" s="735"/>
-      <c r="X4" s="735"/>
-      <c r="Y4" s="735"/>
-      <c r="Z4" s="735"/>
-      <c r="AA4" s="735"/>
-      <c r="AB4" s="735"/>
+      <c r="V4" s="736"/>
+      <c r="W4" s="736"/>
+      <c r="X4" s="736"/>
+      <c r="Y4" s="736"/>
+      <c r="Z4" s="736"/>
+      <c r="AA4" s="736"/>
+      <c r="AB4" s="736"/>
       <c r="AC4" s="77" t="s">
         <v>146</v>
       </c>
@@ -18067,25 +18067,25 @@
       <c r="T3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="734" t="s">
+      <c r="V3" s="735" t="s">
         <v>388</v>
       </c>
-      <c r="W3" s="734" t="s">
+      <c r="W3" s="735" t="s">
         <v>159</v>
       </c>
-      <c r="X3" s="734" t="s">
+      <c r="X3" s="735" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="734" t="s">
+      <c r="Y3" s="735" t="s">
         <v>508</v>
       </c>
-      <c r="Z3" s="734" t="s">
+      <c r="Z3" s="735" t="s">
         <v>509</v>
       </c>
-      <c r="AA3" s="734" t="s">
+      <c r="AA3" s="735" t="s">
         <v>510</v>
       </c>
-      <c r="AB3" s="734" t="s">
+      <c r="AB3" s="735" t="s">
         <v>511</v>
       </c>
       <c r="AC3" s="69" t="s">
@@ -18149,13 +18149,13 @@
       <c r="T4" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="735"/>
-      <c r="W4" s="735"/>
-      <c r="X4" s="735"/>
-      <c r="Y4" s="735"/>
-      <c r="Z4" s="735"/>
-      <c r="AA4" s="735"/>
-      <c r="AB4" s="735"/>
+      <c r="V4" s="736"/>
+      <c r="W4" s="736"/>
+      <c r="X4" s="736"/>
+      <c r="Y4" s="736"/>
+      <c r="Z4" s="736"/>
+      <c r="AA4" s="736"/>
+      <c r="AB4" s="736"/>
       <c r="AC4" s="77" t="s">
         <v>146</v>
       </c>
@@ -18968,25 +18968,25 @@
       <c r="T3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="734" t="s">
+      <c r="V3" s="735" t="s">
         <v>388</v>
       </c>
-      <c r="W3" s="734" t="s">
+      <c r="W3" s="735" t="s">
         <v>159</v>
       </c>
-      <c r="X3" s="734" t="s">
+      <c r="X3" s="735" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="734" t="s">
+      <c r="Y3" s="735" t="s">
         <v>508</v>
       </c>
-      <c r="Z3" s="734" t="s">
+      <c r="Z3" s="735" t="s">
         <v>509</v>
       </c>
-      <c r="AA3" s="734" t="s">
+      <c r="AA3" s="735" t="s">
         <v>510</v>
       </c>
-      <c r="AB3" s="734" t="s">
+      <c r="AB3" s="735" t="s">
         <v>511</v>
       </c>
       <c r="AC3" s="69" t="s">
@@ -19050,13 +19050,13 @@
       <c r="T4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="735"/>
-      <c r="W4" s="735"/>
-      <c r="X4" s="735"/>
-      <c r="Y4" s="735"/>
-      <c r="Z4" s="735"/>
-      <c r="AA4" s="735"/>
-      <c r="AB4" s="735"/>
+      <c r="V4" s="736"/>
+      <c r="W4" s="736"/>
+      <c r="X4" s="736"/>
+      <c r="Y4" s="736"/>
+      <c r="Z4" s="736"/>
+      <c r="AA4" s="736"/>
+      <c r="AB4" s="736"/>
       <c r="AC4" s="77" t="s">
         <v>146</v>
       </c>
@@ -27090,23 +27090,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1">
-      <c r="A1" s="741" t="s">
+      <c r="A1" s="742" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="741"/>
-      <c r="C1" s="741"/>
-      <c r="D1" s="741"/>
-      <c r="E1" s="741"/>
-      <c r="F1" s="741"/>
-      <c r="G1" s="741"/>
-      <c r="H1" s="741"/>
-      <c r="I1" s="741"/>
-      <c r="J1" s="741"/>
-      <c r="K1" s="741"/>
-      <c r="L1" s="742"/>
-      <c r="M1" s="742"/>
-      <c r="N1" s="742"/>
-      <c r="O1" s="742"/>
+      <c r="B1" s="742"/>
+      <c r="C1" s="742"/>
+      <c r="D1" s="742"/>
+      <c r="E1" s="742"/>
+      <c r="F1" s="742"/>
+      <c r="G1" s="742"/>
+      <c r="H1" s="742"/>
+      <c r="I1" s="742"/>
+      <c r="J1" s="742"/>
+      <c r="K1" s="742"/>
+      <c r="L1" s="743"/>
+      <c r="M1" s="743"/>
+      <c r="N1" s="743"/>
+      <c r="O1" s="743"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="558" t="s">
@@ -28700,34 +28700,34 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1">
-      <c r="A37" s="743" t="s">
+      <c r="A37" s="744" t="s">
         <v>481</v>
       </c>
-      <c r="B37" s="743"/>
-      <c r="C37" s="743"/>
-      <c r="D37" s="743"/>
-      <c r="E37" s="743"/>
-      <c r="F37" s="743"/>
-      <c r="G37" s="743"/>
-      <c r="H37" s="743"/>
-      <c r="I37" s="743"/>
-      <c r="J37" s="743"/>
-      <c r="K37" s="743"/>
-      <c r="L37" s="743"/>
-      <c r="M37" s="743"/>
-      <c r="N37" s="743"/>
-      <c r="O37" s="743"/>
+      <c r="B37" s="744"/>
+      <c r="C37" s="744"/>
+      <c r="D37" s="744"/>
+      <c r="E37" s="744"/>
+      <c r="F37" s="744"/>
+      <c r="G37" s="744"/>
+      <c r="H37" s="744"/>
+      <c r="I37" s="744"/>
+      <c r="J37" s="744"/>
+      <c r="K37" s="744"/>
+      <c r="L37" s="744"/>
+      <c r="M37" s="744"/>
+      <c r="N37" s="744"/>
+      <c r="O37" s="744"/>
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
-      <c r="A40" s="741" t="s">
+      <c r="A40" s="742" t="s">
         <v>493</v>
       </c>
-      <c r="B40" s="741"/>
-      <c r="C40" s="741"/>
-      <c r="D40" s="741"/>
-      <c r="E40" s="741"/>
-      <c r="F40" s="741"/>
-      <c r="G40" s="742"/>
+      <c r="B40" s="742"/>
+      <c r="C40" s="742"/>
+      <c r="D40" s="742"/>
+      <c r="E40" s="742"/>
+      <c r="F40" s="742"/>
+      <c r="G40" s="743"/>
       <c r="H40" s="571"/>
       <c r="I40" s="571"/>
       <c r="J40" s="571"/>
@@ -28738,35 +28738,35 @@
       <c r="O40" s="571"/>
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1">
-      <c r="A41" s="744" t="s">
+      <c r="A41" s="745" t="s">
         <v>494</v>
       </c>
-      <c r="B41" s="744"/>
-      <c r="C41" s="744"/>
-      <c r="D41" s="744"/>
-      <c r="E41" s="744"/>
-      <c r="F41" s="744"/>
+      <c r="B41" s="745"/>
+      <c r="C41" s="745"/>
+      <c r="D41" s="745"/>
+      <c r="E41" s="745"/>
+      <c r="F41" s="745"/>
       <c r="G41" s="611" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1">
-      <c r="A42" s="745" t="s">
+      <c r="A42" s="746" t="s">
         <v>495</v>
       </c>
-      <c r="B42" s="747" t="s">
+      <c r="B42" s="748" t="s">
         <v>496</v>
       </c>
-      <c r="C42" s="747"/>
-      <c r="D42" s="747"/>
-      <c r="E42" s="747"/>
-      <c r="F42" s="747"/>
-      <c r="G42" s="748" t="s">
+      <c r="C42" s="748"/>
+      <c r="D42" s="748"/>
+      <c r="E42" s="748"/>
+      <c r="F42" s="748"/>
+      <c r="G42" s="749" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1">
-      <c r="A43" s="746"/>
+      <c r="A43" s="747"/>
       <c r="B43" s="612" t="s">
         <v>497</v>
       </c>
@@ -28782,7 +28782,7 @@
       <c r="F43" s="612" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="749"/>
+      <c r="G43" s="750"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="613" t="s">
@@ -29116,36 +29116,36 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1">
-      <c r="A64" s="738"/>
-      <c r="B64" s="736" t="s">
+      <c r="A64" s="739"/>
+      <c r="B64" s="737" t="s">
         <v>505</v>
       </c>
-      <c r="C64" s="736" t="s">
+      <c r="C64" s="737" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="740" t="s">
+      <c r="D64" s="741" t="s">
         <v>504</v>
       </c>
-      <c r="E64" s="740"/>
-      <c r="F64" s="736" t="s">
+      <c r="E64" s="741"/>
+      <c r="F64" s="737" t="s">
         <v>33</v>
       </c>
-      <c r="G64" s="736" t="s">
+      <c r="G64" s="737" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1">
-      <c r="A65" s="739"/>
-      <c r="B65" s="737"/>
-      <c r="C65" s="737"/>
+      <c r="A65" s="740"/>
+      <c r="B65" s="738"/>
+      <c r="C65" s="738"/>
       <c r="D65" s="622" t="s">
         <v>33</v>
       </c>
       <c r="E65" s="508" t="s">
         <v>502</v>
       </c>
-      <c r="F65" s="737"/>
-      <c r="G65" s="737"/>
+      <c r="F65" s="738"/>
+      <c r="G65" s="738"/>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1">
       <c r="A66" s="116" t="s">
@@ -38093,11 +38093,11 @@
         <f>Legend!$C$43</f>
         <v>SRVELC</v>
       </c>
-      <c r="F103" s="732">
+      <c r="F103" s="733">
         <f>'Public SEAI'!C29*Legend!$B$66</f>
         <v>1.4472</v>
       </c>
-      <c r="G103" s="733">
+      <c r="G103" s="734">
         <f>480000/10^6</f>
         <v>0.48</v>
       </c>
@@ -38146,8 +38146,8 @@
         <f>Legend!$C$43</f>
         <v>SRVELC</v>
       </c>
-      <c r="F104" s="732"/>
-      <c r="G104" s="733"/>
+      <c r="F104" s="733"/>
+      <c r="G104" s="734"/>
       <c r="H104" s="505">
         <v>0.15</v>
       </c>
@@ -38193,8 +38193,8 @@
         <f>Legend!$C$43</f>
         <v>SRVELC</v>
       </c>
-      <c r="F105" s="732"/>
-      <c r="G105" s="733"/>
+      <c r="F105" s="733"/>
+      <c r="G105" s="734"/>
       <c r="H105" s="505">
         <v>0.8</v>
       </c>
@@ -38240,8 +38240,8 @@
         <f>Legend!$C$43</f>
         <v>SRVELC</v>
       </c>
-      <c r="F106" s="732"/>
-      <c r="G106" s="733"/>
+      <c r="F106" s="733"/>
+      <c r="G106" s="734"/>
       <c r="H106" s="506">
         <v>0.01</v>
       </c>
@@ -39926,7 +39926,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -39938,7 +39938,7 @@
     <col min="5" max="5" width="9.140625" style="30"/>
     <col min="6" max="6" width="10.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="9.140625" style="30"/>
-    <col min="10" max="10" width="12.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="30" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="30" customWidth="1"/>
     <col min="12" max="12" width="45.7109375" style="30" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="9.140625" style="30"/>
@@ -40432,8 +40432,8 @@
         <v>24</v>
       </c>
       <c r="J14" s="63" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
+        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
       <c r="K14" s="63" t="s">
         <v>621</v>
@@ -40529,7 +40529,7 @@
       <c r="P16" s="63"/>
     </row>
     <row r="17" spans="2:17">
-      <c r="B17" s="750" t="str">
+      <c r="B17" s="729" t="str">
         <f>K14</f>
         <v>FT-SRVHET</v>
       </c>
@@ -41593,25 +41593,25 @@
         <v>20</v>
       </c>
       <c r="Z3"/>
-      <c r="AA3" s="734" t="s">
+      <c r="AA3" s="735" t="s">
         <v>388</v>
       </c>
-      <c r="AB3" s="734" t="s">
+      <c r="AB3" s="735" t="s">
         <v>159</v>
       </c>
-      <c r="AC3" s="734" t="s">
+      <c r="AC3" s="735" t="s">
         <v>81</v>
       </c>
-      <c r="AD3" s="734" t="s">
+      <c r="AD3" s="735" t="s">
         <v>508</v>
       </c>
-      <c r="AE3" s="734" t="s">
+      <c r="AE3" s="735" t="s">
         <v>509</v>
       </c>
-      <c r="AF3" s="734" t="s">
+      <c r="AF3" s="735" t="s">
         <v>510</v>
       </c>
-      <c r="AG3" s="734" t="s">
+      <c r="AG3" s="735" t="s">
         <v>511</v>
       </c>
       <c r="AH3" s="74" t="s">
@@ -41690,13 +41690,13 @@
         <v>121</v>
       </c>
       <c r="Z4"/>
-      <c r="AA4" s="735"/>
-      <c r="AB4" s="735"/>
-      <c r="AC4" s="735"/>
-      <c r="AD4" s="735"/>
-      <c r="AE4" s="735"/>
-      <c r="AF4" s="735"/>
-      <c r="AG4" s="735"/>
+      <c r="AA4" s="736"/>
+      <c r="AB4" s="736"/>
+      <c r="AC4" s="736"/>
+      <c r="AD4" s="736"/>
+      <c r="AE4" s="736"/>
+      <c r="AF4" s="736"/>
+      <c r="AG4" s="736"/>
       <c r="AH4" s="77" t="s">
         <v>146</v>
       </c>

--- a/VT_IE_SRV.xlsx
+++ b/VT_IE_SRV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDCD46B-734F-4A2F-BD87-0E068920508E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE56ED4-63D7-4BF0-934D-B7BA17E8F186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4416,7 +4416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="619">
   <si>
     <t>Unit</t>
   </si>
@@ -6425,19 +6425,10 @@
     <t>HETD</t>
   </si>
   <si>
-    <t>CITY_DH</t>
-  </si>
-  <si>
-    <t>URBAN_1_DH</t>
-  </si>
-  <si>
-    <t>URBAN_2_DH</t>
-  </si>
-  <si>
-    <t>URBAN_3_DH</t>
-  </si>
-  <si>
     <t>FT-SRVHET</t>
+  </si>
+  <si>
+    <t>CITY_DH,URBAN_1_DH,URBAN_2_DH,URBAN_3_DH</t>
   </si>
 </sst>
 </file>
@@ -39923,10 +39914,10 @@
   <sheetPr codeName="Sheet6">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -40436,7 +40427,7 @@
         <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
       <c r="K14" s="63" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="L14" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A46</f>
@@ -40478,7 +40469,7 @@
         <v>IE,National</v>
       </c>
       <c r="K15" s="63" t="str">
-        <f>"FT-"&amp;D21</f>
+        <f>"FT-"&amp;D18</f>
         <v>FT-SRVWIN</v>
       </c>
       <c r="L15" s="63" t="str">
@@ -40512,7 +40503,7 @@
         <v>IE,National</v>
       </c>
       <c r="K16" s="63" t="str">
-        <f>"FT-"&amp;D22</f>
+        <f>"FT-"&amp;D19</f>
         <v>FT-SRVH2G</v>
       </c>
       <c r="L16" s="63" t="str">
@@ -40537,7 +40528,7 @@
         <v>616</v>
       </c>
       <c r="D17" s="663" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="E17" s="663">
         <v>1</v>
@@ -40552,7 +40543,7 @@
         <v>IE,National</v>
       </c>
       <c r="K17" s="63" t="str">
-        <f>"FT-"&amp;D23</f>
+        <f>"FT-"&amp;D20</f>
         <v>FT-SRVH2L</v>
       </c>
       <c r="L17" s="63" t="str">
@@ -40569,14 +40560,20 @@
       <c r="P17" s="63"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="21"/>
-      <c r="C18" s="728"/>
-      <c r="D18" s="21" t="s">
-        <v>618</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="B18" s="30" t="str">
+        <f>K15</f>
+        <v>FT-SRVWIN</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="D18" s="30" t="str">
+        <f>Legend!C47</f>
+        <v>SRVWIN</v>
+      </c>
+      <c r="E18" s="30">
+        <v>1</v>
+      </c>
       <c r="I18" s="63" t="s">
         <v>24</v>
       </c>
@@ -40585,7 +40582,7 @@
         <v>IE,National</v>
       </c>
       <c r="K18" s="63" t="str">
-        <f>"FT-"&amp;D24</f>
+        <f>"FT-"&amp;D21</f>
         <v>FT-SRVBDL</v>
       </c>
       <c r="L18" s="63" t="str">
@@ -40602,14 +40599,20 @@
       <c r="P18" s="63"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="21"/>
-      <c r="C19" s="728"/>
-      <c r="D19" s="21" t="s">
-        <v>619</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
+      <c r="B19" s="30" t="str">
+        <f>K16</f>
+        <v>FT-SRVH2G</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="D19" s="30" t="str">
+        <f>Legend!C48</f>
+        <v>SRVH2G</v>
+      </c>
+      <c r="E19" s="30">
+        <v>1</v>
+      </c>
       <c r="I19" s="65" t="s">
         <v>24</v>
       </c>
@@ -40618,7 +40621,7 @@
         <v>IE,National</v>
       </c>
       <c r="K19" s="65" t="str">
-        <f>"FT-"&amp;D25</f>
+        <f>"FT-"&amp;D22</f>
         <v>FT-SRVETH</v>
       </c>
       <c r="L19" s="65" t="str">
@@ -40636,96 +40639,54 @@
       <c r="Q19" s="31"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="21"/>
-      <c r="C20" s="728"/>
-      <c r="D20" s="21" t="s">
-        <v>620</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
+      <c r="B20" s="30" t="str">
+        <f>K17</f>
+        <v>FT-SRVH2L</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="D20" s="30" t="str">
+        <f>Legend!C49</f>
+        <v>SRVH2L</v>
+      </c>
+      <c r="E20" s="30">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="30" t="str">
-        <f>K15</f>
-        <v>FT-SRVWIN</v>
+        <f>K18</f>
+        <v>FT-SRVBDL</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D21" s="30" t="str">
-        <f>Legend!C47</f>
-        <v>SRVWIN</v>
+        <f>Legend!C50</f>
+        <v>SRVBDL</v>
       </c>
       <c r="E21" s="30">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="30" t="str">
-        <f>K16</f>
-        <v>FT-SRVH2G</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>565</v>
-      </c>
-      <c r="D22" s="30" t="str">
-        <f>Legend!C48</f>
-        <v>SRVH2G</v>
-      </c>
-      <c r="E22" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17">
-      <c r="B23" s="30" t="str">
-        <f>K17</f>
-        <v>FT-SRVH2L</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="D23" s="30" t="str">
-        <f>Legend!C49</f>
-        <v>SRVH2L</v>
-      </c>
-      <c r="E23" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17">
-      <c r="B24" s="30" t="str">
-        <f>K18</f>
-        <v>FT-SRVBDL</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>561</v>
-      </c>
-      <c r="D24" s="30" t="str">
-        <f>Legend!C50</f>
-        <v>SRVBDL</v>
-      </c>
-      <c r="E24" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17">
-      <c r="B25" s="31" t="str">
+      <c r="B22" s="31" t="str">
         <f>K19</f>
         <v>FT-SRVETH</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C22" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="D25" s="31" t="str">
+      <c r="D22" s="31" t="str">
         <f>Legend!C51</f>
         <v>SRVETH</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E22" s="31">
         <v>1</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VT_IE_SRV.xlsx
+++ b/VT_IE_SRV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE56ED4-63D7-4BF0-934D-B7BA17E8F186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D5D78-E016-419F-9E39-29CF8D246F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="83" r:id="rId1"/>
@@ -4416,7 +4416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="618">
   <si>
     <t>Unit</t>
   </si>
@@ -6425,10 +6425,7 @@
     <t>HETD</t>
   </si>
   <si>
-    <t>FT-SRVHET</t>
-  </si>
-  <si>
-    <t>CITY_DH,URBAN_1_DH,URBAN_2_DH,URBAN_3_DH</t>
+    <t>SRVHET</t>
   </si>
 </sst>
 </file>
@@ -19528,7 +19525,7 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="706" t="str">
-        <f>Commodities!D38</f>
+        <f>Commodities!D41</f>
         <v>SRVCO2N</v>
       </c>
       <c r="C6" s="709">
@@ -19553,13 +19550,13 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="21" t="str">
-        <f>Commodities!D39</f>
+        <f>Commodities!D42</f>
         <v>SRVCH4N</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="21" t="str">
-        <f>Commodities!D40</f>
+        <f>Commodities!D43</f>
         <v>SRVSO2N</v>
       </c>
       <c r="C8" s="25"/>
@@ -19571,7 +19568,7 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="21" t="str">
-        <f>Commodities!D41</f>
+        <f>Commodities!D44</f>
         <v>SRVNOXN</v>
       </c>
       <c r="C9" s="25"/>
@@ -19583,7 +19580,7 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="21" t="str">
-        <f>Commodities!D42</f>
+        <f>Commodities!D45</f>
         <v>SRVPM10</v>
       </c>
       <c r="C10" s="25"/>
@@ -19595,7 +19592,7 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="31" t="str">
-        <f>Commodities!D43</f>
+        <f>Commodities!D46</f>
         <v>SRVPM25</v>
       </c>
       <c r="C11" s="126"/>
@@ -38504,17 +38501,17 @@
   <sheetPr codeName="Sheet5">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:R98"/>
+  <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="30" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" style="30" customWidth="1"/>
     <col min="5" max="5" width="45" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="30" bestFit="1" customWidth="1"/>
@@ -39311,16 +39308,16 @@
         <v>21</v>
       </c>
       <c r="C33" s="25" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
+        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
       <c r="D33" s="30" t="str">
-        <f>Legend!C46</f>
-        <v>SRVHET</v>
+        <f>Legend!C46&amp;"_C"</f>
+        <v>SRVHET_C</v>
       </c>
       <c r="E33" s="30" t="str">
-        <f>Legend!A46&amp;" (SRV)"</f>
-        <v>District heating (SRV)</v>
+        <f>Legend!A46&amp;" (SRV) City"</f>
+        <v>District heating (SRV) City</v>
       </c>
       <c r="F33" s="30" t="s">
         <v>46</v>
@@ -39335,145 +39332,161 @@
       <c r="J33" s="30"/>
       <c r="K33" s="30"/>
     </row>
-    <row r="34" spans="1:15" s="1" customFormat="1">
-      <c r="B34" s="21" t="s">
+    <row r="34" spans="1:15" s="411" customFormat="1">
+      <c r="B34" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="21" t="str">
+      <c r="C34" s="25" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
+        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
+      </c>
+      <c r="D34" s="30" t="str">
+        <f>Legend!C46&amp;"_1"</f>
+        <v>SRVHET_1</v>
+      </c>
+      <c r="E34" s="30" t="str">
+        <f>Legend!A46&amp;" (SRV) High Density Urban"</f>
+        <v>District heating (SRV) High Density Urban</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
+    </row>
+    <row r="35" spans="1:15" s="411" customFormat="1">
+      <c r="B35" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="25" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
+        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
+      </c>
+      <c r="D35" s="30" t="str">
+        <f>Legend!C46&amp;"_2"</f>
+        <v>SRVHET_2</v>
+      </c>
+      <c r="E35" s="30" t="str">
+        <f>Legend!A46&amp;" (SRV) Medium Density Urban"</f>
+        <v>District heating (SRV) Medium Density Urban</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
+    </row>
+    <row r="36" spans="1:15" s="411" customFormat="1">
+      <c r="B36" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="25" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
+        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
+      </c>
+      <c r="D36" s="30" t="str">
+        <f>Legend!C46&amp;"_3"</f>
+        <v>SRVHET_3</v>
+      </c>
+      <c r="E36" s="30" t="str">
+        <f>Legend!A46&amp;" (SRV) Low Density Urban"</f>
+        <v>District heating (SRV) Low Density Urban</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
+    </row>
+    <row r="37" spans="1:15" s="1" customFormat="1">
+      <c r="B37" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D34" s="21" t="str">
+      <c r="D37" s="21" t="str">
         <f>Legend!C47</f>
         <v>SRVWIN</v>
       </c>
-      <c r="E34" s="21" t="str">
+      <c r="E37" s="21" t="str">
         <f>Legend!A47&amp;" (SRV)"</f>
         <v>Wind (SRV)</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F37" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="30"/>
-    </row>
-    <row r="35" spans="1:15" s="1" customFormat="1">
-      <c r="B35" s="21" t="s">
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="30"/>
+    </row>
+    <row r="38" spans="1:15" s="1" customFormat="1">
+      <c r="B38" s="21" t="s">
         <v>21</v>
-      </c>
-      <c r="C35" s="21" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="D35" s="21" t="str">
-        <f>Legend!C48</f>
-        <v>SRVH2G</v>
-      </c>
-      <c r="E35" s="21" t="str">
-        <f>Legend!A48&amp;" (SRV)"</f>
-        <v>Hydrogen (gaseous) (SRV)</v>
-      </c>
-      <c r="F35" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="30"/>
-    </row>
-    <row r="36" spans="1:15" s="1" customFormat="1">
-      <c r="B36" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="21" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="D36" s="21" t="str">
-        <f>Legend!C49</f>
-        <v>SRVH2L</v>
-      </c>
-      <c r="E36" s="21" t="str">
-        <f>Legend!A49&amp;" (SRV)"</f>
-        <v>Hydrogen (liquid) (SRV)</v>
-      </c>
-      <c r="F36" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="102"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="30"/>
-    </row>
-    <row r="37" spans="1:15" s="1" customFormat="1">
-      <c r="B37" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="31" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="D37" s="31" t="str">
-        <f>Legend!C50</f>
-        <v>SRVBDL</v>
-      </c>
-      <c r="E37" s="31" t="str">
-        <f>Legend!A50&amp;" (SRV)"</f>
-        <v>Biodiesel (SRV)</v>
-      </c>
-      <c r="F37" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="30"/>
-    </row>
-    <row r="38" spans="1:15" s="1" customFormat="1">
-      <c r="B38" s="663" t="s">
-        <v>26</v>
       </c>
       <c r="C38" s="21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>531</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="F38" s="663" t="s">
-        <v>543</v>
-      </c>
-      <c r="G38" s="663"/>
-      <c r="H38" s="663"/>
-      <c r="I38" s="663"/>
-      <c r="J38" s="663"/>
+      <c r="D38" s="21" t="str">
+        <f>Legend!C48</f>
+        <v>SRVH2G</v>
+      </c>
+      <c r="E38" s="21" t="str">
+        <f>Legend!A48&amp;" (SRV)"</f>
+        <v>Hydrogen (gaseous) (SRV)</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
       <c r="K38" s="30"/>
     </row>
     <row r="39" spans="1:15" s="1" customFormat="1">
       <c r="B39" s="21" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C39" s="21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D39" s="454" t="s">
-        <v>532</v>
-      </c>
-      <c r="E39" s="102" t="s">
-        <v>537</v>
-      </c>
-      <c r="F39" s="102" t="s">
-        <v>543</v>
+      <c r="D39" s="21" t="str">
+        <f>Legend!C49</f>
+        <v>SRVH2L</v>
+      </c>
+      <c r="E39" s="21" t="str">
+        <f>Legend!A49&amp;" (SRV)"</f>
+        <v>Hydrogen (liquid) (SRV)</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="G39" s="102"/>
       <c r="H39" s="102"/>
@@ -39482,49 +39495,51 @@
       <c r="K39" s="30"/>
     </row>
     <row r="40" spans="1:15" s="1" customFormat="1">
-      <c r="B40" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="21" t="str">
+      <c r="B40" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="31" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="E40" s="102" t="s">
-        <v>538</v>
-      </c>
-      <c r="F40" s="102" t="s">
-        <v>543</v>
-      </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
+      <c r="D40" s="31" t="str">
+        <f>Legend!C50</f>
+        <v>SRVBDL</v>
+      </c>
+      <c r="E40" s="31" t="str">
+        <f>Legend!A50&amp;" (SRV)"</f>
+        <v>Biodiesel (SRV)</v>
+      </c>
+      <c r="F40" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="103"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="103"/>
+      <c r="J40" s="103"/>
       <c r="K40" s="30"/>
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1">
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="663" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="E41" s="102" t="s">
-        <v>539</v>
-      </c>
-      <c r="F41" s="102" t="s">
+      <c r="D41" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F41" s="663" t="s">
         <v>543</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="21"/>
+      <c r="G41" s="663"/>
+      <c r="H41" s="663"/>
+      <c r="I41" s="663"/>
+      <c r="J41" s="663"/>
       <c r="K41" s="30"/>
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1">
@@ -39535,166 +39550,217 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>535</v>
+      <c r="D42" s="454" t="s">
+        <v>532</v>
       </c>
       <c r="E42" s="102" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F42" s="102" t="s">
         <v>543</v>
       </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="21"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
       <c r="K42" s="30"/>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1">
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="31" t="str">
+      <c r="C43" s="21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D43" s="14" t="s">
+      <c r="D43" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="E43" s="102" t="s">
+        <v>538</v>
+      </c>
+      <c r="F43" s="102" t="s">
+        <v>543</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="30"/>
+    </row>
+    <row r="44" spans="1:15" s="1" customFormat="1">
+      <c r="B44" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="21" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="E44" s="102" t="s">
+        <v>539</v>
+      </c>
+      <c r="F44" s="102" t="s">
+        <v>543</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="30"/>
+    </row>
+    <row r="45" spans="1:15" s="1" customFormat="1">
+      <c r="B45" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="21" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="E45" s="102" t="s">
+        <v>540</v>
+      </c>
+      <c r="F45" s="102" t="s">
+        <v>543</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="30"/>
+    </row>
+    <row r="46" spans="1:15" s="1" customFormat="1">
+      <c r="B46" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="31" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="E43" s="103" t="s">
+      <c r="E46" s="103" t="s">
         <v>541</v>
       </c>
-      <c r="F43" s="103" t="s">
+      <c r="F46" s="103" t="s">
         <v>543</v>
       </c>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="30"/>
-    </row>
-    <row r="44" spans="1:15" s="1" customFormat="1">
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="7"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
-      <c r="K44" s="30"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="1"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="1"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="1"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="4"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="30"/>
+    </row>
+    <row r="47" spans="1:15" s="1" customFormat="1">
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="7"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
     </row>
     <row r="48" spans="1:15">
+      <c r="A48" s="1"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="12:15">
+    <row r="49" spans="1:15">
+      <c r="A49" s="1"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
     </row>
-    <row r="50" spans="12:15">
+    <row r="50" spans="1:15">
+      <c r="A50" s="1"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="52" spans="12:15">
+    <row r="51" spans="1:15">
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="1:15">
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="12:15">
+    <row r="53" spans="1:15">
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="12:15">
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-    </row>
-    <row r="55" spans="12:15">
+    <row r="55" spans="1:15">
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
     </row>
-    <row r="56" spans="12:15">
+    <row r="56" spans="1:15">
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
     </row>
-    <row r="57" spans="12:15">
+    <row r="57" spans="1:15">
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
     </row>
-    <row r="58" spans="12:15">
+    <row r="58" spans="1:15">
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
     </row>
-    <row r="59" spans="12:15">
+    <row r="59" spans="1:15">
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
     </row>
-    <row r="60" spans="12:15">
+    <row r="60" spans="1:15">
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
     </row>
-    <row r="61" spans="12:15">
+    <row r="61" spans="1:15">
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
     </row>
-    <row r="62" spans="12:15">
+    <row r="62" spans="1:15">
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
     </row>
-    <row r="63" spans="12:15">
+    <row r="63" spans="1:15">
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
     </row>
-    <row r="64" spans="12:15">
+    <row r="64" spans="1:15">
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -39903,6 +39969,24 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
+    </row>
+    <row r="99" spans="12:15">
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+    </row>
+    <row r="100" spans="12:15">
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+    </row>
+    <row r="101" spans="12:15">
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39914,10 +39998,10 @@
   <sheetPr codeName="Sheet6">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -40426,12 +40510,13 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
         <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
-      <c r="K14" s="63" t="s">
-        <v>617</v>
+      <c r="K14" s="63" t="str">
+        <f>"FT-"&amp;Commodities!D33</f>
+        <v>FT-SRVHET_C</v>
       </c>
       <c r="L14" s="63" t="str">
-        <f>"Fuel Tech - "&amp;Legend!A46</f>
-        <v>Fuel Tech - District heating</v>
+        <f>Commodities!E33</f>
+        <v>District heating (SRV) City</v>
       </c>
       <c r="M14" s="63" t="s">
         <v>46</v>
@@ -40465,16 +40550,16 @@
         <v>24</v>
       </c>
       <c r="J15" s="63" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
+        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
       <c r="K15" s="63" t="str">
-        <f>"FT-"&amp;D18</f>
-        <v>FT-SRVWIN</v>
+        <f>"FT-"&amp;Commodities!D34</f>
+        <v>FT-SRVHET_1</v>
       </c>
       <c r="L15" s="63" t="str">
-        <f>"Fuel Tech - "&amp;Legend!A47</f>
-        <v>Fuel Tech - Wind</v>
+        <f>Commodities!E34</f>
+        <v>District heating (SRV) High Density Urban</v>
       </c>
       <c r="M15" s="63" t="s">
         <v>46</v>
@@ -40482,7 +40567,9 @@
       <c r="N15" s="63" t="s">
         <v>592</v>
       </c>
-      <c r="O15" s="63"/>
+      <c r="O15" s="63" t="s">
+        <v>88</v>
+      </c>
       <c r="P15" s="63"/>
     </row>
     <row r="16" spans="2:17">
@@ -40499,16 +40586,16 @@
         <v>24</v>
       </c>
       <c r="J16" s="63" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
+        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
       <c r="K16" s="63" t="str">
-        <f>"FT-"&amp;D19</f>
-        <v>FT-SRVH2G</v>
+        <f>"FT-"&amp;Commodities!D35</f>
+        <v>FT-SRVHET_2</v>
       </c>
       <c r="L16" s="63" t="str">
-        <f>"Fuel Tech - "&amp;Legend!A48</f>
-        <v>Fuel Tech - Hydrogen (gaseous)</v>
+        <f>Commodities!E35</f>
+        <v>District heating (SRV) Medium Density Urban</v>
       </c>
       <c r="M16" s="63" t="s">
         <v>46</v>
@@ -40516,19 +40603,21 @@
       <c r="N16" s="63" t="s">
         <v>592</v>
       </c>
-      <c r="O16" s="63"/>
+      <c r="O16" s="63" t="s">
+        <v>88</v>
+      </c>
       <c r="P16" s="63"/>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="729" t="str">
-        <f>K14</f>
-        <v>FT-SRVHET</v>
+        <f t="shared" ref="B17:B20" si="4">K14</f>
+        <v>FT-SRVHET_C</v>
       </c>
       <c r="C17" s="728" t="s">
         <v>616</v>
       </c>
       <c r="D17" s="663" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E17" s="663">
         <v>1</v>
@@ -40539,16 +40628,16 @@
         <v>24</v>
       </c>
       <c r="J17" s="63" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
+        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
       <c r="K17" s="63" t="str">
-        <f>"FT-"&amp;D20</f>
-        <v>FT-SRVH2L</v>
+        <f>"FT-"&amp;Commodities!D36</f>
+        <v>FT-SRVHET_3</v>
       </c>
       <c r="L17" s="63" t="str">
-        <f>"Fuel Tech - "&amp;Legend!A49</f>
-        <v>Fuel Tech - Hydrogen (liquid)</v>
+        <f>Commodities!E36</f>
+        <v>District heating (SRV) Low Density Urban</v>
       </c>
       <c r="M17" s="63" t="s">
         <v>46</v>
@@ -40556,24 +40645,27 @@
       <c r="N17" s="63" t="s">
         <v>592</v>
       </c>
-      <c r="O17" s="63"/>
+      <c r="O17" s="63" t="s">
+        <v>88</v>
+      </c>
       <c r="P17" s="63"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="30" t="str">
-        <f>K15</f>
-        <v>FT-SRVWIN</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>564</v>
-      </c>
-      <c r="D18" s="30" t="str">
-        <f>Legend!C47</f>
-        <v>SRVWIN</v>
-      </c>
-      <c r="E18" s="30">
+      <c r="B18" s="729" t="str">
+        <f t="shared" si="4"/>
+        <v>FT-SRVHET_1</v>
+      </c>
+      <c r="C18" s="728" t="s">
+        <v>616</v>
+      </c>
+      <c r="D18" s="663" t="s">
+        <v>617</v>
+      </c>
+      <c r="E18" s="663">
         <v>1</v>
       </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
       <c r="I18" s="63" t="s">
         <v>24</v>
       </c>
@@ -40583,11 +40675,11 @@
       </c>
       <c r="K18" s="63" t="str">
         <f>"FT-"&amp;D21</f>
-        <v>FT-SRVBDL</v>
+        <v>FT-SRVWIN</v>
       </c>
       <c r="L18" s="63" t="str">
-        <f>"Fuel Tech - "&amp;Legend!A50</f>
-        <v>Fuel Tech - Biodiesel</v>
+        <f>"Fuel Tech - "&amp;Legend!A47</f>
+        <v>Fuel Tech - Wind</v>
       </c>
       <c r="M18" s="63" t="s">
         <v>46</v>
@@ -40599,94 +40691,213 @@
       <c r="P18" s="63"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="30" t="str">
-        <f>K16</f>
-        <v>FT-SRVH2G</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>565</v>
-      </c>
-      <c r="D19" s="30" t="str">
-        <f>Legend!C48</f>
-        <v>SRVH2G</v>
-      </c>
-      <c r="E19" s="30">
+      <c r="B19" s="729" t="str">
+        <f t="shared" si="4"/>
+        <v>FT-SRVHET_2</v>
+      </c>
+      <c r="C19" s="728" t="s">
+        <v>616</v>
+      </c>
+      <c r="D19" s="663" t="s">
+        <v>617</v>
+      </c>
+      <c r="E19" s="663">
         <v>1</v>
       </c>
-      <c r="I19" s="65" t="s">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="I19" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="65" t="str">
+      <c r="J19" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K19" s="65" t="str">
+      <c r="K19" s="63" t="str">
         <f>"FT-"&amp;D22</f>
-        <v>FT-SRVETH</v>
-      </c>
-      <c r="L19" s="65" t="str">
-        <f>"Fuel Tech - "&amp;Legend!A51</f>
-        <v>Fuel Tech - Ethanol</v>
-      </c>
-      <c r="M19" s="65" t="s">
+        <v>FT-SRVH2G</v>
+      </c>
+      <c r="L19" s="63" t="str">
+        <f>"Fuel Tech - "&amp;Legend!A48</f>
+        <v>Fuel Tech - Hydrogen (gaseous)</v>
+      </c>
+      <c r="M19" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="N19" s="65" t="s">
+      <c r="N19" s="63" t="s">
         <v>592</v>
       </c>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="31"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="30" t="str">
-        <f>K17</f>
+      <c r="B20" s="729" t="str">
+        <f t="shared" si="4"/>
+        <v>FT-SRVHET_3</v>
+      </c>
+      <c r="C20" s="728" t="s">
+        <v>616</v>
+      </c>
+      <c r="D20" s="663" t="s">
+        <v>617</v>
+      </c>
+      <c r="E20" s="663">
+        <v>1</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="I20" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="63" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="K20" s="63" t="str">
+        <f>"FT-"&amp;D23</f>
         <v>FT-SRVH2L</v>
       </c>
-      <c r="C20" s="30" t="s">
-        <v>570</v>
-      </c>
-      <c r="D20" s="30" t="str">
-        <f>Legend!C49</f>
-        <v>SRVH2L</v>
-      </c>
-      <c r="E20" s="30">
-        <v>1</v>
-      </c>
+      <c r="L20" s="63" t="str">
+        <f>"Fuel Tech - "&amp;Legend!A49</f>
+        <v>Fuel Tech - Hydrogen (liquid)</v>
+      </c>
+      <c r="M20" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="N20" s="63" t="s">
+        <v>592</v>
+      </c>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="30" t="str">
         <f>K18</f>
+        <v>FT-SRVWIN</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="D21" s="30" t="str">
+        <f>Legend!C47</f>
+        <v>SRVWIN</v>
+      </c>
+      <c r="E21" s="30">
+        <v>1</v>
+      </c>
+      <c r="I21" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="63" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="K21" s="63" t="str">
+        <f>"FT-"&amp;D24</f>
         <v>FT-SRVBDL</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="L21" s="63" t="str">
+        <f>"Fuel Tech - "&amp;Legend!A50</f>
+        <v>Fuel Tech - Biodiesel</v>
+      </c>
+      <c r="M21" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="N21" s="63" t="s">
+        <v>592</v>
+      </c>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="30" t="str">
+        <f>K19</f>
+        <v>FT-SRVH2G</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="D22" s="30" t="str">
+        <f>Legend!C48</f>
+        <v>SRVH2G</v>
+      </c>
+      <c r="E22" s="30">
+        <v>1</v>
+      </c>
+      <c r="I22" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="65" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="K22" s="65" t="str">
+        <f>"FT-"&amp;D25</f>
+        <v>FT-SRVETH</v>
+      </c>
+      <c r="L22" s="65" t="str">
+        <f>"Fuel Tech - "&amp;Legend!A51</f>
+        <v>Fuel Tech - Ethanol</v>
+      </c>
+      <c r="M22" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22" s="65" t="s">
+        <v>592</v>
+      </c>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="31"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="30" t="str">
+        <f>K20</f>
+        <v>FT-SRVH2L</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>570</v>
+      </c>
+      <c r="D23" s="30" t="str">
+        <f>Legend!C49</f>
+        <v>SRVH2L</v>
+      </c>
+      <c r="E23" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="30" t="str">
+        <f>K21</f>
+        <v>FT-SRVBDL</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>561</v>
       </c>
-      <c r="D21" s="30" t="str">
+      <c r="D24" s="30" t="str">
         <f>Legend!C50</f>
         <v>SRVBDL</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E24" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
-      <c r="B22" s="31" t="str">
-        <f>K19</f>
+    <row r="25" spans="2:17">
+      <c r="B25" s="31" t="str">
+        <f>K22</f>
         <v>FT-SRVETH</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C25" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="D22" s="31" t="str">
+      <c r="D25" s="31" t="str">
         <f>Legend!C51</f>
         <v>SRVETH</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E25" s="31">
         <v>1</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VT_IE_SRV.xlsx
+++ b/VT_IE_SRV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F3D5D78-E016-419F-9E39-29CF8D246F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089B8DB2-0D35-4710-A739-63D4A32B869E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4575" yWindow="-15315" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="83" r:id="rId1"/>
@@ -38503,7 +38503,7 @@
   </sheetPr>
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -40000,7 +40000,7 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/VT_IE_SRV.xlsx
+++ b/VT_IE_SRV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089B8DB2-0D35-4710-A739-63D4A32B869E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C1E9BE-72FE-44E7-AE87-0A8E3243ABD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4575" yWindow="-15315" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1080" yWindow="-15495" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="83" r:id="rId1"/>
@@ -4416,7 +4416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="617">
   <si>
     <t>Unit</t>
   </si>
@@ -4891,9 +4891,6 @@
   </si>
   <si>
     <t>Residential</t>
-  </si>
-  <si>
-    <t>FX</t>
   </si>
   <si>
     <t>PASTI</t>
@@ -6989,7 +6986,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7250,6 +7247,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -9565,7 +9568,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="751">
+  <cellXfs count="754">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11732,6 +11735,13 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="128">
     <cellStyle name="20 % - Akzent1" xfId="49" hidden="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -13213,7 +13223,7 @@
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
       <c r="A16" s="731" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B16" s="731"/>
       <c r="C16" s="731"/>
@@ -13302,7 +13312,7 @@
         <v>74</v>
       </c>
       <c r="B19" s="730" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C19" s="730"/>
       <c r="D19" s="730"/>
@@ -13331,10 +13341,10 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1">
       <c r="A20" s="720" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B20" s="730" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C20" s="730"/>
       <c r="D20" s="730"/>
@@ -13363,10 +13373,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1">
       <c r="A21" s="720" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B21" s="723" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C21" s="723"/>
       <c r="D21" s="723"/>
@@ -13423,7 +13433,7 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1">
       <c r="A23" s="720" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B23" s="730"/>
       <c r="C23" s="730"/>
@@ -13509,10 +13519,10 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1">
       <c r="A26" s="720" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B26" s="730" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C26" s="730"/>
       <c r="D26" s="730"/>
@@ -13597,7 +13607,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1">
       <c r="A29" s="720" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B29" s="724">
         <v>1</v>
@@ -13629,10 +13639,10 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1">
       <c r="A30" s="720" t="s">
+        <v>606</v>
+      </c>
+      <c r="B30" s="732" t="s">
         <v>607</v>
-      </c>
-      <c r="B30" s="732" t="s">
-        <v>608</v>
       </c>
       <c r="C30" s="730"/>
       <c r="D30" s="730"/>
@@ -13661,10 +13671,10 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1">
       <c r="A31" s="720" t="s">
+        <v>608</v>
+      </c>
+      <c r="B31" s="730" t="s">
         <v>609</v>
-      </c>
-      <c r="B31" s="730" t="s">
-        <v>610</v>
       </c>
       <c r="C31" s="730"/>
       <c r="D31" s="730"/>
@@ -13694,7 +13704,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1">
       <c r="A32" s="726"/>
       <c r="B32" s="727" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C32" s="726"/>
       <c r="D32" s="726"/>
@@ -15660,7 +15670,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="23.25">
       <c r="B1" s="33" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C1" s="33"/>
     </row>
@@ -15715,7 +15725,7 @@
         <v>14</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N3" s="34" t="s">
         <v>4</v>
@@ -15739,25 +15749,25 @@
         <v>20</v>
       </c>
       <c r="V3" s="735" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W3" s="735" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X3" s="735" t="s">
         <v>81</v>
       </c>
       <c r="Y3" s="735" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z3" s="735" t="s">
         <v>508</v>
       </c>
-      <c r="Z3" s="735" t="s">
+      <c r="AA3" s="735" t="s">
         <v>509</v>
       </c>
-      <c r="AA3" s="735" t="s">
+      <c r="AB3" s="735" t="s">
         <v>510</v>
-      </c>
-      <c r="AB3" s="735" t="s">
-        <v>511</v>
       </c>
       <c r="AC3" s="69" t="s">
         <v>77</v>
@@ -15797,7 +15807,7 @@
         <v>115</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N4" s="51" t="s">
         <v>116</v>
@@ -15831,7 +15841,7 @@
         <v>146</v>
       </c>
       <c r="AD4" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -15856,10 +15866,10 @@
         <v>138</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L5" s="661" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M5" s="57"/>
       <c r="N5" s="662"/>
@@ -16941,7 +16951,7 @@
       <c r="C17" s="53"/>
       <c r="D17" s="59"/>
       <c r="E17" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F17" s="651">
         <f>SUM(F7:F15)</f>
@@ -17085,7 +17095,7 @@
         <v>14</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N3" s="34" t="s">
         <v>4</v>
@@ -17109,25 +17119,25 @@
         <v>20</v>
       </c>
       <c r="V3" s="735" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W3" s="735" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X3" s="735" t="s">
         <v>81</v>
       </c>
       <c r="Y3" s="735" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z3" s="735" t="s">
         <v>508</v>
       </c>
-      <c r="Z3" s="735" t="s">
+      <c r="AA3" s="735" t="s">
         <v>509</v>
       </c>
-      <c r="AA3" s="735" t="s">
+      <c r="AB3" s="735" t="s">
         <v>510</v>
-      </c>
-      <c r="AB3" s="735" t="s">
-        <v>511</v>
       </c>
       <c r="AC3" s="69" t="s">
         <v>77</v>
@@ -17167,7 +17177,7 @@
         <v>115</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N4" s="51" t="s">
         <v>116</v>
@@ -17201,7 +17211,7 @@
         <v>146</v>
       </c>
       <c r="AD4" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="25.5">
@@ -17213,10 +17223,10 @@
       <c r="D5" s="57"/>
       <c r="E5" s="57"/>
       <c r="F5" s="57" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G5" s="661" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H5" s="57" t="s">
         <v>132</v>
@@ -17225,10 +17235,10 @@
         <v>138</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="L5" s="661" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M5" s="57"/>
       <c r="N5" s="662"/>
@@ -17249,7 +17259,7 @@
         <v>46</v>
       </c>
       <c r="AD5" s="78" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -17891,7 +17901,7 @@
       <c r="C13" s="53"/>
       <c r="D13" s="59"/>
       <c r="E13" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F13" s="651">
         <f>SUM(F6:F11)</f>
@@ -17977,7 +17987,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="23.25">
       <c r="B1" s="33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C1" s="33"/>
     </row>
@@ -18032,7 +18042,7 @@
         <v>14</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N3" s="34" t="s">
         <v>4</v>
@@ -18056,25 +18066,25 @@
         <v>20</v>
       </c>
       <c r="V3" s="735" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W3" s="735" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X3" s="735" t="s">
         <v>81</v>
       </c>
       <c r="Y3" s="735" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z3" s="735" t="s">
         <v>508</v>
       </c>
-      <c r="Z3" s="735" t="s">
+      <c r="AA3" s="735" t="s">
         <v>509</v>
       </c>
-      <c r="AA3" s="735" t="s">
+      <c r="AB3" s="735" t="s">
         <v>510</v>
-      </c>
-      <c r="AB3" s="735" t="s">
-        <v>511</v>
       </c>
       <c r="AC3" s="69" t="s">
         <v>77</v>
@@ -18114,7 +18124,7 @@
         <v>115</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N4" s="51" t="s">
         <v>116</v>
@@ -18148,7 +18158,7 @@
         <v>146</v>
       </c>
       <c r="AD4" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -18173,10 +18183,10 @@
         <v>138</v>
       </c>
       <c r="J5" s="661" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L5" s="661" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M5" s="57"/>
       <c r="N5" s="662"/>
@@ -18377,7 +18387,7 @@
         <v>Sodium vapor lamp</v>
       </c>
       <c r="Y7" s="53" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Z7" s="53" t="str">
         <f>IF('Key Inputs'!E103="","",'Key Inputs'!E103)</f>
@@ -18478,7 +18488,7 @@
         <v>Mercury lamps</v>
       </c>
       <c r="Y8" s="53" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Z8" s="53" t="str">
         <f>IF('Key Inputs'!E104="","",'Key Inputs'!E104)</f>
@@ -18579,7 +18589,7 @@
         <v>Others</v>
       </c>
       <c r="Y9" s="53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Z9" s="53" t="str">
         <f>IF('Key Inputs'!E105="","",'Key Inputs'!E105)</f>
@@ -18682,7 +18692,7 @@
         <v>LED</v>
       </c>
       <c r="Y10" s="53" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="Z10" s="53" t="str">
         <f>IF('Key Inputs'!E106="","",'Key Inputs'!E106)</f>
@@ -18739,7 +18749,7 @@
       <c r="C12" s="53"/>
       <c r="D12" s="59"/>
       <c r="E12" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F12" s="651">
         <f>SUM(F6:F10)</f>
@@ -18776,7 +18786,7 @@
     </row>
     <row r="14" spans="1:30" ht="23.25">
       <c r="B14" s="67" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -18795,7 +18805,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="54" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C17" s="54" t="s">
         <v>147</v>
@@ -18878,7 +18888,7 @@
   <sheetData>
     <row r="1" spans="1:30" ht="23.25">
       <c r="B1" s="33" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C1" s="33"/>
     </row>
@@ -18915,7 +18925,7 @@
         <v>23</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>87</v>
@@ -18933,7 +18943,7 @@
         <v>14</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N3" s="34" t="s">
         <v>4</v>
@@ -18957,25 +18967,25 @@
         <v>20</v>
       </c>
       <c r="V3" s="735" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="W3" s="735" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="X3" s="735" t="s">
         <v>81</v>
       </c>
       <c r="Y3" s="735" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z3" s="735" t="s">
         <v>508</v>
       </c>
-      <c r="Z3" s="735" t="s">
+      <c r="AA3" s="735" t="s">
         <v>509</v>
       </c>
-      <c r="AA3" s="735" t="s">
+      <c r="AB3" s="735" t="s">
         <v>510</v>
-      </c>
-      <c r="AB3" s="735" t="s">
-        <v>511</v>
       </c>
       <c r="AC3" s="69" t="s">
         <v>77</v>
@@ -18997,7 +19007,7 @@
         <v>127</v>
       </c>
       <c r="F4" s="54" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G4" s="54" t="s">
         <v>129</v>
@@ -19015,7 +19025,7 @@
         <v>115</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N4" s="51" t="s">
         <v>116</v>
@@ -19049,7 +19059,7 @@
         <v>146</v>
       </c>
       <c r="AD4" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -19065,7 +19075,7 @@
         <v>GW</v>
       </c>
       <c r="G5" s="661" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H5" s="57" t="s">
         <v>132</v>
@@ -19074,10 +19084,10 @@
         <v>138</v>
       </c>
       <c r="J5" s="57" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L5" s="661" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M5" s="57"/>
       <c r="N5" s="662"/>
@@ -19326,7 +19336,7 @@
       <c r="C9" s="53"/>
       <c r="D9" s="59"/>
       <c r="E9" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F9" s="651">
         <f>SUM(F6:F7)</f>
@@ -19356,7 +19366,7 @@
     </row>
     <row r="11" spans="1:30" ht="23.25">
       <c r="B11" s="67" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -19375,7 +19385,7 @@
     </row>
     <row r="14" spans="1:30">
       <c r="B14" s="54" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>147</v>
@@ -19525,7 +19535,7 @@
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="706" t="str">
-        <f>Commodities!D41</f>
+        <f>Commodities!D38</f>
         <v>SRVCO2N</v>
       </c>
       <c r="C6" s="709">
@@ -19550,13 +19560,13 @@
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="21" t="str">
-        <f>Commodities!D42</f>
+        <f>Commodities!D39</f>
         <v>SRVCH4N</v>
       </c>
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="21" t="str">
-        <f>Commodities!D43</f>
+        <f>Commodities!D40</f>
         <v>SRVSO2N</v>
       </c>
       <c r="C8" s="25"/>
@@ -19568,7 +19578,7 @@
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="21" t="str">
-        <f>Commodities!D44</f>
+        <f>Commodities!D41</f>
         <v>SRVNOXN</v>
       </c>
       <c r="C9" s="25"/>
@@ -19580,7 +19590,7 @@
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="21" t="str">
-        <f>Commodities!D45</f>
+        <f>Commodities!D42</f>
         <v>SRVPM10</v>
       </c>
       <c r="C10" s="25"/>
@@ -19592,7 +19602,7 @@
     </row>
     <row r="11" spans="2:8">
       <c r="B11" s="31" t="str">
-        <f>Commodities!D46</f>
+        <f>Commodities!D43</f>
         <v>SRVPM25</v>
       </c>
       <c r="C11" s="126"/>
@@ -19613,7 +19623,7 @@
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="705" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C17" s="708">
         <v>71.900000000000006</v>
@@ -19621,7 +19631,7 @@
     </row>
     <row r="18" spans="2:3">
       <c r="B18" s="705" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C18" s="708">
         <v>74.099999999999994</v>
@@ -19629,7 +19639,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="B19" s="710" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C19" s="704">
         <v>77.400000000000006</v>
@@ -19702,139 +19712,139 @@
   <sheetData>
     <row r="1" spans="1:45" ht="105.75" customHeight="1" thickBot="1">
       <c r="A1" s="127" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="128" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="C1" s="129" t="s">
         <v>189</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="D1" s="130" t="s">
         <v>190</v>
       </c>
-      <c r="D1" s="130" t="s">
+      <c r="E1" s="131" t="s">
         <v>191</v>
       </c>
-      <c r="E1" s="131" t="s">
+      <c r="F1" s="132" t="s">
         <v>192</v>
       </c>
-      <c r="F1" s="132" t="s">
+      <c r="G1" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="G1" s="132" t="s">
+      <c r="H1" s="133" t="s">
         <v>194</v>
       </c>
-      <c r="H1" s="133" t="s">
+      <c r="I1" s="130" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="130" t="s">
+      <c r="J1" s="131" t="s">
         <v>196</v>
       </c>
-      <c r="J1" s="131" t="s">
+      <c r="K1" s="131" t="s">
         <v>197</v>
       </c>
-      <c r="K1" s="131" t="s">
+      <c r="L1" s="133" t="s">
         <v>198</v>
       </c>
-      <c r="L1" s="133" t="s">
+      <c r="M1" s="130" t="s">
         <v>199</v>
       </c>
-      <c r="M1" s="130" t="s">
+      <c r="N1" s="130" t="s">
         <v>200</v>
       </c>
-      <c r="N1" s="130" t="s">
+      <c r="O1" s="131" t="s">
         <v>201</v>
       </c>
-      <c r="O1" s="131" t="s">
+      <c r="P1" s="131" t="s">
         <v>202</v>
       </c>
-      <c r="P1" s="131" t="s">
+      <c r="Q1" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="Q1" s="131" t="s">
+      <c r="R1" s="131" t="s">
         <v>204</v>
       </c>
-      <c r="R1" s="131" t="s">
+      <c r="S1" s="131" t="s">
         <v>205</v>
       </c>
-      <c r="S1" s="131" t="s">
+      <c r="T1" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="T1" s="131" t="s">
+      <c r="U1" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="U1" s="131" t="s">
+      <c r="V1" s="131" t="s">
         <v>208</v>
       </c>
-      <c r="V1" s="131" t="s">
+      <c r="W1" s="132" t="s">
         <v>209</v>
       </c>
-      <c r="W1" s="132" t="s">
+      <c r="X1" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="X1" s="132" t="s">
+      <c r="Y1" s="132" t="s">
         <v>211</v>
       </c>
-      <c r="Y1" s="132" t="s">
+      <c r="Z1" s="131" t="s">
         <v>212</v>
       </c>
-      <c r="Z1" s="131" t="s">
+      <c r="AA1" s="133" t="s">
         <v>213</v>
       </c>
-      <c r="AA1" s="133" t="s">
+      <c r="AB1" s="134" t="s">
         <v>214</v>
       </c>
-      <c r="AB1" s="134" t="s">
+      <c r="AC1" s="135" t="s">
         <v>215</v>
       </c>
-      <c r="AC1" s="135" t="s">
+      <c r="AD1" s="131" t="s">
         <v>216</v>
       </c>
-      <c r="AD1" s="131" t="s">
+      <c r="AE1" s="131" t="s">
         <v>217</v>
       </c>
-      <c r="AE1" s="131" t="s">
+      <c r="AF1" s="131" t="s">
         <v>218</v>
       </c>
-      <c r="AF1" s="131" t="s">
+      <c r="AG1" s="131" t="s">
         <v>219</v>
       </c>
-      <c r="AG1" s="131" t="s">
+      <c r="AH1" s="131" t="s">
         <v>220</v>
       </c>
-      <c r="AH1" s="131" t="s">
+      <c r="AI1" s="131" t="s">
         <v>221</v>
       </c>
-      <c r="AI1" s="131" t="s">
+      <c r="AJ1" s="131" t="s">
         <v>222</v>
       </c>
-      <c r="AJ1" s="131" t="s">
+      <c r="AK1" s="131" t="s">
         <v>223</v>
       </c>
-      <c r="AK1" s="131" t="s">
+      <c r="AL1" s="131" t="s">
         <v>224</v>
       </c>
-      <c r="AL1" s="131" t="s">
+      <c r="AM1" s="132" t="s">
         <v>225</v>
       </c>
-      <c r="AM1" s="132" t="s">
+      <c r="AN1" s="133" t="s">
         <v>226</v>
       </c>
-      <c r="AN1" s="133" t="s">
+      <c r="AO1" s="133" t="s">
         <v>227</v>
       </c>
-      <c r="AO1" s="133" t="s">
+      <c r="AP1" s="134" t="s">
         <v>228</v>
       </c>
-      <c r="AP1" s="134" t="s">
+      <c r="AQ1" s="136" t="s">
         <v>229</v>
-      </c>
-      <c r="AQ1" s="136" t="s">
-        <v>230</v>
       </c>
       <c r="AS1" s="138"/>
     </row>
     <row r="2" spans="1:45" ht="12.75" customHeight="1">
       <c r="A2" s="139" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B2" s="140"/>
       <c r="C2" s="141">
@@ -19928,7 +19938,7 @@
     </row>
     <row r="3" spans="1:45" ht="12.75" customHeight="1">
       <c r="A3" s="155" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B3" s="156"/>
       <c r="C3" s="157">
@@ -20034,7 +20044,7 @@
     </row>
     <row r="4" spans="1:45" ht="12.75" customHeight="1">
       <c r="A4" s="155" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4" s="156"/>
       <c r="C4" s="157">
@@ -20140,7 +20150,7 @@
     </row>
     <row r="5" spans="1:45" ht="12.75" customHeight="1">
       <c r="A5" s="155" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B5" s="156"/>
       <c r="C5" s="157">
@@ -20206,7 +20216,7 @@
     </row>
     <row r="6" spans="1:45" ht="12.75" customHeight="1" thickBot="1">
       <c r="A6" s="169" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B6" s="170"/>
       <c r="C6" s="157">
@@ -20314,7 +20324,7 @@
     </row>
     <row r="7" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="180" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7" s="181"/>
       <c r="C7" s="182">
@@ -20486,7 +20496,7 @@
     </row>
     <row r="8" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A8" s="191" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" s="192"/>
       <c r="C8" s="193">
@@ -20658,7 +20668,7 @@
     </row>
     <row r="9" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A9" s="180" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B9" s="181"/>
       <c r="C9" s="182">
@@ -20830,7 +20840,7 @@
     </row>
     <row r="10" spans="1:45" ht="12.75" customHeight="1">
       <c r="A10" s="204" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B10" s="205"/>
       <c r="C10" s="206">
@@ -20912,7 +20922,7 @@
     </row>
     <row r="11" spans="1:45" ht="12.75" customHeight="1">
       <c r="A11" s="155" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B11" s="156"/>
       <c r="C11" s="157">
@@ -20992,7 +21002,7 @@
     </row>
     <row r="12" spans="1:45" ht="12.75" customHeight="1">
       <c r="A12" s="155" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B12" s="156"/>
       <c r="C12" s="157"/>
@@ -21044,7 +21054,7 @@
     </row>
     <row r="13" spans="1:45" ht="12.75" customHeight="1">
       <c r="A13" s="155" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13" s="156"/>
       <c r="C13" s="157">
@@ -21108,7 +21118,7 @@
     </row>
     <row r="14" spans="1:45" ht="12.75" customHeight="1">
       <c r="A14" s="216" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B14" s="217"/>
       <c r="C14" s="218">
@@ -21178,7 +21188,7 @@
     </row>
     <row r="15" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A15" s="227" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B15" s="228"/>
       <c r="C15" s="229">
@@ -21350,7 +21360,7 @@
     </row>
     <row r="16" spans="1:45" ht="12.75" customHeight="1">
       <c r="A16" s="204" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B16" s="205"/>
       <c r="C16" s="206">
@@ -21414,7 +21424,7 @@
     </row>
     <row r="17" spans="1:45" ht="12.75" customHeight="1">
       <c r="A17" s="155" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B17" s="156"/>
       <c r="C17" s="157">
@@ -21478,7 +21488,7 @@
     </row>
     <row r="18" spans="1:45" ht="12.75" customHeight="1">
       <c r="A18" s="155" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B18" s="156"/>
       <c r="C18" s="157"/>
@@ -21530,7 +21540,7 @@
     </row>
     <row r="19" spans="1:45" ht="12.75" customHeight="1">
       <c r="A19" s="155" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B19" s="156"/>
       <c r="C19" s="157"/>
@@ -21591,7 +21601,7 @@
     </row>
     <row r="20" spans="1:45" ht="12.75" customHeight="1">
       <c r="A20" s="216" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B20" s="217"/>
       <c r="C20" s="218"/>
@@ -21666,7 +21676,7 @@
     </row>
     <row r="21" spans="1:45" ht="12.75" customHeight="1">
       <c r="A21" s="240" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B21" s="241"/>
       <c r="C21" s="242">
@@ -21900,7 +21910,7 @@
     </row>
     <row r="23" spans="1:45" ht="12.75" customHeight="1">
       <c r="A23" s="256" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B23" s="228"/>
       <c r="C23" s="257"/>
@@ -21949,7 +21959,7 @@
     </row>
     <row r="24" spans="1:45" ht="12.75" customHeight="1" thickBot="1">
       <c r="A24" s="169" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B24" s="170"/>
       <c r="C24" s="266">
@@ -22029,7 +22039,7 @@
     </row>
     <row r="25" spans="1:45" ht="12.75" customHeight="1" thickBot="1">
       <c r="A25" s="227" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B25" s="228"/>
       <c r="C25" s="229">
@@ -22105,7 +22115,7 @@
     </row>
     <row r="26" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A26" s="269" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B26" s="270"/>
       <c r="C26" s="271">
@@ -22277,7 +22287,7 @@
     </row>
     <row r="27" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A27" s="180" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B27" s="181"/>
       <c r="C27" s="182">
@@ -22446,7 +22456,7 @@
     </row>
     <row r="28" spans="1:45" ht="12.75" customHeight="1" thickBot="1">
       <c r="A28" s="278" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B28" s="279"/>
       <c r="C28" s="280">
@@ -22519,7 +22529,7 @@
     </row>
     <row r="29" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A29" s="180" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B29" s="181"/>
       <c r="C29" s="182">
@@ -22691,7 +22701,7 @@
     </row>
     <row r="30" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A30" s="282" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B30" s="283"/>
       <c r="C30" s="284">
@@ -22848,10 +22858,10 @@
     </row>
     <row r="31" spans="1:45" ht="12.75" customHeight="1">
       <c r="A31" s="292" t="s">
+        <v>255</v>
+      </c>
+      <c r="B31" s="293" t="s">
         <v>256</v>
-      </c>
-      <c r="B31" s="293" t="s">
-        <v>257</v>
       </c>
       <c r="C31" s="294">
         <f t="shared" ref="C31:C43" si="18">SUM(D31:G31)</f>
@@ -22928,10 +22938,10 @@
     </row>
     <row r="32" spans="1:45" ht="12.75" customHeight="1">
       <c r="A32" s="302" t="s">
+        <v>257</v>
+      </c>
+      <c r="B32" s="303" t="s">
         <v>258</v>
-      </c>
-      <c r="B32" s="303" t="s">
-        <v>259</v>
       </c>
       <c r="C32" s="157">
         <f t="shared" si="18"/>
@@ -23014,10 +23024,10 @@
     </row>
     <row r="33" spans="1:45" ht="12.75" customHeight="1">
       <c r="A33" s="302" t="s">
+        <v>259</v>
+      </c>
+      <c r="B33" s="306" t="s">
         <v>260</v>
-      </c>
-      <c r="B33" s="306" t="s">
-        <v>261</v>
       </c>
       <c r="C33" s="157">
         <f t="shared" si="18"/>
@@ -23094,10 +23104,10 @@
     </row>
     <row r="34" spans="1:45" ht="12.75" customHeight="1">
       <c r="A34" s="302" t="s">
+        <v>261</v>
+      </c>
+      <c r="B34" s="306" t="s">
         <v>262</v>
-      </c>
-      <c r="B34" s="306" t="s">
-        <v>263</v>
       </c>
       <c r="C34" s="157">
         <f t="shared" si="18"/>
@@ -23176,10 +23186,10 @@
     </row>
     <row r="35" spans="1:45" ht="12.75" customHeight="1">
       <c r="A35" s="302" t="s">
+        <v>263</v>
+      </c>
+      <c r="B35" s="306" t="s">
         <v>264</v>
-      </c>
-      <c r="B35" s="306" t="s">
-        <v>265</v>
       </c>
       <c r="C35" s="157">
         <f t="shared" si="18"/>
@@ -23256,10 +23266,10 @@
     </row>
     <row r="36" spans="1:45" ht="12.75" customHeight="1">
       <c r="A36" s="302" t="s">
+        <v>265</v>
+      </c>
+      <c r="B36" s="306" t="s">
         <v>266</v>
-      </c>
-      <c r="B36" s="306" t="s">
-        <v>267</v>
       </c>
       <c r="C36" s="157">
         <f t="shared" si="18"/>
@@ -23338,10 +23348,10 @@
     </row>
     <row r="37" spans="1:45" ht="12.75" customHeight="1">
       <c r="A37" s="302" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37" s="306" t="s">
         <v>268</v>
-      </c>
-      <c r="B37" s="306" t="s">
-        <v>269</v>
       </c>
       <c r="C37" s="157">
         <f t="shared" si="18"/>
@@ -23418,10 +23428,10 @@
     </row>
     <row r="38" spans="1:45" ht="12.75" customHeight="1">
       <c r="A38" s="302" t="s">
+        <v>269</v>
+      </c>
+      <c r="B38" s="306" t="s">
         <v>270</v>
-      </c>
-      <c r="B38" s="306" t="s">
-        <v>271</v>
       </c>
       <c r="C38" s="157">
         <f t="shared" si="18"/>
@@ -23504,10 +23514,10 @@
     </row>
     <row r="39" spans="1:45" ht="12.75" customHeight="1">
       <c r="A39" s="302" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39" s="306" t="s">
         <v>272</v>
-      </c>
-      <c r="B39" s="306" t="s">
-        <v>273</v>
       </c>
       <c r="C39" s="157">
         <f t="shared" si="18"/>
@@ -23584,10 +23594,10 @@
     </row>
     <row r="40" spans="1:45" ht="12.75" customHeight="1">
       <c r="A40" s="302" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40" s="306" t="s">
         <v>274</v>
-      </c>
-      <c r="B40" s="306" t="s">
-        <v>275</v>
       </c>
       <c r="C40" s="157">
         <f t="shared" si="18"/>
@@ -23664,10 +23674,10 @@
     </row>
     <row r="41" spans="1:45" ht="12.75" customHeight="1">
       <c r="A41" s="302" t="s">
+        <v>275</v>
+      </c>
+      <c r="B41" s="306" t="s">
         <v>276</v>
-      </c>
-      <c r="B41" s="306" t="s">
-        <v>277</v>
       </c>
       <c r="C41" s="157">
         <f t="shared" si="18"/>
@@ -23744,10 +23754,10 @@
     </row>
     <row r="42" spans="1:45" ht="12.75" customHeight="1">
       <c r="A42" s="302" t="s">
+        <v>277</v>
+      </c>
+      <c r="B42" s="306" t="s">
         <v>278</v>
-      </c>
-      <c r="B42" s="306" t="s">
-        <v>279</v>
       </c>
       <c r="C42" s="157">
         <f t="shared" si="18"/>
@@ -23824,10 +23834,10 @@
     </row>
     <row r="43" spans="1:45" ht="12.75" customHeight="1">
       <c r="A43" s="302" t="s">
+        <v>279</v>
+      </c>
+      <c r="B43" s="306" t="s">
         <v>280</v>
-      </c>
-      <c r="B43" s="306" t="s">
-        <v>281</v>
       </c>
       <c r="C43" s="157">
         <f t="shared" si="18"/>
@@ -23906,10 +23916,10 @@
     </row>
     <row r="44" spans="1:45" ht="12.75" customHeight="1">
       <c r="A44" s="308" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44" s="309" t="s">
         <v>282</v>
-      </c>
-      <c r="B44" s="309" t="s">
-        <v>283</v>
       </c>
       <c r="C44" s="218">
         <f>SUM(D44:G44)</f>
@@ -23986,7 +23996,7 @@
     </row>
     <row r="45" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A45" s="227" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B45" s="228"/>
       <c r="C45" s="312">
@@ -24158,7 +24168,7 @@
     </row>
     <row r="46" spans="1:45" ht="12.75" customHeight="1">
       <c r="A46" s="320" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B46" s="205"/>
       <c r="C46" s="206">
@@ -24228,7 +24238,7 @@
     </row>
     <row r="47" spans="1:45" ht="12.75" customHeight="1">
       <c r="A47" s="292" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B47" s="322"/>
       <c r="C47" s="157">
@@ -24296,7 +24306,7 @@
     </row>
     <row r="48" spans="1:45" ht="12.75" customHeight="1">
       <c r="A48" s="302" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B48" s="156"/>
       <c r="C48" s="157">
@@ -24370,7 +24380,7 @@
     </row>
     <row r="49" spans="1:45" ht="12.75" customHeight="1">
       <c r="A49" s="302" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B49" s="156"/>
       <c r="C49" s="157">
@@ -24440,7 +24450,7 @@
     </row>
     <row r="50" spans="1:45" ht="12.75" customHeight="1">
       <c r="A50" s="302" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B50" s="156"/>
       <c r="C50" s="157">
@@ -24508,7 +24518,7 @@
     </row>
     <row r="51" spans="1:45" ht="12.75" customHeight="1">
       <c r="A51" s="302" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B51" s="156"/>
       <c r="C51" s="157">
@@ -24574,7 +24584,7 @@
     </row>
     <row r="52" spans="1:45" ht="12.75" customHeight="1">
       <c r="A52" s="302" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B52" s="306"/>
       <c r="C52" s="326">
@@ -24638,7 +24648,7 @@
     </row>
     <row r="53" spans="1:45" ht="12.75" customHeight="1">
       <c r="A53" s="302" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B53" s="306"/>
       <c r="C53" s="326">
@@ -24708,7 +24718,7 @@
     </row>
     <row r="54" spans="1:45" ht="12.75" customHeight="1">
       <c r="A54" s="155" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B54" s="156"/>
       <c r="C54" s="326">
@@ -24772,7 +24782,7 @@
     </row>
     <row r="55" spans="1:45" ht="12.75" customHeight="1">
       <c r="A55" s="216" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B55" s="217"/>
       <c r="C55" s="218">
@@ -24942,7 +24952,7 @@
     </row>
     <row r="57" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A57" s="335" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B57" s="336"/>
       <c r="C57" s="337">
@@ -25114,7 +25124,7 @@
     </row>
     <row r="58" spans="1:45" ht="12.75" customHeight="1">
       <c r="A58" s="335" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B58" s="336"/>
       <c r="C58" s="337">
@@ -25267,10 +25277,10 @@
     </row>
     <row r="59" spans="1:45" ht="12.75" customHeight="1">
       <c r="A59" s="345" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" s="346" t="s">
         <v>297</v>
-      </c>
-      <c r="B59" s="346" t="s">
-        <v>298</v>
       </c>
       <c r="C59" s="206">
         <f t="shared" si="27"/>
@@ -25355,10 +25365,10 @@
     </row>
     <row r="60" spans="1:45" ht="12.75" customHeight="1">
       <c r="A60" s="345" t="s">
+        <v>298</v>
+      </c>
+      <c r="B60" s="346" t="s">
         <v>299</v>
-      </c>
-      <c r="B60" s="346" t="s">
-        <v>300</v>
       </c>
       <c r="C60" s="157">
         <f t="shared" si="27"/>
@@ -25443,10 +25453,10 @@
     </row>
     <row r="61" spans="1:45" s="530" customFormat="1" ht="12.75" customHeight="1">
       <c r="A61" s="514" t="s">
+        <v>300</v>
+      </c>
+      <c r="B61" s="515" t="s">
         <v>301</v>
-      </c>
-      <c r="B61" s="515" t="s">
-        <v>302</v>
       </c>
       <c r="C61" s="516">
         <f t="shared" si="27"/>
@@ -25532,10 +25542,10 @@
     </row>
     <row r="62" spans="1:45" s="530" customFormat="1" ht="12.75" customHeight="1">
       <c r="A62" s="514" t="s">
+        <v>302</v>
+      </c>
+      <c r="B62" s="515" t="s">
         <v>303</v>
-      </c>
-      <c r="B62" s="515" t="s">
-        <v>304</v>
       </c>
       <c r="C62" s="516">
         <f t="shared" si="27"/>
@@ -25621,10 +25631,10 @@
     </row>
     <row r="63" spans="1:45" s="530" customFormat="1" ht="12.75" customHeight="1">
       <c r="A63" s="514" t="s">
+        <v>304</v>
+      </c>
+      <c r="B63" s="515" t="s">
         <v>305</v>
-      </c>
-      <c r="B63" s="515" t="s">
-        <v>306</v>
       </c>
       <c r="C63" s="516">
         <f t="shared" si="27"/>
@@ -25710,7 +25720,7 @@
     </row>
     <row r="64" spans="1:45" ht="12.75" customHeight="1">
       <c r="A64" s="363" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B64" s="364"/>
       <c r="C64" s="218">
@@ -25796,7 +25806,7 @@
     </row>
     <row r="65" spans="1:45" ht="12.75" customHeight="1">
       <c r="A65" s="335" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B65" s="336"/>
       <c r="C65" s="218">
@@ -25885,10 +25895,10 @@
     </row>
     <row r="66" spans="1:45" ht="12.75" customHeight="1">
       <c r="A66" s="372" t="s">
+        <v>308</v>
+      </c>
+      <c r="B66" s="373" t="s">
         <v>309</v>
-      </c>
-      <c r="B66" s="373" t="s">
-        <v>310</v>
       </c>
       <c r="C66" s="206">
         <f t="shared" ref="C66:C69" si="34">SUM(D66:G66)</f>
@@ -25969,7 +25979,7 @@
     </row>
     <row r="67" spans="1:45" ht="12.75" customHeight="1">
       <c r="A67" s="380" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B67" s="381">
         <v>84</v>
@@ -26137,10 +26147,10 @@
     </row>
     <row r="69" spans="1:45" ht="12.75" customHeight="1">
       <c r="A69" s="363" t="s">
+        <v>311</v>
+      </c>
+      <c r="B69" s="364" t="s">
         <v>312</v>
-      </c>
-      <c r="B69" s="364" t="s">
-        <v>313</v>
       </c>
       <c r="C69" s="326">
         <f t="shared" si="34"/>
@@ -26221,7 +26231,7 @@
     </row>
     <row r="70" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1">
       <c r="A70" s="240" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B70" s="241"/>
       <c r="C70" s="242">
@@ -26299,7 +26309,7 @@
     </row>
     <row r="71" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A71" s="397" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B71" s="217"/>
       <c r="C71" s="218">
@@ -26365,7 +26375,7 @@
     </row>
     <row r="72" spans="1:45" s="190" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
       <c r="A72" s="269" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B72" s="270"/>
       <c r="C72" s="271">
@@ -26582,7 +26592,7 @@
     </row>
     <row r="74" spans="1:45" s="190" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="256" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B74" s="234"/>
       <c r="C74" s="234"/>
@@ -26627,7 +26637,7 @@
     </row>
     <row r="75" spans="1:45" ht="12.75" customHeight="1">
       <c r="A75" s="402" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B75" s="400"/>
       <c r="C75" s="400"/>
@@ -26674,7 +26684,7 @@
     </row>
     <row r="76" spans="1:45" ht="12.75" customHeight="1">
       <c r="A76" s="403" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B76" s="404"/>
       <c r="C76" s="400"/>
@@ -26721,7 +26731,7 @@
     </row>
     <row r="77" spans="1:45" ht="12.75" customHeight="1">
       <c r="A77" s="405" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B77" s="402"/>
       <c r="C77" s="400"/>
@@ -26768,7 +26778,7 @@
     </row>
     <row r="78" spans="1:45" ht="12.75" customHeight="1">
       <c r="A78" s="406" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B78" s="402"/>
       <c r="C78" s="400"/>
@@ -26815,7 +26825,7 @@
     </row>
     <row r="79" spans="1:45" ht="12.75" customHeight="1">
       <c r="A79" s="407" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B79" s="408"/>
       <c r="C79" s="408"/>
@@ -26837,7 +26847,7 @@
     </row>
     <row r="80" spans="1:45" ht="12.75" customHeight="1">
       <c r="A80" s="407" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B80" s="408"/>
       <c r="C80" s="408"/>
@@ -27079,7 +27089,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1">
       <c r="A1" s="742" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B1" s="742"/>
       <c r="C1" s="742"/>
@@ -27098,10 +27108,10 @@
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="558" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" s="559" t="s">
         <v>456</v>
-      </c>
-      <c r="B2" s="559" t="s">
-        <v>457</v>
       </c>
       <c r="C2" s="558"/>
       <c r="D2" s="558"/>
@@ -27116,59 +27126,59 @@
       <c r="M2" s="558"/>
       <c r="N2" s="560"/>
       <c r="O2" s="561" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="33.75" customHeight="1">
       <c r="A3" s="562" t="s">
+        <v>458</v>
+      </c>
+      <c r="B3" s="563" t="s">
+        <v>452</v>
+      </c>
+      <c r="C3" s="563" t="s">
+        <v>451</v>
+      </c>
+      <c r="D3" s="563" t="s">
         <v>459</v>
       </c>
-      <c r="B3" s="563" t="s">
+      <c r="E3" s="563" t="s">
         <v>453</v>
       </c>
-      <c r="C3" s="563" t="s">
-        <v>452</v>
-      </c>
-      <c r="D3" s="563" t="s">
+      <c r="F3" s="563" t="s">
         <v>460</v>
       </c>
-      <c r="E3" s="563" t="s">
-        <v>454</v>
-      </c>
-      <c r="F3" s="563" t="s">
+      <c r="G3" s="563" t="s">
         <v>461</v>
       </c>
-      <c r="G3" s="563" t="s">
+      <c r="H3" s="563" t="s">
         <v>462</v>
       </c>
-      <c r="H3" s="563" t="s">
+      <c r="I3" s="563" t="s">
         <v>463</v>
       </c>
-      <c r="I3" s="563" t="s">
+      <c r="J3" s="563" t="s">
         <v>464</v>
       </c>
-      <c r="J3" s="563" t="s">
+      <c r="K3" s="563" t="s">
         <v>465</v>
       </c>
-      <c r="K3" s="563" t="s">
+      <c r="L3" s="563" t="s">
         <v>466</v>
       </c>
-      <c r="L3" s="563" t="s">
+      <c r="M3" s="563" t="s">
         <v>467</v>
-      </c>
-      <c r="M3" s="563" t="s">
-        <v>468</v>
       </c>
       <c r="N3" s="563" t="s">
         <v>65</v>
       </c>
       <c r="O3" s="563" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" customHeight="1">
       <c r="A4" s="564" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B4" s="565">
         <v>435</v>
@@ -27215,7 +27225,7 @@
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="564" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B5" s="565">
         <v>362</v>
@@ -27262,7 +27272,7 @@
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="564" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B6" s="565">
         <v>265</v>
@@ -27309,7 +27319,7 @@
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1">
       <c r="A7" s="564" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B7" s="565">
         <v>224</v>
@@ -27356,7 +27366,7 @@
     </row>
     <row r="8" spans="1:15" ht="15" customHeight="1">
       <c r="A8" s="564" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B8" s="565">
         <v>284</v>
@@ -27403,7 +27413,7 @@
     </row>
     <row r="9" spans="1:15" ht="15" customHeight="1">
       <c r="A9" s="564" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B9" s="565">
         <v>324</v>
@@ -27450,7 +27460,7 @@
     </row>
     <row r="10" spans="1:15" ht="15" customHeight="1">
       <c r="A10" s="564" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B10" s="565">
         <v>353</v>
@@ -27497,7 +27507,7 @@
     </row>
     <row r="11" spans="1:15" ht="15" customHeight="1">
       <c r="A11" s="564" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B11" s="565">
         <v>305</v>
@@ -27544,7 +27554,7 @@
     </row>
     <row r="12" spans="1:15" ht="15" customHeight="1">
       <c r="A12" s="564" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B12" s="565">
         <v>235</v>
@@ -27591,7 +27601,7 @@
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
       <c r="A13" s="564" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B13" s="565">
         <v>301</v>
@@ -27638,7 +27648,7 @@
     </row>
     <row r="14" spans="1:15" ht="15" customHeight="1">
       <c r="A14" s="564" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B14" s="565">
         <v>298</v>
@@ -27685,7 +27695,7 @@
     </row>
     <row r="15" spans="1:15" ht="15" customHeight="1">
       <c r="A15" s="564" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B15" s="565">
         <v>294</v>
@@ -27732,7 +27742,7 @@
     </row>
     <row r="16" spans="1:15" ht="15" customHeight="1">
       <c r="A16" s="564" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B16" s="565">
         <v>218</v>
@@ -27779,7 +27789,7 @@
     </row>
     <row r="17" spans="1:15" ht="15" customHeight="1">
       <c r="A17" s="564" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B17" s="565">
         <v>221</v>
@@ -27826,7 +27836,7 @@
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1">
       <c r="A18" s="564" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B18" s="565">
         <v>375</v>
@@ -27856,7 +27866,7 @@
         <v>132</v>
       </c>
       <c r="K18" s="567" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L18" s="565">
         <v>736</v>
@@ -27873,7 +27883,7 @@
     </row>
     <row r="19" spans="1:15" ht="15" customHeight="1">
       <c r="A19" s="564" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B19" s="565">
         <v>289</v>
@@ -27920,7 +27930,7 @@
     </row>
     <row r="20" spans="1:15" ht="15" customHeight="1">
       <c r="A20" s="564" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B20" s="565">
         <v>265</v>
@@ -27967,7 +27977,7 @@
     </row>
     <row r="21" spans="1:15" ht="15" customHeight="1">
       <c r="A21" s="564" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B21" s="565">
         <v>253</v>
@@ -28014,7 +28024,7 @@
     </row>
     <row r="22" spans="1:15" ht="15" customHeight="1">
       <c r="A22" s="564" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B22" s="565">
         <v>287</v>
@@ -28061,7 +28071,7 @@
     </row>
     <row r="23" spans="1:15" ht="15" customHeight="1">
       <c r="A23" s="564" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B23" s="565">
         <v>293</v>
@@ -28108,7 +28118,7 @@
     </row>
     <row r="24" spans="1:15" ht="15" customHeight="1">
       <c r="A24" s="564" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B24" s="565">
         <v>268</v>
@@ -28155,7 +28165,7 @@
     </row>
     <row r="25" spans="1:15" ht="15" customHeight="1">
       <c r="A25" s="564" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B25" s="565">
         <v>618</v>
@@ -28202,7 +28212,7 @@
     </row>
     <row r="26" spans="1:15" ht="15" customHeight="1">
       <c r="A26" s="564" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B26" s="565">
         <v>285</v>
@@ -28249,7 +28259,7 @@
     </row>
     <row r="27" spans="1:15" ht="15" customHeight="1">
       <c r="A27" s="564" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B27" s="565">
         <v>287</v>
@@ -28296,7 +28306,7 @@
     </row>
     <row r="28" spans="1:15" ht="15" customHeight="1">
       <c r="A28" s="564" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B28" s="565">
         <v>233</v>
@@ -28320,7 +28330,7 @@
         <v>878</v>
       </c>
       <c r="I28" s="567" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J28" s="565">
         <v>396</v>
@@ -28332,7 +28342,7 @@
         <v>1298</v>
       </c>
       <c r="M28" s="567" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N28" s="565">
         <v>55</v>
@@ -28343,7 +28353,7 @@
     </row>
     <row r="29" spans="1:15" ht="15" customHeight="1">
       <c r="A29" s="564" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B29" s="565">
         <v>261</v>
@@ -28390,7 +28400,7 @@
     </row>
     <row r="30" spans="1:15" ht="15" customHeight="1">
       <c r="A30" s="564" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B30" s="565">
         <v>278</v>
@@ -28437,7 +28447,7 @@
     </row>
     <row r="31" spans="1:15" ht="15" customHeight="1">
       <c r="A31" s="564" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B31" s="565">
         <v>317</v>
@@ -28484,7 +28494,7 @@
     </row>
     <row r="32" spans="1:15" ht="15" customHeight="1">
       <c r="A32" s="564" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B32" s="565">
         <v>227</v>
@@ -28531,7 +28541,7 @@
     </row>
     <row r="33" spans="1:15" ht="15" customHeight="1">
       <c r="A33" s="564" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B33" s="565">
         <v>249</v>
@@ -28578,7 +28588,7 @@
     </row>
     <row r="34" spans="1:15" ht="15" customHeight="1">
       <c r="A34" s="564" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B34" s="565">
         <v>308</v>
@@ -28689,7 +28699,7 @@
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1">
       <c r="A37" s="744" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B37" s="744"/>
       <c r="C37" s="744"/>
@@ -28708,7 +28718,7 @@
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
       <c r="A40" s="742" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B40" s="742"/>
       <c r="C40" s="742"/>
@@ -28727,7 +28737,7 @@
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1">
       <c r="A41" s="745" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B41" s="745"/>
       <c r="C41" s="745"/>
@@ -28735,31 +28745,31 @@
       <c r="E41" s="745"/>
       <c r="F41" s="745"/>
       <c r="G41" s="611" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1">
       <c r="A42" s="746" t="s">
+        <v>494</v>
+      </c>
+      <c r="B42" s="748" t="s">
         <v>495</v>
-      </c>
-      <c r="B42" s="748" t="s">
-        <v>496</v>
       </c>
       <c r="C42" s="748"/>
       <c r="D42" s="748"/>
       <c r="E42" s="748"/>
       <c r="F42" s="748"/>
       <c r="G42" s="749" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1">
       <c r="A43" s="747"/>
       <c r="B43" s="612" t="s">
+        <v>496</v>
+      </c>
+      <c r="C43" s="612" t="s">
         <v>497</v>
-      </c>
-      <c r="C43" s="612" t="s">
-        <v>498</v>
       </c>
       <c r="D43" s="612" t="s">
         <v>1</v>
@@ -28774,7 +28784,7 @@
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="613" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B44" s="614">
         <v>17</v>
@@ -28797,7 +28807,7 @@
     </row>
     <row r="45" spans="1:15" ht="15" customHeight="1">
       <c r="A45" s="613" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B45" s="614">
         <v>31</v>
@@ -28820,7 +28830,7 @@
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1">
       <c r="A46" s="613" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B46" s="614">
         <v>28</v>
@@ -28843,7 +28853,7 @@
     </row>
     <row r="47" spans="1:15" ht="15" customHeight="1">
       <c r="A47" s="613" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B47" s="614">
         <v>46</v>
@@ -28866,7 +28876,7 @@
     </row>
     <row r="48" spans="1:15" ht="15" customHeight="1">
       <c r="A48" s="613" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B48" s="614">
         <v>32</v>
@@ -28889,7 +28899,7 @@
     </row>
     <row r="49" spans="1:7" ht="15" customHeight="1">
       <c r="A49" s="613" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B49" s="614">
         <v>27</v>
@@ -28912,7 +28922,7 @@
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1">
       <c r="A50" s="613" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B50" s="614">
         <v>30</v>
@@ -28935,7 +28945,7 @@
     </row>
     <row r="51" spans="1:7" ht="15" customHeight="1">
       <c r="A51" s="613" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B51" s="614">
         <v>31</v>
@@ -28958,7 +28968,7 @@
     </row>
     <row r="52" spans="1:7" ht="15" customHeight="1">
       <c r="A52" s="613" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B52" s="614">
         <v>37</v>
@@ -28981,7 +28991,7 @@
     </row>
     <row r="53" spans="1:7" ht="15" customHeight="1">
       <c r="A53" s="613" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B53" s="614">
         <v>40</v>
@@ -29004,7 +29014,7 @@
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1">
       <c r="A54" s="613" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B54" s="614">
         <v>42</v>
@@ -29027,7 +29037,7 @@
     </row>
     <row r="55" spans="1:7" ht="15" customHeight="1">
       <c r="A55" s="613" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B55" s="614">
         <v>41</v>
@@ -29106,20 +29116,20 @@
     <row r="64" spans="1:7" ht="15" customHeight="1">
       <c r="A64" s="739"/>
       <c r="B64" s="737" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C64" s="737" t="s">
         <v>80</v>
       </c>
       <c r="D64" s="741" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E64" s="741"/>
       <c r="F64" s="737" t="s">
         <v>33</v>
       </c>
       <c r="G64" s="737" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1">
@@ -29130,14 +29140,14 @@
         <v>33</v>
       </c>
       <c r="E65" s="508" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F65" s="738"/>
       <c r="G65" s="738"/>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1">
       <c r="A66" s="116" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B66" s="623">
         <f t="shared" ref="B66:B78" si="0">G44*SUMIFS($B$36:$O$36,$B$3:$O$3,$A44)/10^6</f>
@@ -29164,7 +29174,7 @@
     </row>
     <row r="67" spans="1:7" ht="15" customHeight="1">
       <c r="A67" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B67" s="623">
         <f t="shared" si="0"/>
@@ -29191,7 +29201,7 @@
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1">
       <c r="A68" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B68" s="623">
         <f t="shared" si="0"/>
@@ -29218,7 +29228,7 @@
     </row>
     <row r="69" spans="1:7" ht="15" customHeight="1">
       <c r="A69" s="25" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B69" s="623">
         <f t="shared" si="0"/>
@@ -29245,7 +29255,7 @@
     </row>
     <row r="70" spans="1:7" ht="15" customHeight="1">
       <c r="A70" s="25" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B70" s="623">
         <f t="shared" si="0"/>
@@ -29272,7 +29282,7 @@
     </row>
     <row r="71" spans="1:7" ht="15" customHeight="1">
       <c r="A71" s="25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B71" s="623">
         <f t="shared" si="0"/>
@@ -29299,7 +29309,7 @@
     </row>
     <row r="72" spans="1:7" ht="15" customHeight="1">
       <c r="A72" s="25" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B72" s="623">
         <f t="shared" si="0"/>
@@ -29326,7 +29336,7 @@
     </row>
     <row r="73" spans="1:7" ht="15" customHeight="1">
       <c r="A73" s="25" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B73" s="623">
         <f t="shared" si="0"/>
@@ -29353,7 +29363,7 @@
     </row>
     <row r="74" spans="1:7" ht="15" customHeight="1">
       <c r="A74" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B74" s="623">
         <f t="shared" si="0"/>
@@ -29380,7 +29390,7 @@
     </row>
     <row r="75" spans="1:7" ht="15" customHeight="1">
       <c r="A75" s="25" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B75" s="623">
         <f t="shared" si="0"/>
@@ -29407,7 +29417,7 @@
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1">
       <c r="A76" s="25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B76" s="623">
         <f t="shared" si="0"/>
@@ -29434,7 +29444,7 @@
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1">
       <c r="A77" s="25" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B77" s="623">
         <f t="shared" si="0"/>
@@ -29573,49 +29583,49 @@
         <v>152</v>
       </c>
       <c r="B1" s="535" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="535" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B2" s="536" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="B5" s="537" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G5" s="537" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="B6" s="538"/>
       <c r="C6" s="538" t="s">
+        <v>420</v>
+      </c>
+      <c r="D6" s="538" t="s">
         <v>421</v>
       </c>
-      <c r="D6" s="538" t="s">
+      <c r="E6" s="539" t="s">
         <v>422</v>
       </c>
-      <c r="E6" s="539" t="s">
+      <c r="G6" s="538" t="s">
         <v>423</v>
       </c>
-      <c r="G6" s="538" t="s">
+      <c r="H6" s="538" t="s">
         <v>424</v>
       </c>
-      <c r="H6" s="538" t="s">
+      <c r="I6" s="538" t="s">
         <v>425</v>
-      </c>
-      <c r="I6" s="538" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="B7" s="538" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C7" s="538">
         <v>225</v>
@@ -29641,7 +29651,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="B8" s="538" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C8" s="538">
         <v>870</v>
@@ -29667,7 +29677,7 @@
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="B9" s="541" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C9" s="538">
         <v>496</v>
@@ -29719,7 +29729,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="B11" s="538" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C11" s="538">
         <v>199</v>
@@ -29745,7 +29755,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="B12" s="538" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C12" s="540">
         <v>1768</v>
@@ -29771,7 +29781,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="B13" s="538" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C13" s="538">
         <v>238</v>
@@ -29797,7 +29807,7 @@
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="B14" s="541" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C14" s="538">
         <v>347</v>
@@ -29900,19 +29910,19 @@
     </row>
     <row r="23" spans="2:9" ht="15">
       <c r="B23" s="544" t="s">
+        <v>433</v>
+      </c>
+      <c r="C23" s="538" t="s">
         <v>434</v>
-      </c>
-      <c r="C23" s="538" t="s">
-        <v>435</v>
       </c>
       <c r="D23" s="538" t="s">
         <v>132</v>
       </c>
       <c r="G23" s="544" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H23" s="538" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I23" s="538" t="s">
         <v>132</v>
@@ -29920,7 +29930,7 @@
     </row>
     <row r="24" spans="2:9" ht="15">
       <c r="B24" s="538" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C24" s="538">
         <v>609</v>
@@ -29930,7 +29940,7 @@
         <v>0.12370505789152955</v>
       </c>
       <c r="G24" s="538" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H24" s="538">
         <v>539</v>
@@ -29942,7 +29952,7 @@
     </row>
     <row r="25" spans="2:9" ht="15">
       <c r="B25" s="538" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C25" s="538">
         <v>775</v>
@@ -29952,7 +29962,7 @@
         <v>0.15742433475523054</v>
       </c>
       <c r="G25" s="538" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H25" s="538">
         <v>461</v>
@@ -29964,7 +29974,7 @@
     </row>
     <row r="26" spans="2:9" ht="15">
       <c r="B26" s="538" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C26" s="538">
         <v>773</v>
@@ -29974,7 +29984,7 @@
         <v>0.15701807840747511</v>
       </c>
       <c r="G26" s="538" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H26" s="538">
         <v>309</v>
@@ -29986,7 +29996,7 @@
     </row>
     <row r="27" spans="2:9" ht="15">
       <c r="B27" s="538" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C27" s="538">
         <v>454</v>
@@ -29996,7 +30006,7 @@
         <v>9.2220190940483449E-2</v>
       </c>
       <c r="G27" s="538" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H27" s="538">
         <v>216</v>
@@ -30008,7 +30018,7 @@
     </row>
     <row r="28" spans="2:9" ht="15">
       <c r="B28" s="538" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C28" s="538">
         <v>883</v>
@@ -30018,7 +30028,7 @@
         <v>0.17936217753402398</v>
       </c>
       <c r="G28" s="538" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H28" s="538">
         <v>128</v>
@@ -30040,7 +30050,7 @@
         <v>8.1657525898842176E-2</v>
       </c>
       <c r="G29" s="541" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H29" s="538">
         <v>50</v>
@@ -30052,7 +30062,7 @@
     </row>
     <row r="30" spans="2:9" ht="15">
       <c r="B30" s="538" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C30" s="548">
         <v>356</v>
@@ -30074,7 +30084,7 @@
     </row>
     <row r="31" spans="2:9" ht="15">
       <c r="B31" s="538" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C31" s="538">
         <v>178</v>
@@ -30084,7 +30094,7 @@
         <v>3.6156814950233596E-2</v>
       </c>
       <c r="G31" s="538" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H31" s="538">
         <v>10</v>
@@ -30106,7 +30116,7 @@
         <v>2.9859841560024376E-2</v>
       </c>
       <c r="G32" s="541" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H32" s="538">
         <v>3</v>
@@ -30118,7 +30128,7 @@
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="538" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C33" s="538">
         <v>346</v>
@@ -30149,7 +30159,7 @@
     </row>
     <row r="36" spans="2:9" ht="15">
       <c r="B36" s="535" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C36" s="535">
         <f>SUM(C24:C27)</f>
@@ -30229,10 +30239,10 @@
         <v>97</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -30243,7 +30253,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -30272,26 +30282,26 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="699" t="s">
+        <v>575</v>
+      </c>
+      <c r="B9" s="701" t="s">
         <v>576</v>
-      </c>
-      <c r="B9" s="701" t="s">
-        <v>577</v>
       </c>
       <c r="C9" s="702"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="700" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B10" s="701" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C10" s="702"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="693"/>
       <c r="B11" s="701" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C11" s="702"/>
     </row>
@@ -30312,14 +30322,14 @@
     <row r="15" spans="1:3">
       <c r="A15" s="698"/>
       <c r="B15" s="38" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C15" s="39"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="697"/>
       <c r="B16" s="38" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C16" s="39"/>
     </row>
@@ -30330,34 +30340,34 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="695" t="s">
+        <v>546</v>
+      </c>
+      <c r="B19" s="695" t="s">
         <v>547</v>
       </c>
-      <c r="B19" s="695" t="s">
+      <c r="C19" s="695" t="s">
         <v>548</v>
-      </c>
-      <c r="C19" s="695" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="694" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B20" s="554"/>
       <c r="C20" s="554"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14" t="s">
@@ -30366,7 +30376,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -30391,7 +30401,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
@@ -30400,41 +30410,41 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="18" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B30" s="12"/>
       <c r="C30" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="12" t="s">
@@ -30443,16 +30453,16 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="12" t="s">
@@ -30461,7 +30471,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B34" s="40"/>
       <c r="C34" s="40" t="s">
@@ -30470,7 +30480,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -30523,7 +30533,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>51</v>
@@ -30571,10 +30581,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C44" s="12" t="str">
         <f t="shared" si="0"/>
@@ -30583,10 +30593,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>600</v>
       </c>
       <c r="C45" s="12" t="str">
         <f t="shared" si="0"/>
@@ -30595,7 +30605,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>49</v>
@@ -30619,10 +30629,10 @@
     </row>
     <row r="48" spans="1:3" s="12" customFormat="1">
       <c r="A48" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C48" s="12" t="str">
         <f t="shared" si="0"/>
@@ -30631,10 +30641,10 @@
     </row>
     <row r="49" spans="1:3" s="12" customFormat="1">
       <c r="A49" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>568</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>569</v>
       </c>
       <c r="C49" s="12" t="str">
         <f t="shared" si="0"/>
@@ -30655,10 +30665,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="14" t="s">
+        <v>570</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>571</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>572</v>
       </c>
       <c r="C51" s="14" t="str">
         <f t="shared" si="0"/>
@@ -30667,7 +30677,7 @@
     </row>
     <row r="53" spans="1:3" ht="21">
       <c r="A53" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B53" s="6"/>
     </row>
@@ -30687,19 +30697,19 @@
         <v>108</v>
       </c>
       <c r="B55" s="90" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="18"/>
       <c r="B56" s="578" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -30707,10 +30717,10 @@
         <v>109</v>
       </c>
       <c r="B57" s="90" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" s="43" t="s">
         <v>179</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -30727,19 +30737,19 @@
         <v>110</v>
       </c>
       <c r="B59" s="90" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="30">
       <c r="A60" s="46"/>
       <c r="B60" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C60" s="122" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -30747,7 +30757,7 @@
         <v>112</v>
       </c>
       <c r="B61" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C61" s="14" t="s">
         <v>113</v>
@@ -30755,12 +30765,12 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="554" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B65" s="555">
         <v>4.1868000000000002E-2</v>
@@ -30768,7 +30778,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B66" s="553">
         <f>3.6*10^-3</f>
@@ -30946,13 +30956,13 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" s="411" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="414" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="414" t="s">
         <v>324</v>
-      </c>
-      <c r="C5" s="414" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="414" t="s">
-        <v>325</v>
       </c>
       <c r="E5" s="413" t="str">
         <f>A11</f>
@@ -31061,7 +31071,7 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="411" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C6" s="413" t="str">
         <f>C5</f>
@@ -31178,7 +31188,7 @@
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="411" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C7" s="413" t="str">
         <f>"*"&amp;C5</f>
@@ -31295,223 +31305,223 @@
     </row>
     <row r="10" spans="1:30" ht="15.75" thickBot="1">
       <c r="A10" s="415" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" s="415" t="s">
         <v>328</v>
-      </c>
-      <c r="B10" s="415" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="416" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="416" t="s">
         <v>330</v>
-      </c>
-      <c r="B11" s="416" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="417" t="s">
+        <v>331</v>
+      </c>
+      <c r="B12" s="417" t="s">
         <v>332</v>
-      </c>
-      <c r="B12" s="417" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="417" t="s">
+        <v>333</v>
+      </c>
+      <c r="B13" s="417" t="s">
         <v>334</v>
-      </c>
-      <c r="B13" s="417" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="417" t="s">
+        <v>335</v>
+      </c>
+      <c r="B14" s="417" t="s">
         <v>336</v>
-      </c>
-      <c r="B14" s="417" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="417" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" s="417" t="s">
         <v>338</v>
-      </c>
-      <c r="B15" s="417" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="417" t="s">
+        <v>339</v>
+      </c>
+      <c r="B16" s="417" t="s">
         <v>340</v>
-      </c>
-      <c r="B16" s="417" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="417" t="s">
+        <v>341</v>
+      </c>
+      <c r="B17" s="417" t="s">
         <v>342</v>
-      </c>
-      <c r="B17" s="417" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="417" t="s">
+        <v>343</v>
+      </c>
+      <c r="B18" s="417" t="s">
         <v>344</v>
-      </c>
-      <c r="B18" s="417" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="417" t="s">
+        <v>345</v>
+      </c>
+      <c r="B19" s="417" t="s">
         <v>346</v>
-      </c>
-      <c r="B19" s="417" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="417" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="417" t="s">
         <v>348</v>
-      </c>
-      <c r="B20" s="417" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="417" t="s">
+        <v>349</v>
+      </c>
+      <c r="B21" s="417" t="s">
         <v>350</v>
-      </c>
-      <c r="B21" s="417" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="417" t="s">
+        <v>351</v>
+      </c>
+      <c r="B22" s="417" t="s">
         <v>352</v>
-      </c>
-      <c r="B22" s="417" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="417" t="s">
+        <v>353</v>
+      </c>
+      <c r="B23" s="417" t="s">
         <v>354</v>
-      </c>
-      <c r="B23" s="417" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="417" t="s">
+        <v>355</v>
+      </c>
+      <c r="B24" s="417" t="s">
         <v>356</v>
-      </c>
-      <c r="B24" s="417" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="417" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" s="417" t="s">
         <v>358</v>
-      </c>
-      <c r="B25" s="417" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="417" t="s">
+        <v>359</v>
+      </c>
+      <c r="B26" s="417" t="s">
         <v>360</v>
-      </c>
-      <c r="B26" s="417" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="417" t="s">
+        <v>361</v>
+      </c>
+      <c r="B27" s="417" t="s">
         <v>362</v>
-      </c>
-      <c r="B27" s="417" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="417" t="s">
+        <v>363</v>
+      </c>
+      <c r="B28" s="417" t="s">
         <v>364</v>
-      </c>
-      <c r="B28" s="417" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="417" t="s">
+        <v>365</v>
+      </c>
+      <c r="B29" s="417" t="s">
         <v>366</v>
-      </c>
-      <c r="B29" s="417" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="417" t="s">
+        <v>367</v>
+      </c>
+      <c r="B30" s="417" t="s">
         <v>368</v>
-      </c>
-      <c r="B30" s="417" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="417" t="s">
+        <v>369</v>
+      </c>
+      <c r="B31" s="417" t="s">
         <v>370</v>
-      </c>
-      <c r="B31" s="417" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="417" t="s">
+        <v>371</v>
+      </c>
+      <c r="B32" s="417" t="s">
         <v>372</v>
-      </c>
-      <c r="B32" s="417" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="417" t="s">
+        <v>373</v>
+      </c>
+      <c r="B33" s="417" t="s">
         <v>374</v>
-      </c>
-      <c r="B33" s="417" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="417" t="s">
+        <v>375</v>
+      </c>
+      <c r="B34" s="417" t="s">
         <v>376</v>
-      </c>
-      <c r="B34" s="417" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="417" t="s">
+        <v>377</v>
+      </c>
+      <c r="B35" s="417" t="s">
         <v>378</v>
-      </c>
-      <c r="B35" s="417" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="417" t="s">
+        <v>379</v>
+      </c>
+      <c r="B36" s="417" t="s">
         <v>380</v>
-      </c>
-      <c r="B36" s="417" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="418" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -31572,17 +31582,17 @@
   <sheetData>
     <row r="1" spans="1:44" ht="23.25">
       <c r="B1" s="16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="1:44" customFormat="1"/>
     <row r="3" spans="1:44" s="423" customFormat="1" ht="15" customHeight="1">
       <c r="A3" s="451"/>
       <c r="B3" s="8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D3" s="419"/>
       <c r="E3" s="419"/>
@@ -31630,127 +31640,127 @@
       <c r="B4" s="424"/>
       <c r="C4" s="424"/>
       <c r="D4" s="425" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="425" t="s">
         <v>190</v>
       </c>
-      <c r="E4" s="425" t="s">
+      <c r="F4" s="425" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="425" t="s">
+      <c r="G4" s="425" t="s">
         <v>192</v>
       </c>
-      <c r="G4" s="425" t="s">
+      <c r="H4" s="425" t="s">
         <v>193</v>
       </c>
-      <c r="H4" s="425" t="s">
+      <c r="I4" s="425" t="s">
         <v>194</v>
       </c>
-      <c r="I4" s="425" t="s">
+      <c r="J4" s="425" t="s">
         <v>195</v>
       </c>
-      <c r="J4" s="425" t="s">
+      <c r="K4" s="425" t="s">
         <v>196</v>
       </c>
-      <c r="K4" s="425" t="s">
+      <c r="L4" s="425" t="s">
         <v>197</v>
       </c>
-      <c r="L4" s="425" t="s">
+      <c r="M4" s="425" t="s">
         <v>198</v>
       </c>
-      <c r="M4" s="425" t="s">
+      <c r="N4" s="425" t="s">
         <v>199</v>
       </c>
-      <c r="N4" s="425" t="s">
+      <c r="O4" s="425" t="s">
         <v>200</v>
       </c>
-      <c r="O4" s="425" t="s">
+      <c r="P4" s="425" t="s">
         <v>201</v>
       </c>
-      <c r="P4" s="425" t="s">
+      <c r="Q4" s="425" t="s">
         <v>202</v>
       </c>
-      <c r="Q4" s="425" t="s">
+      <c r="R4" s="425" t="s">
         <v>203</v>
       </c>
-      <c r="R4" s="425" t="s">
+      <c r="S4" s="425" t="s">
         <v>204</v>
       </c>
-      <c r="S4" s="425" t="s">
+      <c r="T4" s="425" t="s">
         <v>205</v>
       </c>
-      <c r="T4" s="425" t="s">
+      <c r="U4" s="425" t="s">
         <v>206</v>
       </c>
-      <c r="U4" s="425" t="s">
+      <c r="V4" s="425" t="s">
         <v>207</v>
       </c>
-      <c r="V4" s="425" t="s">
+      <c r="W4" s="425" t="s">
         <v>208</v>
       </c>
-      <c r="W4" s="425" t="s">
+      <c r="X4" s="425" t="s">
         <v>209</v>
       </c>
-      <c r="X4" s="425" t="s">
+      <c r="Y4" s="425" t="s">
         <v>210</v>
       </c>
-      <c r="Y4" s="425" t="s">
+      <c r="Z4" s="425" t="s">
         <v>211</v>
       </c>
-      <c r="Z4" s="425" t="s">
+      <c r="AA4" s="425" t="s">
         <v>212</v>
       </c>
-      <c r="AA4" s="425" t="s">
+      <c r="AB4" s="425" t="s">
         <v>213</v>
       </c>
-      <c r="AB4" s="425" t="s">
+      <c r="AC4" s="425" t="s">
         <v>214</v>
       </c>
-      <c r="AC4" s="425" t="s">
+      <c r="AD4" s="425" t="s">
         <v>215</v>
       </c>
-      <c r="AD4" s="425" t="s">
+      <c r="AE4" s="425" t="s">
         <v>216</v>
       </c>
-      <c r="AE4" s="425" t="s">
+      <c r="AF4" s="425" t="s">
         <v>217</v>
       </c>
-      <c r="AF4" s="425" t="s">
+      <c r="AG4" s="425" t="s">
         <v>218</v>
       </c>
-      <c r="AG4" s="425" t="s">
+      <c r="AH4" s="425" t="s">
         <v>219</v>
       </c>
-      <c r="AH4" s="425" t="s">
+      <c r="AI4" s="425" t="s">
         <v>220</v>
       </c>
-      <c r="AI4" s="425" t="s">
+      <c r="AJ4" s="425" t="s">
         <v>221</v>
       </c>
-      <c r="AJ4" s="425" t="s">
+      <c r="AK4" s="425" t="s">
         <v>222</v>
       </c>
-      <c r="AK4" s="425" t="s">
+      <c r="AL4" s="425" t="s">
         <v>223</v>
       </c>
-      <c r="AL4" s="425" t="s">
+      <c r="AM4" s="425" t="s">
         <v>224</v>
       </c>
-      <c r="AM4" s="425" t="s">
+      <c r="AN4" s="425" t="s">
         <v>225</v>
       </c>
-      <c r="AN4" s="425" t="s">
+      <c r="AO4" s="425" t="s">
         <v>226</v>
       </c>
-      <c r="AO4" s="425" t="s">
+      <c r="AP4" s="425" t="s">
         <v>227</v>
       </c>
-      <c r="AP4" s="425" t="s">
+      <c r="AQ4" s="425" t="s">
         <v>228</v>
       </c>
-      <c r="AQ4" s="425" t="s">
+      <c r="AR4" s="425" t="s">
         <v>229</v>
-      </c>
-      <c r="AR4" s="425" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:44" s="423" customFormat="1" ht="30" customHeight="1">
@@ -31925,7 +31935,7 @@
     </row>
     <row r="6" spans="1:44" s="423" customFormat="1" ht="30" customHeight="1">
       <c r="B6" s="472" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D6" s="441">
         <f>'EB2018'!C58</f>
@@ -32094,7 +32104,7 @@
     </row>
     <row r="7" spans="1:44" s="423" customFormat="1" ht="30" customHeight="1">
       <c r="B7" s="473" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C7" s="439"/>
       <c r="D7" s="442">
@@ -32310,7 +32320,7 @@
     </row>
     <row r="9" spans="1:44" s="423" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="426" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B9" s="426"/>
       <c r="C9" s="426"/>
@@ -32358,10 +32368,10 @@
     </row>
     <row r="10" spans="1:44">
       <c r="B10" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AP10" s="7"/>
       <c r="AQ10" s="7"/>
@@ -32899,7 +32909,7 @@
     </row>
     <row r="21" spans="2:44">
       <c r="B21" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C21" s="8" t="str">
         <f>"Energy Balance breakdown for "&amp;B25</f>
@@ -32911,19 +32921,19 @@
     </row>
     <row r="22" spans="2:44" ht="30.75" thickBot="1">
       <c r="B22" s="424" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C22" s="424" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>81</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F22" s="425" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G22" s="432" t="s">
         <v>83</v>
@@ -32934,13 +32944,13 @@
     </row>
     <row r="23" spans="2:44" ht="15.75" thickBot="1">
       <c r="B23" s="599" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="579"/>
       <c r="E23" s="579"/>
       <c r="F23" s="467" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G23" s="448"/>
       <c r="AP23" s="7"/>
@@ -33186,7 +33196,7 @@
         <v>Electricity</v>
       </c>
       <c r="E32" s="125" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F32" s="455">
         <v>2.0979079880167242E-2</v>
@@ -33218,7 +33228,7 @@
         <v>Electricity</v>
       </c>
       <c r="E33" s="125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F33" s="455">
         <v>9.0683292361053588E-2</v>
@@ -33276,7 +33286,7 @@
         <v>Space heating</v>
       </c>
       <c r="D35" s="435" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E35" s="461"/>
       <c r="F35" s="463"/>
@@ -33543,7 +33553,7 @@
         <v>Water heating</v>
       </c>
       <c r="D44" s="435" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E44" s="461"/>
       <c r="F44" s="463"/>
@@ -33630,7 +33640,7 @@
         <v>Space cooling</v>
       </c>
       <c r="D47" s="435" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E47" s="461"/>
       <c r="F47" s="463"/>
@@ -33782,7 +33792,7 @@
         <v>Cooking</v>
       </c>
       <c r="D52" s="435" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E52" s="461"/>
       <c r="F52" s="463"/>
@@ -33900,7 +33910,7 @@
         <v>Commercial Services (excl. Data centers)</v>
       </c>
       <c r="C56" s="435" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D56" s="435" t="str">
         <f>Legend!$A$43</f>
@@ -33927,10 +33937,10 @@
         <v>Commercial Services (excl. Data centers)</v>
       </c>
       <c r="C57" s="465" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D57" s="469" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E57" s="464"/>
       <c r="F57" s="466"/>
@@ -33950,7 +33960,7 @@
       <c r="D58" s="7"/>
       <c r="E58" s="450"/>
       <c r="F58" s="467" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G58" s="468">
         <f>G57-M17</f>
@@ -33972,7 +33982,7 @@
     </row>
     <row r="60" spans="2:44">
       <c r="B60" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C60" s="8" t="str">
         <f>"Energy Balance breakdown for "&amp;B64</f>
@@ -33984,19 +33994,19 @@
     </row>
     <row r="61" spans="2:44" ht="30.75" thickBot="1">
       <c r="B61" s="424" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C61" s="424" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D61" s="19" t="s">
         <v>81</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F61" s="425" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G61" s="432" t="s">
         <v>83</v>
@@ -34007,13 +34017,13 @@
     </row>
     <row r="62" spans="2:44" ht="15.75" thickBot="1">
       <c r="B62" s="599" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C62" s="18"/>
       <c r="D62" s="579"/>
       <c r="E62" s="579"/>
       <c r="F62" s="467" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G62" s="448"/>
       <c r="AP62" s="7"/>
@@ -34210,7 +34220,7 @@
         <v>Electricity</v>
       </c>
       <c r="E71" s="125" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F71" s="455">
         <f t="shared" si="9"/>
@@ -34235,7 +34245,7 @@
         <v>Electricity</v>
       </c>
       <c r="E72" s="125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F72" s="455">
         <f t="shared" si="9"/>
@@ -34279,7 +34289,7 @@
         <v>Space heating</v>
       </c>
       <c r="D74" s="435" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E74" s="461"/>
       <c r="F74" s="463"/>
@@ -34482,7 +34492,7 @@
         <v>Water heating</v>
       </c>
       <c r="D83" s="435" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E83" s="461"/>
       <c r="F83" s="463"/>
@@ -34547,7 +34557,7 @@
         <v>Space cooling</v>
       </c>
       <c r="D86" s="435" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E86" s="461"/>
       <c r="F86" s="463"/>
@@ -34658,7 +34668,7 @@
         <v>Cooking</v>
       </c>
       <c r="D91" s="435" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E91" s="461"/>
       <c r="F91" s="463"/>
@@ -34742,7 +34752,7 @@
         <v>Public Services (excl. Public lighting)</v>
       </c>
       <c r="C95" s="435" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D95" s="435" t="str">
         <f>Legend!$A$43</f>
@@ -34761,10 +34771,10 @@
         <v>Public Services (excl. Public lighting)</v>
       </c>
       <c r="C96" s="465" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D96" s="469" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E96" s="464"/>
       <c r="F96" s="466"/>
@@ -34777,7 +34787,7 @@
       <c r="D97" s="7"/>
       <c r="E97" s="450"/>
       <c r="F97" s="467" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G97" s="468">
         <f>G96-M18</f>
@@ -34815,7 +34825,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="23.25">
       <c r="A1" s="92" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
@@ -34841,13 +34851,13 @@
     </row>
     <row r="5" spans="1:12" ht="17.25">
       <c r="A5" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="477">
         <v>87.053206529921553</v>
@@ -34855,13 +34865,13 @@
     </row>
     <row r="6" spans="1:12" ht="17.25">
       <c r="A6" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="610">
         <f>'CSO data'!O36</f>
@@ -34883,7 +34893,7 @@
     </row>
     <row r="9" spans="1:12" customFormat="1">
       <c r="A9" s="25" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H9" s="88"/>
       <c r="I9" s="620"/>
@@ -34928,7 +34938,7 @@
         <v>132</v>
       </c>
       <c r="D12" s="110" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F12" s="24"/>
       <c r="H12" s="88"/>
@@ -35076,7 +35086,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C21" s="632">
         <f>D21/SUM($D$21:$D$22)</f>
@@ -35094,7 +35104,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="23" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="633">
@@ -35118,50 +35128,50 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="96" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="45.75" thickBot="1">
       <c r="A26" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D26" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>172</v>
-      </c>
       <c r="F26" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>129</v>
       </c>
       <c r="H26" s="487" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I26" s="487" t="s">
         <v>144</v>
       </c>
       <c r="J26" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K26" s="19" t="s">
         <v>111</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="30.75" thickBot="1">
       <c r="A27" s="599" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B27" s="600"/>
       <c r="C27" s="600"/>
@@ -35169,13 +35179,13 @@
       <c r="E27" s="600"/>
       <c r="F27" s="601"/>
       <c r="G27" s="599" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H27" s="605" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I27" s="602" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J27" s="603"/>
       <c r="K27" s="600"/>
@@ -35484,7 +35494,7 @@
         <v>Space heating</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D35" s="12" t="str">
         <f>Legend!B43&amp;"-HP"</f>
@@ -35530,7 +35540,7 @@
         <v>Space heating</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D36" s="14" t="str">
         <f>Legend!B43</f>
@@ -35573,7 +35583,7 @@
         <v>Space heating</v>
       </c>
       <c r="C37" s="435" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D37" s="635"/>
       <c r="E37" s="635"/>
@@ -35912,7 +35922,7 @@
         <v>Water heating</v>
       </c>
       <c r="C45" s="435" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D45" s="635"/>
       <c r="E45" s="635"/>
@@ -36031,7 +36041,7 @@
         <v>Space cooling</v>
       </c>
       <c r="C48" s="435" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D48" s="635"/>
       <c r="E48" s="635"/>
@@ -36441,7 +36451,7 @@
         <v>Space heating</v>
       </c>
       <c r="C57" s="435" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D57" s="635"/>
       <c r="E57" s="635"/>
@@ -36801,7 +36811,7 @@
         <v>Water heating</v>
       </c>
       <c r="C65" s="435" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D65" s="635"/>
       <c r="E65" s="635"/>
@@ -36926,7 +36936,7 @@
         <v>Space cooling</v>
       </c>
       <c r="C68" s="435" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D68" s="635"/>
       <c r="E68" s="635"/>
@@ -36974,7 +36984,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="96" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B71" s="30"/>
       <c r="C71" s="30"/>
@@ -36990,37 +37000,37 @@
     </row>
     <row r="72" spans="1:14" ht="45.75" thickBot="1">
       <c r="A72" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C72" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D72" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E72" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E72" s="19" t="s">
-        <v>172</v>
-      </c>
       <c r="F72" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G72" s="19" t="s">
         <v>129</v>
       </c>
       <c r="H72" s="487" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I72" s="487" t="s">
         <v>144</v>
       </c>
       <c r="J72" s="487" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K72" s="487" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L72" s="19" t="s">
         <v>111</v>
@@ -37030,7 +37040,7 @@
     </row>
     <row r="73" spans="1:14" ht="30.75" thickBot="1">
       <c r="A73" s="599" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B73" s="600"/>
       <c r="C73" s="600"/>
@@ -37038,16 +37048,16 @@
       <c r="E73" s="600"/>
       <c r="F73" s="603"/>
       <c r="G73" s="601" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H73" s="602" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I73" s="602" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J73" s="602" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K73" s="604"/>
       <c r="L73" s="600"/>
@@ -37073,13 +37083,13 @@
         <v>70</v>
       </c>
       <c r="J74" s="483" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K74" s="496" t="s">
         <v>46</v>
       </c>
       <c r="L74" s="496" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M74" s="125"/>
       <c r="N74" s="125"/>
@@ -37286,7 +37296,7 @@
         <v>Cooking</v>
       </c>
       <c r="C79" s="435" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D79" s="667"/>
       <c r="E79" s="667"/>
@@ -37527,7 +37537,7 @@
         <v>Cooking</v>
       </c>
       <c r="C84" s="669" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D84" s="672"/>
       <c r="E84" s="672"/>
@@ -37588,36 +37598,36 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="96" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="30.75" thickBot="1">
       <c r="A88" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C88" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D88" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E88" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E88" s="19" t="s">
-        <v>172</v>
-      </c>
       <c r="F88" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G88" s="509" t="s">
         <v>129</v>
       </c>
       <c r="H88" s="487" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J88" s="19" t="s">
         <v>111</v>
@@ -37625,7 +37635,7 @@
     </row>
     <row r="89" spans="1:14" ht="30.75" thickBot="1">
       <c r="A89" s="599" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B89" s="600"/>
       <c r="C89" s="600"/>
@@ -37633,11 +37643,11 @@
       <c r="E89" s="600"/>
       <c r="F89" s="603"/>
       <c r="H89" s="605" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I89" s="599"/>
       <c r="J89" s="599" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -37650,16 +37660,16 @@
         <v>46</v>
       </c>
       <c r="G90" s="496" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H90" s="483" t="s">
         <v>96</v>
       </c>
       <c r="I90" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="J90" s="27" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="21.75" customHeight="1">
@@ -37946,7 +37956,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="96" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B99" s="104"/>
       <c r="C99" s="104"/>
@@ -37957,73 +37967,73 @@
     </row>
     <row r="100" spans="1:14" ht="45.75" thickBot="1">
       <c r="A100" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C100" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D100" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="E100" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="E100" s="19" t="s">
-        <v>172</v>
-      </c>
       <c r="F100" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G100" s="509" t="s">
         <v>111</v>
       </c>
       <c r="H100" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I100" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J100" s="20" t="s">
         <v>144</v>
       </c>
       <c r="K100" s="487" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L100" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M100" s="20" t="s">
+        <v>488</v>
+      </c>
+      <c r="N100" s="20" t="s">
         <v>489</v>
-      </c>
-      <c r="N100" s="20" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="30.75" thickBot="1">
       <c r="A101" s="599" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B101" s="600"/>
       <c r="C101" s="600"/>
       <c r="D101" s="600"/>
       <c r="E101" s="600"/>
       <c r="F101" s="601" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G101" s="601" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H101" s="602" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I101" s="602" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="J101" s="602" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K101" s="602" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L101" s="510"/>
       <c r="N101" s="511"/>
@@ -38038,7 +38048,7 @@
         <v>46</v>
       </c>
       <c r="G102" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H102" s="27" t="s">
         <v>132</v>
@@ -38056,7 +38066,7 @@
         <v>149</v>
       </c>
       <c r="M102" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N102" s="483" t="s">
         <v>46</v>
@@ -38064,7 +38074,7 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="595" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B103" s="25" t="str">
         <f>Legend!$A$33</f>
@@ -38117,7 +38127,7 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="454" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B104" s="25" t="str">
         <f>Legend!$A$33</f>
@@ -38164,7 +38174,7 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="454" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B105" s="25" t="str">
         <f>Legend!$A$33</f>
@@ -38211,7 +38221,7 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="108" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B106" s="126" t="str">
         <f>Legend!$A$33</f>
@@ -38258,14 +38268,14 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="108" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B107" s="126" t="str">
         <f>Legend!$A$33</f>
         <v>Public lighting</v>
       </c>
       <c r="C107" s="597" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D107" s="126"/>
       <c r="E107" s="126"/>
@@ -38300,7 +38310,7 @@
       <c r="J108" s="125"/>
       <c r="K108" s="125"/>
       <c r="L108" s="582" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M108" s="596">
         <f>M107-G103</f>
@@ -38329,7 +38339,7 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="96" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B110" s="583"/>
       <c r="C110" s="584"/>
@@ -38347,31 +38357,31 @@
     </row>
     <row r="111" spans="1:14" ht="45.75" thickBot="1">
       <c r="A111" s="509" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B111" s="509" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C111" s="509" t="s">
         <v>81</v>
       </c>
       <c r="D111" s="509" t="s">
+        <v>170</v>
+      </c>
+      <c r="E111" s="509" t="s">
         <v>171</v>
-      </c>
-      <c r="E111" s="509" t="s">
-        <v>172</v>
       </c>
       <c r="F111" s="509" t="s">
         <v>111</v>
       </c>
       <c r="G111" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H111" s="487" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I111" s="20" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
@@ -38381,20 +38391,20 @@
     </row>
     <row r="112" spans="1:14" ht="30.75" thickBot="1">
       <c r="A112" s="599" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B112" s="600"/>
       <c r="C112" s="606"/>
       <c r="D112" s="606"/>
       <c r="E112" s="606"/>
       <c r="F112" s="607" t="s">
+        <v>484</v>
+      </c>
+      <c r="G112" s="608" t="s">
         <v>485</v>
       </c>
-      <c r="G112" s="608" t="s">
-        <v>486</v>
-      </c>
       <c r="H112" s="602" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I112" s="609"/>
       <c r="J112" s="1"/>
@@ -38501,10 +38511,10 @@
   <sheetPr codeName="Sheet5">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:R101"/>
+  <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38559,7 +38569,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D3" s="34" t="s">
         <v>7</v>
@@ -38596,10 +38606,10 @@
         <v>114</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E4" s="52" t="s">
         <v>89</v>
@@ -38766,7 +38776,7 @@
         <v>SRV-Commercial Services: Building lighting</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H11" s="30" t="s">
         <v>30</v>
@@ -38789,7 +38799,7 @@
         <v>SRV-Commercial Services: Refrigeration</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H12" s="30" t="s">
         <v>30</v>
@@ -38945,7 +38955,7 @@
         <v>SRV-Public Services: Building lighting</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30" t="s">
@@ -38972,7 +38982,7 @@
         <v>SRV-Public Services: Refrigeration</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="30" t="s">
@@ -39304,189 +39314,173 @@
       <c r="K32" s="30"/>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1">
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="751" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="25" t="str">
+      <c r="C33" s="751" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
         <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
-      <c r="D33" s="30" t="str">
-        <f>Legend!C46&amp;"_C"</f>
-        <v>SRVHET_C</v>
-      </c>
-      <c r="E33" s="30" t="str">
-        <f>Legend!A46&amp;" (SRV) City"</f>
-        <v>District heating (SRV) City</v>
-      </c>
-      <c r="F33" s="30" t="s">
+      <c r="D33" s="752" t="str">
+        <f>Legend!C46</f>
+        <v>SRVHET</v>
+      </c>
+      <c r="E33" s="752" t="str">
+        <f>Legend!A46</f>
+        <v>District heating</v>
+      </c>
+      <c r="F33" s="752" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="H33" s="30" t="s">
+      <c r="G33" s="753"/>
+      <c r="H33" s="752" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
+      <c r="I33" s="752"/>
+      <c r="J33" s="752" t="s">
+        <v>49</v>
+      </c>
       <c r="K33" s="30"/>
     </row>
-    <row r="34" spans="1:15" s="411" customFormat="1">
-      <c r="B34" s="25" t="s">
+    <row r="34" spans="1:15" s="1" customFormat="1">
+      <c r="B34" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="25" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
-        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
-      </c>
-      <c r="D34" s="30" t="str">
-        <f>Legend!C46&amp;"_1"</f>
-        <v>SRVHET_1</v>
-      </c>
-      <c r="E34" s="30" t="str">
-        <f>Legend!A46&amp;" (SRV) High Density Urban"</f>
-        <v>District heating (SRV) High Density Urban</v>
-      </c>
-      <c r="F34" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="H34" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-    </row>
-    <row r="35" spans="1:15" s="411" customFormat="1">
-      <c r="B35" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="25" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
-        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
-      </c>
-      <c r="D35" s="30" t="str">
-        <f>Legend!C46&amp;"_2"</f>
-        <v>SRVHET_2</v>
-      </c>
-      <c r="E35" s="30" t="str">
-        <f>Legend!A46&amp;" (SRV) Medium Density Urban"</f>
-        <v>District heating (SRV) Medium Density Urban</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="H35" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-    </row>
-    <row r="36" spans="1:15" s="411" customFormat="1">
-      <c r="B36" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="25" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
-        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
-      </c>
-      <c r="D36" s="30" t="str">
-        <f>Legend!C46&amp;"_3"</f>
-        <v>SRVHET_3</v>
-      </c>
-      <c r="E36" s="30" t="str">
-        <f>Legend!A46&amp;" (SRV) Low Density Urban"</f>
-        <v>District heating (SRV) Low Density Urban</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="H36" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-    </row>
-    <row r="37" spans="1:15" s="1" customFormat="1">
-      <c r="B37" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="21" t="str">
+      <c r="C34" s="21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D37" s="21" t="str">
+      <c r="D34" s="21" t="str">
         <f>Legend!C47</f>
         <v>SRVWIN</v>
       </c>
-      <c r="E37" s="21" t="str">
+      <c r="E34" s="21" t="str">
         <f>Legend!A47&amp;" (SRV)"</f>
         <v>Wind (SRV)</v>
       </c>
-      <c r="F37" s="21" t="s">
+      <c r="F34" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="30"/>
+    </row>
+    <row r="35" spans="1:15" s="1" customFormat="1">
+      <c r="B35" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="21" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D35" s="21" t="str">
+        <f>Legend!C48</f>
+        <v>SRVH2G</v>
+      </c>
+      <c r="E35" s="21" t="str">
+        <f>Legend!A48&amp;" (SRV)"</f>
+        <v>Hydrogen (gaseous) (SRV)</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="30"/>
+    </row>
+    <row r="36" spans="1:15" s="1" customFormat="1">
+      <c r="B36" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="21" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D36" s="21" t="str">
+        <f>Legend!C49</f>
+        <v>SRVH2L</v>
+      </c>
+      <c r="E36" s="21" t="str">
+        <f>Legend!A49&amp;" (SRV)"</f>
+        <v>Hydrogen (liquid) (SRV)</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="30"/>
+    </row>
+    <row r="37" spans="1:15" s="1" customFormat="1">
+      <c r="B37" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="31" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
+      </c>
+      <c r="D37" s="31" t="str">
+        <f>Legend!C50</f>
+        <v>SRVBDL</v>
+      </c>
+      <c r="E37" s="31" t="str">
+        <f>Legend!A50&amp;" (SRV)"</f>
+        <v>Biodiesel (SRV)</v>
+      </c>
+      <c r="F37" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
       <c r="K37" s="30"/>
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1">
-      <c r="B38" s="21" t="s">
-        <v>21</v>
+      <c r="B38" s="663" t="s">
+        <v>26</v>
       </c>
       <c r="C38" s="21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D38" s="21" t="str">
-        <f>Legend!C48</f>
-        <v>SRVH2G</v>
-      </c>
-      <c r="E38" s="21" t="str">
-        <f>Legend!A48&amp;" (SRV)"</f>
-        <v>Hydrogen (gaseous) (SRV)</v>
-      </c>
-      <c r="F38" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
+      <c r="D38" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="F38" s="663" t="s">
+        <v>542</v>
+      </c>
+      <c r="G38" s="663"/>
+      <c r="H38" s="663"/>
+      <c r="I38" s="663"/>
+      <c r="J38" s="663"/>
       <c r="K38" s="30"/>
     </row>
     <row r="39" spans="1:15" s="1" customFormat="1">
       <c r="B39" s="21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C39" s="21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D39" s="21" t="str">
-        <f>Legend!C49</f>
-        <v>SRVH2L</v>
-      </c>
-      <c r="E39" s="21" t="str">
-        <f>Legend!A49&amp;" (SRV)"</f>
-        <v>Hydrogen (liquid) (SRV)</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>46</v>
+      <c r="D39" s="454" t="s">
+        <v>531</v>
+      </c>
+      <c r="E39" s="102" t="s">
+        <v>536</v>
+      </c>
+      <c r="F39" s="102" t="s">
+        <v>542</v>
       </c>
       <c r="G39" s="102"/>
       <c r="H39" s="102"/>
@@ -39495,51 +39489,49 @@
       <c r="K39" s="30"/>
     </row>
     <row r="40" spans="1:15" s="1" customFormat="1">
-      <c r="B40" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="31" t="str">
+      <c r="B40" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D40" s="31" t="str">
-        <f>Legend!C50</f>
-        <v>SRVBDL</v>
-      </c>
-      <c r="E40" s="31" t="str">
-        <f>Legend!A50&amp;" (SRV)"</f>
-        <v>Biodiesel (SRV)</v>
-      </c>
-      <c r="F40" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
+      <c r="D40" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="E40" s="102" t="s">
+        <v>537</v>
+      </c>
+      <c r="F40" s="102" t="s">
+        <v>542</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
       <c r="K40" s="30"/>
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1">
-      <c r="B41" s="663" t="s">
+      <c r="B41" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C41" s="21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D41" s="17" t="s">
-        <v>531</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="D41" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="E41" s="102" t="s">
+        <v>538</v>
+      </c>
+      <c r="F41" s="102" t="s">
         <v>542</v>
       </c>
-      <c r="F41" s="663" t="s">
-        <v>543</v>
-      </c>
-      <c r="G41" s="663"/>
-      <c r="H41" s="663"/>
-      <c r="I41" s="663"/>
-      <c r="J41" s="663"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
       <c r="K41" s="30"/>
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1">
@@ -39550,217 +39542,166 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D42" s="454" t="s">
-        <v>532</v>
+      <c r="D42" s="12" t="s">
+        <v>534</v>
       </c>
       <c r="E42" s="102" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F42" s="102" t="s">
-        <v>543</v>
-      </c>
-      <c r="G42" s="102"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="102"/>
-      <c r="J42" s="102"/>
+        <v>542</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
       <c r="K42" s="30"/>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1">
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="21" t="str">
+      <c r="C43" s="31" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>533</v>
-      </c>
-      <c r="E43" s="102" t="s">
-        <v>538</v>
-      </c>
-      <c r="F43" s="102" t="s">
-        <v>543</v>
-      </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="21"/>
+      <c r="D43" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="E43" s="103" t="s">
+        <v>540</v>
+      </c>
+      <c r="F43" s="103" t="s">
+        <v>542</v>
+      </c>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
       <c r="K43" s="30"/>
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1">
-      <c r="B44" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="21" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="E44" s="102" t="s">
-        <v>539</v>
-      </c>
-      <c r="F44" s="102" t="s">
-        <v>543</v>
-      </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="7"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
       <c r="K44" s="30"/>
     </row>
-    <row r="45" spans="1:15" s="1" customFormat="1">
-      <c r="B45" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="21" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="E45" s="102" t="s">
-        <v>540</v>
-      </c>
-      <c r="F45" s="102" t="s">
-        <v>543</v>
-      </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="30"/>
-    </row>
-    <row r="46" spans="1:15" s="1" customFormat="1">
-      <c r="B46" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C46" s="31" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="D46" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="E46" s="103" t="s">
-        <v>541</v>
-      </c>
-      <c r="F46" s="103" t="s">
-        <v>543</v>
-      </c>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="30"/>
-    </row>
-    <row r="47" spans="1:15" s="1" customFormat="1">
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="7"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="1"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="1"/>
+    <row r="49" spans="12:15">
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
     </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="1"/>
+    <row r="50" spans="12:15">
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15">
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-    </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="12:15">
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="12:15">
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="54" spans="12:15">
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="12:15">
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="12:15">
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="12:15">
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="12:15">
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="12:15">
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="12:15">
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="12:15">
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="12:15">
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="12:15">
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="12:15">
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
@@ -39969,24 +39910,6 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
-    </row>
-    <row r="99" spans="12:15">
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-    </row>
-    <row r="100" spans="12:15">
-      <c r="L100" s="4"/>
-      <c r="M100" s="4"/>
-      <c r="N100" s="4"/>
-      <c r="O100" s="4"/>
-    </row>
-    <row r="101" spans="12:15">
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40000,8 +39923,8 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -40055,16 +39978,16 @@
         <v>87</v>
       </c>
       <c r="F3" s="34" t="s">
+        <v>584</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>585</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>586</v>
       </c>
       <c r="I3" s="34" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K3" s="34" t="s">
         <v>4</v>
@@ -40102,16 +40025,16 @@
         <v>129</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G4" s="51" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I4" s="51" t="s">
         <v>115</v>
       </c>
       <c r="J4" s="51" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K4" s="51" t="s">
         <v>116</v>
@@ -40141,7 +40064,7 @@
         <v>FT-SRVCOA</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D5" s="30" t="str">
         <f>Legend!C36</f>
@@ -40169,7 +40092,7 @@
         <v>46</v>
       </c>
       <c r="N5" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O5" s="63"/>
       <c r="P5" s="63"/>
@@ -40208,7 +40131,7 @@
         <v>46</v>
       </c>
       <c r="N6" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O6" s="63"/>
       <c r="P6" s="63"/>
@@ -40219,7 +40142,7 @@
         <v>FT-SRVOIL</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D7" s="30" t="str">
         <f>Legend!C38</f>
@@ -40254,14 +40177,14 @@
         <v>46</v>
       </c>
       <c r="N7" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O7" s="63"/>
       <c r="P7" s="63"/>
     </row>
     <row r="8" spans="2:17">
       <c r="C8" s="30" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F8" s="88">
         <f>EB_SRV!V5*Legend!$B$65/EB_SRV!$F$12</f>
@@ -40289,14 +40212,14 @@
         <v>46</v>
       </c>
       <c r="N8" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O8" s="63"/>
       <c r="P8" s="63"/>
     </row>
     <row r="9" spans="2:17">
       <c r="C9" s="30" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F9" s="88">
         <f>EB_SRV!T5*Legend!$B$65/EB_SRV!$F$12</f>
@@ -40324,7 +40247,7 @@
         <v>46</v>
       </c>
       <c r="N9" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O9" s="63"/>
       <c r="P9" s="63"/>
@@ -40363,7 +40286,7 @@
         <v>46</v>
       </c>
       <c r="N10" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O10" s="63"/>
       <c r="P10" s="63"/>
@@ -40374,7 +40297,7 @@
         <v>FT-SRVBIO</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D11" s="30" t="str">
         <f>Legend!C40</f>
@@ -40402,7 +40325,7 @@
         <v>46</v>
       </c>
       <c r="N11" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O11" s="63"/>
       <c r="P11" s="63"/>
@@ -40413,7 +40336,7 @@
         <v>FT-SRVBGS</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D12" s="30" t="str">
         <f>Legend!C41</f>
@@ -40441,7 +40364,7 @@
         <v>46</v>
       </c>
       <c r="N12" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O12" s="63" t="s">
         <v>88</v>
@@ -40454,7 +40377,7 @@
         <v>FT-SRVSOL</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D13" s="30" t="str">
         <f>Legend!C42</f>
@@ -40482,7 +40405,7 @@
         <v>46</v>
       </c>
       <c r="N13" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O13" s="65"/>
       <c r="P13" s="65"/>
@@ -40494,7 +40417,7 @@
         <v>FT-SRVELC</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D14" s="30" t="str">
         <f>Legend!C43</f>
@@ -40512,17 +40435,17 @@
       </c>
       <c r="K14" s="63" t="str">
         <f>"FT-"&amp;Commodities!D33</f>
-        <v>FT-SRVHET_C</v>
+        <v>FT-SRVHET</v>
       </c>
       <c r="L14" s="63" t="str">
         <f>Commodities!E33</f>
-        <v>District heating (SRV) City</v>
+        <v>District heating</v>
       </c>
       <c r="M14" s="63" t="s">
         <v>46</v>
       </c>
       <c r="N14" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O14" s="63" t="s">
         <v>88</v>
@@ -40535,7 +40458,7 @@
         <v>FT-SRVAHT</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D15" s="21" t="str">
         <f>Legend!C44</f>
@@ -40553,19 +40476,19 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
         <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
-      <c r="K15" s="63" t="str">
-        <f>"FT-"&amp;Commodities!D34</f>
-        <v>FT-SRVHET_1</v>
-      </c>
-      <c r="L15" s="63" t="str">
-        <f>Commodities!E34</f>
-        <v>District heating (SRV) High Density Urban</v>
+      <c r="K15" s="63" t="e">
+        <f>"FT-"&amp;Commodities!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L15" s="63" t="e">
+        <f>Commodities!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="M15" s="63" t="s">
         <v>46</v>
       </c>
       <c r="N15" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O15" s="63" t="s">
         <v>88</v>
@@ -40589,19 +40512,19 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
         <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
-      <c r="K16" s="63" t="str">
-        <f>"FT-"&amp;Commodities!D35</f>
-        <v>FT-SRVHET_2</v>
-      </c>
-      <c r="L16" s="63" t="str">
-        <f>Commodities!E35</f>
-        <v>District heating (SRV) Medium Density Urban</v>
+      <c r="K16" s="63" t="e">
+        <f>"FT-"&amp;Commodities!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L16" s="63" t="e">
+        <f>Commodities!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="M16" s="63" t="s">
         <v>46</v>
       </c>
       <c r="N16" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O16" s="63" t="s">
         <v>88</v>
@@ -40611,13 +40534,13 @@
     <row r="17" spans="2:17">
       <c r="B17" s="729" t="str">
         <f t="shared" ref="B17:B20" si="4">K14</f>
-        <v>FT-SRVHET_C</v>
+        <v>FT-SRVHET</v>
       </c>
       <c r="C17" s="728" t="s">
+        <v>615</v>
+      </c>
+      <c r="D17" s="663" t="s">
         <v>616</v>
-      </c>
-      <c r="D17" s="663" t="s">
-        <v>617</v>
       </c>
       <c r="E17" s="663">
         <v>1</v>
@@ -40631,19 +40554,19 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
         <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
-      <c r="K17" s="63" t="str">
-        <f>"FT-"&amp;Commodities!D36</f>
-        <v>FT-SRVHET_3</v>
-      </c>
-      <c r="L17" s="63" t="str">
-        <f>Commodities!E36</f>
-        <v>District heating (SRV) Low Density Urban</v>
+      <c r="K17" s="63" t="e">
+        <f>"FT-"&amp;Commodities!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L17" s="63" t="e">
+        <f>Commodities!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="M17" s="63" t="s">
         <v>46</v>
       </c>
       <c r="N17" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O17" s="63" t="s">
         <v>88</v>
@@ -40651,15 +40574,15 @@
       <c r="P17" s="63"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="729" t="str">
+      <c r="B18" s="729" t="e">
         <f t="shared" si="4"/>
-        <v>FT-SRVHET_1</v>
+        <v>#REF!</v>
       </c>
       <c r="C18" s="728" t="s">
+        <v>615</v>
+      </c>
+      <c r="D18" s="663" t="s">
         <v>616</v>
-      </c>
-      <c r="D18" s="663" t="s">
-        <v>617</v>
       </c>
       <c r="E18" s="663">
         <v>1</v>
@@ -40685,21 +40608,21 @@
         <v>46</v>
       </c>
       <c r="N18" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O18" s="63"/>
       <c r="P18" s="63"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="729" t="str">
+      <c r="B19" s="729" t="e">
         <f t="shared" si="4"/>
-        <v>FT-SRVHET_2</v>
+        <v>#REF!</v>
       </c>
       <c r="C19" s="728" t="s">
+        <v>615</v>
+      </c>
+      <c r="D19" s="663" t="s">
         <v>616</v>
-      </c>
-      <c r="D19" s="663" t="s">
-        <v>617</v>
       </c>
       <c r="E19" s="663">
         <v>1</v>
@@ -40725,21 +40648,21 @@
         <v>46</v>
       </c>
       <c r="N19" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O19" s="63"/>
       <c r="P19" s="63"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="729" t="str">
+      <c r="B20" s="729" t="e">
         <f t="shared" si="4"/>
-        <v>FT-SRVHET_3</v>
+        <v>#REF!</v>
       </c>
       <c r="C20" s="728" t="s">
+        <v>615</v>
+      </c>
+      <c r="D20" s="663" t="s">
         <v>616</v>
-      </c>
-      <c r="D20" s="663" t="s">
-        <v>617</v>
       </c>
       <c r="E20" s="663">
         <v>1</v>
@@ -40765,7 +40688,7 @@
         <v>46</v>
       </c>
       <c r="N20" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O20" s="63"/>
       <c r="P20" s="63"/>
@@ -40776,7 +40699,7 @@
         <v>FT-SRVWIN</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D21" s="30" t="str">
         <f>Legend!C47</f>
@@ -40804,7 +40727,7 @@
         <v>46</v>
       </c>
       <c r="N21" s="63" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O21" s="63"/>
       <c r="P21" s="63"/>
@@ -40815,7 +40738,7 @@
         <v>FT-SRVH2G</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D22" s="30" t="str">
         <f>Legend!C48</f>
@@ -40843,7 +40766,7 @@
         <v>46</v>
       </c>
       <c r="N22" s="65" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="O22" s="65"/>
       <c r="P22" s="65"/>
@@ -40855,7 +40778,7 @@
         <v>FT-SRVH2L</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D23" s="30" t="str">
         <f>Legend!C49</f>
@@ -40871,7 +40794,7 @@
         <v>FT-SRVBDL</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D24" s="30" t="str">
         <f>Legend!C50</f>
@@ -40887,7 +40810,7 @@
         <v>FT-SRVETH</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D25" s="31" t="str">
         <f>Legend!C51</f>
@@ -40936,7 +40859,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="23.25">
       <c r="B1" s="67" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C1" s="67"/>
       <c r="D1" s="67"/>
@@ -40972,16 +40895,16 @@
         <v>23</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>141</v>
       </c>
       <c r="H3" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="I3" s="34" t="s">
         <v>595</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>596</v>
       </c>
       <c r="J3" s="34" t="s">
         <v>29</v>
@@ -40991,7 +40914,7 @@
         <v>14</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N3" s="34" t="s">
         <v>4</v>
@@ -41033,7 +40956,7 @@
         <v>133</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H4" s="54" t="s">
         <v>134</v>
@@ -41049,7 +40972,7 @@
         <v>115</v>
       </c>
       <c r="M4" s="51" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N4" s="51" t="s">
         <v>116</v>
@@ -41085,7 +41008,7 @@
         <v>137</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H5" s="57"/>
       <c r="I5" s="57"/>
@@ -41094,7 +41017,7 @@
       </c>
       <c r="K5" s="29"/>
       <c r="L5" s="57" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M5" s="57"/>
       <c r="N5" s="57"/>
@@ -41452,7 +41375,7 @@
     <row r="23" spans="1:15" ht="23.25">
       <c r="A23" s="687"/>
       <c r="B23" s="67" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -41667,7 +41590,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="23.25">
       <c r="B1" s="33" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C1" s="33"/>
       <c r="X1" s="32"/>
@@ -41700,7 +41623,7 @@
         <v>22</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>23</v>
@@ -41741,7 +41664,7 @@
         <v>14</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S3" s="34" t="s">
         <v>4</v>
@@ -41766,25 +41689,25 @@
       </c>
       <c r="Z3"/>
       <c r="AA3" s="735" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AB3" s="735" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC3" s="735" t="s">
         <v>81</v>
       </c>
       <c r="AD3" s="735" t="s">
+        <v>507</v>
+      </c>
+      <c r="AE3" s="735" t="s">
         <v>508</v>
       </c>
-      <c r="AE3" s="735" t="s">
+      <c r="AF3" s="735" t="s">
         <v>509</v>
       </c>
-      <c r="AF3" s="735" t="s">
+      <c r="AG3" s="735" t="s">
         <v>510</v>
-      </c>
-      <c r="AG3" s="735" t="s">
-        <v>511</v>
       </c>
       <c r="AH3" s="74" t="s">
         <v>77</v>
@@ -41803,7 +41726,7 @@
         <v>126</v>
       </c>
       <c r="E4" s="54" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>127</v>
@@ -41825,20 +41748,20 @@
       </c>
       <c r="L4" s="54"/>
       <c r="M4" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="N4" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="O4" s="54" t="s">
         <v>183</v>
-      </c>
-      <c r="N4" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="O4" s="54" t="s">
-        <v>184</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="51" t="s">
         <v>115</v>
       </c>
       <c r="R4" s="51" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S4" s="51" t="s">
         <v>116</v>
@@ -41873,7 +41796,7 @@
         <v>146</v>
       </c>
       <c r="AI4" s="76" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="32" customFormat="1">
@@ -41901,7 +41824,7 @@
         <v>95</v>
       </c>
       <c r="L5" s="661" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M5" s="57" t="s">
         <v>132</v>
@@ -41912,7 +41835,7 @@
       <c r="O5" s="57"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="57" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="R5" s="57"/>
       <c r="S5" s="57"/>
@@ -46163,7 +46086,7 @@
     </row>
     <row r="47" spans="1:35">
       <c r="F47" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G47" s="109">
         <f>SUM(G7:G45)</f>

--- a/VT_IE_SRV.xlsx
+++ b/VT_IE_SRV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C1E9BE-72FE-44E7-AE87-0A8E3243ABD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A963294F-88DF-4A4B-9EF5-AAD6D386AD6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1080" yWindow="-15495" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="83" r:id="rId1"/>
@@ -11676,6 +11676,13 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="127" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -11735,13 +11742,6 @@
     <xf numFmtId="0" fontId="67" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="128">
     <cellStyle name="20 % - Akzent1" xfId="49" hidden="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -13222,12 +13222,12 @@
       <c r="Z15" s="714"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="731" t="s">
+      <c r="A16" s="734" t="s">
         <v>600</v>
       </c>
-      <c r="B16" s="731"/>
-      <c r="C16" s="731"/>
-      <c r="D16" s="731"/>
+      <c r="B16" s="734"/>
+      <c r="C16" s="734"/>
+      <c r="D16" s="734"/>
       <c r="E16" s="715"/>
       <c r="F16" s="715"/>
       <c r="G16" s="716"/>
@@ -13311,11 +13311,11 @@
       <c r="A19" s="720" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="730" t="s">
+      <c r="B19" s="733" t="s">
         <v>612</v>
       </c>
-      <c r="C19" s="730"/>
-      <c r="D19" s="730"/>
+      <c r="C19" s="733"/>
+      <c r="D19" s="733"/>
       <c r="E19" s="721"/>
       <c r="F19" s="721"/>
       <c r="G19" s="722"/>
@@ -13343,11 +13343,11 @@
       <c r="A20" s="720" t="s">
         <v>601</v>
       </c>
-      <c r="B20" s="730" t="s">
+      <c r="B20" s="733" t="s">
         <v>613</v>
       </c>
-      <c r="C20" s="730"/>
-      <c r="D20" s="730"/>
+      <c r="C20" s="733"/>
+      <c r="D20" s="733"/>
       <c r="E20" s="721"/>
       <c r="F20" s="721"/>
       <c r="G20" s="722"/>
@@ -13435,9 +13435,9 @@
       <c r="A23" s="720" t="s">
         <v>603</v>
       </c>
-      <c r="B23" s="730"/>
-      <c r="C23" s="730"/>
-      <c r="D23" s="730"/>
+      <c r="B23" s="733"/>
+      <c r="C23" s="733"/>
+      <c r="D23" s="733"/>
       <c r="E23" s="714"/>
       <c r="F23" s="714"/>
       <c r="G23" s="714"/>
@@ -13521,11 +13521,11 @@
       <c r="A26" s="720" t="s">
         <v>604</v>
       </c>
-      <c r="B26" s="730" t="s">
+      <c r="B26" s="733" t="s">
         <v>611</v>
       </c>
-      <c r="C26" s="730"/>
-      <c r="D26" s="730"/>
+      <c r="C26" s="733"/>
+      <c r="D26" s="733"/>
       <c r="E26" s="714"/>
       <c r="F26" s="714"/>
       <c r="G26" s="714"/>
@@ -13641,11 +13641,11 @@
       <c r="A30" s="720" t="s">
         <v>606</v>
       </c>
-      <c r="B30" s="732" t="s">
+      <c r="B30" s="735" t="s">
         <v>607</v>
       </c>
-      <c r="C30" s="730"/>
-      <c r="D30" s="730"/>
+      <c r="C30" s="733"/>
+      <c r="D30" s="733"/>
       <c r="E30" s="725"/>
       <c r="F30" s="725"/>
       <c r="G30" s="714"/>
@@ -13673,11 +13673,11 @@
       <c r="A31" s="720" t="s">
         <v>608</v>
       </c>
-      <c r="B31" s="730" t="s">
+      <c r="B31" s="733" t="s">
         <v>609</v>
       </c>
-      <c r="C31" s="730"/>
-      <c r="D31" s="730"/>
+      <c r="C31" s="733"/>
+      <c r="D31" s="733"/>
       <c r="E31" s="725"/>
       <c r="F31" s="725"/>
       <c r="G31" s="714"/>
@@ -15748,25 +15748,25 @@
       <c r="T3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="735" t="s">
+      <c r="V3" s="738" t="s">
         <v>387</v>
       </c>
-      <c r="W3" s="735" t="s">
+      <c r="W3" s="738" t="s">
         <v>158</v>
       </c>
-      <c r="X3" s="735" t="s">
+      <c r="X3" s="738" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="735" t="s">
+      <c r="Y3" s="738" t="s">
         <v>507</v>
       </c>
-      <c r="Z3" s="735" t="s">
+      <c r="Z3" s="738" t="s">
         <v>508</v>
       </c>
-      <c r="AA3" s="735" t="s">
+      <c r="AA3" s="738" t="s">
         <v>509</v>
       </c>
-      <c r="AB3" s="735" t="s">
+      <c r="AB3" s="738" t="s">
         <v>510</v>
       </c>
       <c r="AC3" s="69" t="s">
@@ -15830,13 +15830,13 @@
       <c r="T4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="736"/>
-      <c r="W4" s="736"/>
-      <c r="X4" s="736"/>
-      <c r="Y4" s="736"/>
-      <c r="Z4" s="736"/>
-      <c r="AA4" s="736"/>
-      <c r="AB4" s="736"/>
+      <c r="V4" s="739"/>
+      <c r="W4" s="739"/>
+      <c r="X4" s="739"/>
+      <c r="Y4" s="739"/>
+      <c r="Z4" s="739"/>
+      <c r="AA4" s="739"/>
+      <c r="AB4" s="739"/>
       <c r="AC4" s="77" t="s">
         <v>146</v>
       </c>
@@ -17118,25 +17118,25 @@
       <c r="T3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="735" t="s">
+      <c r="V3" s="738" t="s">
         <v>387</v>
       </c>
-      <c r="W3" s="735" t="s">
+      <c r="W3" s="738" t="s">
         <v>158</v>
       </c>
-      <c r="X3" s="735" t="s">
+      <c r="X3" s="738" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="735" t="s">
+      <c r="Y3" s="738" t="s">
         <v>507</v>
       </c>
-      <c r="Z3" s="735" t="s">
+      <c r="Z3" s="738" t="s">
         <v>508</v>
       </c>
-      <c r="AA3" s="735" t="s">
+      <c r="AA3" s="738" t="s">
         <v>509</v>
       </c>
-      <c r="AB3" s="735" t="s">
+      <c r="AB3" s="738" t="s">
         <v>510</v>
       </c>
       <c r="AC3" s="69" t="s">
@@ -17200,13 +17200,13 @@
       <c r="T4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="736"/>
-      <c r="W4" s="736"/>
-      <c r="X4" s="736"/>
-      <c r="Y4" s="736"/>
-      <c r="Z4" s="736"/>
-      <c r="AA4" s="736"/>
-      <c r="AB4" s="736"/>
+      <c r="V4" s="739"/>
+      <c r="W4" s="739"/>
+      <c r="X4" s="739"/>
+      <c r="Y4" s="739"/>
+      <c r="Z4" s="739"/>
+      <c r="AA4" s="739"/>
+      <c r="AB4" s="739"/>
       <c r="AC4" s="77" t="s">
         <v>146</v>
       </c>
@@ -18065,25 +18065,25 @@
       <c r="T3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="735" t="s">
+      <c r="V3" s="738" t="s">
         <v>387</v>
       </c>
-      <c r="W3" s="735" t="s">
+      <c r="W3" s="738" t="s">
         <v>158</v>
       </c>
-      <c r="X3" s="735" t="s">
+      <c r="X3" s="738" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="735" t="s">
+      <c r="Y3" s="738" t="s">
         <v>507</v>
       </c>
-      <c r="Z3" s="735" t="s">
+      <c r="Z3" s="738" t="s">
         <v>508</v>
       </c>
-      <c r="AA3" s="735" t="s">
+      <c r="AA3" s="738" t="s">
         <v>509</v>
       </c>
-      <c r="AB3" s="735" t="s">
+      <c r="AB3" s="738" t="s">
         <v>510</v>
       </c>
       <c r="AC3" s="69" t="s">
@@ -18147,13 +18147,13 @@
       <c r="T4" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="736"/>
-      <c r="W4" s="736"/>
-      <c r="X4" s="736"/>
-      <c r="Y4" s="736"/>
-      <c r="Z4" s="736"/>
-      <c r="AA4" s="736"/>
-      <c r="AB4" s="736"/>
+      <c r="V4" s="739"/>
+      <c r="W4" s="739"/>
+      <c r="X4" s="739"/>
+      <c r="Y4" s="739"/>
+      <c r="Z4" s="739"/>
+      <c r="AA4" s="739"/>
+      <c r="AB4" s="739"/>
       <c r="AC4" s="77" t="s">
         <v>146</v>
       </c>
@@ -18966,25 +18966,25 @@
       <c r="T3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="735" t="s">
+      <c r="V3" s="738" t="s">
         <v>387</v>
       </c>
-      <c r="W3" s="735" t="s">
+      <c r="W3" s="738" t="s">
         <v>158</v>
       </c>
-      <c r="X3" s="735" t="s">
+      <c r="X3" s="738" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="735" t="s">
+      <c r="Y3" s="738" t="s">
         <v>507</v>
       </c>
-      <c r="Z3" s="735" t="s">
+      <c r="Z3" s="738" t="s">
         <v>508</v>
       </c>
-      <c r="AA3" s="735" t="s">
+      <c r="AA3" s="738" t="s">
         <v>509</v>
       </c>
-      <c r="AB3" s="735" t="s">
+      <c r="AB3" s="738" t="s">
         <v>510</v>
       </c>
       <c r="AC3" s="69" t="s">
@@ -19048,13 +19048,13 @@
       <c r="T4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="736"/>
-      <c r="W4" s="736"/>
-      <c r="X4" s="736"/>
-      <c r="Y4" s="736"/>
-      <c r="Z4" s="736"/>
-      <c r="AA4" s="736"/>
-      <c r="AB4" s="736"/>
+      <c r="V4" s="739"/>
+      <c r="W4" s="739"/>
+      <c r="X4" s="739"/>
+      <c r="Y4" s="739"/>
+      <c r="Z4" s="739"/>
+      <c r="AA4" s="739"/>
+      <c r="AB4" s="739"/>
       <c r="AC4" s="77" t="s">
         <v>146</v>
       </c>
@@ -27088,23 +27088,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1">
-      <c r="A1" s="742" t="s">
+      <c r="A1" s="745" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="742"/>
-      <c r="C1" s="742"/>
-      <c r="D1" s="742"/>
-      <c r="E1" s="742"/>
-      <c r="F1" s="742"/>
-      <c r="G1" s="742"/>
-      <c r="H1" s="742"/>
-      <c r="I1" s="742"/>
-      <c r="J1" s="742"/>
-      <c r="K1" s="742"/>
-      <c r="L1" s="743"/>
-      <c r="M1" s="743"/>
-      <c r="N1" s="743"/>
-      <c r="O1" s="743"/>
+      <c r="B1" s="745"/>
+      <c r="C1" s="745"/>
+      <c r="D1" s="745"/>
+      <c r="E1" s="745"/>
+      <c r="F1" s="745"/>
+      <c r="G1" s="745"/>
+      <c r="H1" s="745"/>
+      <c r="I1" s="745"/>
+      <c r="J1" s="745"/>
+      <c r="K1" s="745"/>
+      <c r="L1" s="746"/>
+      <c r="M1" s="746"/>
+      <c r="N1" s="746"/>
+      <c r="O1" s="746"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="558" t="s">
@@ -28698,34 +28698,34 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1">
-      <c r="A37" s="744" t="s">
+      <c r="A37" s="747" t="s">
         <v>480</v>
       </c>
-      <c r="B37" s="744"/>
-      <c r="C37" s="744"/>
-      <c r="D37" s="744"/>
-      <c r="E37" s="744"/>
-      <c r="F37" s="744"/>
-      <c r="G37" s="744"/>
-      <c r="H37" s="744"/>
-      <c r="I37" s="744"/>
-      <c r="J37" s="744"/>
-      <c r="K37" s="744"/>
-      <c r="L37" s="744"/>
-      <c r="M37" s="744"/>
-      <c r="N37" s="744"/>
-      <c r="O37" s="744"/>
+      <c r="B37" s="747"/>
+      <c r="C37" s="747"/>
+      <c r="D37" s="747"/>
+      <c r="E37" s="747"/>
+      <c r="F37" s="747"/>
+      <c r="G37" s="747"/>
+      <c r="H37" s="747"/>
+      <c r="I37" s="747"/>
+      <c r="J37" s="747"/>
+      <c r="K37" s="747"/>
+      <c r="L37" s="747"/>
+      <c r="M37" s="747"/>
+      <c r="N37" s="747"/>
+      <c r="O37" s="747"/>
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
-      <c r="A40" s="742" t="s">
+      <c r="A40" s="745" t="s">
         <v>492</v>
       </c>
-      <c r="B40" s="742"/>
-      <c r="C40" s="742"/>
-      <c r="D40" s="742"/>
-      <c r="E40" s="742"/>
-      <c r="F40" s="742"/>
-      <c r="G40" s="743"/>
+      <c r="B40" s="745"/>
+      <c r="C40" s="745"/>
+      <c r="D40" s="745"/>
+      <c r="E40" s="745"/>
+      <c r="F40" s="745"/>
+      <c r="G40" s="746"/>
       <c r="H40" s="571"/>
       <c r="I40" s="571"/>
       <c r="J40" s="571"/>
@@ -28736,35 +28736,35 @@
       <c r="O40" s="571"/>
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1">
-      <c r="A41" s="745" t="s">
+      <c r="A41" s="748" t="s">
         <v>493</v>
       </c>
-      <c r="B41" s="745"/>
-      <c r="C41" s="745"/>
-      <c r="D41" s="745"/>
-      <c r="E41" s="745"/>
-      <c r="F41" s="745"/>
+      <c r="B41" s="748"/>
+      <c r="C41" s="748"/>
+      <c r="D41" s="748"/>
+      <c r="E41" s="748"/>
+      <c r="F41" s="748"/>
       <c r="G41" s="611" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1">
-      <c r="A42" s="746" t="s">
+      <c r="A42" s="749" t="s">
         <v>494</v>
       </c>
-      <c r="B42" s="748" t="s">
+      <c r="B42" s="751" t="s">
         <v>495</v>
       </c>
-      <c r="C42" s="748"/>
-      <c r="D42" s="748"/>
-      <c r="E42" s="748"/>
-      <c r="F42" s="748"/>
-      <c r="G42" s="749" t="s">
+      <c r="C42" s="751"/>
+      <c r="D42" s="751"/>
+      <c r="E42" s="751"/>
+      <c r="F42" s="751"/>
+      <c r="G42" s="752" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1">
-      <c r="A43" s="747"/>
+      <c r="A43" s="750"/>
       <c r="B43" s="612" t="s">
         <v>496</v>
       </c>
@@ -28780,7 +28780,7 @@
       <c r="F43" s="612" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="750"/>
+      <c r="G43" s="753"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="613" t="s">
@@ -29114,36 +29114,36 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1">
-      <c r="A64" s="739"/>
-      <c r="B64" s="737" t="s">
+      <c r="A64" s="742"/>
+      <c r="B64" s="740" t="s">
         <v>504</v>
       </c>
-      <c r="C64" s="737" t="s">
+      <c r="C64" s="740" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="741" t="s">
+      <c r="D64" s="744" t="s">
         <v>503</v>
       </c>
-      <c r="E64" s="741"/>
-      <c r="F64" s="737" t="s">
+      <c r="E64" s="744"/>
+      <c r="F64" s="740" t="s">
         <v>33</v>
       </c>
-      <c r="G64" s="737" t="s">
+      <c r="G64" s="740" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1">
-      <c r="A65" s="740"/>
-      <c r="B65" s="738"/>
-      <c r="C65" s="738"/>
+      <c r="A65" s="743"/>
+      <c r="B65" s="741"/>
+      <c r="C65" s="741"/>
       <c r="D65" s="622" t="s">
         <v>33</v>
       </c>
       <c r="E65" s="508" t="s">
         <v>501</v>
       </c>
-      <c r="F65" s="738"/>
-      <c r="G65" s="738"/>
+      <c r="F65" s="741"/>
+      <c r="G65" s="741"/>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1">
       <c r="A66" s="116" t="s">
@@ -38091,11 +38091,11 @@
         <f>Legend!$C$43</f>
         <v>SRVELC</v>
       </c>
-      <c r="F103" s="733">
+      <c r="F103" s="736">
         <f>'Public SEAI'!C29*Legend!$B$66</f>
         <v>1.4472</v>
       </c>
-      <c r="G103" s="734">
+      <c r="G103" s="737">
         <f>480000/10^6</f>
         <v>0.48</v>
       </c>
@@ -38144,8 +38144,8 @@
         <f>Legend!$C$43</f>
         <v>SRVELC</v>
       </c>
-      <c r="F104" s="733"/>
-      <c r="G104" s="734"/>
+      <c r="F104" s="736"/>
+      <c r="G104" s="737"/>
       <c r="H104" s="505">
         <v>0.15</v>
       </c>
@@ -38191,8 +38191,8 @@
         <f>Legend!$C$43</f>
         <v>SRVELC</v>
       </c>
-      <c r="F105" s="733"/>
-      <c r="G105" s="734"/>
+      <c r="F105" s="736"/>
+      <c r="G105" s="737"/>
       <c r="H105" s="505">
         <v>0.8</v>
       </c>
@@ -38238,8 +38238,8 @@
         <f>Legend!$C$43</f>
         <v>SRVELC</v>
       </c>
-      <c r="F106" s="733"/>
-      <c r="G106" s="734"/>
+      <c r="F106" s="736"/>
+      <c r="G106" s="737"/>
       <c r="H106" s="506">
         <v>0.01</v>
       </c>
@@ -38513,7 +38513,7 @@
   </sheetPr>
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B33" sqref="B33:J33"/>
     </sheetView>
   </sheetViews>
@@ -39314,30 +39314,30 @@
       <c r="K32" s="30"/>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1">
-      <c r="B33" s="751" t="s">
+      <c r="B33" s="730" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="751" t="str">
+      <c r="C33" s="730" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
         <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
-      <c r="D33" s="752" t="str">
+      <c r="D33" s="731" t="str">
         <f>Legend!C46</f>
         <v>SRVHET</v>
       </c>
-      <c r="E33" s="752" t="str">
+      <c r="E33" s="731" t="str">
         <f>Legend!A46</f>
         <v>District heating</v>
       </c>
-      <c r="F33" s="752" t="s">
+      <c r="F33" s="731" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="753"/>
-      <c r="H33" s="752" t="s">
+      <c r="G33" s="732"/>
+      <c r="H33" s="731" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="752"/>
-      <c r="J33" s="752" t="s">
+      <c r="I33" s="731"/>
+      <c r="J33" s="731" t="s">
         <v>49</v>
       </c>
       <c r="K33" s="30"/>
@@ -39923,8 +39923,8 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -40434,12 +40434,12 @@
         <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
       <c r="K14" s="63" t="str">
-        <f>"FT-"&amp;Commodities!D33</f>
-        <v>FT-SRVHET</v>
+        <f>"FT-"&amp;Commodities!D33&amp;"_C"</f>
+        <v>FT-SRVHET_C</v>
       </c>
       <c r="L14" s="63" t="str">
-        <f>Commodities!E33</f>
-        <v>District heating</v>
+        <f>Commodities!E33&amp;" in City"</f>
+        <v>District heating in City</v>
       </c>
       <c r="M14" s="63" t="s">
         <v>46</v>
@@ -40476,13 +40476,13 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
         <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
-      <c r="K15" s="63" t="e">
-        <f>"FT-"&amp;Commodities!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L15" s="63" t="e">
-        <f>Commodities!#REF!</f>
-        <v>#REF!</v>
+      <c r="K15" s="63" t="str">
+        <f>"FT-"&amp;Commodities!D33&amp;"_1"</f>
+        <v>FT-SRVHET_1</v>
+      </c>
+      <c r="L15" s="63" t="str">
+        <f>Commodities!E33&amp;" in High Urban Density"</f>
+        <v>District heating in High Urban Density</v>
       </c>
       <c r="M15" s="63" t="s">
         <v>46</v>
@@ -40512,13 +40512,13 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
         <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
-      <c r="K16" s="63" t="e">
-        <f>"FT-"&amp;Commodities!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L16" s="63" t="e">
-        <f>Commodities!#REF!</f>
-        <v>#REF!</v>
+      <c r="K16" s="63" t="str">
+        <f>"FT-"&amp;Commodities!D33&amp;"_2"</f>
+        <v>FT-SRVHET_2</v>
+      </c>
+      <c r="L16" s="63" t="str">
+        <f>Commodities!E33&amp;" in Medium Urban Density"</f>
+        <v>District heating in Medium Urban Density</v>
       </c>
       <c r="M16" s="63" t="s">
         <v>46</v>
@@ -40534,7 +40534,7 @@
     <row r="17" spans="2:17">
       <c r="B17" s="729" t="str">
         <f t="shared" ref="B17:B20" si="4">K14</f>
-        <v>FT-SRVHET</v>
+        <v>FT-SRVHET_C</v>
       </c>
       <c r="C17" s="728" t="s">
         <v>615</v>
@@ -40554,13 +40554,13 @@
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
         <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
-      <c r="K17" s="63" t="e">
-        <f>"FT-"&amp;Commodities!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L17" s="63" t="e">
-        <f>Commodities!#REF!</f>
-        <v>#REF!</v>
+      <c r="K17" s="63" t="str">
+        <f>"FT-"&amp;Commodities!D33&amp;"_3"</f>
+        <v>FT-SRVHET_3</v>
+      </c>
+      <c r="L17" s="63" t="str">
+        <f>Commodities!E33&amp;" in Low Urban Density"</f>
+        <v>District heating in Low Urban Density</v>
       </c>
       <c r="M17" s="63" t="s">
         <v>46</v>
@@ -40574,9 +40574,9 @@
       <c r="P17" s="63"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="729" t="e">
+      <c r="B18" s="729" t="str">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>FT-SRVHET_1</v>
       </c>
       <c r="C18" s="728" t="s">
         <v>615</v>
@@ -40614,9 +40614,9 @@
       <c r="P18" s="63"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="729" t="e">
+      <c r="B19" s="729" t="str">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>FT-SRVHET_2</v>
       </c>
       <c r="C19" s="728" t="s">
         <v>615</v>
@@ -40654,9 +40654,9 @@
       <c r="P19" s="63"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="729" t="e">
+      <c r="B20" s="729" t="str">
         <f t="shared" si="4"/>
-        <v>#REF!</v>
+        <v>FT-SRVHET_3</v>
       </c>
       <c r="C20" s="728" t="s">
         <v>615</v>
@@ -41688,25 +41688,25 @@
         <v>20</v>
       </c>
       <c r="Z3"/>
-      <c r="AA3" s="735" t="s">
+      <c r="AA3" s="738" t="s">
         <v>387</v>
       </c>
-      <c r="AB3" s="735" t="s">
+      <c r="AB3" s="738" t="s">
         <v>158</v>
       </c>
-      <c r="AC3" s="735" t="s">
+      <c r="AC3" s="738" t="s">
         <v>81</v>
       </c>
-      <c r="AD3" s="735" t="s">
+      <c r="AD3" s="738" t="s">
         <v>507</v>
       </c>
-      <c r="AE3" s="735" t="s">
+      <c r="AE3" s="738" t="s">
         <v>508</v>
       </c>
-      <c r="AF3" s="735" t="s">
+      <c r="AF3" s="738" t="s">
         <v>509</v>
       </c>
-      <c r="AG3" s="735" t="s">
+      <c r="AG3" s="738" t="s">
         <v>510</v>
       </c>
       <c r="AH3" s="74" t="s">
@@ -41785,13 +41785,13 @@
         <v>121</v>
       </c>
       <c r="Z4"/>
-      <c r="AA4" s="736"/>
-      <c r="AB4" s="736"/>
-      <c r="AC4" s="736"/>
-      <c r="AD4" s="736"/>
-      <c r="AE4" s="736"/>
-      <c r="AF4" s="736"/>
-      <c r="AG4" s="736"/>
+      <c r="AA4" s="739"/>
+      <c r="AB4" s="739"/>
+      <c r="AC4" s="739"/>
+      <c r="AD4" s="739"/>
+      <c r="AE4" s="739"/>
+      <c r="AF4" s="739"/>
+      <c r="AG4" s="739"/>
       <c r="AH4" s="77" t="s">
         <v>146</v>
       </c>

--- a/VT_IE_SRV.xlsx
+++ b/VT_IE_SRV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A963294F-88DF-4A4B-9EF5-AAD6D386AD6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC580AA-A9CC-485A-B52A-9C2670A6AF36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="83" r:id="rId1"/>
@@ -30218,8 +30218,8 @@
   </sheetPr>
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -38513,8 +38513,8 @@
   </sheetPr>
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:J33"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -39326,8 +39326,8 @@
         <v>SRVHET</v>
       </c>
       <c r="E33" s="731" t="str">
-        <f>Legend!A46</f>
-        <v>District heating</v>
+        <f>Legend!A46&amp;" (SRV)"</f>
+        <v>District heating (SRV)</v>
       </c>
       <c r="F33" s="731" t="s">
         <v>46</v>
@@ -39923,8 +39923,8 @@
   </sheetPr>
   <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -40439,7 +40439,7 @@
       </c>
       <c r="L14" s="63" t="str">
         <f>Commodities!E33&amp;" in City"</f>
-        <v>District heating in City</v>
+        <v>District heating (SRV) in City</v>
       </c>
       <c r="M14" s="63" t="s">
         <v>46</v>
@@ -40482,7 +40482,7 @@
       </c>
       <c r="L15" s="63" t="str">
         <f>Commodities!E33&amp;" in High Urban Density"</f>
-        <v>District heating in High Urban Density</v>
+        <v>District heating (SRV) in High Urban Density</v>
       </c>
       <c r="M15" s="63" t="s">
         <v>46</v>
@@ -40518,7 +40518,7 @@
       </c>
       <c r="L16" s="63" t="str">
         <f>Commodities!E33&amp;" in Medium Urban Density"</f>
-        <v>District heating in Medium Urban Density</v>
+        <v>District heating (SRV) in Medium Urban Density</v>
       </c>
       <c r="M16" s="63" t="s">
         <v>46</v>
@@ -40560,7 +40560,7 @@
       </c>
       <c r="L17" s="63" t="str">
         <f>Commodities!E33&amp;" in Low Urban Density"</f>
-        <v>District heating in Low Urban Density</v>
+        <v>District heating (SRV) in Low Urban Density</v>
       </c>
       <c r="M17" s="63" t="s">
         <v>46</v>

--- a/VT_IE_SRV.xlsx
+++ b/VT_IE_SRV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC580AA-A9CC-485A-B52A-9C2670A6AF36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8750B92E-3805-4309-980F-AC7BFFEDEC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="83" r:id="rId1"/>
@@ -4416,7 +4416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="617">
   <si>
     <t>Unit</t>
   </si>
@@ -30218,7 +30218,7 @@
   </sheetPr>
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -38513,15 +38513,15 @@
   </sheetPr>
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="30" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="30" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" style="30" customWidth="1"/>
     <col min="5" max="5" width="45" style="30" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" style="30" bestFit="1" customWidth="1"/>
@@ -39317,9 +39317,9 @@
       <c r="B33" s="730" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="730" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
-        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
+      <c r="C33" s="30" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
       </c>
       <c r="D33" s="731" t="str">
         <f>Legend!C46</f>
@@ -39337,9 +39337,7 @@
         <v>88</v>
       </c>
       <c r="I33" s="731"/>
-      <c r="J33" s="731" t="s">
-        <v>49</v>
-      </c>
+      <c r="J33" s="731"/>
       <c r="K33" s="30"/>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1">

--- a/VT_IE_SRV.xlsx
+++ b/VT_IE_SRV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8750B92E-3805-4309-980F-AC7BFFEDEC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC506381-39CC-407D-ABB5-87783E9011E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8145" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="83" r:id="rId1"/>
@@ -4416,7 +4416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="617">
   <si>
     <t>Unit</t>
   </si>
@@ -38513,7 +38513,7 @@
   </sheetPr>
   <dimension ref="A1:R98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -39919,10 +39919,10 @@
   <sheetPr codeName="Sheet6">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -40432,12 +40432,12 @@
         <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
       <c r="K14" s="63" t="str">
-        <f>"FT-"&amp;Commodities!D33&amp;"_C"</f>
-        <v>FT-SRVHET_C</v>
+        <f>"FT-"&amp;Commodities!D33&amp;"_X"</f>
+        <v>FT-SRVHET_X</v>
       </c>
       <c r="L14" s="63" t="str">
-        <f>Commodities!E33&amp;" in City"</f>
-        <v>District heating (SRV) in City</v>
+        <f>Commodities!E33&amp;" Existing"</f>
+        <v>District heating (SRV) Existing</v>
       </c>
       <c r="M14" s="63" t="s">
         <v>46</v>
@@ -40471,16 +40471,16 @@
         <v>24</v>
       </c>
       <c r="J15" s="63" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
-        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
       </c>
       <c r="K15" s="63" t="str">
-        <f>"FT-"&amp;Commodities!D33&amp;"_1"</f>
-        <v>FT-SRVHET_1</v>
+        <f>"FT-"&amp;D18</f>
+        <v>FT-SRVWIN</v>
       </c>
       <c r="L15" s="63" t="str">
-        <f>Commodities!E33&amp;" in High Urban Density"</f>
-        <v>District heating (SRV) in High Urban Density</v>
+        <f>"Fuel Tech - "&amp;Legend!A47</f>
+        <v>Fuel Tech - Wind</v>
       </c>
       <c r="M15" s="63" t="s">
         <v>46</v>
@@ -40488,9 +40488,7 @@
       <c r="N15" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O15" s="63" t="s">
-        <v>88</v>
-      </c>
+      <c r="O15" s="63"/>
       <c r="P15" s="63"/>
     </row>
     <row r="16" spans="2:17">
@@ -40507,16 +40505,16 @@
         <v>24</v>
       </c>
       <c r="J16" s="63" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
-        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
       </c>
       <c r="K16" s="63" t="str">
-        <f>"FT-"&amp;Commodities!D33&amp;"_2"</f>
-        <v>FT-SRVHET_2</v>
+        <f>"FT-"&amp;D19</f>
+        <v>FT-SRVH2G</v>
       </c>
       <c r="L16" s="63" t="str">
-        <f>Commodities!E33&amp;" in Medium Urban Density"</f>
-        <v>District heating (SRV) in Medium Urban Density</v>
+        <f>"Fuel Tech - "&amp;Legend!A48</f>
+        <v>Fuel Tech - Hydrogen (gaseous)</v>
       </c>
       <c r="M16" s="63" t="s">
         <v>46</v>
@@ -40524,15 +40522,13 @@
       <c r="N16" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O16" s="63" t="s">
-        <v>88</v>
-      </c>
+      <c r="O16" s="63"/>
       <c r="P16" s="63"/>
     </row>
     <row r="17" spans="2:17">
       <c r="B17" s="729" t="str">
-        <f t="shared" ref="B17:B20" si="4">K14</f>
-        <v>FT-SRVHET_C</v>
+        <f t="shared" ref="B17" si="4">K14</f>
+        <v>FT-SRVHET_X</v>
       </c>
       <c r="C17" s="728" t="s">
         <v>615</v>
@@ -40549,16 +40545,16 @@
         <v>24</v>
       </c>
       <c r="J17" s="63" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
-        <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
+        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>IE,National</v>
       </c>
       <c r="K17" s="63" t="str">
-        <f>"FT-"&amp;Commodities!D33&amp;"_3"</f>
-        <v>FT-SRVHET_3</v>
+        <f>"FT-"&amp;D20</f>
+        <v>FT-SRVH2L</v>
       </c>
       <c r="L17" s="63" t="str">
-        <f>Commodities!E33&amp;" in Low Urban Density"</f>
-        <v>District heating (SRV) in Low Urban Density</v>
+        <f>"Fuel Tech - "&amp;Legend!A49</f>
+        <v>Fuel Tech - Hydrogen (liquid)</v>
       </c>
       <c r="M17" s="63" t="s">
         <v>46</v>
@@ -40566,27 +40562,24 @@
       <c r="N17" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O17" s="63" t="s">
-        <v>88</v>
-      </c>
+      <c r="O17" s="63"/>
       <c r="P17" s="63"/>
     </row>
     <row r="18" spans="2:17">
-      <c r="B18" s="729" t="str">
-        <f t="shared" si="4"/>
-        <v>FT-SRVHET_1</v>
-      </c>
-      <c r="C18" s="728" t="s">
-        <v>615</v>
-      </c>
-      <c r="D18" s="663" t="s">
-        <v>616</v>
-      </c>
-      <c r="E18" s="663">
+      <c r="B18" s="30" t="str">
+        <f>K15</f>
+        <v>FT-SRVWIN</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>563</v>
+      </c>
+      <c r="D18" s="30" t="str">
+        <f>Legend!C47</f>
+        <v>SRVWIN</v>
+      </c>
+      <c r="E18" s="30">
         <v>1</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
       <c r="I18" s="63" t="s">
         <v>24</v>
       </c>
@@ -40596,11 +40589,11 @@
       </c>
       <c r="K18" s="63" t="str">
         <f>"FT-"&amp;D21</f>
-        <v>FT-SRVWIN</v>
+        <v>FT-SRVBDL</v>
       </c>
       <c r="L18" s="63" t="str">
-        <f>"Fuel Tech - "&amp;Legend!A47</f>
-        <v>Fuel Tech - Wind</v>
+        <f>"Fuel Tech - "&amp;Legend!A50</f>
+        <v>Fuel Tech - Biodiesel</v>
       </c>
       <c r="M18" s="63" t="s">
         <v>46</v>
@@ -40612,213 +40605,94 @@
       <c r="P18" s="63"/>
     </row>
     <row r="19" spans="2:17">
-      <c r="B19" s="729" t="str">
-        <f t="shared" si="4"/>
-        <v>FT-SRVHET_2</v>
-      </c>
-      <c r="C19" s="728" t="s">
-        <v>615</v>
-      </c>
-      <c r="D19" s="663" t="s">
-        <v>616</v>
-      </c>
-      <c r="E19" s="663">
+      <c r="B19" s="30" t="str">
+        <f>K16</f>
+        <v>FT-SRVH2G</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>564</v>
+      </c>
+      <c r="D19" s="30" t="str">
+        <f>Legend!C48</f>
+        <v>SRVH2G</v>
+      </c>
+      <c r="E19" s="30">
         <v>1</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="I19" s="63" t="s">
+      <c r="I19" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="63" t="str">
+      <c r="J19" s="65" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K19" s="63" t="str">
+      <c r="K19" s="65" t="str">
         <f>"FT-"&amp;D22</f>
-        <v>FT-SRVH2G</v>
-      </c>
-      <c r="L19" s="63" t="str">
-        <f>"Fuel Tech - "&amp;Legend!A48</f>
-        <v>Fuel Tech - Hydrogen (gaseous)</v>
-      </c>
-      <c r="M19" s="63" t="s">
+        <v>FT-SRVETH</v>
+      </c>
+      <c r="L19" s="65" t="str">
+        <f>"Fuel Tech - "&amp;Legend!A51</f>
+        <v>Fuel Tech - Ethanol</v>
+      </c>
+      <c r="M19" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="N19" s="63" t="s">
+      <c r="N19" s="65" t="s">
         <v>591</v>
       </c>
-      <c r="O19" s="63"/>
-      <c r="P19" s="63"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="31"/>
     </row>
     <row r="20" spans="2:17">
-      <c r="B20" s="729" t="str">
-        <f t="shared" si="4"/>
-        <v>FT-SRVHET_3</v>
-      </c>
-      <c r="C20" s="728" t="s">
-        <v>615</v>
-      </c>
-      <c r="D20" s="663" t="s">
-        <v>616</v>
-      </c>
-      <c r="E20" s="663">
+      <c r="B20" s="30" t="str">
+        <f>K17</f>
+        <v>FT-SRVH2L</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D20" s="30" t="str">
+        <f>Legend!C49</f>
+        <v>SRVH2L</v>
+      </c>
+      <c r="E20" s="30">
         <v>1</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="I20" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="63" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="K20" s="63" t="str">
-        <f>"FT-"&amp;D23</f>
-        <v>FT-SRVH2L</v>
-      </c>
-      <c r="L20" s="63" t="str">
-        <f>"Fuel Tech - "&amp;Legend!A49</f>
-        <v>Fuel Tech - Hydrogen (liquid)</v>
-      </c>
-      <c r="M20" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="N20" s="63" t="s">
-        <v>591</v>
-      </c>
-      <c r="O20" s="63"/>
-      <c r="P20" s="63"/>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" s="30" t="str">
         <f>K18</f>
-        <v>FT-SRVWIN</v>
+        <v>FT-SRVBDL</v>
       </c>
       <c r="C21" s="30" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D21" s="30" t="str">
-        <f>Legend!C47</f>
-        <v>SRVWIN</v>
+        <f>Legend!C50</f>
+        <v>SRVBDL</v>
       </c>
       <c r="E21" s="30">
         <v>1</v>
       </c>
-      <c r="I21" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="63" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="K21" s="63" t="str">
-        <f>"FT-"&amp;D24</f>
-        <v>FT-SRVBDL</v>
-      </c>
-      <c r="L21" s="63" t="str">
-        <f>"Fuel Tech - "&amp;Legend!A50</f>
-        <v>Fuel Tech - Biodiesel</v>
-      </c>
-      <c r="M21" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="N21" s="63" t="s">
-        <v>591</v>
-      </c>
-      <c r="O21" s="63"/>
-      <c r="P21" s="63"/>
     </row>
     <row r="22" spans="2:17">
-      <c r="B22" s="30" t="str">
+      <c r="B22" s="31" t="str">
         <f>K19</f>
-        <v>FT-SRVH2G</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>564</v>
-      </c>
-      <c r="D22" s="30" t="str">
-        <f>Legend!C48</f>
-        <v>SRVH2G</v>
-      </c>
-      <c r="E22" s="30">
-        <v>1</v>
-      </c>
-      <c r="I22" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="65" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="K22" s="65" t="str">
-        <f>"FT-"&amp;D25</f>
         <v>FT-SRVETH</v>
       </c>
-      <c r="L22" s="65" t="str">
-        <f>"Fuel Tech - "&amp;Legend!A51</f>
-        <v>Fuel Tech - Ethanol</v>
-      </c>
-      <c r="M22" s="65" t="s">
-        <v>46</v>
-      </c>
-      <c r="N22" s="65" t="s">
-        <v>591</v>
-      </c>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="31"/>
-    </row>
-    <row r="23" spans="2:17">
-      <c r="B23" s="30" t="str">
-        <f>K20</f>
-        <v>FT-SRVH2L</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>569</v>
-      </c>
-      <c r="D23" s="30" t="str">
-        <f>Legend!C49</f>
-        <v>SRVH2L</v>
-      </c>
-      <c r="E23" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:17">
-      <c r="B24" s="30" t="str">
-        <f>K21</f>
-        <v>FT-SRVBDL</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>560</v>
-      </c>
-      <c r="D24" s="30" t="str">
-        <f>Legend!C50</f>
-        <v>SRVBDL</v>
-      </c>
-      <c r="E24" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17">
-      <c r="B25" s="31" t="str">
-        <f>K22</f>
-        <v>FT-SRVETH</v>
-      </c>
-      <c r="C25" s="31" t="s">
+      <c r="C22" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="D25" s="31" t="str">
+      <c r="D22" s="31" t="str">
         <f>Legend!C51</f>
         <v>SRVETH</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E22" s="31">
         <v>1</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VT_IE_SRV.xlsx
+++ b/VT_IE_SRV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC506381-39CC-407D-ABB5-87783E9011E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF24C052-E940-409C-8625-4CA5FD4142CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8145" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="83" r:id="rId1"/>
@@ -1374,7 +1374,7 @@
     <author>Alessandro Chiodi</author>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1617,7 +1617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1710,7 +1710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1725,7 +1725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1788,7 +1788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="1" shapeId="0" xr:uid="{285BE490-F962-4EAF-B9BE-A8394AD2DC6D}">
+    <comment ref="H7" authorId="1" shapeId="0" xr:uid="{285BE490-F962-4EAF-B9BE-A8394AD2DC6D}">
       <text>
         <r>
           <rPr>
@@ -4416,7 +4416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="619">
   <si>
     <t>Unit</t>
   </si>
@@ -6423,6 +6423,12 @@
   </si>
   <si>
     <t>SRVHET</t>
+  </si>
+  <si>
+    <t>ACT_BND</t>
+  </si>
+  <si>
+    <t>Annual Production Bound</t>
   </si>
 </sst>
 </file>
@@ -9568,7 +9574,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="754">
+  <cellXfs count="753">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11672,7 +11678,6 @@
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" xfId="43" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -13222,12 +13227,12 @@
       <c r="Z15" s="714"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1">
-      <c r="A16" s="734" t="s">
+      <c r="A16" s="733" t="s">
         <v>600</v>
       </c>
-      <c r="B16" s="734"/>
-      <c r="C16" s="734"/>
-      <c r="D16" s="734"/>
+      <c r="B16" s="733"/>
+      <c r="C16" s="733"/>
+      <c r="D16" s="733"/>
       <c r="E16" s="715"/>
       <c r="F16" s="715"/>
       <c r="G16" s="716"/>
@@ -13311,11 +13316,11 @@
       <c r="A19" s="720" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="733" t="s">
+      <c r="B19" s="732" t="s">
         <v>612</v>
       </c>
-      <c r="C19" s="733"/>
-      <c r="D19" s="733"/>
+      <c r="C19" s="732"/>
+      <c r="D19" s="732"/>
       <c r="E19" s="721"/>
       <c r="F19" s="721"/>
       <c r="G19" s="722"/>
@@ -13343,11 +13348,11 @@
       <c r="A20" s="720" t="s">
         <v>601</v>
       </c>
-      <c r="B20" s="733" t="s">
+      <c r="B20" s="732" t="s">
         <v>613</v>
       </c>
-      <c r="C20" s="733"/>
-      <c r="D20" s="733"/>
+      <c r="C20" s="732"/>
+      <c r="D20" s="732"/>
       <c r="E20" s="721"/>
       <c r="F20" s="721"/>
       <c r="G20" s="722"/>
@@ -13435,9 +13440,9 @@
       <c r="A23" s="720" t="s">
         <v>603</v>
       </c>
-      <c r="B23" s="733"/>
-      <c r="C23" s="733"/>
-      <c r="D23" s="733"/>
+      <c r="B23" s="732"/>
+      <c r="C23" s="732"/>
+      <c r="D23" s="732"/>
       <c r="E23" s="714"/>
       <c r="F23" s="714"/>
       <c r="G23" s="714"/>
@@ -13521,11 +13526,11 @@
       <c r="A26" s="720" t="s">
         <v>604</v>
       </c>
-      <c r="B26" s="733" t="s">
+      <c r="B26" s="732" t="s">
         <v>611</v>
       </c>
-      <c r="C26" s="733"/>
-      <c r="D26" s="733"/>
+      <c r="C26" s="732"/>
+      <c r="D26" s="732"/>
       <c r="E26" s="714"/>
       <c r="F26" s="714"/>
       <c r="G26" s="714"/>
@@ -13641,11 +13646,11 @@
       <c r="A30" s="720" t="s">
         <v>606</v>
       </c>
-      <c r="B30" s="735" t="s">
+      <c r="B30" s="734" t="s">
         <v>607</v>
       </c>
-      <c r="C30" s="733"/>
-      <c r="D30" s="733"/>
+      <c r="C30" s="732"/>
+      <c r="D30" s="732"/>
       <c r="E30" s="725"/>
       <c r="F30" s="725"/>
       <c r="G30" s="714"/>
@@ -13673,11 +13678,11 @@
       <c r="A31" s="720" t="s">
         <v>608</v>
       </c>
-      <c r="B31" s="733" t="s">
+      <c r="B31" s="732" t="s">
         <v>609</v>
       </c>
-      <c r="C31" s="733"/>
-      <c r="D31" s="733"/>
+      <c r="C31" s="732"/>
+      <c r="D31" s="732"/>
       <c r="E31" s="725"/>
       <c r="F31" s="725"/>
       <c r="G31" s="714"/>
@@ -15748,25 +15753,25 @@
       <c r="T3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="738" t="s">
+      <c r="V3" s="737" t="s">
         <v>387</v>
       </c>
-      <c r="W3" s="738" t="s">
+      <c r="W3" s="737" t="s">
         <v>158</v>
       </c>
-      <c r="X3" s="738" t="s">
+      <c r="X3" s="737" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="738" t="s">
+      <c r="Y3" s="737" t="s">
         <v>507</v>
       </c>
-      <c r="Z3" s="738" t="s">
+      <c r="Z3" s="737" t="s">
         <v>508</v>
       </c>
-      <c r="AA3" s="738" t="s">
+      <c r="AA3" s="737" t="s">
         <v>509</v>
       </c>
-      <c r="AB3" s="738" t="s">
+      <c r="AB3" s="737" t="s">
         <v>510</v>
       </c>
       <c r="AC3" s="69" t="s">
@@ -15830,13 +15835,13 @@
       <c r="T4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="739"/>
-      <c r="W4" s="739"/>
-      <c r="X4" s="739"/>
-      <c r="Y4" s="739"/>
-      <c r="Z4" s="739"/>
-      <c r="AA4" s="739"/>
-      <c r="AB4" s="739"/>
+      <c r="V4" s="738"/>
+      <c r="W4" s="738"/>
+      <c r="X4" s="738"/>
+      <c r="Y4" s="738"/>
+      <c r="Z4" s="738"/>
+      <c r="AA4" s="738"/>
+      <c r="AB4" s="738"/>
       <c r="AC4" s="77" t="s">
         <v>146</v>
       </c>
@@ -17118,25 +17123,25 @@
       <c r="T3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="738" t="s">
+      <c r="V3" s="737" t="s">
         <v>387</v>
       </c>
-      <c r="W3" s="738" t="s">
+      <c r="W3" s="737" t="s">
         <v>158</v>
       </c>
-      <c r="X3" s="738" t="s">
+      <c r="X3" s="737" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="738" t="s">
+      <c r="Y3" s="737" t="s">
         <v>507</v>
       </c>
-      <c r="Z3" s="738" t="s">
+      <c r="Z3" s="737" t="s">
         <v>508</v>
       </c>
-      <c r="AA3" s="738" t="s">
+      <c r="AA3" s="737" t="s">
         <v>509</v>
       </c>
-      <c r="AB3" s="738" t="s">
+      <c r="AB3" s="737" t="s">
         <v>510</v>
       </c>
       <c r="AC3" s="69" t="s">
@@ -17200,13 +17205,13 @@
       <c r="T4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="739"/>
-      <c r="W4" s="739"/>
-      <c r="X4" s="739"/>
-      <c r="Y4" s="739"/>
-      <c r="Z4" s="739"/>
-      <c r="AA4" s="739"/>
-      <c r="AB4" s="739"/>
+      <c r="V4" s="738"/>
+      <c r="W4" s="738"/>
+      <c r="X4" s="738"/>
+      <c r="Y4" s="738"/>
+      <c r="Z4" s="738"/>
+      <c r="AA4" s="738"/>
+      <c r="AB4" s="738"/>
       <c r="AC4" s="77" t="s">
         <v>146</v>
       </c>
@@ -18065,25 +18070,25 @@
       <c r="T3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="738" t="s">
+      <c r="V3" s="737" t="s">
         <v>387</v>
       </c>
-      <c r="W3" s="738" t="s">
+      <c r="W3" s="737" t="s">
         <v>158</v>
       </c>
-      <c r="X3" s="738" t="s">
+      <c r="X3" s="737" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="738" t="s">
+      <c r="Y3" s="737" t="s">
         <v>507</v>
       </c>
-      <c r="Z3" s="738" t="s">
+      <c r="Z3" s="737" t="s">
         <v>508</v>
       </c>
-      <c r="AA3" s="738" t="s">
+      <c r="AA3" s="737" t="s">
         <v>509</v>
       </c>
-      <c r="AB3" s="738" t="s">
+      <c r="AB3" s="737" t="s">
         <v>510</v>
       </c>
       <c r="AC3" s="69" t="s">
@@ -18147,13 +18152,13 @@
       <c r="T4" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="739"/>
-      <c r="W4" s="739"/>
-      <c r="X4" s="739"/>
-      <c r="Y4" s="739"/>
-      <c r="Z4" s="739"/>
-      <c r="AA4" s="739"/>
-      <c r="AB4" s="739"/>
+      <c r="V4" s="738"/>
+      <c r="W4" s="738"/>
+      <c r="X4" s="738"/>
+      <c r="Y4" s="738"/>
+      <c r="Z4" s="738"/>
+      <c r="AA4" s="738"/>
+      <c r="AB4" s="738"/>
       <c r="AC4" s="77" t="s">
         <v>146</v>
       </c>
@@ -18966,25 +18971,25 @@
       <c r="T3" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="738" t="s">
+      <c r="V3" s="737" t="s">
         <v>387</v>
       </c>
-      <c r="W3" s="738" t="s">
+      <c r="W3" s="737" t="s">
         <v>158</v>
       </c>
-      <c r="X3" s="738" t="s">
+      <c r="X3" s="737" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="738" t="s">
+      <c r="Y3" s="737" t="s">
         <v>507</v>
       </c>
-      <c r="Z3" s="738" t="s">
+      <c r="Z3" s="737" t="s">
         <v>508</v>
       </c>
-      <c r="AA3" s="738" t="s">
+      <c r="AA3" s="737" t="s">
         <v>509</v>
       </c>
-      <c r="AB3" s="738" t="s">
+      <c r="AB3" s="737" t="s">
         <v>510</v>
       </c>
       <c r="AC3" s="69" t="s">
@@ -19048,13 +19053,13 @@
       <c r="T4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="V4" s="739"/>
-      <c r="W4" s="739"/>
-      <c r="X4" s="739"/>
-      <c r="Y4" s="739"/>
-      <c r="Z4" s="739"/>
-      <c r="AA4" s="739"/>
-      <c r="AB4" s="739"/>
+      <c r="V4" s="738"/>
+      <c r="W4" s="738"/>
+      <c r="X4" s="738"/>
+      <c r="Y4" s="738"/>
+      <c r="Z4" s="738"/>
+      <c r="AA4" s="738"/>
+      <c r="AB4" s="738"/>
       <c r="AC4" s="77" t="s">
         <v>146</v>
       </c>
@@ -19545,7 +19550,7 @@
         <v>63.7</v>
       </c>
       <c r="E6" s="645">
-        <f>SUMPRODUCT(C17:C19,'Fuel Techs'!F7:F9)</f>
+        <f>SUMPRODUCT(C17:C19,'Fuel Techs'!G7:G9)</f>
         <v>73.27463785057148</v>
       </c>
       <c r="F6" s="709">
@@ -27088,23 +27093,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1">
-      <c r="A1" s="745" t="s">
+      <c r="A1" s="744" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="745"/>
-      <c r="C1" s="745"/>
-      <c r="D1" s="745"/>
-      <c r="E1" s="745"/>
-      <c r="F1" s="745"/>
-      <c r="G1" s="745"/>
-      <c r="H1" s="745"/>
-      <c r="I1" s="745"/>
-      <c r="J1" s="745"/>
-      <c r="K1" s="745"/>
-      <c r="L1" s="746"/>
-      <c r="M1" s="746"/>
-      <c r="N1" s="746"/>
-      <c r="O1" s="746"/>
+      <c r="B1" s="744"/>
+      <c r="C1" s="744"/>
+      <c r="D1" s="744"/>
+      <c r="E1" s="744"/>
+      <c r="F1" s="744"/>
+      <c r="G1" s="744"/>
+      <c r="H1" s="744"/>
+      <c r="I1" s="744"/>
+      <c r="J1" s="744"/>
+      <c r="K1" s="744"/>
+      <c r="L1" s="745"/>
+      <c r="M1" s="745"/>
+      <c r="N1" s="745"/>
+      <c r="O1" s="745"/>
     </row>
     <row r="2" spans="1:15" ht="15" customHeight="1">
       <c r="A2" s="558" t="s">
@@ -28698,34 +28703,34 @@
       </c>
     </row>
     <row r="37" spans="1:15" ht="15" customHeight="1">
-      <c r="A37" s="747" t="s">
+      <c r="A37" s="746" t="s">
         <v>480</v>
       </c>
-      <c r="B37" s="747"/>
-      <c r="C37" s="747"/>
-      <c r="D37" s="747"/>
-      <c r="E37" s="747"/>
-      <c r="F37" s="747"/>
-      <c r="G37" s="747"/>
-      <c r="H37" s="747"/>
-      <c r="I37" s="747"/>
-      <c r="J37" s="747"/>
-      <c r="K37" s="747"/>
-      <c r="L37" s="747"/>
-      <c r="M37" s="747"/>
-      <c r="N37" s="747"/>
-      <c r="O37" s="747"/>
+      <c r="B37" s="746"/>
+      <c r="C37" s="746"/>
+      <c r="D37" s="746"/>
+      <c r="E37" s="746"/>
+      <c r="F37" s="746"/>
+      <c r="G37" s="746"/>
+      <c r="H37" s="746"/>
+      <c r="I37" s="746"/>
+      <c r="J37" s="746"/>
+      <c r="K37" s="746"/>
+      <c r="L37" s="746"/>
+      <c r="M37" s="746"/>
+      <c r="N37" s="746"/>
+      <c r="O37" s="746"/>
     </row>
     <row r="40" spans="1:15" ht="15" customHeight="1">
-      <c r="A40" s="745" t="s">
+      <c r="A40" s="744" t="s">
         <v>492</v>
       </c>
-      <c r="B40" s="745"/>
-      <c r="C40" s="745"/>
-      <c r="D40" s="745"/>
-      <c r="E40" s="745"/>
-      <c r="F40" s="745"/>
-      <c r="G40" s="746"/>
+      <c r="B40" s="744"/>
+      <c r="C40" s="744"/>
+      <c r="D40" s="744"/>
+      <c r="E40" s="744"/>
+      <c r="F40" s="744"/>
+      <c r="G40" s="745"/>
       <c r="H40" s="571"/>
       <c r="I40" s="571"/>
       <c r="J40" s="571"/>
@@ -28736,35 +28741,35 @@
       <c r="O40" s="571"/>
     </row>
     <row r="41" spans="1:15" ht="15" customHeight="1">
-      <c r="A41" s="748" t="s">
+      <c r="A41" s="747" t="s">
         <v>493</v>
       </c>
-      <c r="B41" s="748"/>
-      <c r="C41" s="748"/>
-      <c r="D41" s="748"/>
-      <c r="E41" s="748"/>
-      <c r="F41" s="748"/>
+      <c r="B41" s="747"/>
+      <c r="C41" s="747"/>
+      <c r="D41" s="747"/>
+      <c r="E41" s="747"/>
+      <c r="F41" s="747"/>
       <c r="G41" s="611" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="15" customHeight="1">
-      <c r="A42" s="749" t="s">
+      <c r="A42" s="748" t="s">
         <v>494</v>
       </c>
-      <c r="B42" s="751" t="s">
+      <c r="B42" s="750" t="s">
         <v>495</v>
       </c>
-      <c r="C42" s="751"/>
-      <c r="D42" s="751"/>
-      <c r="E42" s="751"/>
-      <c r="F42" s="751"/>
-      <c r="G42" s="752" t="s">
+      <c r="C42" s="750"/>
+      <c r="D42" s="750"/>
+      <c r="E42" s="750"/>
+      <c r="F42" s="750"/>
+      <c r="G42" s="751" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" customHeight="1">
-      <c r="A43" s="750"/>
+      <c r="A43" s="749"/>
       <c r="B43" s="612" t="s">
         <v>496</v>
       </c>
@@ -28780,7 +28785,7 @@
       <c r="F43" s="612" t="s">
         <v>65</v>
       </c>
-      <c r="G43" s="753"/>
+      <c r="G43" s="752"/>
     </row>
     <row r="44" spans="1:15" ht="15" customHeight="1">
       <c r="A44" s="613" t="s">
@@ -29114,36 +29119,36 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="15" customHeight="1">
-      <c r="A64" s="742"/>
-      <c r="B64" s="740" t="s">
+      <c r="A64" s="741"/>
+      <c r="B64" s="739" t="s">
         <v>504</v>
       </c>
-      <c r="C64" s="740" t="s">
+      <c r="C64" s="739" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="744" t="s">
+      <c r="D64" s="743" t="s">
         <v>503</v>
       </c>
-      <c r="E64" s="744"/>
-      <c r="F64" s="740" t="s">
+      <c r="E64" s="743"/>
+      <c r="F64" s="739" t="s">
         <v>33</v>
       </c>
-      <c r="G64" s="740" t="s">
+      <c r="G64" s="739" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" customHeight="1">
-      <c r="A65" s="743"/>
-      <c r="B65" s="741"/>
-      <c r="C65" s="741"/>
+      <c r="A65" s="742"/>
+      <c r="B65" s="740"/>
+      <c r="C65" s="740"/>
       <c r="D65" s="622" t="s">
         <v>33</v>
       </c>
       <c r="E65" s="508" t="s">
         <v>501</v>
       </c>
-      <c r="F65" s="741"/>
-      <c r="G65" s="741"/>
+      <c r="F65" s="740"/>
+      <c r="G65" s="740"/>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1">
       <c r="A66" s="116" t="s">
@@ -38091,11 +38096,11 @@
         <f>Legend!$C$43</f>
         <v>SRVELC</v>
       </c>
-      <c r="F103" s="736">
+      <c r="F103" s="735">
         <f>'Public SEAI'!C29*Legend!$B$66</f>
         <v>1.4472</v>
       </c>
-      <c r="G103" s="737">
+      <c r="G103" s="736">
         <f>480000/10^6</f>
         <v>0.48</v>
       </c>
@@ -38144,8 +38149,8 @@
         <f>Legend!$C$43</f>
         <v>SRVELC</v>
       </c>
-      <c r="F104" s="736"/>
-      <c r="G104" s="737"/>
+      <c r="F104" s="735"/>
+      <c r="G104" s="736"/>
       <c r="H104" s="505">
         <v>0.15</v>
       </c>
@@ -38191,8 +38196,8 @@
         <f>Legend!$C$43</f>
         <v>SRVELC</v>
       </c>
-      <c r="F105" s="736"/>
-      <c r="G105" s="737"/>
+      <c r="F105" s="735"/>
+      <c r="G105" s="736"/>
       <c r="H105" s="505">
         <v>0.8</v>
       </c>
@@ -38238,8 +38243,8 @@
         <f>Legend!$C$43</f>
         <v>SRVELC</v>
       </c>
-      <c r="F106" s="736"/>
-      <c r="G106" s="737"/>
+      <c r="F106" s="735"/>
+      <c r="G106" s="736"/>
       <c r="H106" s="506">
         <v>0.01</v>
       </c>
@@ -39314,30 +39319,30 @@
       <c r="K32" s="30"/>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1">
-      <c r="B33" s="730" t="s">
+      <c r="B33" s="729" t="s">
         <v>21</v>
       </c>
       <c r="C33" s="30" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="D33" s="731" t="str">
+      <c r="D33" s="730" t="str">
         <f>Legend!C46</f>
         <v>SRVHET</v>
       </c>
-      <c r="E33" s="731" t="str">
+      <c r="E33" s="730" t="str">
         <f>Legend!A46&amp;" (SRV)"</f>
         <v>District heating (SRV)</v>
       </c>
-      <c r="F33" s="731" t="s">
+      <c r="F33" s="730" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="732"/>
-      <c r="H33" s="731" t="s">
+      <c r="G33" s="731"/>
+      <c r="H33" s="730" t="s">
         <v>88</v>
       </c>
-      <c r="I33" s="731"/>
-      <c r="J33" s="731"/>
+      <c r="I33" s="730"/>
+      <c r="J33" s="730"/>
       <c r="K33" s="30"/>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1">
@@ -39919,10 +39924,10 @@
   <sheetPr codeName="Sheet6">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -39931,39 +39936,39 @@
     <col min="2" max="2" width="13.28515625" style="30" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="30"/>
-    <col min="6" max="6" width="10.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="30"/>
-    <col min="10" max="10" width="14.5703125" style="30" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="30" customWidth="1"/>
-    <col min="12" max="12" width="45.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="9.140625" style="30"/>
-    <col min="18" max="16384" width="9.140625" style="7"/>
+    <col min="5" max="6" width="9.140625" style="30"/>
+    <col min="7" max="7" width="10.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="30"/>
+    <col min="11" max="11" width="14.5703125" style="30" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="30" customWidth="1"/>
+    <col min="13" max="13" width="45.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="9.140625" style="30"/>
+    <col min="19" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="23.25">
+    <row r="1" spans="2:18" ht="23.25">
       <c r="B1" s="33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="2:17">
+    <row r="2" spans="2:18">
       <c r="B2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="J2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="63"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="55"/>
       <c r="M2" s="63"/>
       <c r="N2" s="63"/>
       <c r="O2" s="63"/>
       <c r="P2" s="63"/>
-    </row>
-    <row r="3" spans="2:17" ht="15.75" thickBot="1">
+      <c r="Q2" s="63"/>
+    </row>
+    <row r="3" spans="2:18" ht="15.75" thickBot="1">
       <c r="B3" s="34" t="str">
-        <f t="shared" ref="B3:B7" si="0">K3</f>
+        <f t="shared" ref="B3:B7" si="0">L3</f>
         <v>TechName</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -39976,40 +39981,43 @@
         <v>87</v>
       </c>
       <c r="F3" s="34" t="s">
+        <v>617</v>
+      </c>
+      <c r="G3" s="34" t="s">
         <v>584</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="H3" s="34" t="s">
         <v>585</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="J3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="K3" s="34" t="s">
         <v>529</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="L3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="M3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="N3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="O3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="P3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="Q3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="66" t="s">
+      <c r="R3" s="66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:17" ht="51">
+    <row r="4" spans="2:18" ht="51">
       <c r="B4" s="54" t="s">
         <v>125</v>
       </c>
@@ -40023,40 +40031,43 @@
         <v>129</v>
       </c>
       <c r="F4" s="51" t="s">
+        <v>618</v>
+      </c>
+      <c r="G4" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="H4" s="51" t="s">
         <v>586</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="J4" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="K4" s="51" t="s">
         <v>543</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="L4" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="M4" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="N4" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="O4" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="P4" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="P4" s="54" t="s">
+      <c r="Q4" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="Q4" s="54" t="s">
+      <c r="R4" s="54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:18">
       <c r="B5" s="30" t="str">
         <f t="shared" si="0"/>
         <v>FT-SRVCOA</v>
@@ -40071,31 +40082,31 @@
       <c r="E5" s="30">
         <v>1</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="J5" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="63" t="str">
+      <c r="K5" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K5" s="63" t="str">
+      <c r="L5" s="63" t="str">
         <f>"FT-"&amp;D5</f>
         <v>FT-SRVCOA</v>
       </c>
-      <c r="L5" s="63" t="str">
+      <c r="M5" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A36</f>
         <v>Fuel Tech - Solids</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="N5" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="O5" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O5" s="63"/>
       <c r="P5" s="63"/>
-    </row>
-    <row r="6" spans="2:17">
+      <c r="Q5" s="63"/>
+    </row>
+    <row r="6" spans="2:18">
       <c r="B6" s="30" t="str">
         <f t="shared" si="0"/>
         <v>FT-SRVLPG</v>
@@ -40110,31 +40121,31 @@
       <c r="E6" s="30">
         <v>1</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="J6" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="63" t="str">
+      <c r="K6" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K6" s="63" t="str">
-        <f t="shared" ref="K6:K7" si="1">"FT-"&amp;D6</f>
+      <c r="L6" s="63" t="str">
+        <f t="shared" ref="L6:L7" si="1">"FT-"&amp;D6</f>
         <v>FT-SRVLPG</v>
       </c>
-      <c r="L6" s="63" t="str">
+      <c r="M6" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A37</f>
         <v>Fuel Tech - LPG</v>
       </c>
-      <c r="M6" s="63" t="s">
+      <c r="N6" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="N6" s="63" t="s">
+      <c r="O6" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O6" s="63"/>
       <c r="P6" s="63"/>
-    </row>
-    <row r="7" spans="2:17">
+      <c r="Q6" s="63"/>
+    </row>
+    <row r="7" spans="2:18">
       <c r="B7" s="30" t="str">
         <f t="shared" si="0"/>
         <v>FT-SRVOIL</v>
@@ -40149,110 +40160,110 @@
       <c r="E7" s="30">
         <v>1</v>
       </c>
-      <c r="F7" s="88">
+      <c r="G7" s="88">
         <f>EB_SRV!R5*Legend!$B$65/EB_SRV!$F$12</f>
         <v>0.3801393369171337</v>
       </c>
-      <c r="G7" s="30">
+      <c r="H7" s="30">
         <v>5</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="J7" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="63" t="str">
+      <c r="K7" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K7" s="63" t="str">
+      <c r="L7" s="63" t="str">
         <f t="shared" si="1"/>
         <v>FT-SRVOIL</v>
       </c>
-      <c r="L7" s="63" t="str">
+      <c r="M7" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A38</f>
         <v>Fuel Tech - Oil</v>
       </c>
-      <c r="M7" s="63" t="s">
+      <c r="N7" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="63" t="s">
+      <c r="O7" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O7" s="63"/>
       <c r="P7" s="63"/>
-    </row>
-    <row r="8" spans="2:17">
+      <c r="Q7" s="63"/>
+    </row>
+    <row r="8" spans="2:18">
       <c r="C8" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="F8" s="88">
+      <c r="G8" s="88">
         <f>EB_SRV!V5*Legend!$B$65/EB_SRV!$F$12</f>
         <v>0.61654418072251393</v>
       </c>
-      <c r="G8" s="30">
+      <c r="H8" s="30">
         <v>5</v>
       </c>
-      <c r="I8" s="63" t="s">
+      <c r="J8" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="63" t="str">
+      <c r="K8" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K8" s="63" t="str">
-        <f t="shared" ref="K8:K13" si="2">"FT-"&amp;D10</f>
+      <c r="L8" s="63" t="str">
+        <f t="shared" ref="L8:L13" si="2">"FT-"&amp;D10</f>
         <v>FT-SRVGAS</v>
       </c>
-      <c r="L8" s="63" t="str">
+      <c r="M8" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A39</f>
         <v>Fuel Tech - Natural Gas</v>
       </c>
-      <c r="M8" s="63" t="s">
+      <c r="N8" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="63" t="s">
+      <c r="O8" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O8" s="63"/>
       <c r="P8" s="63"/>
-    </row>
-    <row r="9" spans="2:17">
+      <c r="Q8" s="63"/>
+    </row>
+    <row r="9" spans="2:18">
       <c r="C9" s="30" t="s">
         <v>589</v>
       </c>
-      <c r="F9" s="88">
+      <c r="G9" s="88">
         <f>EB_SRV!T5*Legend!$B$65/EB_SRV!$F$12</f>
         <v>3.3164823603523581E-3</v>
       </c>
-      <c r="G9" s="30">
+      <c r="H9" s="30">
         <v>5</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="J9" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="63" t="str">
+      <c r="K9" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K9" s="63" t="str">
+      <c r="L9" s="63" t="str">
         <f t="shared" si="2"/>
         <v>FT-SRVBIO</v>
       </c>
-      <c r="L9" s="63" t="str">
+      <c r="M9" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A40</f>
         <v>Fuel Tech - Biomass</v>
       </c>
-      <c r="M9" s="63" t="s">
+      <c r="N9" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="63" t="s">
+      <c r="O9" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O9" s="63"/>
       <c r="P9" s="63"/>
-    </row>
-    <row r="10" spans="2:17">
+      <c r="Q9" s="63"/>
+    </row>
+    <row r="10" spans="2:18">
       <c r="B10" s="30" t="str">
-        <f t="shared" ref="B10:B15" si="3">K8</f>
+        <f t="shared" ref="B10:B15" si="3">L8</f>
         <v>FT-SRVGAS</v>
       </c>
       <c r="C10" s="30" t="s">
@@ -40265,31 +40276,31 @@
       <c r="E10" s="30">
         <v>1</v>
       </c>
-      <c r="I10" s="63" t="s">
+      <c r="J10" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="63" t="str">
+      <c r="K10" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K10" s="63" t="str">
+      <c r="L10" s="63" t="str">
         <f t="shared" si="2"/>
         <v>FT-SRVBGS</v>
       </c>
-      <c r="L10" s="63" t="str">
+      <c r="M10" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A41</f>
         <v>Fuel Tech - Biogas</v>
       </c>
-      <c r="M10" s="63" t="s">
+      <c r="N10" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="63" t="s">
+      <c r="O10" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O10" s="63"/>
       <c r="P10" s="63"/>
-    </row>
-    <row r="11" spans="2:17">
+      <c r="Q10" s="63"/>
+    </row>
+    <row r="11" spans="2:18">
       <c r="B11" s="30" t="str">
         <f t="shared" si="3"/>
         <v>FT-SRVBIO</v>
@@ -40304,31 +40315,31 @@
       <c r="E11" s="30">
         <v>1</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="J11" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J11" s="63" t="str">
+      <c r="K11" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K11" s="63" t="str">
+      <c r="L11" s="63" t="str">
         <f t="shared" si="2"/>
         <v>FT-SRVSOL</v>
       </c>
-      <c r="L11" s="63" t="str">
+      <c r="M11" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A42</f>
         <v>Fuel Tech - Solar</v>
       </c>
-      <c r="M11" s="63" t="s">
+      <c r="N11" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="63" t="s">
+      <c r="O11" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O11" s="63"/>
       <c r="P11" s="63"/>
-    </row>
-    <row r="12" spans="2:17">
+      <c r="Q11" s="63"/>
+    </row>
+    <row r="12" spans="2:18">
       <c r="B12" s="30" t="str">
         <f t="shared" si="3"/>
         <v>FT-SRVBGS</v>
@@ -40343,33 +40354,33 @@
       <c r="E12" s="30">
         <v>1</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="J12" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="63" t="str">
+      <c r="K12" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K12" s="63" t="str">
+      <c r="L12" s="63" t="str">
         <f t="shared" si="2"/>
         <v>FT-SRVELC</v>
       </c>
-      <c r="L12" s="63" t="str">
+      <c r="M12" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A43</f>
         <v>Fuel Tech - Electricity</v>
       </c>
-      <c r="M12" s="63" t="s">
+      <c r="N12" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="N12" s="63" t="s">
+      <c r="O12" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O12" s="63" t="s">
+      <c r="P12" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P12" s="63"/>
-    </row>
-    <row r="13" spans="2:17">
+      <c r="Q12" s="63"/>
+    </row>
+    <row r="13" spans="2:18">
       <c r="B13" s="30" t="str">
         <f t="shared" si="3"/>
         <v>FT-SRVSOL</v>
@@ -40384,32 +40395,32 @@
       <c r="E13" s="30">
         <v>1</v>
       </c>
-      <c r="I13" s="65" t="s">
+      <c r="J13" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="65" t="str">
+      <c r="K13" s="65" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K13" s="65" t="str">
+      <c r="L13" s="65" t="str">
         <f t="shared" si="2"/>
         <v>FT-SRVAHT</v>
       </c>
-      <c r="L13" s="65" t="str">
+      <c r="M13" s="65" t="str">
         <f>"Fuel Tech - "&amp;Legend!A44</f>
         <v>Fuel Tech - Ambient Heat</v>
       </c>
-      <c r="M13" s="65" t="s">
+      <c r="N13" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="N13" s="65" t="s">
+      <c r="O13" s="65" t="s">
         <v>591</v>
       </c>
-      <c r="O13" s="65"/>
       <c r="P13" s="65"/>
-      <c r="Q13" s="31"/>
-    </row>
-    <row r="14" spans="2:17">
+      <c r="Q13" s="65"/>
+      <c r="R13" s="31"/>
+    </row>
+    <row r="14" spans="2:18">
       <c r="B14" s="30" t="str">
         <f t="shared" si="3"/>
         <v>FT-SRVELC</v>
@@ -40424,33 +40435,33 @@
       <c r="E14" s="30">
         <v>1</v>
       </c>
-      <c r="I14" s="63" t="s">
+      <c r="J14" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="63" t="str">
+      <c r="K14" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
         <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
-      <c r="K14" s="63" t="str">
+      <c r="L14" s="63" t="str">
         <f>"FT-"&amp;Commodities!D33&amp;"_X"</f>
         <v>FT-SRVHET_X</v>
       </c>
-      <c r="L14" s="63" t="str">
+      <c r="M14" s="63" t="str">
         <f>Commodities!E33&amp;" Existing"</f>
         <v>District heating (SRV) Existing</v>
       </c>
-      <c r="M14" s="63" t="s">
+      <c r="N14" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="63" t="s">
+      <c r="O14" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O14" s="63" t="s">
+      <c r="P14" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="63"/>
-    </row>
-    <row r="15" spans="2:17">
+      <c r="Q14" s="63"/>
+    </row>
+    <row r="15" spans="2:18">
       <c r="B15" s="21" t="str">
         <f t="shared" si="3"/>
         <v>FT-SRVAHT</v>
@@ -40467,33 +40478,34 @@
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
-      <c r="I15" s="63" t="s">
+      <c r="H15" s="21"/>
+      <c r="J15" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="63" t="str">
+      <c r="K15" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K15" s="63" t="str">
+      <c r="L15" s="63" t="str">
         <f>"FT-"&amp;D18</f>
         <v>FT-SRVWIN</v>
       </c>
-      <c r="L15" s="63" t="str">
+      <c r="M15" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A47</f>
         <v>Fuel Tech - Wind</v>
       </c>
-      <c r="M15" s="63" t="s">
+      <c r="N15" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="63" t="s">
+      <c r="O15" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O15" s="63"/>
       <c r="P15" s="63"/>
-    </row>
-    <row r="16" spans="2:17">
+      <c r="Q15" s="63"/>
+    </row>
+    <row r="16" spans="2:18">
       <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="21" t="str">
         <f>Legend!C45</f>
         <v>SRVAHT2</v>
@@ -40501,36 +40513,37 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
-      <c r="I16" s="63" t="s">
+      <c r="H16" s="21"/>
+      <c r="J16" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="63" t="str">
+      <c r="K16" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K16" s="63" t="str">
+      <c r="L16" s="63" t="str">
         <f>"FT-"&amp;D19</f>
         <v>FT-SRVH2G</v>
       </c>
-      <c r="L16" s="63" t="str">
+      <c r="M16" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A48</f>
         <v>Fuel Tech - Hydrogen (gaseous)</v>
       </c>
-      <c r="M16" s="63" t="s">
+      <c r="N16" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="N16" s="63" t="s">
+      <c r="O16" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O16" s="63"/>
       <c r="P16" s="63"/>
-    </row>
-    <row r="17" spans="2:17">
-      <c r="B17" s="729" t="str">
-        <f t="shared" ref="B17" si="4">K14</f>
+      <c r="Q16" s="63"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="728" t="str">
+        <f t="shared" ref="B17" si="4">L14</f>
         <v>FT-SRVHET_X</v>
       </c>
-      <c r="C17" s="728" t="s">
+      <c r="C17" s="21" t="s">
         <v>615</v>
       </c>
       <c r="D17" s="663" t="s">
@@ -40539,35 +40552,38 @@
       <c r="E17" s="663">
         <v>1</v>
       </c>
-      <c r="F17" s="663"/>
+      <c r="F17" s="663">
+        <v>0.3</v>
+      </c>
       <c r="G17" s="663"/>
-      <c r="I17" s="63" t="s">
+      <c r="H17" s="663"/>
+      <c r="J17" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="63" t="str">
+      <c r="K17" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K17" s="63" t="str">
+      <c r="L17" s="63" t="str">
         <f>"FT-"&amp;D20</f>
         <v>FT-SRVH2L</v>
       </c>
-      <c r="L17" s="63" t="str">
+      <c r="M17" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A49</f>
         <v>Fuel Tech - Hydrogen (liquid)</v>
       </c>
-      <c r="M17" s="63" t="s">
+      <c r="N17" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="N17" s="63" t="s">
+      <c r="O17" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O17" s="63"/>
       <c r="P17" s="63"/>
-    </row>
-    <row r="18" spans="2:17">
+      <c r="Q17" s="63"/>
+    </row>
+    <row r="18" spans="2:18">
       <c r="B18" s="30" t="str">
-        <f>K15</f>
+        <f>L15</f>
         <v>FT-SRVWIN</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -40580,33 +40596,33 @@
       <c r="E18" s="30">
         <v>1</v>
       </c>
-      <c r="I18" s="63" t="s">
+      <c r="J18" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="63" t="str">
+      <c r="K18" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K18" s="63" t="str">
+      <c r="L18" s="63" t="str">
         <f>"FT-"&amp;D21</f>
         <v>FT-SRVBDL</v>
       </c>
-      <c r="L18" s="63" t="str">
+      <c r="M18" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A50</f>
         <v>Fuel Tech - Biodiesel</v>
       </c>
-      <c r="M18" s="63" t="s">
+      <c r="N18" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="N18" s="63" t="s">
+      <c r="O18" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="O18" s="63"/>
       <c r="P18" s="63"/>
-    </row>
-    <row r="19" spans="2:17">
+      <c r="Q18" s="63"/>
+    </row>
+    <row r="19" spans="2:18">
       <c r="B19" s="30" t="str">
-        <f>K16</f>
+        <f>L16</f>
         <v>FT-SRVH2G</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -40619,34 +40635,34 @@
       <c r="E19" s="30">
         <v>1</v>
       </c>
-      <c r="I19" s="65" t="s">
+      <c r="J19" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="65" t="str">
+      <c r="K19" s="65" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="K19" s="65" t="str">
+      <c r="L19" s="65" t="str">
         <f>"FT-"&amp;D22</f>
         <v>FT-SRVETH</v>
       </c>
-      <c r="L19" s="65" t="str">
+      <c r="M19" s="65" t="str">
         <f>"Fuel Tech - "&amp;Legend!A51</f>
         <v>Fuel Tech - Ethanol</v>
       </c>
-      <c r="M19" s="65" t="s">
+      <c r="N19" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="N19" s="65" t="s">
+      <c r="O19" s="65" t="s">
         <v>591</v>
       </c>
-      <c r="O19" s="65"/>
       <c r="P19" s="65"/>
-      <c r="Q19" s="31"/>
-    </row>
-    <row r="20" spans="2:17">
+      <c r="Q19" s="65"/>
+      <c r="R19" s="31"/>
+    </row>
+    <row r="20" spans="2:18">
       <c r="B20" s="30" t="str">
-        <f>K17</f>
+        <f>L17</f>
         <v>FT-SRVH2L</v>
       </c>
       <c r="C20" s="30" t="s">
@@ -40660,9 +40676,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:18">
       <c r="B21" s="30" t="str">
-        <f>K18</f>
+        <f>L18</f>
         <v>FT-SRVBDL</v>
       </c>
       <c r="C21" s="30" t="s">
@@ -40676,9 +40692,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:18">
       <c r="B22" s="31" t="str">
-        <f>K19</f>
+        <f>L19</f>
         <v>FT-SRVETH</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -40693,6 +40709,7 @@
       </c>
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40707,7 +40724,7 @@
   </sheetPr>
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -41560,25 +41577,25 @@
         <v>20</v>
       </c>
       <c r="Z3"/>
-      <c r="AA3" s="738" t="s">
+      <c r="AA3" s="737" t="s">
         <v>387</v>
       </c>
-      <c r="AB3" s="738" t="s">
+      <c r="AB3" s="737" t="s">
         <v>158</v>
       </c>
-      <c r="AC3" s="738" t="s">
+      <c r="AC3" s="737" t="s">
         <v>81</v>
       </c>
-      <c r="AD3" s="738" t="s">
+      <c r="AD3" s="737" t="s">
         <v>507</v>
       </c>
-      <c r="AE3" s="738" t="s">
+      <c r="AE3" s="737" t="s">
         <v>508</v>
       </c>
-      <c r="AF3" s="738" t="s">
+      <c r="AF3" s="737" t="s">
         <v>509</v>
       </c>
-      <c r="AG3" s="738" t="s">
+      <c r="AG3" s="737" t="s">
         <v>510</v>
       </c>
       <c r="AH3" s="74" t="s">
@@ -41657,13 +41674,13 @@
         <v>121</v>
       </c>
       <c r="Z4"/>
-      <c r="AA4" s="739"/>
-      <c r="AB4" s="739"/>
-      <c r="AC4" s="739"/>
-      <c r="AD4" s="739"/>
-      <c r="AE4" s="739"/>
-      <c r="AF4" s="739"/>
-      <c r="AG4" s="739"/>
+      <c r="AA4" s="738"/>
+      <c r="AB4" s="738"/>
+      <c r="AC4" s="738"/>
+      <c r="AD4" s="738"/>
+      <c r="AE4" s="738"/>
+      <c r="AF4" s="738"/>
+      <c r="AG4" s="738"/>
       <c r="AH4" s="77" t="s">
         <v>146</v>
       </c>

--- a/VT_IE_SRV.xlsx
+++ b/VT_IE_SRV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_TIMES Models\Irish-TIMES-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF24C052-E940-409C-8625-4CA5FD4142CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3766F64-86DD-4993-9BC9-C1FD0F3DE575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="83" r:id="rId1"/>
@@ -1374,7 +1374,7 @@
     <author>Alessandro Chiodi</author>
   </authors>
   <commentList>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1617,7 +1617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1710,7 +1710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1725,7 +1725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="S4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1788,7 +1788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="1" shapeId="0" xr:uid="{285BE490-F962-4EAF-B9BE-A8394AD2DC6D}">
+    <comment ref="I7" authorId="1" shapeId="0" xr:uid="{285BE490-F962-4EAF-B9BE-A8394AD2DC6D}">
       <text>
         <r>
           <rPr>
@@ -4416,7 +4416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="620">
   <si>
     <t>Unit</t>
   </si>
@@ -6429,6 +6429,9 @@
   </si>
   <si>
     <t>Annual Production Bound</t>
+  </si>
+  <si>
+    <t>ACT_BND~0</t>
   </si>
 </sst>
 </file>
@@ -19550,7 +19553,7 @@
         <v>63.7</v>
       </c>
       <c r="E6" s="645">
-        <f>SUMPRODUCT(C17:C19,'Fuel Techs'!G7:G9)</f>
+        <f>SUMPRODUCT(C17:C19,'Fuel Techs'!H7:H9)</f>
         <v>73.27463785057148</v>
       </c>
       <c r="F6" s="709">
@@ -39924,10 +39927,10 @@
   <sheetPr codeName="Sheet6">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -39937,38 +39940,39 @@
     <col min="3" max="3" width="26.42578125" style="30" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="30" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="30"/>
-    <col min="7" max="7" width="10.42578125" style="30" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="30"/>
-    <col min="11" max="11" width="14.5703125" style="30" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="30" customWidth="1"/>
-    <col min="13" max="13" width="45.7109375" style="30" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="9.140625" style="30"/>
-    <col min="19" max="16384" width="9.140625" style="7"/>
+    <col min="7" max="7" width="12" style="30" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="30" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="30"/>
+    <col min="12" max="12" width="14.5703125" style="30" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="30" customWidth="1"/>
+    <col min="14" max="14" width="45.7109375" style="30" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="9.140625" style="30"/>
+    <col min="20" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="23.25">
+    <row r="1" spans="2:19" ht="23.25">
       <c r="B1" s="33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:19">
       <c r="B2" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="K2" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="49"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="63"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="55"/>
       <c r="N2" s="63"/>
       <c r="O2" s="63"/>
       <c r="P2" s="63"/>
       <c r="Q2" s="63"/>
-    </row>
-    <row r="3" spans="2:18" ht="15.75" thickBot="1">
+      <c r="R2" s="63"/>
+    </row>
+    <row r="3" spans="2:19" ht="15.75" thickBot="1">
       <c r="B3" s="34" t="str">
-        <f t="shared" ref="B3:B7" si="0">L3</f>
+        <f t="shared" ref="B3:B7" si="0">M3</f>
         <v>TechName</v>
       </c>
       <c r="C3" s="34" t="s">
@@ -39984,40 +39988,43 @@
         <v>617</v>
       </c>
       <c r="G3" s="34" t="s">
+        <v>619</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>584</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="I3" s="34" t="s">
         <v>585</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="K3" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="L3" s="34" t="s">
         <v>529</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="M3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="N3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="O3" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="34" t="s">
+      <c r="P3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="Q3" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="Q3" s="34" t="s">
+      <c r="R3" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="66" t="s">
+      <c r="S3" s="66" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="51">
+    <row r="4" spans="2:19" ht="51">
       <c r="B4" s="54" t="s">
         <v>125</v>
       </c>
@@ -40033,41 +40040,42 @@
       <c r="F4" s="51" t="s">
         <v>618</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="51" t="s">
         <v>587</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="I4" s="51" t="s">
         <v>586</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="K4" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="L4" s="51" t="s">
         <v>543</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="M4" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="N4" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="N4" s="51" t="s">
+      <c r="O4" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="O4" s="51" t="s">
+      <c r="P4" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="P4" s="51" t="s">
+      <c r="Q4" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="Q4" s="54" t="s">
+      <c r="R4" s="54" t="s">
         <v>120</v>
       </c>
-      <c r="R4" s="54" t="s">
+      <c r="S4" s="54" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:19">
       <c r="B5" s="30" t="str">
         <f t="shared" si="0"/>
         <v>FT-SRVCOA</v>
@@ -40082,31 +40090,31 @@
       <c r="E5" s="30">
         <v>1</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="K5" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="63" t="str">
+      <c r="L5" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="L5" s="63" t="str">
+      <c r="M5" s="63" t="str">
         <f>"FT-"&amp;D5</f>
         <v>FT-SRVCOA</v>
       </c>
-      <c r="M5" s="63" t="str">
+      <c r="N5" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A36</f>
         <v>Fuel Tech - Solids</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="O5" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="63" t="s">
+      <c r="P5" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="P5" s="63"/>
       <c r="Q5" s="63"/>
-    </row>
-    <row r="6" spans="2:18">
+      <c r="R5" s="63"/>
+    </row>
+    <row r="6" spans="2:19">
       <c r="B6" s="30" t="str">
         <f t="shared" si="0"/>
         <v>FT-SRVLPG</v>
@@ -40121,31 +40129,31 @@
       <c r="E6" s="30">
         <v>1</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="K6" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="63" t="str">
+      <c r="L6" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="L6" s="63" t="str">
-        <f t="shared" ref="L6:L7" si="1">"FT-"&amp;D6</f>
+      <c r="M6" s="63" t="str">
+        <f t="shared" ref="M6:M7" si="1">"FT-"&amp;D6</f>
         <v>FT-SRVLPG</v>
       </c>
-      <c r="M6" s="63" t="str">
+      <c r="N6" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A37</f>
         <v>Fuel Tech - LPG</v>
       </c>
-      <c r="N6" s="63" t="s">
+      <c r="O6" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="63" t="s">
+      <c r="P6" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="P6" s="63"/>
       <c r="Q6" s="63"/>
-    </row>
-    <row r="7" spans="2:18">
+      <c r="R6" s="63"/>
+    </row>
+    <row r="7" spans="2:19">
       <c r="B7" s="30" t="str">
         <f t="shared" si="0"/>
         <v>FT-SRVOIL</v>
@@ -40160,110 +40168,110 @@
       <c r="E7" s="30">
         <v>1</v>
       </c>
-      <c r="G7" s="88">
+      <c r="H7" s="88">
         <f>EB_SRV!R5*Legend!$B$65/EB_SRV!$F$12</f>
         <v>0.3801393369171337</v>
       </c>
-      <c r="H7" s="30">
+      <c r="I7" s="30">
         <v>5</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="K7" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="63" t="str">
+      <c r="L7" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="L7" s="63" t="str">
+      <c r="M7" s="63" t="str">
         <f t="shared" si="1"/>
         <v>FT-SRVOIL</v>
       </c>
-      <c r="M7" s="63" t="str">
+      <c r="N7" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A38</f>
         <v>Fuel Tech - Oil</v>
       </c>
-      <c r="N7" s="63" t="s">
+      <c r="O7" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="63" t="s">
+      <c r="P7" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="P7" s="63"/>
       <c r="Q7" s="63"/>
-    </row>
-    <row r="8" spans="2:18">
+      <c r="R7" s="63"/>
+    </row>
+    <row r="8" spans="2:19">
       <c r="C8" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="G8" s="88">
+      <c r="H8" s="88">
         <f>EB_SRV!V5*Legend!$B$65/EB_SRV!$F$12</f>
         <v>0.61654418072251393</v>
       </c>
-      <c r="H8" s="30">
+      <c r="I8" s="30">
         <v>5</v>
       </c>
-      <c r="J8" s="63" t="s">
+      <c r="K8" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K8" s="63" t="str">
+      <c r="L8" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="L8" s="63" t="str">
-        <f t="shared" ref="L8:L13" si="2">"FT-"&amp;D10</f>
+      <c r="M8" s="63" t="str">
+        <f t="shared" ref="M8:M13" si="2">"FT-"&amp;D10</f>
         <v>FT-SRVGAS</v>
       </c>
-      <c r="M8" s="63" t="str">
+      <c r="N8" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A39</f>
         <v>Fuel Tech - Natural Gas</v>
       </c>
-      <c r="N8" s="63" t="s">
+      <c r="O8" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="O8" s="63" t="s">
+      <c r="P8" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="P8" s="63"/>
       <c r="Q8" s="63"/>
-    </row>
-    <row r="9" spans="2:18">
+      <c r="R8" s="63"/>
+    </row>
+    <row r="9" spans="2:19">
       <c r="C9" s="30" t="s">
         <v>589</v>
       </c>
-      <c r="G9" s="88">
+      <c r="H9" s="88">
         <f>EB_SRV!T5*Legend!$B$65/EB_SRV!$F$12</f>
         <v>3.3164823603523581E-3</v>
       </c>
-      <c r="H9" s="30">
+      <c r="I9" s="30">
         <v>5</v>
       </c>
-      <c r="J9" s="63" t="s">
+      <c r="K9" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="63" t="str">
+      <c r="L9" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="L9" s="63" t="str">
+      <c r="M9" s="63" t="str">
         <f t="shared" si="2"/>
         <v>FT-SRVBIO</v>
       </c>
-      <c r="M9" s="63" t="str">
+      <c r="N9" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A40</f>
         <v>Fuel Tech - Biomass</v>
       </c>
-      <c r="N9" s="63" t="s">
+      <c r="O9" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="O9" s="63" t="s">
+      <c r="P9" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="P9" s="63"/>
       <c r="Q9" s="63"/>
-    </row>
-    <row r="10" spans="2:18">
+      <c r="R9" s="63"/>
+    </row>
+    <row r="10" spans="2:19">
       <c r="B10" s="30" t="str">
-        <f t="shared" ref="B10:B15" si="3">L8</f>
+        <f t="shared" ref="B10:B15" si="3">M8</f>
         <v>FT-SRVGAS</v>
       </c>
       <c r="C10" s="30" t="s">
@@ -40276,31 +40284,31 @@
       <c r="E10" s="30">
         <v>1</v>
       </c>
-      <c r="J10" s="63" t="s">
+      <c r="K10" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="63" t="str">
+      <c r="L10" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="L10" s="63" t="str">
+      <c r="M10" s="63" t="str">
         <f t="shared" si="2"/>
         <v>FT-SRVBGS</v>
       </c>
-      <c r="M10" s="63" t="str">
+      <c r="N10" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A41</f>
         <v>Fuel Tech - Biogas</v>
       </c>
-      <c r="N10" s="63" t="s">
+      <c r="O10" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="63" t="s">
+      <c r="P10" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="P10" s="63"/>
       <c r="Q10" s="63"/>
-    </row>
-    <row r="11" spans="2:18">
+      <c r="R10" s="63"/>
+    </row>
+    <row r="11" spans="2:19">
       <c r="B11" s="30" t="str">
         <f t="shared" si="3"/>
         <v>FT-SRVBIO</v>
@@ -40315,31 +40323,31 @@
       <c r="E11" s="30">
         <v>1</v>
       </c>
-      <c r="J11" s="63" t="s">
+      <c r="K11" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="63" t="str">
+      <c r="L11" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="L11" s="63" t="str">
+      <c r="M11" s="63" t="str">
         <f t="shared" si="2"/>
         <v>FT-SRVSOL</v>
       </c>
-      <c r="M11" s="63" t="str">
+      <c r="N11" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A42</f>
         <v>Fuel Tech - Solar</v>
       </c>
-      <c r="N11" s="63" t="s">
+      <c r="O11" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="O11" s="63" t="s">
+      <c r="P11" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="P11" s="63"/>
       <c r="Q11" s="63"/>
-    </row>
-    <row r="12" spans="2:18">
+      <c r="R11" s="63"/>
+    </row>
+    <row r="12" spans="2:19">
       <c r="B12" s="30" t="str">
         <f t="shared" si="3"/>
         <v>FT-SRVBGS</v>
@@ -40354,33 +40362,33 @@
       <c r="E12" s="30">
         <v>1</v>
       </c>
-      <c r="J12" s="63" t="s">
+      <c r="K12" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="63" t="str">
+      <c r="L12" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="L12" s="63" t="str">
+      <c r="M12" s="63" t="str">
         <f t="shared" si="2"/>
         <v>FT-SRVELC</v>
       </c>
-      <c r="M12" s="63" t="str">
+      <c r="N12" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A43</f>
         <v>Fuel Tech - Electricity</v>
       </c>
-      <c r="N12" s="63" t="s">
+      <c r="O12" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="63" t="s">
+      <c r="P12" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="P12" s="63" t="s">
+      <c r="Q12" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="Q12" s="63"/>
-    </row>
-    <row r="13" spans="2:18">
+      <c r="R12" s="63"/>
+    </row>
+    <row r="13" spans="2:19">
       <c r="B13" s="30" t="str">
         <f t="shared" si="3"/>
         <v>FT-SRVSOL</v>
@@ -40395,32 +40403,32 @@
       <c r="E13" s="30">
         <v>1</v>
       </c>
-      <c r="J13" s="65" t="s">
+      <c r="K13" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="65" t="str">
+      <c r="L13" s="65" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="L13" s="65" t="str">
+      <c r="M13" s="65" t="str">
         <f t="shared" si="2"/>
         <v>FT-SRVAHT</v>
       </c>
-      <c r="M13" s="65" t="str">
+      <c r="N13" s="65" t="str">
         <f>"Fuel Tech - "&amp;Legend!A44</f>
         <v>Fuel Tech - Ambient Heat</v>
       </c>
-      <c r="N13" s="65" t="s">
+      <c r="O13" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="65" t="s">
+      <c r="P13" s="65" t="s">
         <v>591</v>
       </c>
-      <c r="P13" s="65"/>
       <c r="Q13" s="65"/>
-      <c r="R13" s="31"/>
-    </row>
-    <row r="14" spans="2:18">
+      <c r="R13" s="65"/>
+      <c r="S13" s="31"/>
+    </row>
+    <row r="14" spans="2:19">
       <c r="B14" s="30" t="str">
         <f t="shared" si="3"/>
         <v>FT-SRVELC</v>
@@ -40435,33 +40443,33 @@
       <c r="E14" s="30">
         <v>1</v>
       </c>
-      <c r="J14" s="63" t="s">
+      <c r="K14" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="63" t="str">
+      <c r="L14" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3:'Regions'!$AD$3)</f>
         <v>IE,National,IE-CW,IE-D,IE-KE,IE-KK,IE-LS,IE-LD,IE-LH,IE-MH,IE-OY,IE-WH,IE-WX,IE-WW,IE-CE,IE-CO,IE-KY,IE-LK,IE-TA,IE-WD,IE-G,IE-LM,IE-MO,IE-RN,IE-SO,IE-CN,IE-DL,IE-MN</v>
       </c>
-      <c r="L14" s="63" t="str">
+      <c r="M14" s="63" t="str">
         <f>"FT-"&amp;Commodities!D33&amp;"_X"</f>
         <v>FT-SRVHET_X</v>
       </c>
-      <c r="M14" s="63" t="str">
+      <c r="N14" s="63" t="str">
         <f>Commodities!E33&amp;" Existing"</f>
         <v>District heating (SRV) Existing</v>
       </c>
-      <c r="N14" s="63" t="s">
+      <c r="O14" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="63" t="s">
+      <c r="P14" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="P14" s="63" t="s">
+      <c r="Q14" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="Q14" s="63"/>
-    </row>
-    <row r="15" spans="2:18">
+      <c r="R14" s="63"/>
+    </row>
+    <row r="15" spans="2:19">
       <c r="B15" s="21" t="str">
         <f t="shared" si="3"/>
         <v>FT-SRVAHT</v>
@@ -40479,31 +40487,32 @@
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
-      <c r="J15" s="63" t="s">
+      <c r="I15" s="21"/>
+      <c r="K15" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K15" s="63" t="str">
+      <c r="L15" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="L15" s="63" t="str">
+      <c r="M15" s="63" t="str">
         <f>"FT-"&amp;D18</f>
         <v>FT-SRVWIN</v>
       </c>
-      <c r="M15" s="63" t="str">
+      <c r="N15" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A47</f>
         <v>Fuel Tech - Wind</v>
       </c>
-      <c r="N15" s="63" t="s">
+      <c r="O15" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="O15" s="63" t="s">
+      <c r="P15" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="P15" s="63"/>
       <c r="Q15" s="63"/>
-    </row>
-    <row r="16" spans="2:18">
+      <c r="R15" s="63"/>
+    </row>
+    <row r="16" spans="2:19">
       <c r="B16" s="21"/>
       <c r="C16" s="31"/>
       <c r="D16" s="21" t="str">
@@ -40514,33 +40523,34 @@
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
       <c r="H16" s="21"/>
-      <c r="J16" s="63" t="s">
+      <c r="I16" s="21"/>
+      <c r="K16" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="63" t="str">
+      <c r="L16" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="L16" s="63" t="str">
+      <c r="M16" s="63" t="str">
         <f>"FT-"&amp;D19</f>
         <v>FT-SRVH2G</v>
       </c>
-      <c r="M16" s="63" t="str">
+      <c r="N16" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A48</f>
         <v>Fuel Tech - Hydrogen (gaseous)</v>
       </c>
-      <c r="N16" s="63" t="s">
+      <c r="O16" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="O16" s="63" t="s">
+      <c r="P16" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="P16" s="63"/>
       <c r="Q16" s="63"/>
-    </row>
-    <row r="17" spans="2:18">
+      <c r="R16" s="63"/>
+    </row>
+    <row r="17" spans="2:19">
       <c r="B17" s="728" t="str">
-        <f t="shared" ref="B17" si="4">L14</f>
+        <f t="shared" ref="B17" si="4">M14</f>
         <v>FT-SRVHET_X</v>
       </c>
       <c r="C17" s="21" t="s">
@@ -40555,35 +40565,38 @@
       <c r="F17" s="663">
         <v>0.3</v>
       </c>
-      <c r="G17" s="663"/>
+      <c r="G17" s="663">
+        <v>5</v>
+      </c>
       <c r="H17" s="663"/>
-      <c r="J17" s="63" t="s">
+      <c r="I17" s="663"/>
+      <c r="K17" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K17" s="63" t="str">
+      <c r="L17" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="L17" s="63" t="str">
+      <c r="M17" s="63" t="str">
         <f>"FT-"&amp;D20</f>
         <v>FT-SRVH2L</v>
       </c>
-      <c r="M17" s="63" t="str">
+      <c r="N17" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A49</f>
         <v>Fuel Tech - Hydrogen (liquid)</v>
       </c>
-      <c r="N17" s="63" t="s">
+      <c r="O17" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="63" t="s">
+      <c r="P17" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="P17" s="63"/>
       <c r="Q17" s="63"/>
-    </row>
-    <row r="18" spans="2:18">
+      <c r="R17" s="63"/>
+    </row>
+    <row r="18" spans="2:19">
       <c r="B18" s="30" t="str">
-        <f>L15</f>
+        <f>M15</f>
         <v>FT-SRVWIN</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -40596,33 +40609,33 @@
       <c r="E18" s="30">
         <v>1</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="K18" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="K18" s="63" t="str">
+      <c r="L18" s="63" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="L18" s="63" t="str">
+      <c r="M18" s="63" t="str">
         <f>"FT-"&amp;D21</f>
         <v>FT-SRVBDL</v>
       </c>
-      <c r="M18" s="63" t="str">
+      <c r="N18" s="63" t="str">
         <f>"Fuel Tech - "&amp;Legend!A50</f>
         <v>Fuel Tech - Biodiesel</v>
       </c>
-      <c r="N18" s="63" t="s">
+      <c r="O18" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="O18" s="63" t="s">
+      <c r="P18" s="63" t="s">
         <v>591</v>
       </c>
-      <c r="P18" s="63"/>
       <c r="Q18" s="63"/>
-    </row>
-    <row r="19" spans="2:18">
+      <c r="R18" s="63"/>
+    </row>
+    <row r="19" spans="2:19">
       <c r="B19" s="30" t="str">
-        <f>L16</f>
+        <f>M16</f>
         <v>FT-SRVH2G</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -40635,34 +40648,34 @@
       <c r="E19" s="30">
         <v>1</v>
       </c>
-      <c r="J19" s="65" t="s">
+      <c r="K19" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="65" t="str">
+      <c r="L19" s="65" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>IE,National</v>
       </c>
-      <c r="L19" s="65" t="str">
+      <c r="M19" s="65" t="str">
         <f>"FT-"&amp;D22</f>
         <v>FT-SRVETH</v>
       </c>
-      <c r="M19" s="65" t="str">
+      <c r="N19" s="65" t="str">
         <f>"Fuel Tech - "&amp;Legend!A51</f>
         <v>Fuel Tech - Ethanol</v>
       </c>
-      <c r="N19" s="65" t="s">
+      <c r="O19" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="65" t="s">
+      <c r="P19" s="65" t="s">
         <v>591</v>
       </c>
-      <c r="P19" s="65"/>
       <c r="Q19" s="65"/>
-      <c r="R19" s="31"/>
-    </row>
-    <row r="20" spans="2:18">
+      <c r="R19" s="65"/>
+      <c r="S19" s="31"/>
+    </row>
+    <row r="20" spans="2:19">
       <c r="B20" s="30" t="str">
-        <f>L17</f>
+        <f>M17</f>
         <v>FT-SRVH2L</v>
       </c>
       <c r="C20" s="30" t="s">
@@ -40676,9 +40689,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:18">
+    <row r="21" spans="2:19">
       <c r="B21" s="30" t="str">
-        <f>L18</f>
+        <f>M18</f>
         <v>FT-SRVBDL</v>
       </c>
       <c r="C21" s="30" t="s">
@@ -40692,9 +40705,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:18">
+    <row r="22" spans="2:19">
       <c r="B22" s="31" t="str">
-        <f>L19</f>
+        <f>M19</f>
         <v>FT-SRVETH</v>
       </c>
       <c r="C22" s="31" t="s">
@@ -40710,6 +40723,7 @@
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40724,7 +40738,7 @@
   </sheetPr>
   <dimension ref="A1:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/VT_IE_SRV.xlsx
+++ b/VT_IE_SRV.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C37A0A4-E54C-434C-B7A0-8A21199A892D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6976F29A-5D24-47F9-91A6-F04AAFDC50CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="83" r:id="rId1"/>
@@ -2445,7 +2445,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -2468,7 +2468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="1" shapeId="0" xr:uid="{1DCD6C06-2F35-4936-B4C8-D48E379328DF}">
+    <comment ref="R4" authorId="1" shapeId="0" xr:uid="{1DCD6C06-2F35-4936-B4C8-D48E379328DF}">
       <text>
         <r>
           <rPr>
@@ -2711,7 +2711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W4" authorId="1" shapeId="0" xr:uid="{80AE7A5F-A131-426F-ABF2-26A79B3D91A9}">
+    <comment ref="X4" authorId="1" shapeId="0" xr:uid="{80AE7A5F-A131-426F-ABF2-26A79B3D91A9}">
       <text>
         <r>
           <rPr>
@@ -2804,7 +2804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X4" authorId="1" shapeId="0" xr:uid="{6FBAC6A0-AD80-4376-935F-01438A5C5564}">
+    <comment ref="Y4" authorId="1" shapeId="0" xr:uid="{6FBAC6A0-AD80-4376-935F-01438A5C5564}">
       <text>
         <r>
           <rPr>
@@ -2819,7 +2819,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y4" authorId="1" shapeId="0" xr:uid="{34647E3D-D6E4-46BA-9ABA-F5B634345FF1}">
+    <comment ref="Z4" authorId="1" shapeId="0" xr:uid="{34647E3D-D6E4-46BA-9ABA-F5B634345FF1}">
       <text>
         <r>
           <rPr>
@@ -4417,7 +4417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="620">
   <si>
     <t>Unit</t>
   </si>
@@ -6430,6 +6430,9 @@
   </si>
   <si>
     <t>Attribute</t>
+  </si>
+  <si>
+    <t>*Region</t>
   </si>
 </sst>
 </file>
@@ -15257,7 +15260,7 @@
   <dimension ref="B1:AD17"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -15511,71 +15514,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="2:30" s="15" customFormat="1" ht="45">
-      <c r="B6" s="443" t="str">
+    <row r="6" spans="2:30" s="15" customFormat="1">
+      <c r="B6" s="15" t="str">
         <f t="shared" ref="B6" si="0">IF($Y6="",L6,N6)</f>
         <v>*Commercial Services Cooking</v>
       </c>
-      <c r="C6" s="15" t="str">
-        <f t="shared" ref="C6" si="1">IF($Y6="","",O6)</f>
-        <v/>
-      </c>
-      <c r="D6" s="539" t="str">
-        <f t="shared" ref="D6:D15" si="2">IF($Y6="","",Z6)</f>
-        <v/>
-      </c>
-      <c r="E6" s="15" t="str">
-        <f>IF($Y6="","",CONCATENATE(Legend!$C$4,AB6,"-",AA6))</f>
-        <v/>
-      </c>
-      <c r="F6" s="539" t="str">
-        <f>IF($Y6="","",SUMIFS('Key Inputs'!$L$29:$L$68,'Key Inputs'!$A$29:$A$68,TH_Techs!$AA5,'Key Inputs'!$B$29:$B$68,TH_Techs!$AB5,'Key Inputs'!$C$29:$C$68,TH_Techs!$AC5))</f>
-        <v/>
-      </c>
-      <c r="G6" s="540" t="str">
-        <f>IF($Y6="","",SUMIFS('Key Inputs'!$G$29:$G$68,'Key Inputs'!$A$29:$A$68,TH_Techs!$AA5,'Key Inputs'!$B$29:$B$68,TH_Techs!$AB5,'Key Inputs'!$C$29:$C$68,TH_Techs!$AC5))</f>
-        <v/>
-      </c>
-      <c r="H6" s="540" t="str">
-        <f>IF($Y6="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$V6,'Key Inputs'!$B$29:$B$114,$W6,'Key Inputs'!$C$29:$C$114,$X6)/8760)</f>
-        <v/>
-      </c>
-      <c r="I6" s="541" t="str">
-        <f>IF($Y6="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$V6,'Key Inputs'!$B$29:$B$114,$W6,'Key Inputs'!$C$29:$C$114,$X6))</f>
-        <v/>
-      </c>
-      <c r="J6" s="53" t="str">
-        <f>IF($Y6="","",SUMIFS('Key Inputs'!$J$29:$J$114,'Key Inputs'!$A$29:$A$114,$V6,'Key Inputs'!$B$29:$B$114,$W6,'Key Inputs'!$C$29:$C$114,$X6)/1000*31.536)</f>
-        <v/>
-      </c>
-      <c r="L6" s="443" t="str">
-        <f t="shared" ref="L6" si="3">IF($Y6="","*"&amp;V7&amp;" "&amp;W7,"PRE")</f>
+      <c r="D6" s="539"/>
+      <c r="F6" s="539"/>
+      <c r="G6" s="540"/>
+      <c r="H6" s="540"/>
+      <c r="I6" s="541"/>
+      <c r="J6" s="53"/>
+      <c r="L6" s="15" t="str">
+        <f t="shared" ref="L6" si="1">IF($Y6="","*"&amp;V7&amp;" "&amp;W7,"PRE")</f>
         <v>*Commercial Services Cooking</v>
       </c>
-      <c r="M6" s="36" t="str">
-        <f>IF($AB6="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
-        <v/>
-      </c>
-      <c r="N6" s="15" t="str">
-        <f>IF($Y6="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AB6,"-",$AA6,"_",$Y6,"_X0"))</f>
-        <v/>
-      </c>
-      <c r="O6" s="15" t="str">
-        <f t="shared" ref="O6:O15" si="4">IF($Y6="","",CONCATENATE(V6," - ",W6,": ",X6))</f>
-        <v/>
-      </c>
-      <c r="P6" s="9" t="str">
-        <f t="shared" ref="P6" si="5">IF($Y6="","","PJ")</f>
-        <v/>
-      </c>
-      <c r="Q6" s="15" t="str">
-        <f t="shared" ref="Q6:Q15" si="6">IF($Y6="","","kunits")</f>
-        <v/>
-      </c>
-      <c r="R6" s="15" t="str">
-        <f t="shared" ref="R6:R15" si="7">IF($Y6="","","ANNUAL")</f>
-        <v/>
-      </c>
+      <c r="M6" s="36"/>
+      <c r="P6" s="9"/>
       <c r="V6" s="9" t="str">
         <f>IF('Key Inputs'!A74="","",'Key Inputs'!A74)</f>
         <v/>
@@ -15597,25 +15552,25 @@
         <v/>
       </c>
       <c r="AC6" s="16" t="str">
-        <f t="shared" ref="AC6:AC15" si="8">IF($Y6="","",AD6/G6)</f>
+        <f t="shared" ref="AC6:AC15" si="2">IF($Y6="","",AD6/G6)</f>
         <v/>
       </c>
       <c r="AD6" s="16" t="str">
-        <f t="shared" ref="AD6:AD15" si="9">IF($Y6="","",F6*H6*J6)</f>
+        <f t="shared" ref="AD6:AD15" si="3">IF($Y6="","",F6*H6*J6)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="2:30">
       <c r="B7" s="27" t="str">
-        <f t="shared" ref="B7" si="10">IF($Y7="",L7,N7)</f>
+        <f t="shared" ref="B7" si="4">IF($Y7="",L7,N7)</f>
         <v>S-CK-CS_LPG_X0</v>
       </c>
       <c r="C7" s="9" t="str">
-        <f t="shared" ref="C7" si="11">IF($Y7="","",O7)</f>
+        <f t="shared" ref="C7" si="5">IF($Y7="","",O7)</f>
         <v>Commercial Services - Cooking: LPG</v>
       </c>
       <c r="D7" s="43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D7:D15" si="6">IF($Y7="","",Z7)</f>
         <v>SRVLPG</v>
       </c>
       <c r="E7" s="9" t="str">
@@ -15643,7 +15598,7 @@
         <v>0.47304000000000002</v>
       </c>
       <c r="L7" s="27" t="str">
-        <f t="shared" ref="L7" si="12">IF($Y7="","*"&amp;V8&amp;" "&amp;W8,"PRE")</f>
+        <f t="shared" ref="L7" si="7">IF($Y7="","*"&amp;V8&amp;" "&amp;W8,"PRE")</f>
         <v>PRE</v>
       </c>
       <c r="M7" s="36" t="str">
@@ -15655,7 +15610,7 @@
         <v>S-CK-CS_LPG_X0</v>
       </c>
       <c r="O7" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="O7:O15" si="8">IF($Y7="","",CONCATENATE(V7," - ",W7,": ",X7))</f>
         <v>Commercial Services - Cooking: LPG</v>
       </c>
       <c r="P7" s="9" t="str">
@@ -15663,11 +15618,11 @@
         <v>PJ</v>
       </c>
       <c r="Q7" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="Q7:Q15" si="9">IF($Y7="","","kunits")</f>
         <v>kunits</v>
       </c>
       <c r="R7" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="R7:R15" si="10">IF($Y7="","","ANNUAL")</f>
         <v>ANNUAL</v>
       </c>
       <c r="V7" s="9" t="str">
@@ -15699,25 +15654,25 @@
         <v>CK</v>
       </c>
       <c r="AC7" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>2.2457893736879595</v>
       </c>
       <c r="AD7" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1.09082079226495</v>
       </c>
     </row>
     <row r="8" spans="2:30">
       <c r="B8" s="27" t="str">
-        <f t="shared" ref="B8:B15" si="13">IF($Y8="",L8,N8)</f>
+        <f t="shared" ref="B8:B15" si="11">IF($Y8="",L8,N8)</f>
         <v>S-CK-CS_GAS_X0</v>
       </c>
       <c r="C8" s="9" t="str">
-        <f t="shared" ref="C8:C15" si="14">IF($Y8="","",O8)</f>
+        <f t="shared" ref="C8:C15" si="12">IF($Y8="","",O8)</f>
         <v>Commercial Services - Cooking: Natural Gas</v>
       </c>
       <c r="D8" s="43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>SRVGAS</v>
       </c>
       <c r="E8" s="9" t="str">
@@ -15745,7 +15700,7 @@
         <v>0.47304000000000002</v>
       </c>
       <c r="L8" s="27" t="str">
-        <f t="shared" ref="L8:L15" si="15">IF($Y8="","*"&amp;V9&amp;" "&amp;W9,"PRE")</f>
+        <f t="shared" ref="L8:L15" si="13">IF($Y8="","*"&amp;V9&amp;" "&amp;W9,"PRE")</f>
         <v>PRE</v>
       </c>
       <c r="M8" s="27" t="str">
@@ -15757,19 +15712,19 @@
         <v>S-CK-CS_GAS_X0</v>
       </c>
       <c r="O8" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Commercial Services - Cooking: Natural Gas</v>
       </c>
       <c r="P8" s="9" t="str">
-        <f t="shared" ref="P8:P15" si="16">IF($Y8="","","PJ")</f>
+        <f t="shared" ref="P8:P15" si="14">IF($Y8="","","PJ")</f>
         <v>PJ</v>
       </c>
       <c r="Q8" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>kunits</v>
       </c>
       <c r="R8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>ANNUAL</v>
       </c>
       <c r="V8" s="9" t="str">
@@ -15801,25 +15756,25 @@
         <v>CK</v>
       </c>
       <c r="AC8" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>2.138808309561596</v>
       </c>
       <c r="AD8" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1.1335433360350056</v>
       </c>
     </row>
     <row r="9" spans="2:30">
       <c r="B9" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>S-CK-CS_BIO_X0</v>
       </c>
       <c r="C9" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Commercial Services - Cooking: Biomass</v>
       </c>
       <c r="D9" s="43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>SRVBIO</v>
       </c>
       <c r="E9" s="9" t="str">
@@ -15847,7 +15802,7 @@
         <v>0.47304000000000002</v>
       </c>
       <c r="L9" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>PRE</v>
       </c>
       <c r="M9" s="27" t="str">
@@ -15859,19 +15814,19 @@
         <v>S-CK-CS_BIO_X0</v>
       </c>
       <c r="O9" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Commercial Services - Cooking: Biomass</v>
       </c>
       <c r="P9" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>PJ</v>
       </c>
       <c r="Q9" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>kunits</v>
       </c>
       <c r="R9" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>ANNUAL</v>
       </c>
       <c r="V9" s="9" t="str">
@@ -15903,25 +15858,25 @@
         <v>CK</v>
       </c>
       <c r="AC9" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD9" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:30">
       <c r="B10" s="34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>S-CK-CS_ELC_X0</v>
       </c>
       <c r="C10" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Commercial Services - Cooking: Electricity</v>
       </c>
       <c r="D10" s="77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>SRVELC</v>
       </c>
       <c r="E10" s="14" t="str">
@@ -15949,7 +15904,7 @@
         <v>0.47304000000000002</v>
       </c>
       <c r="L10" s="34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>PRE</v>
       </c>
       <c r="M10" s="34" t="str">
@@ -15961,19 +15916,19 @@
         <v>S-CK-CS_ELC_X0</v>
       </c>
       <c r="O10" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Commercial Services - Cooking: Electricity</v>
       </c>
       <c r="P10" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>PJ</v>
       </c>
       <c r="Q10" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>kunits</v>
       </c>
       <c r="R10" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>ANNUAL</v>
       </c>
       <c r="S10" s="14"/>
@@ -16007,79 +15962,31 @@
         <v>CK</v>
       </c>
       <c r="AC10" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>2.2620869952186466</v>
       </c>
       <c r="AD10" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1.5327491891348086</v>
       </c>
     </row>
-    <row r="11" spans="2:30" s="15" customFormat="1" ht="45">
-      <c r="B11" s="443" t="str">
+    <row r="11" spans="2:30" s="15" customFormat="1">
+      <c r="B11" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v>*Public Services Cooking</v>
+      </c>
+      <c r="D11" s="539"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="540"/>
+      <c r="I11" s="541"/>
+      <c r="J11" s="75"/>
+      <c r="L11" s="15" t="str">
         <f t="shared" si="13"/>
         <v>*Public Services Cooking</v>
       </c>
-      <c r="C11" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="D11" s="539" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E11" s="15" t="str">
-        <f>IF($Y11="","",CONCATENATE(Legend!$C$4,AB11,"-",AA11))</f>
-        <v/>
-      </c>
-      <c r="F11" s="43" t="str">
-        <f>IF($Y11="","",SUMIFS('Key Inputs'!$L$29:$L$114,'Key Inputs'!$A$29:$A$114,$V11,'Key Inputs'!$B$29:$B$114,$W11,'Key Inputs'!$C$29:$C$114,$X11))</f>
-        <v/>
-      </c>
-      <c r="G11" s="43" t="str">
-        <f>IF($Y11="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$V11,'Key Inputs'!$B$29:$B$114,$W11,'Key Inputs'!$C$29:$C$114,$X11))</f>
-        <v/>
-      </c>
-      <c r="H11" s="540" t="str">
-        <f>IF($Y11="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$V11,'Key Inputs'!$B$29:$B$114,$W11,'Key Inputs'!$C$29:$C$114,$X11)/8760)</f>
-        <v/>
-      </c>
-      <c r="I11" s="541" t="str">
-        <f>IF($Y11="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$V11,'Key Inputs'!$B$29:$B$114,$W11,'Key Inputs'!$C$29:$C$114,$X11))</f>
-        <v/>
-      </c>
-      <c r="J11" s="75" t="str">
-        <f>IF($Y11="","",SUMIFS('Key Inputs'!$J$29:$J$114,'Key Inputs'!$A$29:$A$114,$V11,'Key Inputs'!$B$29:$B$114,$W11,'Key Inputs'!$C$29:$C$114,$X11)/1000*31.536)</f>
-        <v/>
-      </c>
-      <c r="L11" s="443" t="str">
-        <f t="shared" si="15"/>
-        <v>*Public Services Cooking</v>
-      </c>
-      <c r="M11" s="443" t="str">
-        <f>IF($AB11="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
-        <v>IE,National</v>
-      </c>
-      <c r="N11" s="15" t="str">
-        <f>IF($Y11="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AB11,"-",$AA11,"_",$Y11,"_X0"))</f>
-        <v/>
-      </c>
-      <c r="O11" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P11" s="9" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q11" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="R11" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="M11" s="443"/>
+      <c r="P11" s="9"/>
       <c r="V11" s="15" t="str">
         <f>IF('Key Inputs'!A79="","",'Key Inputs'!A79)</f>
         <v>Commercial Services</v>
@@ -16109,25 +16016,25 @@
         <v>CK</v>
       </c>
       <c r="AC11" s="16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="AD11" s="16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="12" spans="2:30">
       <c r="B12" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>S-CK-PU_LPG_X0</v>
       </c>
       <c r="C12" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Public Services - Cooking: LPG</v>
       </c>
       <c r="D12" s="43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>SRVLPG</v>
       </c>
       <c r="E12" s="9" t="str">
@@ -16155,7 +16062,7 @@
         <v>0.47304000000000002</v>
       </c>
       <c r="L12" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>PRE</v>
       </c>
       <c r="M12" s="27" t="str">
@@ -16167,19 +16074,19 @@
         <v>S-CK-PU_LPG_X0</v>
       </c>
       <c r="O12" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Public Services - Cooking: LPG</v>
       </c>
       <c r="P12" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>PJ</v>
       </c>
       <c r="Q12" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>kunits</v>
       </c>
       <c r="R12" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>ANNUAL</v>
       </c>
       <c r="V12" s="9" t="str">
@@ -16211,25 +16118,25 @@
         <v>CK</v>
       </c>
       <c r="AC12" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0.67328562632134759</v>
       </c>
       <c r="AD12" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.32702708852807189</v>
       </c>
     </row>
     <row r="13" spans="2:30">
       <c r="B13" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>S-CK-PU_GAS_X0</v>
       </c>
       <c r="C13" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Public Services - Cooking: Natural Gas</v>
       </c>
       <c r="D13" s="43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>SRVGAS</v>
       </c>
       <c r="E13" s="9" t="str">
@@ -16257,7 +16164,7 @@
         <v>0.47304000000000002</v>
       </c>
       <c r="L13" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>PRE</v>
       </c>
       <c r="M13" s="27" t="str">
@@ -16269,19 +16176,19 @@
         <v>S-CK-PU_GAS_X0</v>
       </c>
       <c r="O13" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Public Services - Cooking: Natural Gas</v>
       </c>
       <c r="P13" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>PJ</v>
       </c>
       <c r="Q13" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>kunits</v>
       </c>
       <c r="R13" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>ANNUAL</v>
       </c>
       <c r="V13" s="9" t="str">
@@ -16313,25 +16220,25 @@
         <v>CK</v>
       </c>
       <c r="AC13" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>1.9979820503266774</v>
       </c>
       <c r="AD13" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>1.0589070692032196</v>
       </c>
     </row>
     <row r="14" spans="2:30">
       <c r="B14" s="27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>S-CK-PU_BIO_X0</v>
       </c>
       <c r="C14" s="9" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Public Services - Cooking: Biomass</v>
       </c>
       <c r="D14" s="43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>SRVBIO</v>
       </c>
       <c r="E14" s="9" t="str">
@@ -16359,7 +16266,7 @@
         <v>0.47304000000000002</v>
       </c>
       <c r="L14" s="27" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>PRE</v>
       </c>
       <c r="M14" s="27" t="str">
@@ -16371,19 +16278,19 @@
         <v>S-CK-PU_BIO_X0</v>
       </c>
       <c r="O14" s="9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Public Services - Cooking: Biomass</v>
       </c>
       <c r="P14" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>PJ</v>
       </c>
       <c r="Q14" s="9" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>kunits</v>
       </c>
       <c r="R14" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>ANNUAL</v>
       </c>
       <c r="V14" s="9" t="str">
@@ -16415,25 +16322,25 @@
         <v>CK</v>
       </c>
       <c r="AC14" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD14" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:30">
       <c r="B15" s="34" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>S-CK-PU_ELC_X0</v>
       </c>
       <c r="C15" s="14" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>Public Services - Cooking: Electricity</v>
       </c>
       <c r="D15" s="77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>SRVELC</v>
       </c>
       <c r="E15" s="14" t="str">
@@ -16461,7 +16368,7 @@
         <v>0.47304000000000002</v>
       </c>
       <c r="L15" s="34" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>PRE</v>
       </c>
       <c r="M15" s="34" t="str">
@@ -16473,19 +16380,19 @@
         <v>S-CK-PU_ELC_X0</v>
       </c>
       <c r="O15" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>Public Services - Cooking: Electricity</v>
       </c>
       <c r="P15" s="14" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>PJ</v>
       </c>
       <c r="Q15" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>kunits</v>
       </c>
       <c r="R15" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>ANNUAL</v>
       </c>
       <c r="S15" s="14"/>
@@ -16519,11 +16426,11 @@
         <v>CK</v>
       </c>
       <c r="AC15" s="16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>1.2350012769876046</v>
       </c>
       <c r="AD15" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v>0.83681450354664078</v>
       </c>
     </row>
@@ -18344,8 +18251,8 @@
   </sheetPr>
   <dimension ref="B1:AD16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -37650,7 +37557,7 @@
   <dimension ref="B1:O98"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -38950,7 +38857,7 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -38961,7 +38868,8 @@
     <col min="4" max="4" width="12.42578125" style="9" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="9"/>
     <col min="6" max="6" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" style="9"/>
+    <col min="7" max="8" width="9.140625" style="9"/>
+    <col min="9" max="9" width="11.7109375" style="9" customWidth="1"/>
     <col min="10" max="10" width="12.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.140625" style="9" customWidth="1"/>
     <col min="12" max="12" width="45.7109375" style="9" bestFit="1" customWidth="1"/>
@@ -39730,7 +39638,7 @@
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15"/>
@@ -39938,7 +39846,7 @@
         <v>28.901664567933956</v>
       </c>
       <c r="G6" s="561">
-        <f>SUM(TH_Techs!$AI$7:$AI$14)/'Building stock'!$F$6</f>
+        <f>SUM(TH_Techs!$AJ$7:$AJ$14)/'Building stock'!$F$6</f>
         <v>0.29750119328038643</v>
       </c>
       <c r="H6" s="19">
@@ -39983,7 +39891,7 @@
         <v>SRVWH-CS</v>
       </c>
       <c r="G7" s="561">
-        <f>SUM(TH_Techs!$AI$16:$AI$22)/'Building stock'!$F$6</f>
+        <f>SUM(TH_Techs!$AJ$16:$AJ$22)/'Building stock'!$F$6</f>
         <v>7.8240205489280165E-2</v>
       </c>
       <c r="L7" s="14" t="s">
@@ -40019,7 +39927,7 @@
         <v>SRVSC-CS</v>
       </c>
       <c r="G8" s="561">
-        <f>SUM(TH_Techs!$AI$24:$AI$25)/'Building stock'!$F$6</f>
+        <f>SUM(TH_Techs!$AJ$24:$AJ$25)/'Building stock'!$F$6</f>
         <v>9.9230285582155173E-2</v>
       </c>
       <c r="H8" s="555"/>
@@ -40107,7 +40015,7 @@
         <v>58.151541961987604</v>
       </c>
       <c r="G13" s="561">
-        <f>SUM(TH_Techs!$AI$27:$AI$34)/'Building stock'!$F$13</f>
+        <f>SUM(TH_Techs!$AJ$27:$AJ$34)/'Building stock'!$F$13</f>
         <v>0.14436837706846065</v>
       </c>
       <c r="H13" s="19">
@@ -40130,7 +40038,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="561">
-        <f>SUM(TH_Techs!$AI$36:$AI$42)/'Building stock'!$F$13</f>
+        <f>SUM(TH_Techs!$AJ$36:$AJ$42)/'Building stock'!$F$13</f>
         <v>3.5851150535518087E-2</v>
       </c>
       <c r="H14" s="9"/>
@@ -40147,7 +40055,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="561">
-        <f>SUM(TH_Techs!$AI$44:$AI$45)/'Building stock'!$F$13</f>
+        <f>SUM(TH_Techs!$AJ$44:$AJ$45)/'Building stock'!$F$13</f>
         <v>2.7014519280249845E-2</v>
       </c>
       <c r="H15" s="9"/>
@@ -40330,275 +40238,282 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AJ57"/>
+  <dimension ref="A1:AK57"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="60.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="9" customWidth="1"/>
-    <col min="8" max="16" width="10.85546875" customWidth="1"/>
-    <col min="17" max="18" width="17.85546875" style="9" customWidth="1"/>
-    <col min="19" max="19" width="19.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="65" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="10.85546875" style="9" customWidth="1"/>
-    <col min="24" max="25" width="10.85546875" style="5" customWidth="1"/>
-    <col min="26" max="26" width="10.85546875" customWidth="1"/>
-    <col min="27" max="27" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="30" max="33" width="10" style="5" customWidth="1"/>
-    <col min="34" max="16384" width="8.85546875" style="5"/>
+    <col min="2" max="2" width="17.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="60.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="15" style="9" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="9" customWidth="1"/>
+    <col min="9" max="17" width="10.85546875" customWidth="1"/>
+    <col min="18" max="19" width="17.85546875" style="9" customWidth="1"/>
+    <col min="20" max="20" width="19.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="65" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="10.85546875" style="9" customWidth="1"/>
+    <col min="25" max="26" width="10.85546875" style="5" customWidth="1"/>
+    <col min="27" max="27" width="10.85546875" customWidth="1"/>
+    <col min="28" max="28" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="10" style="5" customWidth="1"/>
+    <col min="35" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="23.25">
+    <row r="1" spans="1:37" ht="23.25">
       <c r="B1" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="C1" s="20"/>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:37">
       <c r="B2" s="40" t="s">
         <v>86</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="R2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="35"/>
-      <c r="S2" s="36"/>
+      <c r="S2" s="35"/>
       <c r="T2" s="36"/>
       <c r="U2" s="36"/>
       <c r="V2" s="36"/>
       <c r="W2" s="36"/>
       <c r="X2" s="36"/>
       <c r="Y2" s="36"/>
-    </row>
-    <row r="3" spans="1:36" ht="45.75" thickBot="1">
+      <c r="Z2" s="36"/>
+    </row>
+    <row r="3" spans="1:37" ht="45.75" thickBot="1">
       <c r="B3" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="D3" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>551</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="H3" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="I3" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="K3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="L3" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="L3" s="41" t="str">
+      <c r="M3" s="41" t="str">
         <f>"Input~"&amp;Legend!$C$44</f>
         <v>Input~SRVAHT</v>
       </c>
-      <c r="M3" s="41" t="str">
+      <c r="N3" s="41" t="str">
         <f>"Share-I~UP~"&amp;Legend!$C$41</f>
         <v>Share-I~UP~SRVBGS</v>
       </c>
-      <c r="N3" s="41" t="str">
+      <c r="O3" s="41" t="str">
         <f>"Share-I~LO~"&amp;Legend!$C$41</f>
         <v>Share-I~LO~SRVBGS</v>
       </c>
-      <c r="O3" s="41" t="str">
+      <c r="P3" s="41" t="str">
         <f>"Share-I~LO~0~"&amp;Legend!$C$41</f>
         <v>Share-I~LO~0~SRVBGS</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="R3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="S3" s="21" t="s">
         <v>531</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="T3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="U3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="V3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="W3" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="X3" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="X3" s="21" t="s">
+      <c r="Y3" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="21" t="s">
+      <c r="Z3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="AA3" s="604" t="s">
+      <c r="AB3" s="604" t="s">
         <v>389</v>
       </c>
-      <c r="AB3" s="604" t="s">
+      <c r="AC3" s="604" t="s">
         <v>160</v>
       </c>
-      <c r="AC3" s="604" t="s">
+      <c r="AD3" s="604" t="s">
         <v>81</v>
       </c>
-      <c r="AD3" s="604" t="s">
+      <c r="AE3" s="604" t="s">
         <v>509</v>
       </c>
-      <c r="AE3" s="604" t="s">
+      <c r="AF3" s="604" t="s">
         <v>510</v>
       </c>
-      <c r="AF3" s="604" t="s">
+      <c r="AG3" s="604" t="s">
         <v>511</v>
       </c>
-      <c r="AG3" s="604" t="s">
+      <c r="AH3" s="604" t="s">
         <v>512</v>
       </c>
-      <c r="AH3" s="54" t="s">
+      <c r="AI3" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="AI3" s="55"/>
-    </row>
-    <row r="4" spans="1:36" ht="60.75" thickBot="1">
+      <c r="AJ3" s="55"/>
+    </row>
+    <row r="4" spans="1:37" ht="60.75" thickBot="1">
       <c r="B4" s="39" t="s">
-        <v>125</v>
+        <v>619</v>
       </c>
       <c r="C4" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="E4" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="F4" s="39" t="s">
         <v>552</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="G4" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="H4" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="I4" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="K4" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="L4" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="39"/>
+      <c r="N4" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="O4" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="P4" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="Q4" s="37" t="s">
+      <c r="R4" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="R4" s="37" t="s">
+      <c r="S4" s="37" t="s">
         <v>545</v>
       </c>
-      <c r="S4" s="37" t="s">
+      <c r="T4" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="T4" s="37" t="s">
+      <c r="U4" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="U4" s="37" t="s">
+      <c r="V4" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="V4" s="37" t="s">
+      <c r="W4" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="W4" s="37" t="s">
+      <c r="X4" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="X4" s="39" t="s">
+      <c r="Y4" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="Y4" s="39" t="s">
+      <c r="Z4" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="AA4" s="605"/>
       <c r="AB4" s="605"/>
       <c r="AC4" s="605"/>
       <c r="AD4" s="605"/>
       <c r="AE4" s="605"/>
       <c r="AF4" s="605"/>
       <c r="AG4" s="605"/>
-      <c r="AH4" s="13" t="s">
+      <c r="AH4" s="605"/>
+      <c r="AI4" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="AI4" s="56" t="s">
+      <c r="AJ4" s="56" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:37">
       <c r="B5" s="42" t="s">
         <v>131</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="42"/>
-      <c r="E5" s="545"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42" t="s">
+      <c r="E5" s="42"/>
+      <c r="F5" s="545"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42" t="s">
         <v>67</v>
-      </c>
-      <c r="H5" s="42" t="s">
-        <v>132</v>
       </c>
       <c r="I5" s="42" t="s">
         <v>132</v>
       </c>
       <c r="J5" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="K5" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="L5" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="545" t="s">
+      <c r="M5" s="545" t="s">
         <v>554</v>
-      </c>
-      <c r="M5" s="42" t="s">
-        <v>132</v>
       </c>
       <c r="N5" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="O5" s="42"/>
-      <c r="Q5" s="42" t="s">
+      <c r="O5" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="P5" s="42"/>
+      <c r="R5" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="R5" s="42"/>
       <c r="S5" s="42"/>
       <c r="T5" s="42"/>
       <c r="U5" s="42"/>
@@ -40606,4276 +40521,4199 @@
       <c r="W5" s="42"/>
       <c r="X5" s="42"/>
       <c r="Y5" s="42"/>
-      <c r="AA5" s="543"/>
+      <c r="Z5" s="42"/>
       <c r="AB5" s="543"/>
       <c r="AC5" s="543"/>
       <c r="AD5" s="543"/>
       <c r="AE5" s="543"/>
       <c r="AF5" s="543"/>
       <c r="AG5" s="543"/>
-      <c r="AH5" s="57" t="s">
-        <v>46</v>
-      </c>
+      <c r="AH5" s="543"/>
       <c r="AI5" s="57" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" s="6" customFormat="1" ht="45">
+      <c r="AJ5" s="57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" s="6" customFormat="1">
       <c r="A6" s="15"/>
-      <c r="B6" s="443" t="str">
-        <f t="shared" ref="B6:B45" si="0">IF($AD6="",Q6,S6)</f>
+      <c r="B6" s="15" t="str">
+        <f>IF($AE6="",R6,T6)</f>
         <v>*Commercial Services Space heating</v>
       </c>
-      <c r="C6" s="15" t="str">
-        <f t="shared" ref="C6:C45" si="1">IF($AD6="","",T6)</f>
+      <c r="D6" s="15" t="str">
+        <f t="shared" ref="D6:D45" si="0">IF($AE6="","",U6)</f>
         <v/>
       </c>
-      <c r="D6" s="539" t="str">
-        <f t="shared" ref="D6" si="2">IF($AD6="","",AE6)</f>
+      <c r="E6" s="539" t="str">
+        <f t="shared" ref="E6" si="1">IF($AE6="","",AF6)</f>
         <v/>
       </c>
-      <c r="E6" s="539"/>
-      <c r="F6" s="15" t="str">
-        <f>IF($AD6="","",CONCATENATE(Legend!$C$4,AG6,"-",AF6))</f>
+      <c r="F6" s="539"/>
+      <c r="G6" s="15" t="str">
+        <f>IF($AE6="","",CONCATENATE(Legend!$C$4,AH6,"-",AG6))</f>
         <v/>
       </c>
-      <c r="G6" s="539" t="str">
-        <f>IF($AD6="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA6,'Key Inputs'!$B$29:$B$114,$AB6,'Key Inputs'!$C$29:$C$114,$AC6))</f>
+      <c r="H6" s="539" t="str">
+        <f>IF($AE6="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB6,'Key Inputs'!$B$29:$B$114,$AC6,'Key Inputs'!$C$29:$C$114,$AD6))</f>
         <v/>
       </c>
-      <c r="H6" s="539" t="str">
-        <f>IF($AD6="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA6,'Key Inputs'!$B$29:$B$114,$AB6,'Key Inputs'!$C$29:$C$114,$AC6))</f>
+      <c r="I6" s="539" t="str">
+        <f>IF($AE6="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB6,'Key Inputs'!$B$29:$B$114,$AC6,'Key Inputs'!$C$29:$C$114,$AD6))</f>
         <v/>
       </c>
-      <c r="I6" s="540" t="str">
-        <f>IF($AD6="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA6,'Key Inputs'!$B$29:$B$114,$AB6,'Key Inputs'!$C$29:$C$114,$AC6)/8760)</f>
+      <c r="J6" s="540" t="str">
+        <f>IF($AE6="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB6,'Key Inputs'!$B$29:$B$114,$AC6,'Key Inputs'!$C$29:$C$114,$AD6)/8760)</f>
         <v/>
       </c>
-      <c r="J6" s="541" t="str">
-        <f>IF($AD6="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA6,'Key Inputs'!$B$29:$B$114,$AB6,'Key Inputs'!$C$29:$C$114,$AC6))</f>
+      <c r="K6" s="541" t="str">
+        <f>IF($AE6="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB6,'Key Inputs'!$B$29:$B$114,$AC6,'Key Inputs'!$C$29:$C$114,$AD6))</f>
         <v/>
       </c>
-      <c r="K6" s="75" t="str">
-        <f t="shared" ref="K6:K45" si="3">IF($AD6="","",31.536)</f>
+      <c r="L6" s="75" t="str">
+        <f t="shared" ref="L6:L45" si="2">IF($AE6="","",31.536)</f>
         <v/>
       </c>
-      <c r="L6" s="75"/>
       <c r="M6" s="75"/>
       <c r="N6" s="75"/>
       <c r="O6" s="75"/>
-      <c r="P6" s="542"/>
-      <c r="Q6" s="443" t="str">
-        <f>IF($AD6="","*"&amp;AA7&amp;" "&amp;AB7,"PRE")</f>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="542"/>
+      <c r="R6" s="15" t="str">
+        <f>IF($AE6="","*"&amp;AB7&amp;" "&amp;AC7,"PRE")</f>
         <v>*Commercial Services Space heating</v>
       </c>
-      <c r="R6" s="36" t="str">
-        <f>IF($AD6="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
-        <v/>
-      </c>
-      <c r="S6" s="15" t="str">
-        <f>IF($AD6="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG6,"-",$AF6,"_",$AD6,"_X0"))</f>
-        <v/>
-      </c>
-      <c r="T6" s="15" t="str">
-        <f t="shared" ref="T6:T45" si="4">IF($AD6="","",CONCATENATE(AA6," - ",AB6,": ",AC6))</f>
-        <v/>
-      </c>
-      <c r="Z6" s="542"/>
-      <c r="AH6" s="16"/>
-      <c r="AI6" s="439"/>
-    </row>
-    <row r="7" spans="1:36" customFormat="1">
+      <c r="S6" s="36"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="AA6" s="542"/>
+      <c r="AI6" s="16"/>
+      <c r="AJ6" s="439"/>
+    </row>
+    <row r="7" spans="1:37" customFormat="1">
       <c r="B7" s="27" t="str">
+        <f t="shared" ref="B6:C45" si="3">IF($AE7="",Q7,S7)</f>
+        <v>IE,National</v>
+      </c>
+      <c r="C7" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SH-CS_COA_X0</v>
+      </c>
+      <c r="D7" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SH-CS_COA_X0</v>
-      </c>
-      <c r="C7" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Space heating: Solids</v>
       </c>
-      <c r="D7" s="43" t="str">
-        <f>IF($AD7="","",AE7)</f>
+      <c r="E7" s="43" t="str">
+        <f>IF($AE7="","",AF7)</f>
         <v>SRVCOA</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="9" t="str">
-        <f>IF($AD7="","",CONCATENATE(Legend!$C$4,AG7,"-",AF7))</f>
+      <c r="F7" s="43"/>
+      <c r="G7" s="9" t="str">
+        <f>IF($AE7="","",CONCATENATE(Legend!$C$4,AH7,"-",AG7))</f>
         <v>SRVSH-CS</v>
       </c>
-      <c r="G7" s="43">
-        <f>IF($AD7="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA7,'Key Inputs'!$B$29:$B$114,$AB7,'Key Inputs'!$C$29:$C$114,$AC7))</f>
+      <c r="H7" s="43">
+        <f>IF($AE7="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB7,'Key Inputs'!$B$29:$B$114,$AC7,'Key Inputs'!$C$29:$C$114,$AD7))</f>
         <v>2.0721543509774438E-3</v>
       </c>
-      <c r="H7" s="530">
-        <f>IF($AD7="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA7,'Key Inputs'!$B$29:$B$114,$AB7,'Key Inputs'!$C$29:$C$114,$AC7))</f>
+      <c r="I7" s="530">
+        <f>IF($AE7="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB7,'Key Inputs'!$B$29:$B$114,$AC7,'Key Inputs'!$C$29:$C$114,$AD7))</f>
         <v>0.33</v>
       </c>
-      <c r="I7" s="530">
-        <f>IF($AD7="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA7,'Key Inputs'!$B$29:$B$114,$AB7,'Key Inputs'!$C$29:$C$114,$AC7)/8760)</f>
+      <c r="J7" s="530">
+        <f>IF($AE7="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB7,'Key Inputs'!$B$29:$B$114,$AC7,'Key Inputs'!$C$29:$C$114,$AD7)/8760)</f>
         <v>0.11415525114155251</v>
       </c>
-      <c r="J7" s="532">
-        <f>IF($AD7="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA7,'Key Inputs'!$B$29:$B$114,$AB7,'Key Inputs'!$C$29:$C$114,$AC7))</f>
+      <c r="K7" s="532">
+        <f>IF($AE7="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB7,'Key Inputs'!$B$29:$B$114,$AC7,'Key Inputs'!$C$29:$C$114,$AD7))</f>
         <v>20</v>
       </c>
-      <c r="K7" s="51">
-        <f t="shared" si="3"/>
+      <c r="L7" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L7" s="51"/>
       <c r="M7" s="51"/>
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
-      <c r="Q7" s="27" t="str">
-        <f>IF($AD7="","*"&amp;AA8&amp;" "&amp;AB8,"PRE")</f>
+      <c r="P7" s="51"/>
+      <c r="R7" s="27" t="str">
+        <f>IF($AE7="","*"&amp;AB8&amp;" "&amp;AC8,"PRE")</f>
         <v>PRE</v>
       </c>
-      <c r="R7" s="36" t="str">
-        <f>IF($AD7="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S7" s="36" t="str">
+        <f>IF($AE7="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S7" s="9" t="str">
-        <f>IF($AD7="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG7,"-",$AF7,"_",$AD7,"_X0"))</f>
+      <c r="T7" s="9" t="str">
+        <f>IF($AE7="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH7,"-",$AG7,"_",$AE7,"_X0"))</f>
         <v>S-SH-CS_COA_X0</v>
       </c>
-      <c r="T7" s="9" t="str">
-        <f t="shared" si="4"/>
+      <c r="U7" s="9" t="str">
+        <f t="shared" ref="U7:U45" si="4">IF($AE7="","",CONCATENATE(AB7," - ",AC7,": ",AD7))</f>
         <v>Commercial Services - Space heating: Solids</v>
       </c>
-      <c r="U7" s="9" t="str">
-        <f t="shared" ref="U7:U45" si="5">IF($AD7="","","PJ")</f>
+      <c r="V7" s="9" t="str">
+        <f t="shared" ref="V7:V45" si="5">IF($AE7="","","PJ")</f>
         <v>PJ</v>
       </c>
-      <c r="V7" s="9" t="str">
-        <f t="shared" ref="V7:V45" si="6">IF($AD7="","","GW")</f>
+      <c r="W7" s="9" t="str">
+        <f t="shared" ref="W7:W45" si="6">IF($AE7="","","GW")</f>
         <v>GW</v>
       </c>
-      <c r="W7" s="9" t="str">
-        <f t="shared" ref="W7:W45" si="7">IF($AD7="","","ANNUAL")</f>
+      <c r="X7" s="9" t="str">
+        <f t="shared" ref="X7:X45" si="7">IF($AE7="","","ANNUAL")</f>
         <v>ANNUAL</v>
       </c>
-      <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
-      <c r="AA7" s="5" t="str">
+      <c r="Z7" s="9"/>
+      <c r="AB7" s="5" t="str">
         <f>IF('Key Inputs'!A29="","",'Key Inputs'!A29)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB7" s="5" t="str">
+      <c r="AC7" s="5" t="str">
         <f>IF('Key Inputs'!B29="","",'Key Inputs'!B29)</f>
         <v>Space heating</v>
       </c>
-      <c r="AC7" s="5" t="str">
+      <c r="AD7" s="5" t="str">
         <f>IF('Key Inputs'!C29="","",'Key Inputs'!C29)</f>
         <v>Solids</v>
       </c>
-      <c r="AD7" s="5" t="str">
+      <c r="AE7" s="5" t="str">
         <f>IF('Key Inputs'!D29="","",'Key Inputs'!D29)</f>
         <v>COA</v>
       </c>
-      <c r="AE7" s="5" t="str">
+      <c r="AF7" s="5" t="str">
         <f>IF('Key Inputs'!E29="","",'Key Inputs'!E29)</f>
         <v>SRVCOA</v>
       </c>
-      <c r="AF7" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA7,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG7" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB7,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG7" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB7,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH7" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC7,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SH</v>
       </c>
-      <c r="AH7" s="16">
-        <f>IF($AD7="","",AI7/H7)</f>
+      <c r="AI7" s="16">
+        <f>IF($AE7="","",AJ7/I7)</f>
         <v>2.2605320192481203E-2</v>
       </c>
-      <c r="AI7" s="16">
-        <f>IF($AD7="","",G7*I7*K7)</f>
+      <c r="AJ7" s="16">
+        <f>IF($AE7="","",H7*J7*L7)</f>
         <v>7.4597556635187974E-3</v>
       </c>
-      <c r="AJ7" s="5"/>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="AK7" s="5"/>
+    </row>
+    <row r="8" spans="1:37">
       <c r="B8" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C8" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SH-CS_LPG_X0</v>
+      </c>
+      <c r="D8" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SH-CS_LPG_X0</v>
-      </c>
-      <c r="C8" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Space heating: LPG</v>
       </c>
-      <c r="D8" s="43" t="str">
-        <f t="shared" ref="D8:D45" si="8">IF($AD8="","",AE8)</f>
+      <c r="E8" s="43" t="str">
+        <f t="shared" ref="E8:E45" si="8">IF($AE8="","",AF8)</f>
         <v>SRVLPG</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="9" t="str">
-        <f>IF($AD8="","",CONCATENATE(Legend!$C$4,AG8,"-",AF8))</f>
+      <c r="F8" s="43"/>
+      <c r="G8" s="9" t="str">
+        <f>IF($AE8="","",CONCATENATE(Legend!$C$4,AH8,"-",AG8))</f>
         <v>SRVSH-CS</v>
       </c>
-      <c r="G8" s="43">
-        <f>IF($AD8="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA8,'Key Inputs'!$B$29:$B$114,$AB8,'Key Inputs'!$C$29:$C$114,$AC8))</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="530">
-        <f>IF($AD8="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA8,'Key Inputs'!$B$29:$B$114,$AB8,'Key Inputs'!$C$29:$C$114,$AC8))</f>
+      <c r="H8" s="43">
+        <f>IF($AE8="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB8,'Key Inputs'!$B$29:$B$114,$AC8,'Key Inputs'!$C$29:$C$114,$AD8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="530">
+        <f>IF($AE8="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB8,'Key Inputs'!$B$29:$B$114,$AC8,'Key Inputs'!$C$29:$C$114,$AD8))</f>
         <v>0.33</v>
       </c>
-      <c r="I8" s="530">
-        <f>IF($AD8="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA8,'Key Inputs'!$B$29:$B$114,$AB8,'Key Inputs'!$C$29:$C$114,$AC8)/8760)</f>
+      <c r="J8" s="530">
+        <f>IF($AE8="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB8,'Key Inputs'!$B$29:$B$114,$AC8,'Key Inputs'!$C$29:$C$114,$AD8)/8760)</f>
         <v>0.11415525114155251</v>
       </c>
-      <c r="J8" s="532">
-        <f>IF($AD8="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA8,'Key Inputs'!$B$29:$B$114,$AB8,'Key Inputs'!$C$29:$C$114,$AC8))</f>
+      <c r="K8" s="532">
+        <f>IF($AE8="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB8,'Key Inputs'!$B$29:$B$114,$AC8,'Key Inputs'!$C$29:$C$114,$AD8))</f>
         <v>20</v>
       </c>
-      <c r="K8" s="51">
-        <f>IF($AD8="","",31.536)</f>
+      <c r="L8" s="51">
+        <f>IF($AE8="","",31.536)</f>
         <v>31.536000000000001</v>
       </c>
-      <c r="L8" s="51"/>
       <c r="M8" s="51"/>
       <c r="N8" s="51"/>
       <c r="O8" s="51"/>
-      <c r="Q8" s="27" t="str">
-        <f>IF($AD8="","*"&amp;AA9&amp;" "&amp;AB9,"PRE")</f>
+      <c r="P8" s="51"/>
+      <c r="R8" s="27" t="str">
+        <f>IF($AE8="","*"&amp;AB9&amp;" "&amp;AC9,"PRE")</f>
         <v>PRE</v>
       </c>
-      <c r="R8" s="36" t="str">
-        <f>IF($AD8="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S8" s="36" t="str">
+        <f>IF($AE8="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S8" s="9" t="str">
-        <f>IF($AD8="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG8,"-",$AF8,"_",$AD8,"_X0"))</f>
+      <c r="T8" s="9" t="str">
+        <f>IF($AE8="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH8,"-",$AG8,"_",$AE8,"_X0"))</f>
         <v>S-SH-CS_LPG_X0</v>
       </c>
-      <c r="T8" s="9" t="str">
+      <c r="U8" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Commercial Services - Space heating: LPG</v>
       </c>
-      <c r="U8" s="9" t="str">
+      <c r="V8" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V8" s="9" t="str">
+      <c r="W8" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W8" s="9" t="str">
+      <c r="X8" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X8" s="9"/>
       <c r="Y8" s="9"/>
-      <c r="AA8" s="5" t="str">
+      <c r="Z8" s="9"/>
+      <c r="AB8" s="5" t="str">
         <f>IF('Key Inputs'!A30="","",'Key Inputs'!A30)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB8" s="5" t="str">
+      <c r="AC8" s="5" t="str">
         <f>IF('Key Inputs'!B30="","",'Key Inputs'!B30)</f>
         <v>Space heating</v>
       </c>
-      <c r="AC8" s="5" t="str">
+      <c r="AD8" s="5" t="str">
         <f>IF('Key Inputs'!C30="","",'Key Inputs'!C30)</f>
         <v>LPG</v>
       </c>
-      <c r="AD8" s="5" t="str">
+      <c r="AE8" s="5" t="str">
         <f>IF('Key Inputs'!D30="","",'Key Inputs'!D30)</f>
         <v>LPG</v>
       </c>
-      <c r="AE8" s="5" t="str">
+      <c r="AF8" s="5" t="str">
         <f>IF('Key Inputs'!E30="","",'Key Inputs'!E30)</f>
         <v>SRVLPG</v>
       </c>
-      <c r="AF8" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA8,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG8" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB8,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG8" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB8,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH8" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC8,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SH</v>
       </c>
-      <c r="AH8" s="16">
-        <f t="shared" ref="AH8:AH45" si="9">IF($AD8="","",AI8/H8)</f>
-        <v>0</v>
-      </c>
       <c r="AI8" s="16">
-        <f t="shared" ref="AI8:AI45" si="10">IF($AD8="","",G8*I8*K8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36">
+        <f t="shared" ref="AI8:AI45" si="9">IF($AE8="","",AJ8/I8)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="16">
+        <f t="shared" ref="AJ8:AJ45" si="10">IF($AE8="","",H8*J8*L8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="B9" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C9" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SH-CS_OIL_X0</v>
+      </c>
+      <c r="D9" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SH-CS_OIL_X0</v>
-      </c>
-      <c r="C9" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Space heating: Oil</v>
       </c>
-      <c r="D9" s="43" t="str">
+      <c r="E9" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVOIL</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="9" t="str">
-        <f>IF($AD9="","",CONCATENATE(Legend!$C$4,AG9,"-",AF9))</f>
+      <c r="F9" s="43"/>
+      <c r="G9" s="9" t="str">
+        <f>IF($AE9="","",CONCATENATE(Legend!$C$4,AH9,"-",AG9))</f>
         <v>SRVSH-CS</v>
       </c>
-      <c r="G9" s="43">
-        <f>IF($AD9="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA9,'Key Inputs'!$B$29:$B$114,$AB9,'Key Inputs'!$C$29:$C$114,$AC9))</f>
+      <c r="H9" s="43">
+        <f>IF($AE9="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB9,'Key Inputs'!$B$29:$B$114,$AC9,'Key Inputs'!$C$29:$C$114,$AD9))</f>
         <v>0.41203348514543686</v>
       </c>
-      <c r="H9" s="530">
-        <f>IF($AD9="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA9,'Key Inputs'!$B$29:$B$114,$AB9,'Key Inputs'!$C$29:$C$114,$AC9))</f>
+      <c r="I9" s="530">
+        <f>IF($AE9="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB9,'Key Inputs'!$B$29:$B$114,$AC9,'Key Inputs'!$C$29:$C$114,$AD9))</f>
         <v>0.6583558448972523</v>
       </c>
-      <c r="I9" s="530">
-        <f>IF($AD9="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA9,'Key Inputs'!$B$29:$B$114,$AB9,'Key Inputs'!$C$29:$C$114,$AC9)/8760)</f>
+      <c r="J9" s="530">
+        <f>IF($AE9="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB9,'Key Inputs'!$B$29:$B$114,$AC9,'Key Inputs'!$C$29:$C$114,$AD9)/8760)</f>
         <v>0.11415525114155251</v>
       </c>
-      <c r="J9" s="532">
-        <f>IF($AD9="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA9,'Key Inputs'!$B$29:$B$114,$AB9,'Key Inputs'!$C$29:$C$114,$AC9))</f>
+      <c r="K9" s="532">
+        <f>IF($AE9="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB9,'Key Inputs'!$B$29:$B$114,$AC9,'Key Inputs'!$C$29:$C$114,$AD9))</f>
         <v>20</v>
       </c>
-      <c r="K9" s="51">
-        <f t="shared" si="3"/>
+      <c r="L9" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L9" s="51"/>
       <c r="M9" s="51"/>
       <c r="N9" s="51"/>
       <c r="O9" s="51"/>
-      <c r="Q9" s="27" t="str">
-        <f>IF($AD9="","*"&amp;#REF!&amp;" "&amp;#REF!,"PRE")</f>
+      <c r="P9" s="51"/>
+      <c r="R9" s="27" t="str">
+        <f>IF($AE9="","*"&amp;#REF!&amp;" "&amp;#REF!,"PRE")</f>
         <v>PRE</v>
       </c>
-      <c r="R9" s="36" t="str">
-        <f>IF($AD9="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S9" s="36" t="str">
+        <f>IF($AE9="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S9" s="9" t="str">
-        <f>IF($AD9="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG9,"-",$AF9,"_",$AD9,"_X0"))</f>
+      <c r="T9" s="9" t="str">
+        <f>IF($AE9="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH9,"-",$AG9,"_",$AE9,"_X0"))</f>
         <v>S-SH-CS_OIL_X0</v>
       </c>
-      <c r="T9" s="9" t="str">
+      <c r="U9" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Commercial Services - Space heating: Oil</v>
       </c>
-      <c r="U9" s="9" t="str">
+      <c r="V9" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V9" s="9" t="str">
+      <c r="W9" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W9" s="9" t="str">
+      <c r="X9" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X9" s="9"/>
       <c r="Y9" s="9"/>
-      <c r="AA9" s="5" t="str">
+      <c r="Z9" s="9"/>
+      <c r="AB9" s="5" t="str">
         <f>IF('Key Inputs'!A31="","",'Key Inputs'!A31)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB9" s="5" t="str">
+      <c r="AC9" s="5" t="str">
         <f>IF('Key Inputs'!B31="","",'Key Inputs'!B31)</f>
         <v>Space heating</v>
       </c>
-      <c r="AC9" s="5" t="str">
+      <c r="AD9" s="5" t="str">
         <f>IF('Key Inputs'!C31="","",'Key Inputs'!C31)</f>
         <v>Oil</v>
       </c>
-      <c r="AD9" s="5" t="str">
+      <c r="AE9" s="5" t="str">
         <f>IF('Key Inputs'!D31="","",'Key Inputs'!D31)</f>
         <v>OIL</v>
       </c>
-      <c r="AE9" s="5" t="str">
+      <c r="AF9" s="5" t="str">
         <f>IF('Key Inputs'!E31="","",'Key Inputs'!E31)</f>
         <v>SRVOIL</v>
       </c>
-      <c r="AF9" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA9,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG9" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB9,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG9" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB9,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH9" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC9,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SH</v>
       </c>
-      <c r="AH9" s="16">
+      <c r="AI9" s="16">
         <f t="shared" si="9"/>
         <v>2.2530680907907339</v>
       </c>
-      <c r="AI9" s="16">
+      <c r="AJ9" s="16">
         <f t="shared" si="10"/>
         <v>1.4833205465235728</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:37">
       <c r="B10" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C10" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SH-CS_GAS_X0</v>
+      </c>
+      <c r="D10" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SH-CS_GAS_X0</v>
-      </c>
-      <c r="C10" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Space heating: Natural Gas</v>
       </c>
-      <c r="D10" s="43" t="str">
+      <c r="E10" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVGAS, SRVBGS</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="9" t="str">
-        <f>IF($AD10="","",CONCATENATE(Legend!$C$4,AG10,"-",AF10))</f>
+      <c r="F10" s="43"/>
+      <c r="G10" s="9" t="str">
+        <f>IF($AE10="","",CONCATENATE(Legend!$C$4,AH10,"-",AG10))</f>
         <v>SRVSH-CS</v>
       </c>
-      <c r="G10" s="43">
-        <f>IF($AD10="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA10,'Key Inputs'!$B$29:$B$114,$AB10,'Key Inputs'!$C$29:$C$114,$AC10))</f>
+      <c r="H10" s="43">
+        <f>IF($AE10="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB10,'Key Inputs'!$B$29:$B$114,$AC10,'Key Inputs'!$C$29:$C$114,$AD10))</f>
         <v>1.0952200138463837</v>
       </c>
-      <c r="H10" s="530">
-        <f>IF($AD10="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA10,'Key Inputs'!$B$29:$B$114,$AB10,'Key Inputs'!$C$29:$C$114,$AC10))</f>
+      <c r="I10" s="530">
+        <f>IF($AE10="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB10,'Key Inputs'!$B$29:$B$114,$AC10,'Key Inputs'!$C$29:$C$114,$AD10))</f>
         <v>0.77299617086321282</v>
       </c>
-      <c r="I10" s="530">
-        <f>IF($AD10="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA10,'Key Inputs'!$B$29:$B$114,$AB10,'Key Inputs'!$C$29:$C$114,$AC10)/8760)</f>
+      <c r="J10" s="530">
+        <f>IF($AE10="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB10,'Key Inputs'!$B$29:$B$114,$AC10,'Key Inputs'!$C$29:$C$114,$AD10)/8760)</f>
         <v>0.11415525114155251</v>
       </c>
-      <c r="J10" s="532">
-        <f>IF($AD10="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA10,'Key Inputs'!$B$29:$B$114,$AB10,'Key Inputs'!$C$29:$C$114,$AC10))</f>
+      <c r="K10" s="532">
+        <f>IF($AE10="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB10,'Key Inputs'!$B$29:$B$114,$AC10,'Key Inputs'!$C$29:$C$114,$AD10))</f>
         <v>20</v>
       </c>
-      <c r="K10" s="51">
-        <f t="shared" si="3"/>
+      <c r="L10" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L10" s="51"/>
-      <c r="M10" s="531">
+      <c r="M10" s="51"/>
+      <c r="N10" s="531">
         <f>EB_SRV!$G$30/'Key Inputs'!$F$32</f>
         <v>2.2361517512771975E-2</v>
       </c>
-      <c r="N10" s="531">
-        <f>M10</f>
+      <c r="O10" s="531">
+        <f>N10</f>
         <v>2.2361517512771975E-2</v>
       </c>
-      <c r="O10" s="58">
+      <c r="P10" s="58">
         <v>5</v>
       </c>
-      <c r="Q10" s="27" t="str">
-        <f t="shared" ref="Q10:Q28" si="11">IF($AD10="","*"&amp;AA11&amp;" "&amp;AB11,"PRE")</f>
+      <c r="R10" s="27" t="str">
+        <f t="shared" ref="R10:R28" si="11">IF($AE10="","*"&amp;AB11&amp;" "&amp;AC11,"PRE")</f>
         <v>PRE</v>
       </c>
-      <c r="R10" s="36" t="str">
-        <f>IF($AD10="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S10" s="36" t="str">
+        <f>IF($AE10="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S10" s="9" t="str">
-        <f>IF($AD10="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG10,"-",$AF10,"_",$AD10,"_X0"))</f>
+      <c r="T10" s="9" t="str">
+        <f>IF($AE10="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH10,"-",$AG10,"_",$AE10,"_X0"))</f>
         <v>S-SH-CS_GAS_X0</v>
       </c>
-      <c r="T10" s="9" t="str">
+      <c r="U10" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Commercial Services - Space heating: Natural Gas</v>
       </c>
-      <c r="U10" s="9" t="str">
+      <c r="V10" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V10" s="9" t="str">
+      <c r="W10" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W10" s="9" t="str">
+      <c r="X10" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X10" s="9"/>
       <c r="Y10" s="9"/>
-      <c r="AA10" s="5" t="str">
+      <c r="Z10" s="9"/>
+      <c r="AB10" s="5" t="str">
         <f>IF('Key Inputs'!A32="","",'Key Inputs'!A32)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB10" s="5" t="str">
+      <c r="AC10" s="5" t="str">
         <f>IF('Key Inputs'!B32="","",'Key Inputs'!B32)</f>
         <v>Space heating</v>
       </c>
-      <c r="AC10" s="5" t="str">
+      <c r="AD10" s="5" t="str">
         <f>IF('Key Inputs'!C32="","",'Key Inputs'!C32)</f>
         <v>Natural Gas</v>
       </c>
-      <c r="AD10" s="5" t="str">
+      <c r="AE10" s="5" t="str">
         <f>IF('Key Inputs'!D32="","",'Key Inputs'!D32)</f>
         <v>GAS</v>
       </c>
-      <c r="AE10" s="5" t="str">
+      <c r="AF10" s="5" t="str">
         <f>IF('Key Inputs'!E32="","",'Key Inputs'!E32)</f>
         <v>SRVGAS, SRVBGS</v>
       </c>
-      <c r="AF10" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA10,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG10" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB10,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG10" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB10,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH10" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC10,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SH</v>
       </c>
-      <c r="AH10" s="16">
+      <c r="AI10" s="16">
         <f t="shared" si="9"/>
         <v>5.1006618123916763</v>
       </c>
-      <c r="AI10" s="16">
+      <c r="AJ10" s="16">
         <f t="shared" si="10"/>
         <v>3.9427920498469811</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:37">
       <c r="B11" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C11" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SH-CS_BIO_X0</v>
+      </c>
+      <c r="D11" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SH-CS_BIO_X0</v>
-      </c>
-      <c r="C11" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Space heating: Biomass</v>
       </c>
-      <c r="D11" s="43" t="str">
+      <c r="E11" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVBIO</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="9" t="str">
-        <f>IF($AD11="","",CONCATENATE(Legend!$C$4,AG11,"-",AF11))</f>
+      <c r="F11" s="43"/>
+      <c r="G11" s="9" t="str">
+        <f>IF($AE11="","",CONCATENATE(Legend!$C$4,AH11,"-",AG11))</f>
         <v>SRVSH-CS</v>
       </c>
-      <c r="G11" s="43">
-        <f>IF($AD11="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA11,'Key Inputs'!$B$29:$B$114,$AB11,'Key Inputs'!$C$29:$C$114,$AC11))</f>
+      <c r="H11" s="43">
+        <f>IF($AE11="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB11,'Key Inputs'!$B$29:$B$114,$AC11,'Key Inputs'!$C$29:$C$114,$AD11))</f>
         <v>3.7052237594494358E-2</v>
       </c>
-      <c r="H11" s="530">
-        <f>IF($AD11="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA11,'Key Inputs'!$B$29:$B$114,$AB11,'Key Inputs'!$C$29:$C$114,$AC11))</f>
+      <c r="I11" s="530">
+        <f>IF($AE11="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB11,'Key Inputs'!$B$29:$B$114,$AC11,'Key Inputs'!$C$29:$C$114,$AD11))</f>
         <v>0.63490443337371294</v>
       </c>
-      <c r="I11" s="530">
-        <f>IF($AD11="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA11,'Key Inputs'!$B$29:$B$114,$AB11,'Key Inputs'!$C$29:$C$114,$AC11)/8760)</f>
+      <c r="J11" s="530">
+        <f>IF($AE11="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB11,'Key Inputs'!$B$29:$B$114,$AC11,'Key Inputs'!$C$29:$C$114,$AD11)/8760)</f>
         <v>0.11415525114155251</v>
       </c>
-      <c r="J11" s="532">
-        <f>IF($AD11="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA11,'Key Inputs'!$B$29:$B$114,$AB11,'Key Inputs'!$C$29:$C$114,$AC11))</f>
+      <c r="K11" s="532">
+        <f>IF($AE11="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB11,'Key Inputs'!$B$29:$B$114,$AC11,'Key Inputs'!$C$29:$C$114,$AD11))</f>
         <v>20</v>
       </c>
-      <c r="K11" s="51">
-        <f t="shared" si="3"/>
+      <c r="L11" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L11" s="51"/>
       <c r="M11" s="51"/>
       <c r="N11" s="51"/>
       <c r="O11" s="51"/>
-      <c r="Q11" s="27" t="str">
+      <c r="P11" s="51"/>
+      <c r="R11" s="27" t="str">
         <f t="shared" si="11"/>
         <v>PRE</v>
       </c>
-      <c r="R11" s="36" t="str">
-        <f>IF($AD11="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S11" s="36" t="str">
+        <f>IF($AE11="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S11" s="9" t="str">
-        <f>IF($AD11="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG11,"-",$AF11,"_",$AD11,"_X0"))</f>
+      <c r="T11" s="9" t="str">
+        <f>IF($AE11="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH11,"-",$AG11,"_",$AE11,"_X0"))</f>
         <v>S-SH-CS_BIO_X0</v>
       </c>
-      <c r="T11" s="9" t="str">
+      <c r="U11" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Commercial Services - Space heating: Biomass</v>
       </c>
-      <c r="U11" s="9" t="str">
+      <c r="V11" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V11" s="9" t="str">
+      <c r="W11" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W11" s="9" t="str">
+      <c r="X11" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X11" s="9"/>
       <c r="Y11" s="9"/>
-      <c r="AA11" s="5" t="str">
+      <c r="Z11" s="9"/>
+      <c r="AB11" s="5" t="str">
         <f>IF('Key Inputs'!A33="","",'Key Inputs'!A33)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB11" s="5" t="str">
+      <c r="AC11" s="5" t="str">
         <f>IF('Key Inputs'!B33="","",'Key Inputs'!B33)</f>
         <v>Space heating</v>
       </c>
-      <c r="AC11" s="5" t="str">
+      <c r="AD11" s="5" t="str">
         <f>IF('Key Inputs'!C33="","",'Key Inputs'!C33)</f>
         <v>Biomass</v>
       </c>
-      <c r="AD11" s="5" t="str">
+      <c r="AE11" s="5" t="str">
         <f>IF('Key Inputs'!D33="","",'Key Inputs'!D33)</f>
         <v>BIO</v>
       </c>
-      <c r="AE11" s="5" t="str">
+      <c r="AF11" s="5" t="str">
         <f>IF('Key Inputs'!E33="","",'Key Inputs'!E33)</f>
         <v>SRVBIO</v>
       </c>
-      <c r="AF11" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA11,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG11" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB11,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG11" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB11,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH11" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC11,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SH</v>
       </c>
-      <c r="AH11" s="16">
+      <c r="AI11" s="16">
         <f t="shared" si="9"/>
         <v>0.21009154815850178</v>
       </c>
-      <c r="AI11" s="16">
+      <c r="AJ11" s="16">
         <f t="shared" si="10"/>
         <v>0.1333880553401797</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:37">
       <c r="B12" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C12" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SH-CS_SOL_X0</v>
+      </c>
+      <c r="D12" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SH-CS_SOL_X0</v>
-      </c>
-      <c r="C12" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Space heating: Solar</v>
       </c>
-      <c r="D12" s="43" t="str">
+      <c r="E12" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVSOL</v>
       </c>
-      <c r="E12" s="43"/>
-      <c r="F12" s="9" t="str">
-        <f>IF($AD12="","",CONCATENATE(Legend!$C$4,AG12,"-",AF12))</f>
+      <c r="F12" s="43"/>
+      <c r="G12" s="9" t="str">
+        <f>IF($AE12="","",CONCATENATE(Legend!$C$4,AH12,"-",AG12))</f>
         <v>SRVSH-CS</v>
       </c>
-      <c r="G12" s="43">
-        <f>IF($AD12="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA12,'Key Inputs'!$B$29:$B$114,$AB12,'Key Inputs'!$C$29:$C$114,$AC12))</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="530">
-        <f>IF($AD12="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA12,'Key Inputs'!$B$29:$B$114,$AB12,'Key Inputs'!$C$29:$C$114,$AC12))</f>
+      <c r="H12" s="43">
+        <f>IF($AE12="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB12,'Key Inputs'!$B$29:$B$114,$AC12,'Key Inputs'!$C$29:$C$114,$AD12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="530">
+        <f>IF($AE12="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB12,'Key Inputs'!$B$29:$B$114,$AC12,'Key Inputs'!$C$29:$C$114,$AD12))</f>
         <v>0.33</v>
       </c>
-      <c r="I12" s="530">
-        <f>IF($AD12="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA12,'Key Inputs'!$B$29:$B$114,$AB12,'Key Inputs'!$C$29:$C$114,$AC12)/8760)</f>
+      <c r="J12" s="530">
+        <f>IF($AE12="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB12,'Key Inputs'!$B$29:$B$114,$AC12,'Key Inputs'!$C$29:$C$114,$AD12)/8760)</f>
         <v>0.11415525114155251</v>
       </c>
-      <c r="J12" s="532">
-        <f>IF($AD12="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA12,'Key Inputs'!$B$29:$B$114,$AB12,'Key Inputs'!$C$29:$C$114,$AC12))</f>
+      <c r="K12" s="532">
+        <f>IF($AE12="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB12,'Key Inputs'!$B$29:$B$114,$AC12,'Key Inputs'!$C$29:$C$114,$AD12))</f>
         <v>15</v>
       </c>
-      <c r="K12" s="51">
-        <f t="shared" si="3"/>
+      <c r="L12" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L12" s="51"/>
       <c r="M12" s="51"/>
       <c r="N12" s="51"/>
       <c r="O12" s="51"/>
-      <c r="Q12" s="27" t="str">
+      <c r="P12" s="51"/>
+      <c r="R12" s="27" t="str">
         <f t="shared" si="11"/>
         <v>PRE</v>
       </c>
-      <c r="R12" s="36" t="str">
-        <f>IF($AD12="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S12" s="36" t="str">
+        <f>IF($AE12="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S12" s="9" t="str">
-        <f>IF($AD12="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG12,"-",$AF12,"_",$AD12,"_X0"))</f>
+      <c r="T12" s="9" t="str">
+        <f>IF($AE12="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH12,"-",$AG12,"_",$AE12,"_X0"))</f>
         <v>S-SH-CS_SOL_X0</v>
       </c>
-      <c r="T12" s="9" t="str">
+      <c r="U12" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Commercial Services - Space heating: Solar</v>
       </c>
-      <c r="U12" s="9" t="str">
+      <c r="V12" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V12" s="9" t="str">
+      <c r="W12" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W12" s="9" t="str">
+      <c r="X12" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X12" s="9"/>
       <c r="Y12" s="9"/>
-      <c r="AA12" s="5" t="str">
+      <c r="Z12" s="9"/>
+      <c r="AB12" s="5" t="str">
         <f>IF('Key Inputs'!A34="","",'Key Inputs'!A34)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB12" s="5" t="str">
+      <c r="AC12" s="5" t="str">
         <f>IF('Key Inputs'!B34="","",'Key Inputs'!B34)</f>
         <v>Space heating</v>
       </c>
-      <c r="AC12" s="5" t="str">
+      <c r="AD12" s="5" t="str">
         <f>IF('Key Inputs'!C34="","",'Key Inputs'!C34)</f>
         <v>Solar</v>
       </c>
-      <c r="AD12" s="5" t="str">
+      <c r="AE12" s="5" t="str">
         <f>IF('Key Inputs'!D34="","",'Key Inputs'!D34)</f>
         <v>SOL</v>
       </c>
-      <c r="AE12" s="5" t="str">
+      <c r="AF12" s="5" t="str">
         <f>IF('Key Inputs'!E34="","",'Key Inputs'!E34)</f>
         <v>SRVSOL</v>
       </c>
-      <c r="AF12" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA12,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG12" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB12,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG12" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB12,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH12" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC12,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SH</v>
       </c>
-      <c r="AH12" s="16">
+      <c r="AI12" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI12" s="16">
+      <c r="AJ12" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" customFormat="1">
+    <row r="13" spans="1:37" customFormat="1">
       <c r="B13" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C13" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SH-CS_ELC-HP_X0</v>
+      </c>
+      <c r="D13" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SH-CS_ELC-HP_X0</v>
-      </c>
-      <c r="C13" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Space heating: Electricity (heat pumps)</v>
       </c>
-      <c r="D13" s="43" t="str">
+      <c r="E13" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVELC</v>
       </c>
-      <c r="E13" s="43" t="str">
+      <c r="F13" s="43" t="str">
         <f>Legend!$C$44</f>
         <v>SRVAHT</v>
       </c>
-      <c r="F13" s="9" t="str">
-        <f>IF($AD13="","",CONCATENATE(Legend!$C$4,AG13,"-",AF13))</f>
+      <c r="G13" s="9" t="str">
+        <f>IF($AE13="","",CONCATENATE(Legend!$C$4,AH13,"-",AG13))</f>
         <v>SRVSH-CS</v>
       </c>
-      <c r="G13" s="43">
-        <f>IF($AD13="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA13,'Key Inputs'!$B$29:$B$114,$AB13,'Key Inputs'!$C$29:$C$114,$AC13))</f>
+      <c r="H13" s="43">
+        <f>IF($AE13="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB13,'Key Inputs'!$B$29:$B$114,$AC13,'Key Inputs'!$C$29:$C$114,$AD13))</f>
         <v>0.36867800753308022</v>
       </c>
-      <c r="H13" s="530">
-        <f>IF($AD13="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA13,'Key Inputs'!$B$29:$B$114,$AB13,'Key Inputs'!$C$29:$C$114,$AC13))</f>
+      <c r="I13" s="530">
+        <f>IF($AE13="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB13,'Key Inputs'!$B$29:$B$114,$AC13,'Key Inputs'!$C$29:$C$114,$AD13))</f>
         <v>2.7470543738547222</v>
       </c>
-      <c r="I13" s="530">
-        <f>IF($AD13="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA13,'Key Inputs'!$B$29:$B$114,$AB13,'Key Inputs'!$C$29:$C$114,$AC13)/8760)</f>
+      <c r="J13" s="530">
+        <f>IF($AE13="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB13,'Key Inputs'!$B$29:$B$114,$AC13,'Key Inputs'!$C$29:$C$114,$AD13)/8760)</f>
         <v>0.11415525114155251</v>
       </c>
-      <c r="J13" s="532">
-        <f>IF($AD13="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA13,'Key Inputs'!$B$29:$B$114,$AB13,'Key Inputs'!$C$29:$C$114,$AC13))</f>
+      <c r="K13" s="532">
+        <f>IF($AE13="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB13,'Key Inputs'!$B$29:$B$114,$AC13,'Key Inputs'!$C$29:$C$114,$AD13))</f>
         <v>10</v>
       </c>
-      <c r="K13" s="51">
-        <f t="shared" si="3"/>
+      <c r="L13" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L13" s="51">
+      <c r="M13" s="51">
         <f>'Key Inputs'!L35/'Key Inputs'!J35</f>
         <v>0.49456947341916813</v>
       </c>
-      <c r="M13" s="51"/>
       <c r="N13" s="51"/>
       <c r="O13" s="51"/>
-      <c r="Q13" s="27" t="str">
+      <c r="P13" s="51"/>
+      <c r="R13" s="27" t="str">
         <f t="shared" si="11"/>
         <v>PRE</v>
       </c>
-      <c r="R13" s="36" t="str">
-        <f>IF($AD13="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S13" s="36" t="str">
+        <f>IF($AE13="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S13" s="9" t="str">
-        <f>IF($AD13="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG13,"-",$AF13,"_",$AD13,"_X0"))</f>
+      <c r="T13" s="9" t="str">
+        <f>IF($AE13="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH13,"-",$AG13,"_",$AE13,"_X0"))</f>
         <v>S-SH-CS_ELC-HP_X0</v>
       </c>
-      <c r="T13" s="9" t="str">
+      <c r="U13" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Commercial Services - Space heating: Electricity (heat pumps)</v>
       </c>
-      <c r="U13" s="9" t="str">
+      <c r="V13" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V13" s="9" t="str">
+      <c r="W13" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W13" s="9" t="str">
+      <c r="X13" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
-      <c r="AA13" s="5" t="str">
+      <c r="Z13" s="9"/>
+      <c r="AB13" s="5" t="str">
         <f>IF('Key Inputs'!A35="","",'Key Inputs'!A35)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB13" s="5" t="str">
+      <c r="AC13" s="5" t="str">
         <f>IF('Key Inputs'!B35="","",'Key Inputs'!B35)</f>
         <v>Space heating</v>
       </c>
-      <c r="AC13" s="5" t="str">
+      <c r="AD13" s="5" t="str">
         <f>IF('Key Inputs'!C35="","",'Key Inputs'!C35)</f>
         <v>Electricity (heat pumps)</v>
       </c>
-      <c r="AD13" s="5" t="str">
+      <c r="AE13" s="5" t="str">
         <f>IF('Key Inputs'!D35="","",'Key Inputs'!D35)</f>
         <v>ELC-HP</v>
       </c>
-      <c r="AE13" s="5" t="str">
+      <c r="AF13" s="5" t="str">
         <f>IF('Key Inputs'!E35="","",'Key Inputs'!E35)</f>
         <v>SRVELC</v>
       </c>
-      <c r="AF13" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA13,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG13" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB13,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG13" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB13,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH13" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC13,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SH</v>
       </c>
-      <c r="AH13" s="16">
+      <c r="AI13" s="16">
         <f t="shared" si="9"/>
         <v>0.48315054836598581</v>
       </c>
-      <c r="AI13" s="16">
+      <c r="AJ13" s="16">
         <f t="shared" si="10"/>
         <v>1.3272408271190888</v>
       </c>
-      <c r="AJ13" s="5"/>
-    </row>
-    <row r="14" spans="1:36">
+      <c r="AK13" s="5"/>
+    </row>
+    <row r="14" spans="1:37">
       <c r="B14" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C14" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SH-CS_ELC_X0</v>
+      </c>
+      <c r="D14" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SH-CS_ELC_X0</v>
-      </c>
-      <c r="C14" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Space heating: Electricity (heaters)</v>
       </c>
-      <c r="D14" s="43" t="str">
+      <c r="E14" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVELC</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="9" t="str">
-        <f>IF($AD14="","",CONCATENATE(Legend!$C$4,AG14,"-",AF14))</f>
+      <c r="F14" s="43"/>
+      <c r="G14" s="9" t="str">
+        <f>IF($AE14="","",CONCATENATE(Legend!$C$4,AH14,"-",AG14))</f>
         <v>SRVSH-CS</v>
       </c>
-      <c r="G14" s="43">
-        <f>IF($AD14="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA14,'Key Inputs'!$B$29:$B$114,$AB14,'Key Inputs'!$C$29:$C$114,$AC14))</f>
+      <c r="H14" s="43">
+        <f>IF($AE14="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB14,'Key Inputs'!$B$29:$B$114,$AC14,'Key Inputs'!$C$29:$C$114,$AD14))</f>
         <v>0.47335512840457672</v>
       </c>
-      <c r="H14" s="530">
-        <f>IF($AD14="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA14,'Key Inputs'!$B$29:$B$114,$AB14,'Key Inputs'!$C$29:$C$114,$AC14))</f>
+      <c r="I14" s="530">
+        <f>IF($AE14="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB14,'Key Inputs'!$B$29:$B$114,$AC14,'Key Inputs'!$C$29:$C$114,$AD14))</f>
         <v>0.81595511259153475</v>
       </c>
-      <c r="I14" s="530">
-        <f>IF($AD14="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA14,'Key Inputs'!$B$29:$B$114,$AB14,'Key Inputs'!$C$29:$C$114,$AC14)/8760)</f>
+      <c r="J14" s="530">
+        <f>IF($AE14="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB14,'Key Inputs'!$B$29:$B$114,$AC14,'Key Inputs'!$C$29:$C$114,$AD14)/8760)</f>
         <v>0.11415525114155251</v>
       </c>
-      <c r="J14" s="532">
-        <f>IF($AD14="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA14,'Key Inputs'!$B$29:$B$114,$AB14,'Key Inputs'!$C$29:$C$114,$AC14))</f>
+      <c r="K14" s="532">
+        <f>IF($AE14="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB14,'Key Inputs'!$B$29:$B$114,$AC14,'Key Inputs'!$C$29:$C$114,$AD14))</f>
         <v>10</v>
       </c>
-      <c r="K14" s="51">
-        <f t="shared" si="3"/>
+      <c r="L14" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="535"/>
+      <c r="M14" s="51"/>
       <c r="N14" s="535"/>
       <c r="O14" s="535"/>
-      <c r="Q14" s="27" t="str">
+      <c r="P14" s="535"/>
+      <c r="R14" s="27" t="str">
         <f t="shared" si="11"/>
         <v>PRE</v>
       </c>
-      <c r="R14" s="36" t="str">
-        <f>IF($AD14="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S14" s="36" t="str">
+        <f>IF($AE14="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S14" s="9" t="str">
-        <f>IF($AD14="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG14,"-",$AF14,"_",$AD14,"_X0"))</f>
+      <c r="T14" s="9" t="str">
+        <f>IF($AE14="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH14,"-",$AG14,"_",$AE14,"_X0"))</f>
         <v>S-SH-CS_ELC_X0</v>
       </c>
-      <c r="T14" s="9" t="str">
+      <c r="U14" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Commercial Services - Space heating: Electricity (heaters)</v>
       </c>
-      <c r="U14" s="9" t="str">
+      <c r="V14" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V14" s="9" t="str">
+      <c r="W14" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W14" s="9" t="str">
+      <c r="X14" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
-      <c r="AA14" s="5" t="str">
+      <c r="Z14" s="9"/>
+      <c r="AB14" s="5" t="str">
         <f>IF('Key Inputs'!A36="","",'Key Inputs'!A36)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB14" s="5" t="str">
+      <c r="AC14" s="5" t="str">
         <f>IF('Key Inputs'!B36="","",'Key Inputs'!B36)</f>
         <v>Space heating</v>
       </c>
-      <c r="AC14" s="5" t="str">
+      <c r="AD14" s="5" t="str">
         <f>IF('Key Inputs'!C36="","",'Key Inputs'!C36)</f>
         <v>Electricity (heaters)</v>
       </c>
-      <c r="AD14" s="5" t="str">
+      <c r="AE14" s="5" t="str">
         <f>IF('Key Inputs'!D36="","",'Key Inputs'!D36)</f>
         <v>ELC</v>
       </c>
-      <c r="AE14" s="5" t="str">
+      <c r="AF14" s="5" t="str">
         <f>IF('Key Inputs'!E36="","",'Key Inputs'!E36)</f>
         <v>SRVELC</v>
       </c>
-      <c r="AF14" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA14,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG14" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB14,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG14" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB14,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH14" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC14,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SH</v>
       </c>
-      <c r="AH14" s="16">
+      <c r="AI14" s="16">
         <f t="shared" si="9"/>
         <v>2.0884463323530076</v>
       </c>
-      <c r="AI14" s="16">
+      <c r="AJ14" s="16">
         <f t="shared" si="10"/>
         <v>1.7040784622564762</v>
       </c>
     </row>
-    <row r="15" spans="1:36" s="542" customFormat="1" ht="45">
-      <c r="B15" s="443" t="str">
-        <f t="shared" si="0"/>
+    <row r="15" spans="1:37" s="542" customFormat="1">
+      <c r="B15" s="15" t="str">
+        <f>IF($AE15="",R15,T15)</f>
         <v>*Commercial Services Water heating</v>
       </c>
-      <c r="C15" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D15" s="539" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="539"/>
-      <c r="F15" s="15" t="str">
-        <f>IF($AD15="","",CONCATENATE(Legend!$C$4,AG15,"-",AF15))</f>
-        <v/>
-      </c>
-      <c r="G15" s="539" t="str">
-        <f>IF($AD15="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA15,'Key Inputs'!$B$29:$B$114,$AB15,'Key Inputs'!$C$29:$C$114,$AC15))</f>
-        <v/>
-      </c>
-      <c r="H15" s="540" t="str">
-        <f>IF($AD15="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA15,'Key Inputs'!$B$29:$B$114,$AB15,'Key Inputs'!$C$29:$C$114,$AC15))</f>
-        <v/>
-      </c>
-      <c r="I15" s="540" t="str">
-        <f>IF($AD15="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA15,'Key Inputs'!$B$29:$B$114,$AB15,'Key Inputs'!$C$29:$C$114,$AC15)/8760)</f>
-        <v/>
-      </c>
-      <c r="J15" s="541" t="str">
-        <f>IF($AD15="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA15,'Key Inputs'!$B$29:$B$114,$AB15,'Key Inputs'!$C$29:$C$114,$AC15))</f>
-        <v/>
-      </c>
-      <c r="K15" s="75" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="F15" s="539"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="539"/>
+      <c r="I15" s="540"/>
+      <c r="J15" s="540"/>
+      <c r="K15" s="541"/>
       <c r="L15" s="75"/>
       <c r="M15" s="75"/>
       <c r="N15" s="75"/>
       <c r="O15" s="75"/>
-      <c r="Q15" s="443" t="str">
+      <c r="P15" s="75"/>
+      <c r="R15" s="15" t="str">
         <f t="shared" si="11"/>
         <v>*Commercial Services Water heating</v>
       </c>
-      <c r="R15" s="36" t="str">
-        <f>IF($AD15="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
-        <v/>
-      </c>
-      <c r="S15" s="9" t="str">
-        <f>IF($AD15="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG15,"-",$AF15,"_",$AD15,"_X0"))</f>
-        <v/>
-      </c>
-      <c r="T15" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U15" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="V15" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="W15" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AA15" s="6"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
       <c r="AB15" s="6"/>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="439"/>
-      <c r="AJ15" s="6"/>
-    </row>
-    <row r="16" spans="1:36">
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="439"/>
+      <c r="AK15" s="6"/>
+    </row>
+    <row r="16" spans="1:37">
       <c r="B16" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C16" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-WH-CS_COA_X0</v>
+      </c>
+      <c r="D16" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-WH-CS_COA_X0</v>
-      </c>
-      <c r="C16" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Water heating: Solids</v>
       </c>
-      <c r="D16" s="43" t="str">
+      <c r="E16" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVCOA</v>
       </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="9" t="str">
-        <f>IF($AD16="","",CONCATENATE(Legend!$C$4,AG16,"-",AF16))</f>
+      <c r="F16" s="43"/>
+      <c r="G16" s="9" t="str">
+        <f>IF($AE16="","",CONCATENATE(Legend!$C$4,AH16,"-",AG16))</f>
         <v>SRVWH-CS</v>
       </c>
-      <c r="G16" s="43">
-        <f>IF($AD16="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA16,'Key Inputs'!$B$29:$B$114,$AB16,'Key Inputs'!$C$29:$C$114,$AC16))</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="530">
-        <f>IF($AD16="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA16,'Key Inputs'!$B$29:$B$114,$AB16,'Key Inputs'!$C$29:$C$114,$AC16))</f>
+      <c r="H16" s="43">
+        <f>IF($AE16="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB16,'Key Inputs'!$B$29:$B$114,$AC16,'Key Inputs'!$C$29:$C$114,$AD16))</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="530">
+        <f>IF($AE16="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB16,'Key Inputs'!$B$29:$B$114,$AC16,'Key Inputs'!$C$29:$C$114,$AD16))</f>
         <v>0.33</v>
       </c>
-      <c r="I16" s="530">
-        <f>IF($AD16="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA16,'Key Inputs'!$B$29:$B$114,$AB16,'Key Inputs'!$C$29:$C$114,$AC16)/8760)</f>
+      <c r="J16" s="530">
+        <f>IF($AE16="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB16,'Key Inputs'!$B$29:$B$114,$AC16,'Key Inputs'!$C$29:$C$114,$AD16)/8760)</f>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="J16" s="532">
-        <f>IF($AD16="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA16,'Key Inputs'!$B$29:$B$114,$AB16,'Key Inputs'!$C$29:$C$114,$AC16))</f>
+      <c r="K16" s="532">
+        <f>IF($AE16="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB16,'Key Inputs'!$B$29:$B$114,$AC16,'Key Inputs'!$C$29:$C$114,$AD16))</f>
         <v>20</v>
       </c>
-      <c r="K16" s="51">
-        <f t="shared" si="3"/>
+      <c r="L16" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L16" s="51"/>
       <c r="M16" s="51"/>
       <c r="N16" s="51"/>
       <c r="O16" s="51"/>
-      <c r="Q16" s="27" t="str">
+      <c r="P16" s="51"/>
+      <c r="R16" s="27" t="str">
         <f t="shared" si="11"/>
         <v>PRE</v>
       </c>
-      <c r="R16" s="36" t="str">
-        <f>IF($AD16="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S16" s="36" t="str">
+        <f>IF($AE16="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S16" s="9" t="str">
-        <f>IF($AD16="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG16,"-",$AF16,"_",$AD16,"_X0"))</f>
+      <c r="T16" s="9" t="str">
+        <f>IF($AE16="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH16,"-",$AG16,"_",$AE16,"_X0"))</f>
         <v>S-WH-CS_COA_X0</v>
       </c>
-      <c r="T16" s="9" t="str">
+      <c r="U16" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Commercial Services - Water heating: Solids</v>
       </c>
-      <c r="U16" s="9" t="str">
+      <c r="V16" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V16" s="9" t="str">
+      <c r="W16" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W16" s="9" t="str">
+      <c r="X16" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X16"/>
       <c r="Y16"/>
-      <c r="AA16" s="5" t="str">
+      <c r="Z16"/>
+      <c r="AB16" s="5" t="str">
         <f>IF('Key Inputs'!A38="","",'Key Inputs'!A38)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB16" s="5" t="str">
+      <c r="AC16" s="5" t="str">
         <f>IF('Key Inputs'!B38="","",'Key Inputs'!B38)</f>
         <v>Water heating</v>
       </c>
-      <c r="AC16" s="5" t="str">
+      <c r="AD16" s="5" t="str">
         <f>IF('Key Inputs'!C38="","",'Key Inputs'!C38)</f>
         <v>Solids</v>
       </c>
-      <c r="AD16" s="5" t="str">
+      <c r="AE16" s="5" t="str">
         <f>IF('Key Inputs'!D38="","",'Key Inputs'!D38)</f>
         <v>COA</v>
       </c>
-      <c r="AE16" s="5" t="str">
+      <c r="AF16" s="5" t="str">
         <f>IF('Key Inputs'!E38="","",'Key Inputs'!E38)</f>
         <v>SRVCOA</v>
       </c>
-      <c r="AF16" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA16,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG16" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB16,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG16" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB16,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH16" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC16,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>WH</v>
       </c>
-      <c r="AH16" s="16">
+      <c r="AI16" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI16" s="16">
+      <c r="AJ16" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:36">
       <c r="B17" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C17" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-WH-CS_LPG_X0</v>
+      </c>
+      <c r="D17" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-WH-CS_LPG_X0</v>
-      </c>
-      <c r="C17" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Water heating: LPG</v>
       </c>
-      <c r="D17" s="43" t="str">
+      <c r="E17" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVLPG</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="9" t="str">
-        <f>IF($AD17="","",CONCATENATE(Legend!$C$4,AG17,"-",AF17))</f>
+      <c r="F17" s="43"/>
+      <c r="G17" s="9" t="str">
+        <f>IF($AE17="","",CONCATENATE(Legend!$C$4,AH17,"-",AG17))</f>
         <v>SRVWH-CS</v>
       </c>
-      <c r="G17" s="43">
-        <f>IF($AD17="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA17,'Key Inputs'!$B$29:$B$114,$AB17,'Key Inputs'!$C$29:$C$114,$AC17))</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="530">
-        <f>IF($AD17="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA17,'Key Inputs'!$B$29:$B$114,$AB17,'Key Inputs'!$C$29:$C$114,$AC17))</f>
+      <c r="H17" s="43">
+        <f>IF($AE17="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB17,'Key Inputs'!$B$29:$B$114,$AC17,'Key Inputs'!$C$29:$C$114,$AD17))</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="530">
+        <f>IF($AE17="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB17,'Key Inputs'!$B$29:$B$114,$AC17,'Key Inputs'!$C$29:$C$114,$AD17))</f>
         <v>0.33</v>
       </c>
-      <c r="I17" s="530">
-        <f>IF($AD17="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA17,'Key Inputs'!$B$29:$B$114,$AB17,'Key Inputs'!$C$29:$C$114,$AC17)/8760)</f>
+      <c r="J17" s="530">
+        <f>IF($AE17="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB17,'Key Inputs'!$B$29:$B$114,$AC17,'Key Inputs'!$C$29:$C$114,$AD17)/8760)</f>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="J17" s="532">
-        <f>IF($AD17="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA17,'Key Inputs'!$B$29:$B$114,$AB17,'Key Inputs'!$C$29:$C$114,$AC17))</f>
+      <c r="K17" s="532">
+        <f>IF($AE17="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB17,'Key Inputs'!$B$29:$B$114,$AC17,'Key Inputs'!$C$29:$C$114,$AD17))</f>
         <v>20</v>
       </c>
-      <c r="K17" s="51">
-        <f t="shared" si="3"/>
+      <c r="L17" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L17" s="51"/>
       <c r="M17" s="51"/>
       <c r="N17" s="51"/>
       <c r="O17" s="51"/>
-      <c r="Q17" s="27" t="str">
+      <c r="P17" s="51"/>
+      <c r="R17" s="27" t="str">
         <f t="shared" si="11"/>
         <v>PRE</v>
       </c>
-      <c r="R17" s="36" t="str">
-        <f>IF($AD17="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S17" s="36" t="str">
+        <f>IF($AE17="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S17" s="9" t="str">
-        <f>IF($AD17="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG17,"-",$AF17,"_",$AD17,"_X0"))</f>
+      <c r="T17" s="9" t="str">
+        <f>IF($AE17="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH17,"-",$AG17,"_",$AE17,"_X0"))</f>
         <v>S-WH-CS_LPG_X0</v>
       </c>
-      <c r="T17" s="9" t="str">
+      <c r="U17" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Commercial Services - Water heating: LPG</v>
       </c>
-      <c r="U17" s="9" t="str">
+      <c r="V17" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V17" s="9" t="str">
+      <c r="W17" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W17" s="9" t="str">
+      <c r="X17" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X17"/>
       <c r="Y17"/>
-      <c r="AA17" s="5" t="str">
+      <c r="Z17"/>
+      <c r="AB17" s="5" t="str">
         <f>IF('Key Inputs'!A39="","",'Key Inputs'!A39)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB17" s="5" t="str">
+      <c r="AC17" s="5" t="str">
         <f>IF('Key Inputs'!B39="","",'Key Inputs'!B39)</f>
         <v>Water heating</v>
       </c>
-      <c r="AC17" s="5" t="str">
+      <c r="AD17" s="5" t="str">
         <f>IF('Key Inputs'!C39="","",'Key Inputs'!C39)</f>
         <v>LPG</v>
       </c>
-      <c r="AD17" s="5" t="str">
+      <c r="AE17" s="5" t="str">
         <f>IF('Key Inputs'!D39="","",'Key Inputs'!D39)</f>
         <v>LPG</v>
       </c>
-      <c r="AE17" s="5" t="str">
+      <c r="AF17" s="5" t="str">
         <f>IF('Key Inputs'!E39="","",'Key Inputs'!E39)</f>
         <v>SRVLPG</v>
       </c>
-      <c r="AF17" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA17,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG17" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB17,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG17" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB17,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH17" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC17,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>WH</v>
       </c>
-      <c r="AH17" s="16">
+      <c r="AI17" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="16">
+      <c r="AJ17" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:36">
       <c r="B18" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C18" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-WH-CS_OIL_X0</v>
+      </c>
+      <c r="D18" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-WH-CS_OIL_X0</v>
-      </c>
-      <c r="C18" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Water heating: Oil</v>
       </c>
-      <c r="D18" s="43" t="str">
+      <c r="E18" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVOIL</v>
       </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="9" t="str">
-        <f>IF($AD18="","",CONCATENATE(Legend!$C$4,AG18,"-",AF18))</f>
+      <c r="F18" s="43"/>
+      <c r="G18" s="9" t="str">
+        <f>IF($AE18="","",CONCATENATE(Legend!$C$4,AH18,"-",AG18))</f>
         <v>SRVWH-CS</v>
       </c>
-      <c r="G18" s="43">
-        <f>IF($AD18="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA18,'Key Inputs'!$B$29:$B$114,$AB18,'Key Inputs'!$C$29:$C$114,$AC18))</f>
+      <c r="H18" s="43">
+        <f>IF($AE18="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB18,'Key Inputs'!$B$29:$B$114,$AC18,'Key Inputs'!$C$29:$C$114,$AD18))</f>
         <v>0.55458982073346763</v>
       </c>
-      <c r="H18" s="530">
-        <f>IF($AD18="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA18,'Key Inputs'!$B$29:$B$114,$AB18,'Key Inputs'!$C$29:$C$114,$AC18))</f>
+      <c r="I18" s="530">
+        <f>IF($AE18="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB18,'Key Inputs'!$B$29:$B$114,$AC18,'Key Inputs'!$C$29:$C$114,$AD18))</f>
         <v>0.59834963673469854</v>
       </c>
-      <c r="I18" s="530">
-        <f>IF($AD18="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA18,'Key Inputs'!$B$29:$B$114,$AB18,'Key Inputs'!$C$29:$C$114,$AC18)/8760)</f>
+      <c r="J18" s="530">
+        <f>IF($AE18="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB18,'Key Inputs'!$B$29:$B$114,$AC18,'Key Inputs'!$C$29:$C$114,$AD18)/8760)</f>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="J18" s="532">
-        <f>IF($AD18="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA18,'Key Inputs'!$B$29:$B$114,$AB18,'Key Inputs'!$C$29:$C$114,$AC18))</f>
+      <c r="K18" s="532">
+        <f>IF($AE18="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB18,'Key Inputs'!$B$29:$B$114,$AC18,'Key Inputs'!$C$29:$C$114,$AD18))</f>
         <v>20</v>
       </c>
-      <c r="K18" s="51">
-        <f t="shared" si="3"/>
+      <c r="L18" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L18" s="51"/>
-      <c r="M18" s="5"/>
+      <c r="M18" s="51"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="Q18" s="27" t="str">
+      <c r="P18" s="5"/>
+      <c r="R18" s="27" t="str">
         <f t="shared" si="11"/>
         <v>PRE</v>
       </c>
-      <c r="R18" s="36" t="str">
-        <f>IF($AD18="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S18" s="36" t="str">
+        <f>IF($AE18="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S18" s="9" t="str">
-        <f>IF($AD18="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG18,"-",$AF18,"_",$AD18,"_X0"))</f>
+      <c r="T18" s="9" t="str">
+        <f>IF($AE18="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH18,"-",$AG18,"_",$AE18,"_X0"))</f>
         <v>S-WH-CS_OIL_X0</v>
       </c>
-      <c r="T18" s="9" t="str">
+      <c r="U18" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Commercial Services - Water heating: Oil</v>
       </c>
-      <c r="U18" s="9" t="str">
+      <c r="V18" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V18" s="9" t="str">
+      <c r="W18" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W18" s="9" t="str">
+      <c r="X18" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X18"/>
       <c r="Y18"/>
-      <c r="AA18" s="5" t="str">
+      <c r="Z18"/>
+      <c r="AB18" s="5" t="str">
         <f>IF('Key Inputs'!A40="","",'Key Inputs'!A40)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB18" s="5" t="str">
+      <c r="AC18" s="5" t="str">
         <f>IF('Key Inputs'!B40="","",'Key Inputs'!B40)</f>
         <v>Water heating</v>
       </c>
-      <c r="AC18" s="5" t="str">
+      <c r="AD18" s="5" t="str">
         <f>IF('Key Inputs'!C40="","",'Key Inputs'!C40)</f>
         <v>Oil</v>
       </c>
-      <c r="AD18" s="5" t="str">
+      <c r="AE18" s="5" t="str">
         <f>IF('Key Inputs'!D40="","",'Key Inputs'!D40)</f>
         <v>OIL</v>
       </c>
-      <c r="AE18" s="5" t="str">
+      <c r="AF18" s="5" t="str">
         <f>IF('Key Inputs'!E40="","",'Key Inputs'!E40)</f>
         <v>SRVOIL</v>
       </c>
-      <c r="AF18" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA18,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG18" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB18,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG18" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB18,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH18" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC18,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>WH</v>
       </c>
-      <c r="AH18" s="16">
+      <c r="AI18" s="16">
         <f t="shared" si="9"/>
         <v>0.66734338322184672</v>
       </c>
-      <c r="AI18" s="16">
+      <c r="AJ18" s="16">
         <f t="shared" si="10"/>
         <v>0.39930467092809668</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:36">
       <c r="B19" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C19" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-WH-CS_GAS_X0</v>
+      </c>
+      <c r="D19" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-WH-CS_GAS_X0</v>
-      </c>
-      <c r="C19" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Water heating: Natural Gas</v>
       </c>
-      <c r="D19" s="43" t="str">
+      <c r="E19" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVGAS, SRVBGS</v>
       </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="9" t="str">
-        <f>IF($AD19="","",CONCATENATE(Legend!$C$4,AG19,"-",AF19))</f>
+      <c r="F19" s="43"/>
+      <c r="G19" s="9" t="str">
+        <f>IF($AE19="","",CONCATENATE(Legend!$C$4,AH19,"-",AG19))</f>
         <v>SRVWH-CS</v>
       </c>
-      <c r="G19" s="43">
-        <f>IF($AD19="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA19,'Key Inputs'!$B$29:$B$114,$AB19,'Key Inputs'!$C$29:$C$114,$AC19))</f>
+      <c r="H19" s="43">
+        <f>IF($AE19="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB19,'Key Inputs'!$B$29:$B$114,$AC19,'Key Inputs'!$C$29:$C$114,$AD19))</f>
         <v>1.2942225150684654</v>
       </c>
-      <c r="H19" s="530">
-        <f>IF($AD19="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA19,'Key Inputs'!$B$29:$B$114,$AB19,'Key Inputs'!$C$29:$C$114,$AC19))</f>
+      <c r="I19" s="530">
+        <f>IF($AE19="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB19,'Key Inputs'!$B$29:$B$114,$AC19,'Key Inputs'!$C$29:$C$114,$AD19))</f>
         <v>0.63024757853709534</v>
       </c>
-      <c r="I19" s="530">
-        <f>IF($AD19="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA19,'Key Inputs'!$B$29:$B$114,$AB19,'Key Inputs'!$C$29:$C$114,$AC19)/8760)</f>
+      <c r="J19" s="530">
+        <f>IF($AE19="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB19,'Key Inputs'!$B$29:$B$114,$AC19,'Key Inputs'!$C$29:$C$114,$AD19)/8760)</f>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="J19" s="532">
-        <f>IF($AD19="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA19,'Key Inputs'!$B$29:$B$114,$AB19,'Key Inputs'!$C$29:$C$114,$AC19))</f>
+      <c r="K19" s="532">
+        <f>IF($AE19="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB19,'Key Inputs'!$B$29:$B$114,$AC19,'Key Inputs'!$C$29:$C$114,$AD19))</f>
         <v>20</v>
       </c>
-      <c r="K19" s="51">
-        <f t="shared" si="3"/>
+      <c r="L19" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="71">
+      <c r="M19" s="51"/>
+      <c r="N19" s="71">
         <f>EB_SRV!G41/'Key Inputs'!F41</f>
         <v>0</v>
       </c>
-      <c r="N19" s="71">
-        <f>M19</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="58">
+      <c r="O19" s="71">
+        <f>N19</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="58">
         <v>5</v>
       </c>
-      <c r="Q19" s="27" t="str">
+      <c r="R19" s="27" t="str">
         <f t="shared" si="11"/>
         <v>PRE</v>
       </c>
-      <c r="R19" s="36" t="str">
-        <f>IF($AD19="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S19" s="36" t="str">
+        <f>IF($AE19="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S19" s="9" t="str">
-        <f>IF($AD19="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG19,"-",$AF19,"_",$AD19,"_X0"))</f>
+      <c r="T19" s="9" t="str">
+        <f>IF($AE19="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH19,"-",$AG19,"_",$AE19,"_X0"))</f>
         <v>S-WH-CS_GAS_X0</v>
       </c>
-      <c r="T19" s="9" t="str">
+      <c r="U19" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Commercial Services - Water heating: Natural Gas</v>
       </c>
-      <c r="U19" s="9" t="str">
+      <c r="V19" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V19" s="9" t="str">
+      <c r="W19" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W19" s="9" t="str">
+      <c r="X19" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X19"/>
       <c r="Y19"/>
-      <c r="AA19" s="5" t="str">
+      <c r="Z19"/>
+      <c r="AB19" s="5" t="str">
         <f>IF('Key Inputs'!A41="","",'Key Inputs'!A41)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB19" s="5" t="str">
+      <c r="AC19" s="5" t="str">
         <f>IF('Key Inputs'!B41="","",'Key Inputs'!B41)</f>
         <v>Water heating</v>
       </c>
-      <c r="AC19" s="5" t="str">
+      <c r="AD19" s="5" t="str">
         <f>IF('Key Inputs'!C41="","",'Key Inputs'!C41)</f>
         <v>Natural Gas</v>
       </c>
-      <c r="AD19" s="5" t="str">
+      <c r="AE19" s="5" t="str">
         <f>IF('Key Inputs'!D41="","",'Key Inputs'!D41)</f>
         <v>GAS</v>
       </c>
-      <c r="AE19" s="5" t="str">
+      <c r="AF19" s="5" t="str">
         <f>IF('Key Inputs'!E41="","",'Key Inputs'!E41)</f>
         <v>SRVGAS, SRVBGS</v>
       </c>
-      <c r="AF19" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA19,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG19" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB19,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG19" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB19,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH19" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC19,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>WH</v>
       </c>
-      <c r="AH19" s="16">
+      <c r="AI19" s="16">
         <f t="shared" si="9"/>
         <v>1.4785304102432952</v>
       </c>
-      <c r="AI19" s="16">
+      <c r="AJ19" s="16">
         <f t="shared" si="10"/>
         <v>0.93184021084929503</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:36">
       <c r="B20" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C20" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-WH-CS_BIO_X0</v>
+      </c>
+      <c r="D20" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-WH-CS_BIO_X0</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Water heating: Biomass</v>
       </c>
-      <c r="D20" s="43" t="str">
+      <c r="E20" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVBIO</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="9" t="str">
-        <f>IF($AD20="","",CONCATENATE(Legend!$C$4,AG20,"-",AF20))</f>
+      <c r="F20" s="43"/>
+      <c r="G20" s="9" t="str">
+        <f>IF($AE20="","",CONCATENATE(Legend!$C$4,AH20,"-",AG20))</f>
         <v>SRVWH-CS</v>
       </c>
-      <c r="G20" s="43">
-        <f>IF($AD20="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA20,'Key Inputs'!$B$29:$B$114,$AB20,'Key Inputs'!$C$29:$C$114,$AC20))</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="530">
-        <f>IF($AD20="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA20,'Key Inputs'!$B$29:$B$114,$AB20,'Key Inputs'!$C$29:$C$114,$AC20))</f>
+      <c r="H20" s="43">
+        <f>IF($AE20="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB20,'Key Inputs'!$B$29:$B$114,$AC20,'Key Inputs'!$C$29:$C$114,$AD20))</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="530">
+        <f>IF($AE20="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB20,'Key Inputs'!$B$29:$B$114,$AC20,'Key Inputs'!$C$29:$C$114,$AD20))</f>
         <v>0.33</v>
       </c>
-      <c r="I20" s="530">
-        <f>IF($AD20="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA20,'Key Inputs'!$B$29:$B$114,$AB20,'Key Inputs'!$C$29:$C$114,$AC20)/8760)</f>
+      <c r="J20" s="530">
+        <f>IF($AE20="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB20,'Key Inputs'!$B$29:$B$114,$AC20,'Key Inputs'!$C$29:$C$114,$AD20)/8760)</f>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="J20" s="532">
-        <f>IF($AD20="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA20,'Key Inputs'!$B$29:$B$114,$AB20,'Key Inputs'!$C$29:$C$114,$AC20))</f>
+      <c r="K20" s="532">
+        <f>IF($AE20="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB20,'Key Inputs'!$B$29:$B$114,$AC20,'Key Inputs'!$C$29:$C$114,$AD20))</f>
         <v>20</v>
       </c>
-      <c r="K20" s="51">
-        <f t="shared" si="3"/>
+      <c r="L20" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L20" s="51"/>
       <c r="M20" s="51"/>
       <c r="N20" s="51"/>
       <c r="O20" s="51"/>
-      <c r="Q20" s="27" t="str">
+      <c r="P20" s="51"/>
+      <c r="R20" s="27" t="str">
         <f t="shared" si="11"/>
         <v>PRE</v>
       </c>
-      <c r="R20" s="36" t="str">
-        <f>IF($AD20="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S20" s="36" t="str">
+        <f>IF($AE20="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S20" s="9" t="str">
-        <f>IF($AD20="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG20,"-",$AF20,"_",$AD20,"_X0"))</f>
+      <c r="T20" s="9" t="str">
+        <f>IF($AE20="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH20,"-",$AG20,"_",$AE20,"_X0"))</f>
         <v>S-WH-CS_BIO_X0</v>
       </c>
-      <c r="T20" s="9" t="str">
+      <c r="U20" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Commercial Services - Water heating: Biomass</v>
       </c>
-      <c r="U20" s="9" t="str">
+      <c r="V20" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V20" s="9" t="str">
+      <c r="W20" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W20" s="9" t="str">
+      <c r="X20" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X20"/>
       <c r="Y20"/>
-      <c r="AA20" s="5" t="str">
+      <c r="Z20"/>
+      <c r="AB20" s="5" t="str">
         <f>IF('Key Inputs'!A42="","",'Key Inputs'!A42)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB20" s="5" t="str">
+      <c r="AC20" s="5" t="str">
         <f>IF('Key Inputs'!B42="","",'Key Inputs'!B42)</f>
         <v>Water heating</v>
       </c>
-      <c r="AC20" s="5" t="str">
+      <c r="AD20" s="5" t="str">
         <f>IF('Key Inputs'!C42="","",'Key Inputs'!C42)</f>
         <v>Biomass</v>
       </c>
-      <c r="AD20" s="5" t="str">
+      <c r="AE20" s="5" t="str">
         <f>IF('Key Inputs'!D42="","",'Key Inputs'!D42)</f>
         <v>BIO</v>
       </c>
-      <c r="AE20" s="5" t="str">
+      <c r="AF20" s="5" t="str">
         <f>IF('Key Inputs'!E42="","",'Key Inputs'!E42)</f>
         <v>SRVBIO</v>
       </c>
-      <c r="AF20" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA20,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG20" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB20,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG20" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB20,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH20" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC20,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>WH</v>
       </c>
-      <c r="AH20" s="16">
+      <c r="AI20" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI20" s="16">
+      <c r="AJ20" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:36">
       <c r="B21" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C21" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-WH-CS_ELC_X0</v>
+      </c>
+      <c r="D21" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-WH-CS_ELC_X0</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Water heating: Electricity</v>
       </c>
-      <c r="D21" s="43" t="str">
+      <c r="E21" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVELC</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="9" t="str">
-        <f>IF($AD21="","",CONCATENATE(Legend!$C$4,AG21,"-",AF21))</f>
+      <c r="F21" s="43"/>
+      <c r="G21" s="9" t="str">
+        <f>IF($AE21="","",CONCATENATE(Legend!$C$4,AH21,"-",AG21))</f>
         <v>SRVWH-CS</v>
       </c>
-      <c r="G21" s="43">
-        <f>IF($AD21="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA21,'Key Inputs'!$B$29:$B$114,$AB21,'Key Inputs'!$C$29:$C$114,$AC21))</f>
+      <c r="H21" s="43">
+        <f>IF($AE21="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB21,'Key Inputs'!$B$29:$B$114,$AC21,'Key Inputs'!$C$29:$C$114,$AD21))</f>
         <v>1.2821617979246458</v>
       </c>
-      <c r="H21" s="530">
-        <f>IF($AD21="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA21,'Key Inputs'!$B$29:$B$114,$AB21,'Key Inputs'!$C$29:$C$114,$AC21))</f>
+      <c r="I21" s="530">
+        <f>IF($AE21="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB21,'Key Inputs'!$B$29:$B$114,$AC21,'Key Inputs'!$C$29:$C$114,$AD21))</f>
         <v>0.7791533881609447</v>
       </c>
-      <c r="I21" s="530">
-        <f>IF($AD21="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA21,'Key Inputs'!$B$29:$B$114,$AB21,'Key Inputs'!$C$29:$C$114,$AC21)/8760)</f>
+      <c r="J21" s="530">
+        <f>IF($AE21="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB21,'Key Inputs'!$B$29:$B$114,$AC21,'Key Inputs'!$C$29:$C$114,$AD21)/8760)</f>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="J21" s="532">
-        <f>IF($AD21="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA21,'Key Inputs'!$B$29:$B$114,$AB21,'Key Inputs'!$C$29:$C$114,$AC21))</f>
+      <c r="K21" s="532">
+        <f>IF($AE21="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB21,'Key Inputs'!$B$29:$B$114,$AC21,'Key Inputs'!$C$29:$C$114,$AD21))</f>
         <v>10</v>
       </c>
-      <c r="K21" s="51">
-        <f t="shared" si="3"/>
+      <c r="L21" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L21" s="51"/>
       <c r="M21" s="51"/>
       <c r="N21" s="51"/>
       <c r="O21" s="51"/>
-      <c r="Q21" s="27" t="str">
+      <c r="P21" s="51"/>
+      <c r="R21" s="27" t="str">
         <f t="shared" si="11"/>
         <v>PRE</v>
       </c>
-      <c r="R21" s="36" t="str">
-        <f>IF($AD21="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S21" s="36" t="str">
+        <f>IF($AE21="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S21" s="9" t="str">
-        <f>IF($AD21="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG21,"-",$AF21,"_",$AD21,"_X0"))</f>
+      <c r="T21" s="9" t="str">
+        <f>IF($AE21="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH21,"-",$AG21,"_",$AE21,"_X0"))</f>
         <v>S-WH-CS_ELC_X0</v>
       </c>
-      <c r="T21" s="9" t="str">
+      <c r="U21" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Commercial Services - Water heating: Electricity</v>
       </c>
-      <c r="U21" s="9" t="str">
+      <c r="V21" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V21" s="9" t="str">
+      <c r="W21" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W21" s="9" t="str">
+      <c r="X21" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X21"/>
       <c r="Y21"/>
-      <c r="AA21" s="5" t="str">
+      <c r="Z21"/>
+      <c r="AB21" s="5" t="str">
         <f>IF('Key Inputs'!A43="","",'Key Inputs'!A43)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB21" s="5" t="str">
+      <c r="AC21" s="5" t="str">
         <f>IF('Key Inputs'!B43="","",'Key Inputs'!B43)</f>
         <v>Water heating</v>
       </c>
-      <c r="AC21" s="5" t="str">
+      <c r="AD21" s="5" t="str">
         <f>IF('Key Inputs'!C43="","",'Key Inputs'!C43)</f>
         <v>Electricity</v>
       </c>
-      <c r="AD21" s="5" t="str">
+      <c r="AE21" s="5" t="str">
         <f>IF('Key Inputs'!D43="","",'Key Inputs'!D43)</f>
         <v>ELC</v>
       </c>
-      <c r="AE21" s="5" t="str">
+      <c r="AF21" s="5" t="str">
         <f>IF('Key Inputs'!E43="","",'Key Inputs'!E43)</f>
         <v>SRVELC</v>
       </c>
-      <c r="AF21" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA21,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG21" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB21,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG21" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB21,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH21" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC21,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>WH</v>
       </c>
-      <c r="AH21" s="16">
+      <c r="AI21" s="16">
         <f t="shared" si="9"/>
         <v>1.1848199706667444</v>
       </c>
-      <c r="AI21" s="16">
+      <c r="AJ21" s="16">
         <f t="shared" si="10"/>
         <v>0.923156494505745</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:36">
       <c r="B22" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C22" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-WH-CS_SOL_X0</v>
+      </c>
+      <c r="D22" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-WH-CS_SOL_X0</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Water heating: Solar</v>
       </c>
-      <c r="D22" s="43" t="str">
+      <c r="E22" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVSOL</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="9" t="str">
-        <f>IF($AD22="","",CONCATENATE(Legend!$C$4,AG22,"-",AF22))</f>
+      <c r="F22" s="43"/>
+      <c r="G22" s="9" t="str">
+        <f>IF($AE22="","",CONCATENATE(Legend!$C$4,AH22,"-",AG22))</f>
         <v>SRVWH-CS</v>
       </c>
-      <c r="G22" s="43">
-        <f>IF($AD22="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA22,'Key Inputs'!$B$29:$B$114,$AB22,'Key Inputs'!$C$29:$C$114,$AC22))</f>
+      <c r="H22" s="43">
+        <f>IF($AE22="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB22,'Key Inputs'!$B$29:$B$114,$AC22,'Key Inputs'!$C$29:$C$114,$AD22))</f>
         <v>9.6816645753665109E-3</v>
       </c>
-      <c r="H22" s="530">
-        <f>IF($AD22="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA22,'Key Inputs'!$B$29:$B$114,$AB22,'Key Inputs'!$C$29:$C$114,$AC22))</f>
+      <c r="I22" s="530">
+        <f>IF($AE22="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB22,'Key Inputs'!$B$29:$B$114,$AC22,'Key Inputs'!$C$29:$C$114,$AD22))</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="I22" s="530">
-        <f>IF($AD22="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA22,'Key Inputs'!$B$29:$B$114,$AB22,'Key Inputs'!$C$29:$C$114,$AC22)/8760)</f>
+      <c r="J22" s="530">
+        <f>IF($AE22="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB22,'Key Inputs'!$B$29:$B$114,$AC22,'Key Inputs'!$C$29:$C$114,$AD22)/8760)</f>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="J22" s="532">
-        <f>IF($AD22="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA22,'Key Inputs'!$B$29:$B$114,$AB22,'Key Inputs'!$C$29:$C$114,$AC22))</f>
+      <c r="K22" s="532">
+        <f>IF($AE22="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB22,'Key Inputs'!$B$29:$B$114,$AC22,'Key Inputs'!$C$29:$C$114,$AD22))</f>
         <v>15</v>
       </c>
-      <c r="K22" s="51">
-        <f t="shared" si="3"/>
+      <c r="L22" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L22" s="51"/>
       <c r="M22" s="51"/>
       <c r="N22" s="51"/>
       <c r="O22" s="51"/>
-      <c r="Q22" s="27" t="str">
+      <c r="P22" s="51"/>
+      <c r="R22" s="27" t="str">
         <f t="shared" si="11"/>
         <v>PRE</v>
       </c>
-      <c r="R22" s="36" t="str">
-        <f>IF($AD22="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S22" s="36" t="str">
+        <f>IF($AE22="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S22" s="9" t="str">
-        <f>IF($AD22="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG22,"-",$AF22,"_",$AD22,"_X0"))</f>
+      <c r="T22" s="9" t="str">
+        <f>IF($AE22="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH22,"-",$AG22,"_",$AE22,"_X0"))</f>
         <v>S-WH-CS_SOL_X0</v>
       </c>
-      <c r="T22" s="9" t="str">
+      <c r="U22" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Commercial Services - Water heating: Solar</v>
       </c>
-      <c r="U22" s="9" t="str">
+      <c r="V22" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V22" s="9" t="str">
+      <c r="W22" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W22" s="9" t="str">
+      <c r="X22" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X22"/>
       <c r="Y22"/>
-      <c r="AA22" s="5" t="str">
+      <c r="Z22"/>
+      <c r="AB22" s="5" t="str">
         <f>IF('Key Inputs'!A44="","",'Key Inputs'!A44)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB22" s="5" t="str">
+      <c r="AC22" s="5" t="str">
         <f>IF('Key Inputs'!B44="","",'Key Inputs'!B44)</f>
         <v>Water heating</v>
       </c>
-      <c r="AC22" s="5" t="str">
+      <c r="AD22" s="5" t="str">
         <f>IF('Key Inputs'!C44="","",'Key Inputs'!C44)</f>
         <v>Solar</v>
       </c>
-      <c r="AD22" s="5" t="str">
+      <c r="AE22" s="5" t="str">
         <f>IF('Key Inputs'!D44="","",'Key Inputs'!D44)</f>
         <v>SOL</v>
       </c>
-      <c r="AE22" s="5" t="str">
+      <c r="AF22" s="5" t="str">
         <f>IF('Key Inputs'!E44="","",'Key Inputs'!E44)</f>
         <v>SRVSOL</v>
       </c>
-      <c r="AF22" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA22,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG22" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB22,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG22" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB22,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH22" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC22,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>WH</v>
       </c>
-      <c r="AH22" s="16">
+      <c r="AI22" s="16">
         <f t="shared" si="9"/>
         <v>6.9707984942638888E-3</v>
       </c>
-      <c r="AI22" s="16">
+      <c r="AJ22" s="16">
         <f t="shared" si="10"/>
         <v>6.9707984942638879E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="6" customFormat="1" ht="45">
+    <row r="23" spans="1:36" s="6" customFormat="1">
       <c r="A23" s="15"/>
-      <c r="B23" s="443" t="str">
-        <f t="shared" si="0"/>
+      <c r="B23" s="15" t="str">
+        <f>IF($AE23="",R23,T23)</f>
         <v>*Commercial Services Space cooling</v>
       </c>
-      <c r="C23" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D23" s="539" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="539"/>
-      <c r="F23" s="15" t="str">
-        <f>IF($AD23="","",CONCATENATE(Legend!$C$4,AG23,"-",AF23))</f>
-        <v/>
-      </c>
-      <c r="G23" s="539" t="str">
-        <f>IF($AD23="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA23,'Key Inputs'!$B$29:$B$114,$AB23,'Key Inputs'!$C$29:$C$114,$AC23))</f>
-        <v/>
-      </c>
-      <c r="H23" s="540" t="str">
-        <f>IF($AD23="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA23,'Key Inputs'!$B$29:$B$114,$AB23,'Key Inputs'!$C$29:$C$114,$AC23))</f>
-        <v/>
-      </c>
-      <c r="I23" s="540" t="str">
-        <f>IF($AD23="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA23,'Key Inputs'!$B$29:$B$114,$AB23,'Key Inputs'!$C$29:$C$114,$AC23)/8760)</f>
-        <v/>
-      </c>
-      <c r="J23" s="541" t="str">
-        <f>IF($AD23="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA23,'Key Inputs'!$B$29:$B$114,$AB23,'Key Inputs'!$C$29:$C$114,$AC23))</f>
-        <v/>
-      </c>
-      <c r="K23" s="75" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="F23" s="539"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="539"/>
+      <c r="I23" s="540"/>
+      <c r="J23" s="540"/>
+      <c r="K23" s="541"/>
       <c r="L23" s="75"/>
-      <c r="M23" s="15"/>
+      <c r="M23" s="75"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
-      <c r="P23" s="542"/>
-      <c r="Q23" s="443" t="str">
+      <c r="P23" s="15"/>
+      <c r="Q23" s="542"/>
+      <c r="R23" s="15" t="str">
         <f t="shared" si="11"/>
         <v>*Commercial Services Space cooling</v>
       </c>
-      <c r="R23" s="36" t="str">
-        <f>IF($AD23="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
-        <v/>
-      </c>
-      <c r="S23" s="15" t="str">
-        <f>IF($AD23="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG23,"-",$AF23,"_",$AD23,"_X0"))</f>
-        <v/>
-      </c>
-      <c r="T23" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U23" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="V23" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="W23" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X23" s="542"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="15"/>
       <c r="Y23" s="542"/>
       <c r="Z23" s="542"/>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="439"/>
-    </row>
-    <row r="24" spans="1:35">
+      <c r="AA23" s="542"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="439"/>
+    </row>
+    <row r="24" spans="1:36">
       <c r="B24" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C24" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SC-CS_GAS_X0</v>
+      </c>
+      <c r="D24" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SC-CS_GAS_X0</v>
-      </c>
-      <c r="C24" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Space cooling: Natural Gas</v>
       </c>
-      <c r="D24" s="43" t="str">
+      <c r="E24" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVGAS</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="9" t="str">
-        <f>IF($AD24="","",CONCATENATE(Legend!$C$4,AG24,"-",AF24))</f>
+      <c r="F24" s="43"/>
+      <c r="G24" s="9" t="str">
+        <f>IF($AE24="","",CONCATENATE(Legend!$C$4,AH24,"-",AG24))</f>
         <v>SRVSC-CS</v>
       </c>
-      <c r="G24" s="43">
-        <f>IF($AD24="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA24,'Key Inputs'!$B$29:$B$114,$AB24,'Key Inputs'!$C$29:$C$114,$AC24))</f>
+      <c r="H24" s="43">
+        <f>IF($AE24="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB24,'Key Inputs'!$B$29:$B$114,$AC24,'Key Inputs'!$C$29:$C$114,$AD24))</f>
         <v>1.2345498920836206E-2</v>
       </c>
-      <c r="H24" s="530">
-        <f>IF($AD24="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA24,'Key Inputs'!$B$29:$B$114,$AB24,'Key Inputs'!$C$29:$C$114,$AC24))</f>
+      <c r="I24" s="530">
+        <f>IF($AE24="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB24,'Key Inputs'!$B$29:$B$114,$AC24,'Key Inputs'!$C$29:$C$114,$AD24))</f>
         <v>2.7679848891515557</v>
       </c>
-      <c r="I24" s="530">
-        <f>IF($AD24="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA24,'Key Inputs'!$B$29:$B$114,$AB24,'Key Inputs'!$C$29:$C$114,$AC24)/8760)</f>
+      <c r="J24" s="530">
+        <f>IF($AE24="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB24,'Key Inputs'!$B$29:$B$114,$AC24,'Key Inputs'!$C$29:$C$114,$AD24)/8760)</f>
         <v>3.4246575342465752E-2</v>
       </c>
-      <c r="J24" s="532">
-        <f>IF($AD24="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA24,'Key Inputs'!$B$29:$B$114,$AB24,'Key Inputs'!$C$29:$C$114,$AC24))</f>
+      <c r="K24" s="532">
+        <f>IF($AE24="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB24,'Key Inputs'!$B$29:$B$114,$AC24,'Key Inputs'!$C$29:$C$114,$AD24))</f>
         <v>15</v>
       </c>
-      <c r="K24" s="51">
-        <f t="shared" si="3"/>
+      <c r="L24" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L24" s="51"/>
-      <c r="Q24" s="27" t="str">
+      <c r="M24" s="51"/>
+      <c r="R24" s="27" t="str">
         <f t="shared" si="11"/>
         <v>PRE</v>
       </c>
-      <c r="R24" s="36" t="str">
-        <f>IF($AD24="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S24" s="36" t="str">
+        <f>IF($AE24="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S24" s="9" t="str">
-        <f>IF($AD24="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG24,"-",$AF24,"_",$AD24,"_X0"))</f>
+      <c r="T24" s="9" t="str">
+        <f>IF($AE24="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH24,"-",$AG24,"_",$AE24,"_X0"))</f>
         <v>S-SC-CS_GAS_X0</v>
       </c>
-      <c r="T24" s="9" t="str">
+      <c r="U24" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Commercial Services - Space cooling: Natural Gas</v>
       </c>
-      <c r="U24" s="9" t="str">
+      <c r="V24" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V24" s="9" t="str">
+      <c r="W24" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W24" s="9" t="str">
+      <c r="X24" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X24"/>
       <c r="Y24"/>
-      <c r="AA24" s="5" t="str">
+      <c r="Z24"/>
+      <c r="AB24" s="5" t="str">
         <f>IF('Key Inputs'!A46="","",'Key Inputs'!A46)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB24" s="5" t="str">
+      <c r="AC24" s="5" t="str">
         <f>IF('Key Inputs'!B46="","",'Key Inputs'!B46)</f>
         <v>Space cooling</v>
       </c>
-      <c r="AC24" s="5" t="str">
+      <c r="AD24" s="5" t="str">
         <f>IF('Key Inputs'!C46="","",'Key Inputs'!C46)</f>
         <v>Natural Gas</v>
       </c>
-      <c r="AD24" s="5" t="str">
+      <c r="AE24" s="5" t="str">
         <f>IF('Key Inputs'!D46="","",'Key Inputs'!D46)</f>
         <v>GAS</v>
       </c>
-      <c r="AE24" s="5" t="str">
+      <c r="AF24" s="5" t="str">
         <f>IF('Key Inputs'!E46="","",'Key Inputs'!E46)</f>
         <v>SRVGAS</v>
       </c>
-      <c r="AF24" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA24,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG24" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB24,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG24" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB24,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH24" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC24,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SC</v>
       </c>
-      <c r="AH24" s="16">
+      <c r="AI24" s="16">
         <f t="shared" si="9"/>
         <v>4.8169117131957985E-3</v>
       </c>
-      <c r="AI24" s="16">
+      <c r="AJ24" s="16">
         <f t="shared" si="10"/>
         <v>1.3333138834503102E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:36">
       <c r="B25" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C25" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SC-CS_ELC_X0</v>
+      </c>
+      <c r="D25" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>S-SC-CS_ELC_X0</v>
-      </c>
-      <c r="C25" s="14" t="str">
-        <f t="shared" si="1"/>
         <v>Commercial Services - Space cooling: Electricity</v>
       </c>
-      <c r="D25" s="77" t="str">
+      <c r="E25" s="77" t="str">
         <f t="shared" si="8"/>
         <v>SRVELC</v>
       </c>
-      <c r="E25" s="77"/>
-      <c r="F25" s="14" t="str">
-        <f>IF($AD25="","",CONCATENATE(Legend!$C$4,AG25,"-",AF25))</f>
+      <c r="F25" s="77"/>
+      <c r="G25" s="14" t="str">
+        <f>IF($AE25="","",CONCATENATE(Legend!$C$4,AH25,"-",AG25))</f>
         <v>SRVSC-CS</v>
       </c>
-      <c r="G25" s="77">
-        <f>IF($AD25="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA25,'Key Inputs'!$B$29:$B$114,$AB25,'Key Inputs'!$C$29:$C$114,$AC25))</f>
+      <c r="H25" s="77">
+        <f>IF($AE25="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB25,'Key Inputs'!$B$29:$B$114,$AC25,'Key Inputs'!$C$29:$C$114,$AD25))</f>
         <v>2.6431363796678138</v>
       </c>
-      <c r="H25" s="537">
-        <f>IF($AD25="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA25,'Key Inputs'!$B$29:$B$114,$AB25,'Key Inputs'!$C$29:$C$114,$AC25))</f>
+      <c r="I25" s="537">
+        <f>IF($AE25="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB25,'Key Inputs'!$B$29:$B$114,$AC25,'Key Inputs'!$C$29:$C$114,$AD25))</f>
         <v>2.7466471585410193</v>
       </c>
-      <c r="I25" s="537">
-        <f>IF($AD25="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA25,'Key Inputs'!$B$29:$B$114,$AB25,'Key Inputs'!$C$29:$C$114,$AC25)/8760)</f>
+      <c r="J25" s="537">
+        <f>IF($AE25="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB25,'Key Inputs'!$B$29:$B$114,$AC25,'Key Inputs'!$C$29:$C$114,$AD25)/8760)</f>
         <v>3.4246575342465752E-2</v>
       </c>
-      <c r="J25" s="538">
-        <f>IF($AD25="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA25,'Key Inputs'!$B$29:$B$114,$AB25,'Key Inputs'!$C$29:$C$114,$AC25))</f>
+      <c r="K25" s="538">
+        <f>IF($AE25="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB25,'Key Inputs'!$B$29:$B$114,$AC25,'Key Inputs'!$C$29:$C$114,$AD25))</f>
         <v>15</v>
       </c>
-      <c r="K25" s="427">
-        <f t="shared" si="3"/>
+      <c r="L25" s="427">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L25" s="427"/>
-      <c r="M25" s="73"/>
+      <c r="M25" s="427"/>
       <c r="N25" s="73"/>
       <c r="O25" s="73"/>
-      <c r="Q25" s="34" t="str">
+      <c r="P25" s="73"/>
+      <c r="R25" s="34" t="str">
         <f t="shared" si="11"/>
         <v>PRE</v>
       </c>
-      <c r="R25" s="46" t="str">
-        <f>IF($AD25="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S25" s="46" t="str">
+        <f>IF($AE25="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S25" s="14" t="str">
-        <f>IF($AD25="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG25,"-",$AF25,"_",$AD25,"_X0"))</f>
+      <c r="T25" s="14" t="str">
+        <f>IF($AE25="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH25,"-",$AG25,"_",$AE25,"_X0"))</f>
         <v>S-SC-CS_ELC_X0</v>
       </c>
-      <c r="T25" s="14" t="str">
+      <c r="U25" s="14" t="str">
         <f t="shared" si="4"/>
         <v>Commercial Services - Space cooling: Electricity</v>
       </c>
-      <c r="U25" s="14" t="str">
+      <c r="V25" s="14" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V25" s="14" t="str">
+      <c r="W25" s="14" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W25" s="14" t="str">
+      <c r="X25" s="14" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X25" s="73"/>
       <c r="Y25" s="73"/>
-      <c r="AA25" s="5" t="str">
+      <c r="Z25" s="73"/>
+      <c r="AB25" s="5" t="str">
         <f>IF('Key Inputs'!A47="","",'Key Inputs'!A47)</f>
         <v>Commercial Services</v>
       </c>
-      <c r="AB25" s="5" t="str">
+      <c r="AC25" s="5" t="str">
         <f>IF('Key Inputs'!B47="","",'Key Inputs'!B47)</f>
         <v>Space cooling</v>
       </c>
-      <c r="AC25" s="5" t="str">
+      <c r="AD25" s="5" t="str">
         <f>IF('Key Inputs'!C47="","",'Key Inputs'!C47)</f>
         <v>Electricity</v>
       </c>
-      <c r="AD25" s="5" t="str">
+      <c r="AE25" s="5" t="str">
         <f>IF('Key Inputs'!D47="","",'Key Inputs'!D47)</f>
         <v>ELC</v>
       </c>
-      <c r="AE25" s="5" t="str">
+      <c r="AF25" s="5" t="str">
         <f>IF('Key Inputs'!E47="","",'Key Inputs'!E47)</f>
         <v>SRVELC</v>
       </c>
-      <c r="AF25" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA25,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG25" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB25,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>CS</v>
       </c>
-      <c r="AG25" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB25,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH25" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC25,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SC</v>
       </c>
-      <c r="AH25" s="16">
+      <c r="AI25" s="16">
         <f t="shared" si="9"/>
         <v>1.039298870684779</v>
       </c>
-      <c r="AI25" s="16">
+      <c r="AJ25" s="16">
         <f t="shared" si="10"/>
         <v>2.8545872900412386</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="6" customFormat="1" ht="30">
+    <row r="26" spans="1:36" s="6" customFormat="1">
       <c r="A26" s="15"/>
-      <c r="B26" s="443" t="str">
-        <f t="shared" si="0"/>
+      <c r="B26" s="15" t="str">
+        <f>IF($AE26="",R26,T26)</f>
         <v>*Public Services Space heating</v>
       </c>
-      <c r="C26" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D26" s="539" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="539"/>
-      <c r="F26" s="15" t="str">
-        <f>IF($AD26="","",CONCATENATE(Legend!$C$4,AG26,"-",AF26))</f>
-        <v/>
-      </c>
-      <c r="G26" s="539" t="str">
-        <f>IF($AD26="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA26,'Key Inputs'!$B$29:$B$114,$AB26,'Key Inputs'!$C$29:$C$114,$AC26))</f>
-        <v/>
-      </c>
-      <c r="H26" s="540" t="str">
-        <f>IF($AD26="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA26,'Key Inputs'!$B$29:$B$114,$AB26,'Key Inputs'!$C$29:$C$114,$AC26))</f>
-        <v/>
-      </c>
-      <c r="I26" s="540" t="str">
-        <f>IF($AD26="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA26,'Key Inputs'!$B$29:$B$114,$AB26,'Key Inputs'!$C$29:$C$114,$AC26)/8760)</f>
-        <v/>
-      </c>
-      <c r="J26" s="541" t="str">
-        <f>IF($AD26="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA26,'Key Inputs'!$B$29:$B$114,$AB26,'Key Inputs'!$C$29:$C$114,$AC26))</f>
-        <v/>
-      </c>
-      <c r="K26" s="75" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="F26" s="539"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="539"/>
+      <c r="I26" s="540"/>
+      <c r="J26" s="540"/>
+      <c r="K26" s="541"/>
       <c r="L26" s="75"/>
-      <c r="M26" s="542"/>
+      <c r="M26" s="75"/>
       <c r="N26" s="542"/>
       <c r="O26" s="542"/>
       <c r="P26" s="542"/>
-      <c r="Q26" s="443" t="str">
+      <c r="Q26" s="542"/>
+      <c r="R26" s="15" t="str">
         <f t="shared" si="11"/>
         <v>*Public Services Space heating</v>
       </c>
-      <c r="R26" s="36" t="str">
-        <f>IF($AD26="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
-        <v/>
-      </c>
-      <c r="S26" s="15" t="str">
-        <f>IF($AD26="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG26,"-",$AF26,"_",$AD26,"_X0"))</f>
-        <v/>
-      </c>
-      <c r="T26" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U26" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="V26" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="W26" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="S26" s="36"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
       <c r="X26" s="15"/>
       <c r="Y26" s="15"/>
-      <c r="Z26" s="542"/>
-      <c r="AH26" s="16"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="542"/>
       <c r="AI26" s="16"/>
-    </row>
-    <row r="27" spans="1:35">
+      <c r="AJ26" s="16"/>
+    </row>
+    <row r="27" spans="1:36">
       <c r="B27" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C27" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SH-PU_COA_X0</v>
+      </c>
+      <c r="D27" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SH-PU_COA_X0</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Space heating: Solids</v>
       </c>
-      <c r="D27" s="43" t="str">
+      <c r="E27" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVCOA</v>
       </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="9" t="str">
-        <f>IF($AD27="","",CONCATENATE(Legend!$C$4,AG27,"-",AF27))</f>
+      <c r="F27" s="43"/>
+      <c r="G27" s="9" t="str">
+        <f>IF($AE27="","",CONCATENATE(Legend!$C$4,AH27,"-",AG27))</f>
         <v>SRVSH-PU</v>
       </c>
-      <c r="G27" s="43">
-        <f>IF($AD27="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA27,'Key Inputs'!$B$29:$B$114,$AB27,'Key Inputs'!$C$29:$C$114,$AC27))</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="530">
-        <f>IF($AD27="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA27,'Key Inputs'!$B$29:$B$114,$AB27,'Key Inputs'!$C$29:$C$114,$AC27))</f>
+      <c r="H27" s="43">
+        <f>IF($AE27="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB27,'Key Inputs'!$B$29:$B$114,$AC27,'Key Inputs'!$C$29:$C$114,$AD27))</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="530">
+        <f>IF($AE27="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB27,'Key Inputs'!$B$29:$B$114,$AC27,'Key Inputs'!$C$29:$C$114,$AD27))</f>
         <v>0.33</v>
       </c>
-      <c r="I27" s="530">
-        <f>IF($AD27="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA27,'Key Inputs'!$B$29:$B$114,$AB27,'Key Inputs'!$C$29:$C$114,$AC27)/8760)</f>
+      <c r="J27" s="530">
+        <f>IF($AE27="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB27,'Key Inputs'!$B$29:$B$114,$AC27,'Key Inputs'!$C$29:$C$114,$AD27)/8760)</f>
         <v>0.11415525114155251</v>
       </c>
-      <c r="J27" s="532">
-        <f>IF($AD27="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA27,'Key Inputs'!$B$29:$B$114,$AB27,'Key Inputs'!$C$29:$C$114,$AC27))</f>
+      <c r="K27" s="532">
+        <f>IF($AE27="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB27,'Key Inputs'!$B$29:$B$114,$AC27,'Key Inputs'!$C$29:$C$114,$AD27))</f>
         <v>20</v>
       </c>
-      <c r="K27" s="51">
-        <f t="shared" si="3"/>
+      <c r="L27" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L27" s="51"/>
-      <c r="Q27" s="27" t="str">
+      <c r="M27" s="51"/>
+      <c r="R27" s="27" t="str">
         <f t="shared" si="11"/>
         <v>PRE</v>
       </c>
-      <c r="R27" s="36" t="str">
-        <f>IF($AD27="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S27" s="36" t="str">
+        <f>IF($AE27="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S27" s="9" t="str">
-        <f>IF($AD27="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG27,"-",$AF27,"_",$AD27,"_X0"))</f>
+      <c r="T27" s="9" t="str">
+        <f>IF($AE27="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH27,"-",$AG27,"_",$AE27,"_X0"))</f>
         <v>S-SH-PU_COA_X0</v>
       </c>
-      <c r="T27" s="9" t="str">
+      <c r="U27" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Space heating: Solids</v>
       </c>
-      <c r="U27" s="9" t="str">
+      <c r="V27" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V27" s="9" t="str">
+      <c r="W27" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W27" s="9" t="str">
+      <c r="X27" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
-      <c r="AA27" s="5" t="str">
+      <c r="Z27" s="9"/>
+      <c r="AB27" s="5" t="str">
         <f>IF('Key Inputs'!A49="","",'Key Inputs'!A49)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB27" s="5" t="str">
+      <c r="AC27" s="5" t="str">
         <f>IF('Key Inputs'!B49="","",'Key Inputs'!B49)</f>
         <v>Space heating</v>
       </c>
-      <c r="AC27" s="5" t="str">
+      <c r="AD27" s="5" t="str">
         <f>IF('Key Inputs'!C49="","",'Key Inputs'!C49)</f>
         <v>Solids</v>
       </c>
-      <c r="AD27" s="5" t="str">
+      <c r="AE27" s="5" t="str">
         <f>IF('Key Inputs'!D49="","",'Key Inputs'!D49)</f>
         <v>COA</v>
       </c>
-      <c r="AE27" s="5" t="str">
+      <c r="AF27" s="5" t="str">
         <f>IF('Key Inputs'!E49="","",'Key Inputs'!E49)</f>
         <v>SRVCOA</v>
       </c>
-      <c r="AF27" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA27,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG27" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB27,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG27" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB27,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH27" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC27,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SH</v>
       </c>
-      <c r="AH27" s="16">
+      <c r="AI27" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI27" s="16">
+      <c r="AJ27" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:36">
       <c r="B28" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C28" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SH-PU_LPG_X0</v>
+      </c>
+      <c r="D28" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SH-PU_LPG_X0</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Space heating: LPG</v>
       </c>
-      <c r="D28" s="43" t="str">
+      <c r="E28" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVLPG</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="9" t="str">
-        <f>IF($AD28="","",CONCATENATE(Legend!$C$4,AG28,"-",AF28))</f>
+      <c r="F28" s="43"/>
+      <c r="G28" s="9" t="str">
+        <f>IF($AE28="","",CONCATENATE(Legend!$C$4,AH28,"-",AG28))</f>
         <v>SRVSH-PU</v>
       </c>
-      <c r="G28" s="43">
-        <f>IF($AD28="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA28,'Key Inputs'!$B$29:$B$114,$AB28,'Key Inputs'!$C$29:$C$114,$AC28))</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="530">
-        <f>IF($AD28="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA28,'Key Inputs'!$B$29:$B$114,$AB28,'Key Inputs'!$C$29:$C$114,$AC28))</f>
+      <c r="H28" s="43">
+        <f>IF($AE28="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB28,'Key Inputs'!$B$29:$B$114,$AC28,'Key Inputs'!$C$29:$C$114,$AD28))</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="530">
+        <f>IF($AE28="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB28,'Key Inputs'!$B$29:$B$114,$AC28,'Key Inputs'!$C$29:$C$114,$AD28))</f>
         <v>0.33</v>
       </c>
-      <c r="I28" s="530">
-        <f>IF($AD28="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA28,'Key Inputs'!$B$29:$B$114,$AB28,'Key Inputs'!$C$29:$C$114,$AC28)/8760)</f>
+      <c r="J28" s="530">
+        <f>IF($AE28="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB28,'Key Inputs'!$B$29:$B$114,$AC28,'Key Inputs'!$C$29:$C$114,$AD28)/8760)</f>
         <v>0.11415525114155251</v>
       </c>
-      <c r="J28" s="532">
-        <f>IF($AD28="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA28,'Key Inputs'!$B$29:$B$114,$AB28,'Key Inputs'!$C$29:$C$114,$AC28))</f>
+      <c r="K28" s="532">
+        <f>IF($AE28="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB28,'Key Inputs'!$B$29:$B$114,$AC28,'Key Inputs'!$C$29:$C$114,$AD28))</f>
         <v>20</v>
       </c>
-      <c r="K28" s="51">
-        <f t="shared" si="3"/>
+      <c r="L28" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L28" s="51"/>
-      <c r="Q28" s="27" t="str">
+      <c r="M28" s="51"/>
+      <c r="R28" s="27" t="str">
         <f t="shared" si="11"/>
         <v>PRE</v>
       </c>
-      <c r="R28" s="36" t="str">
-        <f>IF($AD28="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S28" s="36" t="str">
+        <f>IF($AE28="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S28" s="9" t="str">
-        <f>IF($AD28="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG28,"-",$AF28,"_",$AD28,"_X0"))</f>
+      <c r="T28" s="9" t="str">
+        <f>IF($AE28="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH28,"-",$AG28,"_",$AE28,"_X0"))</f>
         <v>S-SH-PU_LPG_X0</v>
       </c>
-      <c r="T28" s="9" t="str">
+      <c r="U28" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Space heating: LPG</v>
       </c>
-      <c r="U28" s="9" t="str">
+      <c r="V28" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V28" s="9" t="str">
+      <c r="W28" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W28" s="9" t="str">
+      <c r="X28" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
-      <c r="AA28" s="5" t="str">
+      <c r="Z28" s="9"/>
+      <c r="AB28" s="5" t="str">
         <f>IF('Key Inputs'!A50="","",'Key Inputs'!A50)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB28" s="5" t="str">
+      <c r="AC28" s="5" t="str">
         <f>IF('Key Inputs'!B50="","",'Key Inputs'!B50)</f>
         <v>Space heating</v>
       </c>
-      <c r="AC28" s="5" t="str">
+      <c r="AD28" s="5" t="str">
         <f>IF('Key Inputs'!C50="","",'Key Inputs'!C50)</f>
         <v>LPG</v>
       </c>
-      <c r="AD28" s="5" t="str">
+      <c r="AE28" s="5" t="str">
         <f>IF('Key Inputs'!D50="","",'Key Inputs'!D50)</f>
         <v>LPG</v>
       </c>
-      <c r="AE28" s="5" t="str">
+      <c r="AF28" s="5" t="str">
         <f>IF('Key Inputs'!E50="","",'Key Inputs'!E50)</f>
         <v>SRVLPG</v>
       </c>
-      <c r="AF28" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA28,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG28" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB28,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG28" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB28,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH28" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC28,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SH</v>
       </c>
-      <c r="AH28" s="16">
+      <c r="AI28" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI28" s="16">
+      <c r="AJ28" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:36">
       <c r="B29" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C29" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SH-PU_OIL_X0</v>
+      </c>
+      <c r="D29" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SH-PU_OIL_X0</v>
-      </c>
-      <c r="C29" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Space heating: Oil</v>
       </c>
-      <c r="D29" s="43" t="str">
+      <c r="E29" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVOIL</v>
       </c>
-      <c r="E29" s="43"/>
-      <c r="F29" s="9" t="str">
-        <f>IF($AD29="","",CONCATENATE(Legend!$C$4,AG29,"-",AF29))</f>
+      <c r="F29" s="43"/>
+      <c r="G29" s="9" t="str">
+        <f>IF($AE29="","",CONCATENATE(Legend!$C$4,AH29,"-",AG29))</f>
         <v>SRVSH-PU</v>
       </c>
-      <c r="G29" s="43">
-        <f>IF($AD29="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA29,'Key Inputs'!$B$29:$B$114,$AB29,'Key Inputs'!$C$29:$C$114,$AC29))</f>
+      <c r="H29" s="43">
+        <f>IF($AE29="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB29,'Key Inputs'!$B$29:$B$114,$AC29,'Key Inputs'!$C$29:$C$114,$AD29))</f>
         <v>0.73295449486581721</v>
       </c>
-      <c r="H29" s="530">
-        <f>IF($AD29="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA29,'Key Inputs'!$B$29:$B$114,$AB29,'Key Inputs'!$C$29:$C$114,$AC29))</f>
+      <c r="I29" s="530">
+        <f>IF($AE29="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB29,'Key Inputs'!$B$29:$B$114,$AC29,'Key Inputs'!$C$29:$C$114,$AD29))</f>
         <v>0.6583558448972523</v>
       </c>
-      <c r="I29" s="530">
-        <f>IF($AD29="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA29,'Key Inputs'!$B$29:$B$114,$AB29,'Key Inputs'!$C$29:$C$114,$AC29)/8760)</f>
+      <c r="J29" s="530">
+        <f>IF($AE29="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB29,'Key Inputs'!$B$29:$B$114,$AC29,'Key Inputs'!$C$29:$C$114,$AD29)/8760)</f>
         <v>0.11415525114155251</v>
       </c>
-      <c r="J29" s="532">
-        <f>IF($AD29="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA29,'Key Inputs'!$B$29:$B$114,$AB29,'Key Inputs'!$C$29:$C$114,$AC29))</f>
+      <c r="K29" s="532">
+        <f>IF($AE29="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB29,'Key Inputs'!$B$29:$B$114,$AC29,'Key Inputs'!$C$29:$C$114,$AD29))</f>
         <v>20</v>
       </c>
-      <c r="K29" s="51">
-        <f t="shared" si="3"/>
+      <c r="L29" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L29" s="51"/>
-      <c r="Q29" s="27" t="str">
-        <f>IF($AD29="","*"&amp;#REF!&amp;" "&amp;#REF!,"PRE")</f>
+      <c r="M29" s="51"/>
+      <c r="R29" s="27" t="str">
+        <f>IF($AE29="","*"&amp;#REF!&amp;" "&amp;#REF!,"PRE")</f>
         <v>PRE</v>
       </c>
-      <c r="R29" s="36" t="str">
-        <f>IF($AD29="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S29" s="36" t="str">
+        <f>IF($AE29="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S29" s="9" t="str">
-        <f>IF($AD29="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG29,"-",$AF29,"_",$AD29,"_X0"))</f>
+      <c r="T29" s="9" t="str">
+        <f>IF($AE29="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH29,"-",$AG29,"_",$AE29,"_X0"))</f>
         <v>S-SH-PU_OIL_X0</v>
       </c>
-      <c r="T29" s="9" t="str">
+      <c r="U29" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Space heating: Oil</v>
       </c>
-      <c r="U29" s="9" t="str">
+      <c r="V29" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V29" s="9" t="str">
+      <c r="W29" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W29" s="9" t="str">
+      <c r="X29" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
-      <c r="AA29" s="5" t="str">
+      <c r="Z29" s="9"/>
+      <c r="AB29" s="5" t="str">
         <f>IF('Key Inputs'!A51="","",'Key Inputs'!A51)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB29" s="5" t="str">
+      <c r="AC29" s="5" t="str">
         <f>IF('Key Inputs'!B51="","",'Key Inputs'!B51)</f>
         <v>Space heating</v>
       </c>
-      <c r="AC29" s="5" t="str">
+      <c r="AD29" s="5" t="str">
         <f>IF('Key Inputs'!C51="","",'Key Inputs'!C51)</f>
         <v>Oil</v>
       </c>
-      <c r="AD29" s="5" t="str">
+      <c r="AE29" s="5" t="str">
         <f>IF('Key Inputs'!D51="","",'Key Inputs'!D51)</f>
         <v>OIL</v>
       </c>
-      <c r="AE29" s="5" t="str">
+      <c r="AF29" s="5" t="str">
         <f>IF('Key Inputs'!E51="","",'Key Inputs'!E51)</f>
         <v>SRVOIL</v>
       </c>
-      <c r="AF29" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA29,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG29" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB29,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG29" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB29,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH29" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC29,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SH</v>
       </c>
-      <c r="AH29" s="16">
+      <c r="AI29" s="16">
         <f t="shared" si="9"/>
         <v>4.0079179093925204</v>
       </c>
-      <c r="AI29" s="16">
+      <c r="AJ29" s="16">
         <f t="shared" si="10"/>
         <v>2.6386361815169419</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:36">
       <c r="B30" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C30" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SH-PU_GAS_X0</v>
+      </c>
+      <c r="D30" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SH-PU_GAS_X0</v>
-      </c>
-      <c r="C30" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Space heating: Natural Gas</v>
       </c>
-      <c r="D30" s="43" t="str">
+      <c r="E30" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVGAS, SRVBGS</v>
       </c>
-      <c r="E30" s="43"/>
-      <c r="F30" s="9" t="str">
-        <f>IF($AD30="","",CONCATENATE(Legend!$C$4,AG30,"-",AF30))</f>
+      <c r="F30" s="43"/>
+      <c r="G30" s="9" t="str">
+        <f>IF($AE30="","",CONCATENATE(Legend!$C$4,AH30,"-",AG30))</f>
         <v>SRVSH-PU</v>
       </c>
-      <c r="G30" s="43">
-        <f>IF($AD30="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA30,'Key Inputs'!$B$29:$B$114,$AB30,'Key Inputs'!$C$29:$C$114,$AC30))</f>
+      <c r="H30" s="43">
+        <f>IF($AE30="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB30,'Key Inputs'!$B$29:$B$114,$AC30,'Key Inputs'!$C$29:$C$114,$AD30))</f>
         <v>1.0435362451739916</v>
       </c>
-      <c r="H30" s="530">
-        <f>IF($AD30="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA30,'Key Inputs'!$B$29:$B$114,$AB30,'Key Inputs'!$C$29:$C$114,$AC30))</f>
+      <c r="I30" s="530">
+        <f>IF($AE30="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB30,'Key Inputs'!$B$29:$B$114,$AC30,'Key Inputs'!$C$29:$C$114,$AD30))</f>
         <v>0.77299617086321282</v>
       </c>
-      <c r="I30" s="530">
-        <f>IF($AD30="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA30,'Key Inputs'!$B$29:$B$114,$AB30,'Key Inputs'!$C$29:$C$114,$AC30)/8760)</f>
+      <c r="J30" s="530">
+        <f>IF($AE30="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB30,'Key Inputs'!$B$29:$B$114,$AC30,'Key Inputs'!$C$29:$C$114,$AD30)/8760)</f>
         <v>0.11415525114155251</v>
       </c>
-      <c r="J30" s="532">
-        <f>IF($AD30="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA30,'Key Inputs'!$B$29:$B$114,$AB30,'Key Inputs'!$C$29:$C$114,$AC30))</f>
+      <c r="K30" s="532">
+        <f>IF($AE30="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB30,'Key Inputs'!$B$29:$B$114,$AC30,'Key Inputs'!$C$29:$C$114,$AD30))</f>
         <v>20</v>
       </c>
-      <c r="K30" s="51">
-        <f t="shared" si="3"/>
+      <c r="L30" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L30" s="51"/>
-      <c r="M30" s="531">
+      <c r="M30" s="51"/>
+      <c r="N30" s="531">
         <f>EB_SRV!G69/'Key Inputs'!F52</f>
         <v>4.1500609281302586E-2</v>
       </c>
-      <c r="N30" s="531">
-        <f>M30</f>
+      <c r="O30" s="531">
+        <f>N30</f>
         <v>4.1500609281302586E-2</v>
       </c>
-      <c r="O30" s="58">
+      <c r="P30" s="58">
         <v>5</v>
       </c>
-      <c r="Q30" s="27" t="str">
-        <f t="shared" ref="Q30:Q44" si="12">IF($AD30="","*"&amp;AA31&amp;" "&amp;AB31,"PRE")</f>
+      <c r="R30" s="27" t="str">
+        <f t="shared" ref="R30:R44" si="12">IF($AE30="","*"&amp;AB31&amp;" "&amp;AC31,"PRE")</f>
         <v>PRE</v>
       </c>
-      <c r="R30" s="36" t="str">
-        <f>IF($AD30="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S30" s="36" t="str">
+        <f>IF($AE30="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S30" s="9" t="str">
-        <f>IF($AD30="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG30,"-",$AF30,"_",$AD30,"_X0"))</f>
+      <c r="T30" s="9" t="str">
+        <f>IF($AE30="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH30,"-",$AG30,"_",$AE30,"_X0"))</f>
         <v>S-SH-PU_GAS_X0</v>
       </c>
-      <c r="T30" s="9" t="str">
+      <c r="U30" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Space heating: Natural Gas</v>
       </c>
-      <c r="U30" s="9" t="str">
+      <c r="V30" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V30" s="9" t="str">
+      <c r="W30" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W30" s="9" t="str">
+      <c r="X30" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
-      <c r="AA30" s="5" t="str">
+      <c r="Z30" s="9"/>
+      <c r="AB30" s="5" t="str">
         <f>IF('Key Inputs'!A52="","",'Key Inputs'!A52)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB30" s="5" t="str">
+      <c r="AC30" s="5" t="str">
         <f>IF('Key Inputs'!B52="","",'Key Inputs'!B52)</f>
         <v>Space heating</v>
       </c>
-      <c r="AC30" s="5" t="str">
+      <c r="AD30" s="5" t="str">
         <f>IF('Key Inputs'!C52="","",'Key Inputs'!C52)</f>
         <v>Natural Gas</v>
       </c>
-      <c r="AD30" s="5" t="str">
+      <c r="AE30" s="5" t="str">
         <f>IF('Key Inputs'!D52="","",'Key Inputs'!D52)</f>
         <v>GAS</v>
       </c>
-      <c r="AE30" s="5" t="str">
+      <c r="AF30" s="5" t="str">
         <f>IF('Key Inputs'!E52="","",'Key Inputs'!E52)</f>
         <v>SRVGAS, SRVBGS</v>
       </c>
-      <c r="AF30" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA30,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG30" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB30,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG30" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB30,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH30" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC30,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SH</v>
       </c>
-      <c r="AH30" s="16">
+      <c r="AI30" s="16">
         <f t="shared" si="9"/>
         <v>4.8599600156249023</v>
       </c>
-      <c r="AI30" s="16">
+      <c r="AJ30" s="16">
         <f t="shared" si="10"/>
         <v>3.7567304826263697</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:36">
       <c r="B31" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C31" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SH-PU_BIO_X0</v>
+      </c>
+      <c r="D31" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SH-PU_BIO_X0</v>
-      </c>
-      <c r="C31" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Space heating: Biomass</v>
       </c>
-      <c r="D31" s="43" t="str">
+      <c r="E31" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVBIO</v>
       </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="9" t="str">
-        <f>IF($AD31="","",CONCATENATE(Legend!$C$4,AG31,"-",AF31))</f>
+      <c r="F31" s="43"/>
+      <c r="G31" s="9" t="str">
+        <f>IF($AE31="","",CONCATENATE(Legend!$C$4,AH31,"-",AG31))</f>
         <v>SRVSH-PU</v>
       </c>
-      <c r="G31" s="43">
-        <f>IF($AD31="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA31,'Key Inputs'!$B$29:$B$114,$AB31,'Key Inputs'!$C$29:$C$114,$AC31))</f>
+      <c r="H31" s="43">
+        <f>IF($AE31="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB31,'Key Inputs'!$B$29:$B$114,$AC31,'Key Inputs'!$C$29:$C$114,$AD31))</f>
         <v>9.5807878968085625E-2</v>
       </c>
-      <c r="H31" s="530">
-        <f>IF($AD31="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA31,'Key Inputs'!$B$29:$B$114,$AB31,'Key Inputs'!$C$29:$C$114,$AC31))</f>
+      <c r="I31" s="530">
+        <f>IF($AE31="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB31,'Key Inputs'!$B$29:$B$114,$AC31,'Key Inputs'!$C$29:$C$114,$AD31))</f>
         <v>0.63490443337371294</v>
       </c>
-      <c r="I31" s="530">
-        <f>IF($AD31="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA31,'Key Inputs'!$B$29:$B$114,$AB31,'Key Inputs'!$C$29:$C$114,$AC31)/8760)</f>
+      <c r="J31" s="530">
+        <f>IF($AE31="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB31,'Key Inputs'!$B$29:$B$114,$AC31,'Key Inputs'!$C$29:$C$114,$AD31)/8760)</f>
         <v>0.11415525114155251</v>
       </c>
-      <c r="J31" s="532">
-        <f>IF($AD31="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA31,'Key Inputs'!$B$29:$B$114,$AB31,'Key Inputs'!$C$29:$C$114,$AC31))</f>
+      <c r="K31" s="532">
+        <f>IF($AE31="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB31,'Key Inputs'!$B$29:$B$114,$AC31,'Key Inputs'!$C$29:$C$114,$AD31))</f>
         <v>20</v>
       </c>
-      <c r="K31" s="51">
-        <f t="shared" si="3"/>
+      <c r="L31" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L31" s="51"/>
-      <c r="Q31" s="27" t="str">
+      <c r="M31" s="51"/>
+      <c r="R31" s="27" t="str">
         <f t="shared" si="12"/>
         <v>PRE</v>
       </c>
-      <c r="R31" s="36" t="str">
-        <f>IF($AD31="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S31" s="36" t="str">
+        <f>IF($AE31="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S31" s="9" t="str">
-        <f>IF($AD31="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG31,"-",$AF31,"_",$AD31,"_X0"))</f>
+      <c r="T31" s="9" t="str">
+        <f>IF($AE31="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH31,"-",$AG31,"_",$AE31,"_X0"))</f>
         <v>S-SH-PU_BIO_X0</v>
       </c>
-      <c r="T31" s="9" t="str">
+      <c r="U31" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Space heating: Biomass</v>
       </c>
-      <c r="U31" s="9" t="str">
+      <c r="V31" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V31" s="9" t="str">
+      <c r="W31" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W31" s="9" t="str">
+      <c r="X31" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
-      <c r="AA31" s="5" t="str">
+      <c r="Z31" s="9"/>
+      <c r="AB31" s="5" t="str">
         <f>IF('Key Inputs'!A53="","",'Key Inputs'!A53)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB31" s="5" t="str">
+      <c r="AC31" s="5" t="str">
         <f>IF('Key Inputs'!B53="","",'Key Inputs'!B53)</f>
         <v>Space heating</v>
       </c>
-      <c r="AC31" s="5" t="str">
+      <c r="AD31" s="5" t="str">
         <f>IF('Key Inputs'!C53="","",'Key Inputs'!C53)</f>
         <v>Biomass</v>
       </c>
-      <c r="AD31" s="5" t="str">
+      <c r="AE31" s="5" t="str">
         <f>IF('Key Inputs'!D53="","",'Key Inputs'!D53)</f>
         <v>BIO</v>
       </c>
-      <c r="AE31" s="5" t="str">
+      <c r="AF31" s="5" t="str">
         <f>IF('Key Inputs'!E53="","",'Key Inputs'!E53)</f>
         <v>SRVBIO</v>
       </c>
-      <c r="AF31" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA31,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG31" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB31,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG31" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB31,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH31" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC31,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SH</v>
       </c>
-      <c r="AH31" s="16">
+      <c r="AI31" s="16">
         <f t="shared" si="9"/>
         <v>0.54324453595694255</v>
       </c>
-      <c r="AI31" s="16">
+      <c r="AJ31" s="16">
         <f t="shared" si="10"/>
         <v>0.34490836428510824</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:36">
       <c r="B32" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C32" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SH-PU_SOL_X0</v>
+      </c>
+      <c r="D32" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SH-PU_SOL_X0</v>
-      </c>
-      <c r="C32" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Space heating: Solar</v>
       </c>
-      <c r="D32" s="43" t="str">
+      <c r="E32" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVSOL</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="9" t="str">
-        <f>IF($AD32="","",CONCATENATE(Legend!$C$4,AG32,"-",AF32))</f>
+      <c r="F32" s="43"/>
+      <c r="G32" s="9" t="str">
+        <f>IF($AE32="","",CONCATENATE(Legend!$C$4,AH32,"-",AG32))</f>
         <v>SRVSH-PU</v>
       </c>
-      <c r="G32" s="43">
-        <f>IF($AD32="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA32,'Key Inputs'!$B$29:$B$114,$AB32,'Key Inputs'!$C$29:$C$114,$AC32))</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="530">
-        <f>IF($AD32="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA32,'Key Inputs'!$B$29:$B$114,$AB32,'Key Inputs'!$C$29:$C$114,$AC32))</f>
+      <c r="H32" s="43">
+        <f>IF($AE32="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB32,'Key Inputs'!$B$29:$B$114,$AC32,'Key Inputs'!$C$29:$C$114,$AD32))</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="530">
+        <f>IF($AE32="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB32,'Key Inputs'!$B$29:$B$114,$AC32,'Key Inputs'!$C$29:$C$114,$AD32))</f>
         <v>0.33</v>
       </c>
-      <c r="I32" s="530">
-        <f>IF($AD32="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA32,'Key Inputs'!$B$29:$B$114,$AB32,'Key Inputs'!$C$29:$C$114,$AC32)/8760)</f>
+      <c r="J32" s="530">
+        <f>IF($AE32="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB32,'Key Inputs'!$B$29:$B$114,$AC32,'Key Inputs'!$C$29:$C$114,$AD32)/8760)</f>
         <v>0.11415525114155251</v>
       </c>
-      <c r="J32" s="532">
-        <f>IF($AD32="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA32,'Key Inputs'!$B$29:$B$114,$AB32,'Key Inputs'!$C$29:$C$114,$AC32))</f>
+      <c r="K32" s="532">
+        <f>IF($AE32="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB32,'Key Inputs'!$B$29:$B$114,$AC32,'Key Inputs'!$C$29:$C$114,$AD32))</f>
         <v>15</v>
       </c>
-      <c r="K32" s="51">
-        <f t="shared" si="3"/>
+      <c r="L32" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L32" s="51"/>
-      <c r="Q32" s="27" t="str">
+      <c r="M32" s="51"/>
+      <c r="R32" s="27" t="str">
         <f t="shared" si="12"/>
         <v>PRE</v>
       </c>
-      <c r="R32" s="36" t="str">
-        <f>IF($AD32="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S32" s="36" t="str">
+        <f>IF($AE32="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S32" s="9" t="str">
-        <f>IF($AD32="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG32,"-",$AF32,"_",$AD32,"_X0"))</f>
+      <c r="T32" s="9" t="str">
+        <f>IF($AE32="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH32,"-",$AG32,"_",$AE32,"_X0"))</f>
         <v>S-SH-PU_SOL_X0</v>
       </c>
-      <c r="T32" s="9" t="str">
+      <c r="U32" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Space heating: Solar</v>
       </c>
-      <c r="U32" s="9" t="str">
+      <c r="V32" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V32" s="9" t="str">
+      <c r="W32" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W32" s="9" t="str">
+      <c r="X32" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
-      <c r="AA32" s="5" t="str">
+      <c r="Z32" s="9"/>
+      <c r="AB32" s="5" t="str">
         <f>IF('Key Inputs'!A54="","",'Key Inputs'!A54)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB32" s="5" t="str">
+      <c r="AC32" s="5" t="str">
         <f>IF('Key Inputs'!B54="","",'Key Inputs'!B54)</f>
         <v>Space heating</v>
       </c>
-      <c r="AC32" s="5" t="str">
+      <c r="AD32" s="5" t="str">
         <f>IF('Key Inputs'!C54="","",'Key Inputs'!C54)</f>
         <v>Solar</v>
       </c>
-      <c r="AD32" s="5" t="str">
+      <c r="AE32" s="5" t="str">
         <f>IF('Key Inputs'!D54="","",'Key Inputs'!D54)</f>
         <v>SOL</v>
       </c>
-      <c r="AE32" s="5" t="str">
+      <c r="AF32" s="5" t="str">
         <f>IF('Key Inputs'!E54="","",'Key Inputs'!E54)</f>
         <v>SRVSOL</v>
       </c>
-      <c r="AF32" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA32,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG32" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB32,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG32" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB32,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH32" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC32,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SH</v>
       </c>
-      <c r="AH32" s="16">
+      <c r="AI32" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI32" s="16">
+      <c r="AJ32" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:36">
       <c r="B33" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C33" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SH-PU_ELC-HP_X0</v>
+      </c>
+      <c r="D33" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SH-PU_ELC-HP_X0</v>
-      </c>
-      <c r="C33" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Space heating: Electricity (heat pumps)</v>
       </c>
-      <c r="D33" s="43" t="str">
+      <c r="E33" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVELC</v>
       </c>
-      <c r="E33" s="43" t="str">
+      <c r="F33" s="43" t="str">
         <f>Legend!$C$44</f>
         <v>SRVAHT</v>
       </c>
-      <c r="F33" s="9" t="str">
-        <f>IF($AD33="","",CONCATENATE(Legend!$C$4,AG33,"-",AF33))</f>
+      <c r="G33" s="9" t="str">
+        <f>IF($AE33="","",CONCATENATE(Legend!$C$4,AH33,"-",AG33))</f>
         <v>SRVSH-PU</v>
       </c>
-      <c r="G33" s="43">
-        <f>IF($AD33="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA33,'Key Inputs'!$B$29:$B$114,$AB33,'Key Inputs'!$C$29:$C$114,$AC33))</f>
+      <c r="H33" s="43">
+        <f>IF($AE33="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB33,'Key Inputs'!$B$29:$B$114,$AC33,'Key Inputs'!$C$29:$C$114,$AD33))</f>
         <v>0.20128218369275847</v>
       </c>
-      <c r="H33" s="530">
-        <f>IF($AD33="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA33,'Key Inputs'!$B$29:$B$114,$AB33,'Key Inputs'!$C$29:$C$114,$AC33))</f>
+      <c r="I33" s="530">
+        <f>IF($AE33="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB33,'Key Inputs'!$B$29:$B$114,$AC33,'Key Inputs'!$C$29:$C$114,$AD33))</f>
         <v>2.7470543738547222</v>
       </c>
-      <c r="I33" s="530">
-        <f>IF($AD33="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA33,'Key Inputs'!$B$29:$B$114,$AB33,'Key Inputs'!$C$29:$C$114,$AC33)/8760)</f>
+      <c r="J33" s="530">
+        <f>IF($AE33="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB33,'Key Inputs'!$B$29:$B$114,$AC33,'Key Inputs'!$C$29:$C$114,$AD33)/8760)</f>
         <v>0.11415525114155251</v>
       </c>
-      <c r="J33" s="532">
-        <f>IF($AD33="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA33,'Key Inputs'!$B$29:$B$114,$AB33,'Key Inputs'!$C$29:$C$114,$AC33))</f>
+      <c r="K33" s="532">
+        <f>IF($AE33="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB33,'Key Inputs'!$B$29:$B$114,$AC33,'Key Inputs'!$C$29:$C$114,$AD33))</f>
         <v>10</v>
       </c>
-      <c r="K33" s="51">
-        <f t="shared" si="3"/>
+      <c r="L33" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L33" s="51" t="str">
+      <c r="M33" s="51" t="str">
         <f>IF('Key Inputs'!L55/'Key Inputs'!F55=0,"",'Key Inputs'!L55/'Key Inputs'!F55)</f>
         <v/>
       </c>
-      <c r="Q33" s="27" t="str">
+      <c r="R33" s="27" t="str">
         <f t="shared" si="12"/>
         <v>PRE</v>
       </c>
-      <c r="R33" s="36" t="str">
-        <f>IF($AD33="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S33" s="36" t="str">
+        <f>IF($AE33="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S33" s="9" t="str">
-        <f>IF($AD33="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG33,"-",$AF33,"_",$AD33,"_X0"))</f>
+      <c r="T33" s="9" t="str">
+        <f>IF($AE33="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH33,"-",$AG33,"_",$AE33,"_X0"))</f>
         <v>S-SH-PU_ELC-HP_X0</v>
       </c>
-      <c r="T33" s="9" t="str">
+      <c r="U33" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Space heating: Electricity (heat pumps)</v>
       </c>
-      <c r="U33" s="9" t="str">
+      <c r="V33" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V33" s="9" t="str">
+      <c r="W33" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W33" s="9" t="str">
+      <c r="X33" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
-      <c r="AA33" s="5" t="str">
+      <c r="Z33" s="9"/>
+      <c r="AB33" s="5" t="str">
         <f>IF('Key Inputs'!A55="","",'Key Inputs'!A55)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB33" s="5" t="str">
+      <c r="AC33" s="5" t="str">
         <f>IF('Key Inputs'!B55="","",'Key Inputs'!B55)</f>
         <v>Space heating</v>
       </c>
-      <c r="AC33" s="5" t="str">
+      <c r="AD33" s="5" t="str">
         <f>IF('Key Inputs'!C55="","",'Key Inputs'!C55)</f>
         <v>Electricity (heat pumps)</v>
       </c>
-      <c r="AD33" s="5" t="str">
+      <c r="AE33" s="5" t="str">
         <f>IF('Key Inputs'!D55="","",'Key Inputs'!D55)</f>
         <v>ELC-HP</v>
       </c>
-      <c r="AE33" s="5" t="str">
+      <c r="AF33" s="5" t="str">
         <f>IF('Key Inputs'!E55="","",'Key Inputs'!E55)</f>
         <v>SRVELC</v>
       </c>
-      <c r="AF33" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA33,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG33" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB33,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG33" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB33,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH33" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC33,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SH</v>
       </c>
-      <c r="AH33" s="16">
+      <c r="AI33" s="16">
         <f t="shared" si="9"/>
         <v>0.26377922045901658</v>
       </c>
-      <c r="AI33" s="16">
+      <c r="AJ33" s="16">
         <f t="shared" si="10"/>
         <v>0.72461586129393052</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:36">
       <c r="B34" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C34" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SH-PU_ELC_X0</v>
+      </c>
+      <c r="D34" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SH-PU_ELC_X0</v>
-      </c>
-      <c r="C34" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Space heating: Electricity (heaters)</v>
       </c>
-      <c r="D34" s="43" t="str">
+      <c r="E34" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVELC</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="9" t="str">
-        <f>IF($AD34="","",CONCATENATE(Legend!$C$4,AG34,"-",AF34))</f>
+      <c r="F34" s="43"/>
+      <c r="G34" s="9" t="str">
+        <f>IF($AE34="","",CONCATENATE(Legend!$C$4,AH34,"-",AG34))</f>
         <v>SRVSH-PU</v>
       </c>
-      <c r="G34" s="43">
-        <f>IF($AD34="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA34,'Key Inputs'!$B$29:$B$114,$AB34,'Key Inputs'!$C$29:$C$114,$AC34))</f>
+      <c r="H34" s="43">
+        <f>IF($AE34="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB34,'Key Inputs'!$B$29:$B$114,$AC34,'Key Inputs'!$C$29:$C$114,$AD34))</f>
         <v>0.25843134648841326</v>
       </c>
-      <c r="H34" s="530">
-        <f>IF($AD34="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA34,'Key Inputs'!$B$29:$B$114,$AB34,'Key Inputs'!$C$29:$C$114,$AC34))</f>
+      <c r="I34" s="530">
+        <f>IF($AE34="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB34,'Key Inputs'!$B$29:$B$114,$AC34,'Key Inputs'!$C$29:$C$114,$AD34))</f>
         <v>0.81595511259153475</v>
       </c>
-      <c r="I34" s="530">
-        <f>IF($AD34="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA34,'Key Inputs'!$B$29:$B$114,$AB34,'Key Inputs'!$C$29:$C$114,$AC34)/8760)</f>
+      <c r="J34" s="530">
+        <f>IF($AE34="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB34,'Key Inputs'!$B$29:$B$114,$AC34,'Key Inputs'!$C$29:$C$114,$AD34)/8760)</f>
         <v>0.11415525114155251</v>
       </c>
-      <c r="J34" s="532">
-        <f>IF($AD34="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA34,'Key Inputs'!$B$29:$B$114,$AB34,'Key Inputs'!$C$29:$C$114,$AC34))</f>
+      <c r="K34" s="532">
+        <f>IF($AE34="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB34,'Key Inputs'!$B$29:$B$114,$AC34,'Key Inputs'!$C$29:$C$114,$AD34))</f>
         <v>10</v>
       </c>
-      <c r="K34" s="51">
-        <f t="shared" si="3"/>
+      <c r="L34" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L34" s="51"/>
-      <c r="Q34" s="27" t="str">
+      <c r="M34" s="51"/>
+      <c r="R34" s="27" t="str">
         <f t="shared" si="12"/>
         <v>PRE</v>
       </c>
-      <c r="R34" s="36" t="str">
-        <f>IF($AD34="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S34" s="36" t="str">
+        <f>IF($AE34="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S34" s="9" t="str">
-        <f>IF($AD34="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG34,"-",$AF34,"_",$AD34,"_X0"))</f>
+      <c r="T34" s="9" t="str">
+        <f>IF($AE34="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH34,"-",$AG34,"_",$AE34,"_X0"))</f>
         <v>S-SH-PU_ELC_X0</v>
       </c>
-      <c r="T34" s="9" t="str">
+      <c r="U34" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Space heating: Electricity (heaters)</v>
       </c>
-      <c r="U34" s="9" t="str">
+      <c r="V34" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V34" s="9" t="str">
+      <c r="W34" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W34" s="9" t="str">
+      <c r="X34" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
-      <c r="AA34" s="5" t="str">
+      <c r="Z34" s="9"/>
+      <c r="AB34" s="5" t="str">
         <f>IF('Key Inputs'!A56="","",'Key Inputs'!A56)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB34" s="5" t="str">
+      <c r="AC34" s="5" t="str">
         <f>IF('Key Inputs'!B56="","",'Key Inputs'!B56)</f>
         <v>Space heating</v>
       </c>
-      <c r="AC34" s="5" t="str">
+      <c r="AD34" s="5" t="str">
         <f>IF('Key Inputs'!C56="","",'Key Inputs'!C56)</f>
         <v>Electricity (heaters)</v>
       </c>
-      <c r="AD34" s="5" t="str">
+      <c r="AE34" s="5" t="str">
         <f>IF('Key Inputs'!D56="","",'Key Inputs'!D56)</f>
         <v>ELC</v>
       </c>
-      <c r="AE34" s="5" t="str">
+      <c r="AF34" s="5" t="str">
         <f>IF('Key Inputs'!E56="","",'Key Inputs'!E56)</f>
         <v>SRVELC</v>
       </c>
-      <c r="AF34" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA34,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG34" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB34,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG34" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB34,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH34" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC34,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SH</v>
       </c>
-      <c r="AH34" s="16">
+      <c r="AI34" s="16">
         <f t="shared" si="9"/>
         <v>1.1402010147389323</v>
       </c>
-      <c r="AI34" s="16">
+      <c r="AJ34" s="16">
         <f t="shared" si="10"/>
         <v>0.93035284735828772</v>
       </c>
     </row>
-    <row r="35" spans="1:35" s="6" customFormat="1" ht="30">
+    <row r="35" spans="1:36" s="6" customFormat="1">
       <c r="A35" s="15"/>
-      <c r="B35" s="443" t="str">
-        <f t="shared" si="0"/>
+      <c r="B35" s="15" t="str">
+        <f>IF($AE35="",R35,T35)</f>
         <v>*Public Services Water heating</v>
       </c>
-      <c r="C35" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D35" s="539" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="539"/>
-      <c r="F35" s="15" t="str">
-        <f>IF($AD35="","",CONCATENATE(Legend!$C$4,AG35,"-",AF35))</f>
-        <v/>
-      </c>
-      <c r="G35" s="539" t="str">
-        <f>IF($AD35="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA35,'Key Inputs'!$B$29:$B$114,$AB35,'Key Inputs'!$C$29:$C$114,$AC35))</f>
-        <v/>
-      </c>
-      <c r="H35" s="540" t="str">
-        <f>IF($AD35="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA35,'Key Inputs'!$B$29:$B$114,$AB35,'Key Inputs'!$C$29:$C$114,$AC35))</f>
-        <v/>
-      </c>
-      <c r="I35" s="540" t="str">
-        <f>IF($AD35="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA35,'Key Inputs'!$B$29:$B$114,$AB35,'Key Inputs'!$C$29:$C$114,$AC35)/8760)</f>
-        <v/>
-      </c>
-      <c r="J35" s="541" t="str">
-        <f>IF($AD35="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA35,'Key Inputs'!$B$29:$B$114,$AB35,'Key Inputs'!$C$29:$C$114,$AC35))</f>
-        <v/>
-      </c>
-      <c r="K35" s="75" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="F35" s="539"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="539"/>
+      <c r="I35" s="540"/>
+      <c r="J35" s="540"/>
+      <c r="K35" s="541"/>
       <c r="L35" s="75"/>
-      <c r="M35" s="542"/>
+      <c r="M35" s="75"/>
       <c r="N35" s="542"/>
       <c r="O35" s="542"/>
       <c r="P35" s="542"/>
-      <c r="Q35" s="443" t="str">
+      <c r="Q35" s="542"/>
+      <c r="R35" s="15" t="str">
         <f t="shared" si="12"/>
         <v>*Public Services Water heating</v>
       </c>
-      <c r="R35" s="36" t="str">
-        <f>IF($AD35="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
-        <v/>
-      </c>
-      <c r="S35" s="15" t="str">
-        <f>IF($AD35="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG35,"-",$AF35,"_",$AD35,"_X0"))</f>
-        <v/>
-      </c>
-      <c r="T35" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U35" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="V35" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="W35" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="S35" s="36"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
       <c r="X35" s="15"/>
       <c r="Y35" s="15"/>
-      <c r="Z35" s="542"/>
-      <c r="AH35" s="16"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="542"/>
       <c r="AI35" s="16"/>
-    </row>
-    <row r="36" spans="1:35">
+      <c r="AJ35" s="16"/>
+    </row>
+    <row r="36" spans="1:36">
       <c r="B36" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C36" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-WH-PU_COA_X0</v>
+      </c>
+      <c r="D36" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-WH-PU_COA_X0</v>
-      </c>
-      <c r="C36" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Water heating: Solids</v>
       </c>
-      <c r="D36" s="43" t="str">
+      <c r="E36" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVCOA</v>
       </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="9" t="str">
-        <f>IF($AD36="","",CONCATENATE(Legend!$C$4,AG36,"-",AF36))</f>
+      <c r="F36" s="43"/>
+      <c r="G36" s="9" t="str">
+        <f>IF($AE36="","",CONCATENATE(Legend!$C$4,AH36,"-",AG36))</f>
         <v>SRVWH-PU</v>
       </c>
-      <c r="G36" s="43">
-        <f>IF($AD36="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA36,'Key Inputs'!$B$29:$B$114,$AB36,'Key Inputs'!$C$29:$C$114,$AC36))</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="530">
-        <f>IF($AD36="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA36,'Key Inputs'!$B$29:$B$114,$AB36,'Key Inputs'!$C$29:$C$114,$AC36))</f>
+      <c r="H36" s="43">
+        <f>IF($AE36="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB36,'Key Inputs'!$B$29:$B$114,$AC36,'Key Inputs'!$C$29:$C$114,$AD36))</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="530">
+        <f>IF($AE36="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB36,'Key Inputs'!$B$29:$B$114,$AC36,'Key Inputs'!$C$29:$C$114,$AD36))</f>
         <v>0.33</v>
       </c>
-      <c r="I36" s="530">
-        <f>IF($AD36="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA36,'Key Inputs'!$B$29:$B$114,$AB36,'Key Inputs'!$C$29:$C$114,$AC36)/8760)</f>
+      <c r="J36" s="530">
+        <f>IF($AE36="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB36,'Key Inputs'!$B$29:$B$114,$AC36,'Key Inputs'!$C$29:$C$114,$AD36)/8760)</f>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="J36" s="532">
-        <f>IF($AD36="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA36,'Key Inputs'!$B$29:$B$114,$AB36,'Key Inputs'!$C$29:$C$114,$AC36))</f>
+      <c r="K36" s="532">
+        <f>IF($AE36="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB36,'Key Inputs'!$B$29:$B$114,$AC36,'Key Inputs'!$C$29:$C$114,$AD36))</f>
         <v>20</v>
       </c>
-      <c r="K36" s="51">
-        <f t="shared" si="3"/>
+      <c r="L36" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L36" s="51"/>
-      <c r="Q36" s="27" t="str">
+      <c r="M36" s="51"/>
+      <c r="R36" s="27" t="str">
         <f t="shared" si="12"/>
         <v>PRE</v>
       </c>
-      <c r="R36" s="36" t="str">
-        <f>IF($AD36="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S36" s="36" t="str">
+        <f>IF($AE36="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S36" s="9" t="str">
-        <f>IF($AD36="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG36,"-",$AF36,"_",$AD36,"_X0"))</f>
+      <c r="T36" s="9" t="str">
+        <f>IF($AE36="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH36,"-",$AG36,"_",$AE36,"_X0"))</f>
         <v>S-WH-PU_COA_X0</v>
       </c>
-      <c r="T36" s="9" t="str">
+      <c r="U36" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Water heating: Solids</v>
       </c>
-      <c r="U36" s="9" t="str">
+      <c r="V36" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V36" s="9" t="str">
+      <c r="W36" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W36" s="9" t="str">
+      <c r="X36" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
-      <c r="AA36" s="5" t="str">
+      <c r="Z36" s="9"/>
+      <c r="AB36" s="5" t="str">
         <f>IF('Key Inputs'!A58="","",'Key Inputs'!A58)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB36" s="5" t="str">
+      <c r="AC36" s="5" t="str">
         <f>IF('Key Inputs'!B58="","",'Key Inputs'!B58)</f>
         <v>Water heating</v>
       </c>
-      <c r="AC36" s="5" t="str">
+      <c r="AD36" s="5" t="str">
         <f>IF('Key Inputs'!C58="","",'Key Inputs'!C58)</f>
         <v>Solids</v>
       </c>
-      <c r="AD36" s="5" t="str">
+      <c r="AE36" s="5" t="str">
         <f>IF('Key Inputs'!D58="","",'Key Inputs'!D58)</f>
         <v>COA</v>
       </c>
-      <c r="AE36" s="5" t="str">
+      <c r="AF36" s="5" t="str">
         <f>IF('Key Inputs'!E58="","",'Key Inputs'!E58)</f>
         <v>SRVCOA</v>
       </c>
-      <c r="AF36" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA36,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG36" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB36,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG36" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB36,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH36" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC36,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>WH</v>
       </c>
-      <c r="AH36" s="16">
+      <c r="AI36" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI36" s="16">
+      <c r="AJ36" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:36">
       <c r="B37" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C37" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-WH-PU_LPG_X0</v>
+      </c>
+      <c r="D37" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-WH-PU_LPG_X0</v>
-      </c>
-      <c r="C37" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Water heating: LPG</v>
       </c>
-      <c r="D37" s="43" t="str">
+      <c r="E37" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVLPG</v>
       </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="9" t="str">
-        <f>IF($AD37="","",CONCATENATE(Legend!$C$4,AG37,"-",AF37))</f>
+      <c r="F37" s="43"/>
+      <c r="G37" s="9" t="str">
+        <f>IF($AE37="","",CONCATENATE(Legend!$C$4,AH37,"-",AG37))</f>
         <v>SRVWH-PU</v>
       </c>
-      <c r="G37" s="43">
-        <f>IF($AD37="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA37,'Key Inputs'!$B$29:$B$114,$AB37,'Key Inputs'!$C$29:$C$114,$AC37))</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="530">
-        <f>IF($AD37="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA37,'Key Inputs'!$B$29:$B$114,$AB37,'Key Inputs'!$C$29:$C$114,$AC37))</f>
+      <c r="H37" s="43">
+        <f>IF($AE37="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB37,'Key Inputs'!$B$29:$B$114,$AC37,'Key Inputs'!$C$29:$C$114,$AD37))</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="530">
+        <f>IF($AE37="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB37,'Key Inputs'!$B$29:$B$114,$AC37,'Key Inputs'!$C$29:$C$114,$AD37))</f>
         <v>0.33</v>
       </c>
-      <c r="I37" s="530">
-        <f>IF($AD37="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA37,'Key Inputs'!$B$29:$B$114,$AB37,'Key Inputs'!$C$29:$C$114,$AC37)/8760)</f>
+      <c r="J37" s="530">
+        <f>IF($AE37="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB37,'Key Inputs'!$B$29:$B$114,$AC37,'Key Inputs'!$C$29:$C$114,$AD37)/8760)</f>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="J37" s="532">
-        <f>IF($AD37="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA37,'Key Inputs'!$B$29:$B$114,$AB37,'Key Inputs'!$C$29:$C$114,$AC37))</f>
+      <c r="K37" s="532">
+        <f>IF($AE37="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB37,'Key Inputs'!$B$29:$B$114,$AC37,'Key Inputs'!$C$29:$C$114,$AD37))</f>
         <v>20</v>
       </c>
-      <c r="K37" s="51">
-        <f t="shared" si="3"/>
+      <c r="L37" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L37" s="51"/>
-      <c r="Q37" s="27" t="str">
+      <c r="M37" s="51"/>
+      <c r="R37" s="27" t="str">
         <f t="shared" si="12"/>
         <v>PRE</v>
       </c>
-      <c r="R37" s="36" t="str">
-        <f>IF($AD37="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S37" s="36" t="str">
+        <f>IF($AE37="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S37" s="9" t="str">
-        <f>IF($AD37="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG37,"-",$AF37,"_",$AD37,"_X0"))</f>
+      <c r="T37" s="9" t="str">
+        <f>IF($AE37="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH37,"-",$AG37,"_",$AE37,"_X0"))</f>
         <v>S-WH-PU_LPG_X0</v>
       </c>
-      <c r="T37" s="9" t="str">
+      <c r="U37" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Water heating: LPG</v>
       </c>
-      <c r="U37" s="9" t="str">
+      <c r="V37" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V37" s="9" t="str">
+      <c r="W37" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W37" s="9" t="str">
+      <c r="X37" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
-      <c r="AA37" s="5" t="str">
+      <c r="Z37" s="9"/>
+      <c r="AB37" s="5" t="str">
         <f>IF('Key Inputs'!A59="","",'Key Inputs'!A59)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB37" s="5" t="str">
+      <c r="AC37" s="5" t="str">
         <f>IF('Key Inputs'!B59="","",'Key Inputs'!B59)</f>
         <v>Water heating</v>
       </c>
-      <c r="AC37" s="5" t="str">
+      <c r="AD37" s="5" t="str">
         <f>IF('Key Inputs'!C59="","",'Key Inputs'!C59)</f>
         <v>LPG</v>
       </c>
-      <c r="AD37" s="5" t="str">
+      <c r="AE37" s="5" t="str">
         <f>IF('Key Inputs'!D59="","",'Key Inputs'!D59)</f>
         <v>LPG</v>
       </c>
-      <c r="AE37" s="5" t="str">
+      <c r="AF37" s="5" t="str">
         <f>IF('Key Inputs'!E59="","",'Key Inputs'!E59)</f>
         <v>SRVLPG</v>
       </c>
-      <c r="AF37" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA37,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG37" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB37,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG37" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB37,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH37" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC37,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>WH</v>
       </c>
-      <c r="AH37" s="16">
+      <c r="AI37" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI37" s="16">
+      <c r="AJ37" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:36">
       <c r="B38" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C38" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-WH-PU_OIL_X0</v>
+      </c>
+      <c r="D38" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-WH-PU_OIL_X0</v>
-      </c>
-      <c r="C38" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Water heating: Oil</v>
       </c>
-      <c r="D38" s="43" t="str">
+      <c r="E38" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVOIL</v>
       </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="9" t="str">
-        <f>IF($AD38="","",CONCATENATE(Legend!$C$4,AG38,"-",AF38))</f>
+      <c r="F38" s="43"/>
+      <c r="G38" s="9" t="str">
+        <f>IF($AE38="","",CONCATENATE(Legend!$C$4,AH38,"-",AG38))</f>
         <v>SRVWH-PU</v>
       </c>
-      <c r="G38" s="43">
-        <f>IF($AD38="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA38,'Key Inputs'!$B$29:$B$114,$AB38,'Key Inputs'!$C$29:$C$114,$AC38))</f>
+      <c r="H38" s="43">
+        <f>IF($AE38="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB38,'Key Inputs'!$B$29:$B$114,$AC38,'Key Inputs'!$C$29:$C$114,$AD38))</f>
         <v>0.98654385278891354</v>
       </c>
-      <c r="H38" s="530">
-        <f>IF($AD38="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA38,'Key Inputs'!$B$29:$B$114,$AB38,'Key Inputs'!$C$29:$C$114,$AC38))</f>
+      <c r="I38" s="530">
+        <f>IF($AE38="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB38,'Key Inputs'!$B$29:$B$114,$AC38,'Key Inputs'!$C$29:$C$114,$AD38))</f>
         <v>0.59834963673469854</v>
       </c>
-      <c r="I38" s="530">
-        <f>IF($AD38="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA38,'Key Inputs'!$B$29:$B$114,$AB38,'Key Inputs'!$C$29:$C$114,$AC38)/8760)</f>
+      <c r="J38" s="530">
+        <f>IF($AE38="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB38,'Key Inputs'!$B$29:$B$114,$AC38,'Key Inputs'!$C$29:$C$114,$AD38)/8760)</f>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="J38" s="532">
-        <f>IF($AD38="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA38,'Key Inputs'!$B$29:$B$114,$AB38,'Key Inputs'!$C$29:$C$114,$AC38))</f>
+      <c r="K38" s="532">
+        <f>IF($AE38="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB38,'Key Inputs'!$B$29:$B$114,$AC38,'Key Inputs'!$C$29:$C$114,$AD38))</f>
         <v>20</v>
       </c>
-      <c r="K38" s="51">
-        <f t="shared" si="3"/>
+      <c r="L38" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L38" s="51"/>
-      <c r="Q38" s="27" t="str">
+      <c r="M38" s="51"/>
+      <c r="R38" s="27" t="str">
         <f t="shared" si="12"/>
         <v>PRE</v>
       </c>
-      <c r="R38" s="36" t="str">
-        <f>IF($AD38="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S38" s="36" t="str">
+        <f>IF($AE38="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S38" s="9" t="str">
-        <f>IF($AD38="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG38,"-",$AF38,"_",$AD38,"_X0"))</f>
+      <c r="T38" s="9" t="str">
+        <f>IF($AE38="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH38,"-",$AG38,"_",$AE38,"_X0"))</f>
         <v>S-WH-PU_OIL_X0</v>
       </c>
-      <c r="T38" s="9" t="str">
+      <c r="U38" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Water heating: Oil</v>
       </c>
-      <c r="U38" s="9" t="str">
+      <c r="V38" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V38" s="9" t="str">
+      <c r="W38" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W38" s="9" t="str">
+      <c r="X38" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
-      <c r="AA38" s="5" t="str">
+      <c r="Z38" s="9"/>
+      <c r="AB38" s="5" t="str">
         <f>IF('Key Inputs'!A60="","",'Key Inputs'!A60)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB38" s="5" t="str">
+      <c r="AC38" s="5" t="str">
         <f>IF('Key Inputs'!B60="","",'Key Inputs'!B60)</f>
         <v>Water heating</v>
       </c>
-      <c r="AC38" s="5" t="str">
+      <c r="AD38" s="5" t="str">
         <f>IF('Key Inputs'!C60="","",'Key Inputs'!C60)</f>
         <v>Oil</v>
       </c>
-      <c r="AD38" s="5" t="str">
+      <c r="AE38" s="5" t="str">
         <f>IF('Key Inputs'!D60="","",'Key Inputs'!D60)</f>
         <v>OIL</v>
       </c>
-      <c r="AE38" s="5" t="str">
+      <c r="AF38" s="5" t="str">
         <f>IF('Key Inputs'!E60="","",'Key Inputs'!E60)</f>
         <v>SRVOIL</v>
       </c>
-      <c r="AF38" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA38,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG38" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB38,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG38" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB38,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH38" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC38,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>WH</v>
       </c>
-      <c r="AH38" s="16">
+      <c r="AI38" s="16">
         <f t="shared" si="9"/>
         <v>1.1871179163478993</v>
       </c>
-      <c r="AI38" s="16">
+      <c r="AJ38" s="16">
         <f t="shared" si="10"/>
         <v>0.71031157400801781</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:36">
       <c r="B39" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C39" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-WH-PU_GAS_X0</v>
+      </c>
+      <c r="D39" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-WH-PU_GAS_X0</v>
-      </c>
-      <c r="C39" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Water heating: Natural Gas</v>
       </c>
-      <c r="D39" s="43" t="str">
+      <c r="E39" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVGAS, SRVBGS</v>
       </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="9" t="str">
-        <f>IF($AD39="","",CONCATENATE(Legend!$C$4,AG39,"-",AF39))</f>
+      <c r="F39" s="43"/>
+      <c r="G39" s="9" t="str">
+        <f>IF($AE39="","",CONCATENATE(Legend!$C$4,AH39,"-",AG39))</f>
         <v>SRVWH-PU</v>
       </c>
-      <c r="G39" s="43">
-        <f>IF($AD39="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA39,'Key Inputs'!$B$29:$B$114,$AB39,'Key Inputs'!$C$29:$C$114,$AC39))</f>
+      <c r="H39" s="43">
+        <f>IF($AE39="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB39,'Key Inputs'!$B$29:$B$114,$AC39,'Key Inputs'!$C$29:$C$114,$AD39))</f>
         <v>1.2090065961850855</v>
       </c>
-      <c r="H39" s="530">
-        <f>IF($AD39="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA39,'Key Inputs'!$B$29:$B$114,$AB39,'Key Inputs'!$C$29:$C$114,$AC39))</f>
+      <c r="I39" s="530">
+        <f>IF($AE39="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB39,'Key Inputs'!$B$29:$B$114,$AC39,'Key Inputs'!$C$29:$C$114,$AD39))</f>
         <v>0.63024757853709534</v>
       </c>
-      <c r="I39" s="530">
-        <f>IF($AD39="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA39,'Key Inputs'!$B$29:$B$114,$AB39,'Key Inputs'!$C$29:$C$114,$AC39)/8760)</f>
+      <c r="J39" s="530">
+        <f>IF($AE39="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB39,'Key Inputs'!$B$29:$B$114,$AC39,'Key Inputs'!$C$29:$C$114,$AD39)/8760)</f>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="J39" s="532">
-        <f>IF($AD39="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA39,'Key Inputs'!$B$29:$B$114,$AB39,'Key Inputs'!$C$29:$C$114,$AC39))</f>
+      <c r="K39" s="532">
+        <f>IF($AE39="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB39,'Key Inputs'!$B$29:$B$114,$AC39,'Key Inputs'!$C$29:$C$114,$AD39))</f>
         <v>20</v>
       </c>
-      <c r="K39" s="51">
-        <f t="shared" si="3"/>
+      <c r="L39" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L39" s="51"/>
-      <c r="M39" s="531">
+      <c r="M39" s="51"/>
+      <c r="N39" s="531">
         <f>EB_SRV!G80/'Key Inputs'!F61</f>
         <v>0</v>
       </c>
-      <c r="N39" s="531">
-        <f>M39</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="58">
+      <c r="O39" s="531">
+        <f>N39</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="58">
         <v>5</v>
       </c>
-      <c r="Q39" s="27" t="str">
+      <c r="R39" s="27" t="str">
         <f t="shared" si="12"/>
         <v>PRE</v>
       </c>
-      <c r="R39" s="36" t="str">
-        <f>IF($AD39="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S39" s="36" t="str">
+        <f>IF($AE39="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S39" s="9" t="str">
-        <f>IF($AD39="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG39,"-",$AF39,"_",$AD39,"_X0"))</f>
+      <c r="T39" s="9" t="str">
+        <f>IF($AE39="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH39,"-",$AG39,"_",$AE39,"_X0"))</f>
         <v>S-WH-PU_GAS_X0</v>
       </c>
-      <c r="T39" s="9" t="str">
+      <c r="U39" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Water heating: Natural Gas</v>
       </c>
-      <c r="U39" s="9" t="str">
+      <c r="V39" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V39" s="9" t="str">
+      <c r="W39" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W39" s="9" t="str">
+      <c r="X39" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
-      <c r="AA39" s="5" t="str">
+      <c r="Z39" s="9"/>
+      <c r="AB39" s="5" t="str">
         <f>IF('Key Inputs'!A61="","",'Key Inputs'!A61)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB39" s="5" t="str">
+      <c r="AC39" s="5" t="str">
         <f>IF('Key Inputs'!B61="","",'Key Inputs'!B61)</f>
         <v>Water heating</v>
       </c>
-      <c r="AC39" s="5" t="str">
+      <c r="AD39" s="5" t="str">
         <f>IF('Key Inputs'!C61="","",'Key Inputs'!C61)</f>
         <v>Natural Gas</v>
       </c>
-      <c r="AD39" s="5" t="str">
+      <c r="AE39" s="5" t="str">
         <f>IF('Key Inputs'!D61="","",'Key Inputs'!D61)</f>
         <v>GAS</v>
       </c>
-      <c r="AE39" s="5" t="str">
+      <c r="AF39" s="5" t="str">
         <f>IF('Key Inputs'!E61="","",'Key Inputs'!E61)</f>
         <v>SRVGAS, SRVBGS</v>
       </c>
-      <c r="AF39" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA39,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG39" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB39,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG39" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB39,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH39" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC39,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>WH</v>
       </c>
-      <c r="AH39" s="16">
+      <c r="AI39" s="16">
         <f t="shared" si="9"/>
         <v>1.3811790459771298</v>
       </c>
-      <c r="AI39" s="16">
+      <c r="AJ39" s="16">
         <f t="shared" si="10"/>
         <v>0.87048474925326158</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:36">
       <c r="B40" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C40" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-WH-PU_BIO_X0</v>
+      </c>
+      <c r="D40" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-WH-PU_BIO_X0</v>
-      </c>
-      <c r="C40" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Water heating: Biomass</v>
       </c>
-      <c r="D40" s="43" t="str">
+      <c r="E40" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVBIO</v>
       </c>
-      <c r="E40" s="43"/>
-      <c r="F40" s="9" t="str">
-        <f>IF($AD40="","",CONCATENATE(Legend!$C$4,AG40,"-",AF40))</f>
+      <c r="F40" s="43"/>
+      <c r="G40" s="9" t="str">
+        <f>IF($AE40="","",CONCATENATE(Legend!$C$4,AH40,"-",AG40))</f>
         <v>SRVWH-PU</v>
       </c>
-      <c r="G40" s="43">
-        <f>IF($AD40="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA40,'Key Inputs'!$B$29:$B$114,$AB40,'Key Inputs'!$C$29:$C$114,$AC40))</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="530">
-        <f>IF($AD40="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA40,'Key Inputs'!$B$29:$B$114,$AB40,'Key Inputs'!$C$29:$C$114,$AC40))</f>
+      <c r="H40" s="43">
+        <f>IF($AE40="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB40,'Key Inputs'!$B$29:$B$114,$AC40,'Key Inputs'!$C$29:$C$114,$AD40))</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="530">
+        <f>IF($AE40="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB40,'Key Inputs'!$B$29:$B$114,$AC40,'Key Inputs'!$C$29:$C$114,$AD40))</f>
         <v>0.33</v>
       </c>
-      <c r="I40" s="530">
-        <f>IF($AD40="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA40,'Key Inputs'!$B$29:$B$114,$AB40,'Key Inputs'!$C$29:$C$114,$AC40)/8760)</f>
+      <c r="J40" s="530">
+        <f>IF($AE40="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB40,'Key Inputs'!$B$29:$B$114,$AC40,'Key Inputs'!$C$29:$C$114,$AD40)/8760)</f>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="J40" s="532">
-        <f>IF($AD40="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA40,'Key Inputs'!$B$29:$B$114,$AB40,'Key Inputs'!$C$29:$C$114,$AC40))</f>
+      <c r="K40" s="532">
+        <f>IF($AE40="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB40,'Key Inputs'!$B$29:$B$114,$AC40,'Key Inputs'!$C$29:$C$114,$AD40))</f>
         <v>20</v>
       </c>
-      <c r="K40" s="51">
-        <f t="shared" si="3"/>
+      <c r="L40" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L40" s="51"/>
-      <c r="Q40" s="27" t="str">
+      <c r="M40" s="51"/>
+      <c r="R40" s="27" t="str">
         <f t="shared" si="12"/>
         <v>PRE</v>
       </c>
-      <c r="R40" s="36" t="str">
-        <f>IF($AD40="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S40" s="36" t="str">
+        <f>IF($AE40="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S40" s="9" t="str">
-        <f>IF($AD40="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG40,"-",$AF40,"_",$AD40,"_X0"))</f>
+      <c r="T40" s="9" t="str">
+        <f>IF($AE40="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH40,"-",$AG40,"_",$AE40,"_X0"))</f>
         <v>S-WH-PU_BIO_X0</v>
       </c>
-      <c r="T40" s="9" t="str">
+      <c r="U40" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Water heating: Biomass</v>
       </c>
-      <c r="U40" s="9" t="str">
+      <c r="V40" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V40" s="9" t="str">
+      <c r="W40" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W40" s="9" t="str">
+      <c r="X40" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
-      <c r="AA40" s="5" t="str">
+      <c r="Z40" s="9"/>
+      <c r="AB40" s="5" t="str">
         <f>IF('Key Inputs'!A62="","",'Key Inputs'!A62)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB40" s="5" t="str">
+      <c r="AC40" s="5" t="str">
         <f>IF('Key Inputs'!B62="","",'Key Inputs'!B62)</f>
         <v>Water heating</v>
       </c>
-      <c r="AC40" s="5" t="str">
+      <c r="AD40" s="5" t="str">
         <f>IF('Key Inputs'!C62="","",'Key Inputs'!C62)</f>
         <v>Biomass</v>
       </c>
-      <c r="AD40" s="5" t="str">
+      <c r="AE40" s="5" t="str">
         <f>IF('Key Inputs'!D62="","",'Key Inputs'!D62)</f>
         <v>BIO</v>
       </c>
-      <c r="AE40" s="5" t="str">
+      <c r="AF40" s="5" t="str">
         <f>IF('Key Inputs'!E62="","",'Key Inputs'!E62)</f>
         <v>SRVBIO</v>
       </c>
-      <c r="AF40" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA40,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG40" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB40,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG40" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB40,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH40" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC40,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>WH</v>
       </c>
-      <c r="AH40" s="16">
+      <c r="AI40" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI40" s="16">
+      <c r="AJ40" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:36">
       <c r="B41" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C41" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-WH-PU_ELC_X0</v>
+      </c>
+      <c r="D41" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-WH-PU_ELC_X0</v>
-      </c>
-      <c r="C41" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Water heating: Electricity</v>
       </c>
-      <c r="D41" s="43" t="str">
+      <c r="E41" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVELC</v>
       </c>
-      <c r="E41" s="43"/>
-      <c r="F41" s="9" t="str">
-        <f>IF($AD41="","",CONCATENATE(Legend!$C$4,AG41,"-",AF41))</f>
+      <c r="F41" s="43"/>
+      <c r="G41" s="9" t="str">
+        <f>IF($AE41="","",CONCATENATE(Legend!$C$4,AH41,"-",AG41))</f>
         <v>SRVWH-PU</v>
       </c>
-      <c r="G41" s="43">
-        <f>IF($AD41="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA41,'Key Inputs'!$B$29:$B$114,$AB41,'Key Inputs'!$C$29:$C$114,$AC41))</f>
+      <c r="H41" s="43">
+        <f>IF($AE41="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB41,'Key Inputs'!$B$29:$B$114,$AC41,'Key Inputs'!$C$29:$C$114,$AD41))</f>
         <v>0.7000046687367153</v>
       </c>
-      <c r="H41" s="530">
-        <f>IF($AD41="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA41,'Key Inputs'!$B$29:$B$114,$AB41,'Key Inputs'!$C$29:$C$114,$AC41))</f>
+      <c r="I41" s="530">
+        <f>IF($AE41="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB41,'Key Inputs'!$B$29:$B$114,$AC41,'Key Inputs'!$C$29:$C$114,$AD41))</f>
         <v>0.7791533881609447</v>
       </c>
-      <c r="I41" s="530">
-        <f>IF($AD41="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA41,'Key Inputs'!$B$29:$B$114,$AB41,'Key Inputs'!$C$29:$C$114,$AC41)/8760)</f>
+      <c r="J41" s="530">
+        <f>IF($AE41="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB41,'Key Inputs'!$B$29:$B$114,$AC41,'Key Inputs'!$C$29:$C$114,$AD41)/8760)</f>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="J41" s="532">
-        <f>IF($AD41="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA41,'Key Inputs'!$B$29:$B$114,$AB41,'Key Inputs'!$C$29:$C$114,$AC41))</f>
+      <c r="K41" s="532">
+        <f>IF($AE41="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB41,'Key Inputs'!$B$29:$B$114,$AC41,'Key Inputs'!$C$29:$C$114,$AD41))</f>
         <v>10</v>
       </c>
-      <c r="K41" s="51">
-        <f t="shared" si="3"/>
+      <c r="L41" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L41" s="51"/>
-      <c r="Q41" s="27" t="str">
+      <c r="M41" s="51"/>
+      <c r="R41" s="27" t="str">
         <f t="shared" si="12"/>
         <v>PRE</v>
       </c>
-      <c r="R41" s="36" t="str">
-        <f>IF($AD41="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S41" s="36" t="str">
+        <f>IF($AE41="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S41" s="9" t="str">
-        <f>IF($AD41="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG41,"-",$AF41,"_",$AD41,"_X0"))</f>
+      <c r="T41" s="9" t="str">
+        <f>IF($AE41="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH41,"-",$AG41,"_",$AE41,"_X0"))</f>
         <v>S-WH-PU_ELC_X0</v>
       </c>
-      <c r="T41" s="9" t="str">
+      <c r="U41" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Water heating: Electricity</v>
       </c>
-      <c r="U41" s="9" t="str">
+      <c r="V41" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V41" s="9" t="str">
+      <c r="W41" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W41" s="9" t="str">
+      <c r="X41" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
-      <c r="AA41" s="5" t="str">
+      <c r="Z41" s="9"/>
+      <c r="AB41" s="5" t="str">
         <f>IF('Key Inputs'!A63="","",'Key Inputs'!A63)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB41" s="5" t="str">
+      <c r="AC41" s="5" t="str">
         <f>IF('Key Inputs'!B63="","",'Key Inputs'!B63)</f>
         <v>Water heating</v>
       </c>
-      <c r="AC41" s="5" t="str">
+      <c r="AD41" s="5" t="str">
         <f>IF('Key Inputs'!C63="","",'Key Inputs'!C63)</f>
         <v>Electricity</v>
       </c>
-      <c r="AD41" s="5" t="str">
+      <c r="AE41" s="5" t="str">
         <f>IF('Key Inputs'!D63="","",'Key Inputs'!D63)</f>
         <v>ELC</v>
       </c>
-      <c r="AE41" s="5" t="str">
+      <c r="AF41" s="5" t="str">
         <f>IF('Key Inputs'!E63="","",'Key Inputs'!E63)</f>
         <v>SRVELC</v>
       </c>
-      <c r="AF41" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA41,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG41" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB41,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG41" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB41,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH41" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC41,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>WH</v>
       </c>
-      <c r="AH41" s="16">
+      <c r="AI41" s="16">
         <f t="shared" si="9"/>
         <v>0.64686025774725409</v>
       </c>
-      <c r="AI41" s="16">
+      <c r="AJ41" s="16">
         <f t="shared" si="10"/>
         <v>0.50400336149043501</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:36">
       <c r="B42" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C42" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-WH-PU_SOL_X0</v>
+      </c>
+      <c r="D42" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-WH-PU_SOL_X0</v>
-      </c>
-      <c r="C42" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Water heating: Solar</v>
       </c>
-      <c r="D42" s="43" t="str">
+      <c r="E42" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVSOL</v>
       </c>
-      <c r="E42" s="43"/>
-      <c r="F42" s="9" t="str">
-        <f>IF($AD42="","",CONCATENATE(Legend!$C$4,AG42,"-",AF42))</f>
+      <c r="F42" s="43"/>
+      <c r="G42" s="9" t="str">
+        <f>IF($AE42="","",CONCATENATE(Legend!$C$4,AH42,"-",AG42))</f>
         <v>SRVWH-PU</v>
       </c>
-      <c r="G42" s="43">
-        <f>IF($AD42="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA42,'Key Inputs'!$B$29:$B$114,$AB42,'Key Inputs'!$C$29:$C$114,$AC42))</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="530">
-        <f>IF($AD42="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA42,'Key Inputs'!$B$29:$B$114,$AB42,'Key Inputs'!$C$29:$C$114,$AC42))</f>
+      <c r="H42" s="43">
+        <f>IF($AE42="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB42,'Key Inputs'!$B$29:$B$114,$AC42,'Key Inputs'!$C$29:$C$114,$AD42))</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="530">
+        <f>IF($AE42="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB42,'Key Inputs'!$B$29:$B$114,$AC42,'Key Inputs'!$C$29:$C$114,$AD42))</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="I42" s="530">
-        <f>IF($AD42="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA42,'Key Inputs'!$B$29:$B$114,$AB42,'Key Inputs'!$C$29:$C$114,$AC42)/8760)</f>
+      <c r="J42" s="530">
+        <f>IF($AE42="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB42,'Key Inputs'!$B$29:$B$114,$AC42,'Key Inputs'!$C$29:$C$114,$AD42)/8760)</f>
         <v>2.2831050228310501E-2</v>
       </c>
-      <c r="J42" s="532">
-        <f>IF($AD42="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA42,'Key Inputs'!$B$29:$B$114,$AB42,'Key Inputs'!$C$29:$C$114,$AC42))</f>
+      <c r="K42" s="532">
+        <f>IF($AE42="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB42,'Key Inputs'!$B$29:$B$114,$AC42,'Key Inputs'!$C$29:$C$114,$AD42))</f>
         <v>15</v>
       </c>
-      <c r="K42" s="51">
-        <f t="shared" si="3"/>
+      <c r="L42" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L42" s="51"/>
-      <c r="Q42" s="27" t="str">
+      <c r="M42" s="51"/>
+      <c r="R42" s="27" t="str">
         <f t="shared" si="12"/>
         <v>PRE</v>
       </c>
-      <c r="R42" s="36" t="str">
-        <f>IF($AD42="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S42" s="36" t="str">
+        <f>IF($AE42="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S42" s="9" t="str">
-        <f>IF($AD42="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG42,"-",$AF42,"_",$AD42,"_X0"))</f>
+      <c r="T42" s="9" t="str">
+        <f>IF($AE42="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH42,"-",$AG42,"_",$AE42,"_X0"))</f>
         <v>S-WH-PU_SOL_X0</v>
       </c>
-      <c r="T42" s="9" t="str">
+      <c r="U42" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Water heating: Solar</v>
       </c>
-      <c r="U42" s="9" t="str">
+      <c r="V42" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V42" s="9" t="str">
+      <c r="W42" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W42" s="9" t="str">
+      <c r="X42" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
-      <c r="AA42" s="5" t="str">
+      <c r="Z42" s="9"/>
+      <c r="AB42" s="5" t="str">
         <f>IF('Key Inputs'!A64="","",'Key Inputs'!A64)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB42" s="5" t="str">
+      <c r="AC42" s="5" t="str">
         <f>IF('Key Inputs'!B64="","",'Key Inputs'!B64)</f>
         <v>Water heating</v>
       </c>
-      <c r="AC42" s="5" t="str">
+      <c r="AD42" s="5" t="str">
         <f>IF('Key Inputs'!C64="","",'Key Inputs'!C64)</f>
         <v>Solar</v>
       </c>
-      <c r="AD42" s="5" t="str">
+      <c r="AE42" s="5" t="str">
         <f>IF('Key Inputs'!D64="","",'Key Inputs'!D64)</f>
         <v>SOL</v>
       </c>
-      <c r="AE42" s="5" t="str">
+      <c r="AF42" s="5" t="str">
         <f>IF('Key Inputs'!E64="","",'Key Inputs'!E64)</f>
         <v>SRVSOL</v>
       </c>
-      <c r="AF42" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA42,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG42" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB42,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG42" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB42,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH42" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC42,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>WH</v>
       </c>
-      <c r="AH42" s="16">
+      <c r="AI42" s="16">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AI42" s="16">
+      <c r="AJ42" s="16">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:35" s="6" customFormat="1" ht="30">
+    <row r="43" spans="1:36" s="6" customFormat="1">
       <c r="A43" s="15"/>
-      <c r="B43" s="443" t="str">
-        <f t="shared" si="0"/>
+      <c r="B43" s="15" t="str">
+        <f>IF($AE43="",R43,T43)</f>
         <v>*Public Services Space cooling</v>
       </c>
-      <c r="C43" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D43" s="539" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
       <c r="E43" s="539"/>
-      <c r="F43" s="15" t="str">
-        <f>IF($AD43="","",CONCATENATE(Legend!$C$4,AG43,"-",AF43))</f>
-        <v/>
-      </c>
-      <c r="G43" s="539" t="str">
-        <f>IF($AD43="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA43,'Key Inputs'!$B$29:$B$114,$AB43,'Key Inputs'!$C$29:$C$114,$AC43))</f>
-        <v/>
-      </c>
-      <c r="H43" s="540" t="str">
-        <f>IF($AD43="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA43,'Key Inputs'!$B$29:$B$114,$AB43,'Key Inputs'!$C$29:$C$114,$AC43))</f>
-        <v/>
-      </c>
-      <c r="I43" s="540" t="str">
-        <f>IF($AD43="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA43,'Key Inputs'!$B$29:$B$114,$AB43,'Key Inputs'!$C$29:$C$114,$AC43)/8760)</f>
-        <v/>
-      </c>
-      <c r="J43" s="541" t="str">
-        <f>IF($AD43="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA43,'Key Inputs'!$B$29:$B$114,$AB43,'Key Inputs'!$C$29:$C$114,$AC43))</f>
-        <v/>
-      </c>
-      <c r="K43" s="75" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="F43" s="539"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="539"/>
+      <c r="I43" s="540"/>
+      <c r="J43" s="540"/>
+      <c r="K43" s="541"/>
       <c r="L43" s="75"/>
-      <c r="M43" s="542"/>
+      <c r="M43" s="75"/>
       <c r="N43" s="542"/>
       <c r="O43" s="542"/>
       <c r="P43" s="542"/>
-      <c r="Q43" s="443" t="str">
+      <c r="Q43" s="542"/>
+      <c r="R43" s="15" t="str">
         <f t="shared" si="12"/>
         <v>*Public Services Space cooling</v>
       </c>
-      <c r="R43" s="36" t="str">
-        <f>IF($AD43="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
-        <v/>
-      </c>
-      <c r="S43" s="15" t="str">
-        <f>IF($AD43="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG43,"-",$AF43,"_",$AD43,"_X0"))</f>
-        <v/>
-      </c>
-      <c r="T43" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="U43" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="V43" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="W43" s="15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="Z43" s="542"/>
-      <c r="AH43" s="16"/>
-      <c r="AI43" s="439"/>
-    </row>
-    <row r="44" spans="1:35">
+      <c r="S43" s="36"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="15"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="15"/>
+      <c r="AA43" s="542"/>
+      <c r="AI43" s="16"/>
+      <c r="AJ43" s="439"/>
+    </row>
+    <row r="44" spans="1:36">
       <c r="B44" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C44" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SC-PU_GAS_X0</v>
+      </c>
+      <c r="D44" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>S-SC-PU_GAS_X0</v>
-      </c>
-      <c r="C44" s="9" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Space cooling: Natural Gas</v>
       </c>
-      <c r="D44" s="43" t="str">
+      <c r="E44" s="43" t="str">
         <f t="shared" si="8"/>
         <v>SRVGAS</v>
       </c>
-      <c r="E44" s="43"/>
-      <c r="F44" s="9" t="str">
-        <f>IF($AD44="","",CONCATENATE(Legend!$C$4,AG44,"-",AF44))</f>
+      <c r="F44" s="43"/>
+      <c r="G44" s="9" t="str">
+        <f>IF($AE44="","",CONCATENATE(Legend!$C$4,AH44,"-",AG44))</f>
         <v>SRVSC-PU</v>
       </c>
-      <c r="G44" s="43">
-        <f>IF($AD44="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA44,'Key Inputs'!$B$29:$B$114,$AB44,'Key Inputs'!$C$29:$C$114,$AC44))</f>
+      <c r="H44" s="43">
+        <f>IF($AE44="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB44,'Key Inputs'!$B$29:$B$114,$AC44,'Key Inputs'!$C$29:$C$114,$AD44))</f>
         <v>1.1532630173488554E-2</v>
       </c>
-      <c r="H44" s="72">
-        <f>IF($AD44="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA44,'Key Inputs'!$B$29:$B$114,$AB44,'Key Inputs'!$C$29:$C$114,$AC44))</f>
+      <c r="I44" s="72">
+        <f>IF($AE44="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB44,'Key Inputs'!$B$29:$B$114,$AC44,'Key Inputs'!$C$29:$C$114,$AD44))</f>
         <v>2.7679848891515557</v>
       </c>
-      <c r="I44" s="72">
-        <f>IF($AD44="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA44,'Key Inputs'!$B$29:$B$114,$AB44,'Key Inputs'!$C$29:$C$114,$AC44)/8760)</f>
+      <c r="J44" s="72">
+        <f>IF($AE44="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB44,'Key Inputs'!$B$29:$B$114,$AC44,'Key Inputs'!$C$29:$C$114,$AD44)/8760)</f>
         <v>3.4246575342465752E-2</v>
       </c>
-      <c r="J44" s="536">
-        <f>IF($AD44="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA44,'Key Inputs'!$B$29:$B$114,$AB44,'Key Inputs'!$C$29:$C$114,$AC44))</f>
+      <c r="K44" s="536">
+        <f>IF($AE44="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB44,'Key Inputs'!$B$29:$B$114,$AC44,'Key Inputs'!$C$29:$C$114,$AD44))</f>
         <v>15</v>
       </c>
-      <c r="K44" s="51">
-        <f t="shared" si="3"/>
+      <c r="L44" s="51">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L44" s="51"/>
-      <c r="Q44" s="27" t="str">
+      <c r="M44" s="51"/>
+      <c r="R44" s="27" t="str">
         <f t="shared" si="12"/>
         <v>PRE</v>
       </c>
-      <c r="R44" s="36" t="str">
-        <f>IF($AD44="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S44" s="36" t="str">
+        <f>IF($AE44="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S44" s="9" t="str">
-        <f>IF($AD44="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG44,"-",$AF44,"_",$AD44,"_X0"))</f>
+      <c r="T44" s="9" t="str">
+        <f>IF($AE44="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH44,"-",$AG44,"_",$AE44,"_X0"))</f>
         <v>S-SC-PU_GAS_X0</v>
       </c>
-      <c r="T44" s="9" t="str">
+      <c r="U44" s="9" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Space cooling: Natural Gas</v>
       </c>
-      <c r="U44" s="9" t="str">
+      <c r="V44" s="9" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V44" s="9" t="str">
+      <c r="W44" s="9" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W44" s="9" t="str">
+      <c r="X44" s="9" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="AA44" s="5" t="str">
+      <c r="AB44" s="5" t="str">
         <f>IF('Key Inputs'!A66="","",'Key Inputs'!A66)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB44" s="5" t="str">
+      <c r="AC44" s="5" t="str">
         <f>IF('Key Inputs'!B66="","",'Key Inputs'!B66)</f>
         <v>Space cooling</v>
       </c>
-      <c r="AC44" s="5" t="str">
+      <c r="AD44" s="5" t="str">
         <f>IF('Key Inputs'!C66="","",'Key Inputs'!C66)</f>
         <v>Natural Gas</v>
       </c>
-      <c r="AD44" s="5" t="str">
+      <c r="AE44" s="5" t="str">
         <f>IF('Key Inputs'!D66="","",'Key Inputs'!D66)</f>
         <v>GAS</v>
       </c>
-      <c r="AE44" s="5" t="str">
+      <c r="AF44" s="5" t="str">
         <f>IF('Key Inputs'!E66="","",'Key Inputs'!E66)</f>
         <v>SRVGAS</v>
       </c>
-      <c r="AF44" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA44,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG44" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB44,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG44" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB44,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH44" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC44,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SC</v>
       </c>
-      <c r="AH44" s="16">
+      <c r="AI44" s="16">
         <f t="shared" si="9"/>
         <v>4.4997502104086361E-3</v>
       </c>
-      <c r="AI44" s="16">
+      <c r="AJ44" s="16">
         <f t="shared" si="10"/>
         <v>1.2455240587367638E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:36">
       <c r="B45" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>IE,National</v>
+      </c>
+      <c r="C45" s="34" t="str">
+        <f t="shared" si="3"/>
+        <v>S-SC-PU_ELC_X0</v>
+      </c>
+      <c r="D45" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>S-SC-PU_ELC_X0</v>
-      </c>
-      <c r="C45" s="14" t="str">
-        <f t="shared" si="1"/>
         <v>Public Services - Space cooling: Electricity</v>
       </c>
-      <c r="D45" s="77" t="str">
+      <c r="E45" s="77" t="str">
         <f t="shared" si="8"/>
         <v>SRVELC</v>
       </c>
-      <c r="E45" s="77"/>
-      <c r="F45" s="14" t="str">
-        <f>IF($AD45="","",CONCATENATE(Legend!$C$4,AG45,"-",AF45))</f>
+      <c r="F45" s="77"/>
+      <c r="G45" s="14" t="str">
+        <f>IF($AE45="","",CONCATENATE(Legend!$C$4,AH45,"-",AG45))</f>
         <v>SRVSC-PU</v>
       </c>
-      <c r="G45" s="77">
-        <f>IF($AD45="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AA45,'Key Inputs'!$B$29:$B$114,$AB45,'Key Inputs'!$C$29:$C$114,$AC45))</f>
+      <c r="H45" s="77">
+        <f>IF($AE45="","",SUMIFS('Key Inputs'!$K$29:$K$114,'Key Inputs'!$A$29:$A$114,$AB45,'Key Inputs'!$B$29:$B$114,$AC45,'Key Inputs'!$C$29:$C$114,$AD45))</f>
         <v>1.4430376952972261</v>
       </c>
-      <c r="H45" s="537">
-        <f>IF($AD45="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AA45,'Key Inputs'!$B$29:$B$114,$AB45,'Key Inputs'!$C$29:$C$114,$AC45))</f>
+      <c r="I45" s="537">
+        <f>IF($AE45="","",SUMIFS('Key Inputs'!$G$29:$G$114,'Key Inputs'!$A$29:$A$114,$AB45,'Key Inputs'!$B$29:$B$114,$AC45,'Key Inputs'!$C$29:$C$114,$AD45))</f>
         <v>2.7466471585410193</v>
       </c>
-      <c r="I45" s="537">
-        <f>IF($AD45="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AA45,'Key Inputs'!$B$29:$B$114,$AB45,'Key Inputs'!$C$29:$C$114,$AC45)/8760)</f>
+      <c r="J45" s="537">
+        <f>IF($AE45="","",SUMIFS('Key Inputs'!$I$29:$I$114,'Key Inputs'!$A$29:$A$114,$AB45,'Key Inputs'!$B$29:$B$114,$AC45,'Key Inputs'!$C$29:$C$114,$AD45)/8760)</f>
         <v>3.4246575342465752E-2</v>
       </c>
-      <c r="J45" s="538">
-        <f>IF($AD45="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AA45,'Key Inputs'!$B$29:$B$114,$AB45,'Key Inputs'!$C$29:$C$114,$AC45))</f>
+      <c r="K45" s="538">
+        <f>IF($AE45="","",SUMIFS('Key Inputs'!$H$29:$H$114,'Key Inputs'!$A$29:$A$114,$AB45,'Key Inputs'!$B$29:$B$114,$AC45,'Key Inputs'!$C$29:$C$114,$AD45))</f>
         <v>15</v>
       </c>
-      <c r="K45" s="427">
-        <f t="shared" si="3"/>
+      <c r="L45" s="427">
+        <f t="shared" si="2"/>
         <v>31.536000000000001</v>
       </c>
-      <c r="L45" s="427"/>
-      <c r="M45" s="73"/>
+      <c r="M45" s="427"/>
       <c r="N45" s="73"/>
       <c r="O45" s="73"/>
-      <c r="Q45" s="34" t="str">
-        <f>IF($AD45="","*"&amp;#REF!&amp;" "&amp;#REF!,"PRE")</f>
+      <c r="P45" s="73"/>
+      <c r="R45" s="34" t="str">
+        <f>IF($AE45="","*"&amp;#REF!&amp;" "&amp;#REF!,"PRE")</f>
         <v>PRE</v>
       </c>
-      <c r="R45" s="46" t="str">
-        <f>IF($AD45="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
+      <c r="S45" s="46" t="str">
+        <f>IF($AE45="","",_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,"")))</f>
         <v>IE,National</v>
       </c>
-      <c r="S45" s="14" t="str">
-        <f>IF($AD45="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AG45,"-",$AF45,"_",$AD45,"_X0"))</f>
+      <c r="T45" s="14" t="str">
+        <f>IF($AE45="","",CONCATENATE(LEFT(Legend!$C$4),"-",$AH45,"-",$AG45,"_",$AE45,"_X0"))</f>
         <v>S-SC-PU_ELC_X0</v>
       </c>
-      <c r="T45" s="14" t="str">
+      <c r="U45" s="14" t="str">
         <f t="shared" si="4"/>
         <v>Public Services - Space cooling: Electricity</v>
       </c>
-      <c r="U45" s="14" t="str">
+      <c r="V45" s="14" t="str">
         <f t="shared" si="5"/>
         <v>PJ</v>
       </c>
-      <c r="V45" s="14" t="str">
+      <c r="W45" s="14" t="str">
         <f t="shared" si="6"/>
         <v>GW</v>
       </c>
-      <c r="W45" s="14" t="str">
+      <c r="X45" s="14" t="str">
         <f t="shared" si="7"/>
         <v>ANNUAL</v>
       </c>
-      <c r="X45" s="10"/>
       <c r="Y45" s="10"/>
-      <c r="AA45" s="5" t="str">
+      <c r="Z45" s="10"/>
+      <c r="AB45" s="5" t="str">
         <f>IF('Key Inputs'!A67="","",'Key Inputs'!A67)</f>
         <v>Public Services</v>
       </c>
-      <c r="AB45" s="5" t="str">
+      <c r="AC45" s="5" t="str">
         <f>IF('Key Inputs'!B67="","",'Key Inputs'!B67)</f>
         <v>Space cooling</v>
       </c>
-      <c r="AC45" s="5" t="str">
+      <c r="AD45" s="5" t="str">
         <f>IF('Key Inputs'!C67="","",'Key Inputs'!C67)</f>
         <v>Electricity</v>
       </c>
-      <c r="AD45" s="5" t="str">
+      <c r="AE45" s="5" t="str">
         <f>IF('Key Inputs'!D67="","",'Key Inputs'!D67)</f>
         <v>ELC</v>
       </c>
-      <c r="AE45" s="5" t="str">
+      <c r="AF45" s="5" t="str">
         <f>IF('Key Inputs'!E67="","",'Key Inputs'!E67)</f>
         <v>SRVELC</v>
       </c>
-      <c r="AF45" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AA45,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
+      <c r="AG45" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AB45,Legend!$A$21:$A$22,Legend!$C$21:$C$22)</f>
         <v>PU</v>
       </c>
-      <c r="AG45" s="5" t="str">
-        <f>_xlfn.XLOOKUP(AB45,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
+      <c r="AH45" s="5" t="str">
+        <f>_xlfn.XLOOKUP(AC45,Legend!$A$24:$A$34,Legend!$C$24:$C$34)</f>
         <v>SC</v>
       </c>
-      <c r="AH45" s="16">
+      <c r="AI45" s="16">
         <f t="shared" si="9"/>
         <v>0.56741205584952081</v>
       </c>
-      <c r="AI45" s="16">
+      <c r="AJ45" s="16">
         <f t="shared" si="10"/>
         <v>1.5584807109210044</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
-      <c r="Q46"/>
+    <row r="46" spans="1:36">
       <c r="R46"/>
       <c r="S46"/>
       <c r="T46"/>
-    </row>
-    <row r="47" spans="1:35">
-      <c r="F47" s="15" t="s">
+      <c r="U46"/>
+    </row>
+    <row r="47" spans="1:36">
+      <c r="G47" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="G47" s="75">
-        <f>SUM(G7:G45)</f>
+      <c r="H47" s="75">
+        <f>SUM(H7:H45)</f>
         <v>14.866686296136042</v>
       </c>
-      <c r="Q47"/>
       <c r="R47"/>
       <c r="S47"/>
       <c r="T47"/>
-      <c r="AH47" s="439">
-        <f>SUM(AH7:AH45)</f>
-        <v>29.141975719581037</v>
-      </c>
+      <c r="U47"/>
       <c r="AI47" s="439">
         <f>SUM(AI7:AI45)</f>
+        <v>29.141975719581037</v>
+      </c>
+      <c r="AJ47" s="439">
+        <f>SUM(AJ7:AJ45)</f>
         <v>25.778451673743685</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
-      <c r="Q48"/>
+    <row r="48" spans="1:36">
       <c r="R48"/>
       <c r="S48"/>
       <c r="T48"/>
-    </row>
-    <row r="49" spans="17:20">
-      <c r="Q49"/>
+      <c r="U48"/>
+    </row>
+    <row r="49" spans="18:21">
       <c r="R49"/>
       <c r="S49"/>
       <c r="T49"/>
-    </row>
-    <row r="50" spans="17:20">
-      <c r="Q50"/>
+      <c r="U49"/>
+    </row>
+    <row r="50" spans="18:21">
       <c r="R50"/>
       <c r="S50"/>
       <c r="T50"/>
-    </row>
-    <row r="51" spans="17:20">
-      <c r="Q51"/>
+      <c r="U50"/>
+    </row>
+    <row r="51" spans="18:21">
       <c r="R51"/>
       <c r="S51"/>
       <c r="T51"/>
-    </row>
-    <row r="52" spans="17:20">
-      <c r="Q52"/>
+      <c r="U51"/>
+    </row>
+    <row r="52" spans="18:21">
       <c r="R52"/>
       <c r="S52"/>
       <c r="T52"/>
-    </row>
-    <row r="53" spans="17:20">
-      <c r="Q53"/>
+      <c r="U52"/>
+    </row>
+    <row r="53" spans="18:21">
       <c r="R53"/>
       <c r="S53"/>
       <c r="T53"/>
-    </row>
-    <row r="54" spans="17:20">
-      <c r="Q54"/>
+      <c r="U53"/>
+    </row>
+    <row r="54" spans="18:21">
       <c r="R54"/>
       <c r="S54"/>
       <c r="T54"/>
-    </row>
-    <row r="55" spans="17:20">
-      <c r="Q55"/>
+      <c r="U54"/>
+    </row>
+    <row r="55" spans="18:21">
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55"/>
-    </row>
-    <row r="56" spans="17:20">
-      <c r="Q56"/>
+      <c r="U55"/>
+    </row>
+    <row r="56" spans="18:21">
       <c r="R56"/>
       <c r="S56"/>
       <c r="T56"/>
-    </row>
-    <row r="57" spans="17:20">
-      <c r="Q57"/>
+      <c r="U56"/>
+    </row>
+    <row r="57" spans="18:21">
       <c r="R57"/>
       <c r="S57"/>
       <c r="T57"/>
+      <c r="U57"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="AF3:AF4"/>
     <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AH3:AH4"/>
     <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="AC3:AC4"/>
     <mergeCell ref="AD3:AD4"/>
     <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AF3:AF4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
